--- a/RT_radpat_20deg.xlsx
+++ b/RT_radpat_20deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-44.59109881950859</v>
+        <v>-157.5388501757076</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-44.33847829335301</v>
+        <v>-157.5704518860067</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-44.06868591809298</v>
+        <v>-157.613632300806</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-43.78332557572161</v>
+        <v>-157.6695929281238</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-43.48431083447613</v>
+        <v>-157.7396565027235</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-43.17375208449674</v>
+        <v>-157.8252577057457</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-42.85390933687811</v>
+        <v>-157.9279848355052</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-42.52711800796701</v>
+        <v>-158.0495882723134</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-42.19570967792488</v>
+        <v>-158.1920220908565</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-41.86197734970243</v>
+        <v>-158.3574643201345</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-41.52813452206202</v>
+        <v>-158.5483831162858</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-41.19628846779636</v>
+        <v>-158.7675668306961</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-40.8684259907212</v>
+        <v>-159.0182251863158</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-40.54640852066563</v>
+        <v>-159.3040605988743</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-40.23197451323573</v>
+        <v>-159.6293933388463</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-39.92674674992939</v>
+        <v>-159.9993304192603</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-39.63224662176786</v>
+        <v>-160.4199514929204</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-39.34990057391591</v>
+        <v>-160.8986161402169</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-39.08106218254529</v>
+        <v>-161.4443244427042</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-38.82702924580885</v>
+        <v>-162.0682433474423</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-38.58905573326442</v>
+        <v>-162.7843967179775</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-38.368369781823</v>
+        <v>-163.6106351960011</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-38.16619249925457</v>
+        <v>-164.5697799808115</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-37.98375258643787</v>
+        <v>-165.690731720004</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-37.82230940617681</v>
+        <v>-167.0081260807193</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-37.6831617826787</v>
+        <v>-168.5547742805593</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-37.56767175902381</v>
+        <v>-170.3253248516633</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-37.4772791814565</v>
+        <v>-172.1411221644898</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-37.41353409609822</v>
+        <v>-173.3437787160701</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-37.37809944363762</v>
+        <v>-172.9898599773693</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-37.37279220136246</v>
+        <v>-171.2829326321903</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-37.39959924540525</v>
+        <v>-169.203989403483</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-37.46071325125979</v>
+        <v>-167.2540253167508</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-37.55856086164046</v>
+        <v>-165.5427994315755</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-37.69583369258604</v>
+        <v>-164.0596740623612</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-37.87552918030617</v>
+        <v>-162.7710929663501</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-38.10096921633616</v>
+        <v>-161.6452152136342</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-38.37581995786885</v>
+        <v>-160.6563694370866</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-38.70407228158492</v>
+        <v>-159.7848182071813</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-39.08996009629131</v>
+        <v>-159.0155338803118</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-39.53775563960543</v>
+        <v>-158.3371266264174</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-40.05130224471831</v>
+        <v>-157.7409800675556</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-40.63308506598062</v>
+        <v>-157.2206180899613</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-41.28241697849786</v>
+        <v>-156.7712589126905</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-41.99202573462408</v>
+        <v>-156.3894970117224</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-42.7420368955985</v>
+        <v>-156.0730839399301</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-43.49054660418283</v>
+        <v>-155.8207821450476</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-44.16254152013354</v>
+        <v>-155.6322689665184</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-44.64705946823559</v>
+        <v>-155.5081149849924</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-44.82291023887205</v>
+        <v>-155.4497961870051</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-44.61972092759989</v>
+        <v>-155.4597389131118</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-44.06705216499534</v>
+        <v>-155.541455946791</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-43.27360240730981</v>
+        <v>-155.6997347967941</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-42.36249130822048</v>
+        <v>-155.9409221622689</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-41.42779103998777</v>
+        <v>-156.2733749158867</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-40.52716207182668</v>
+        <v>-156.7080830372922</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-39.69119425498621</v>
+        <v>-157.25968495125</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-38.93413942537482</v>
+        <v>-157.9479936174061</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-38.26149069264635</v>
+        <v>-158.8004999366234</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-37.67442937180061</v>
+        <v>-159.8565747974012</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-37.17232016024794</v>
+        <v>-161.1748491392629</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-36.75400104683165</v>
+        <v>-162.8466538629021</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-36.41848269206741</v>
+        <v>-165.0199194533687</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-36.1653091878874</v>
+        <v>-167.9234950428759</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-35.9947570298038</v>
+        <v>-171.6308175447945</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-35.90795480872833</v>
+        <v>-173.5138693757817</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-35.90699219563169</v>
+        <v>-170.2953490196964</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-35.9949826563318</v>
+        <v>-166.6447324524368</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-36.17615473488583</v>
+        <v>-163.8601956520436</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-36.45587379370058</v>
+        <v>-161.7364525672893</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-36.84059037475619</v>
+        <v>-160.0717352853588</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-37.33749891139746</v>
+        <v>-158.7415876712729</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-37.95356554274392</v>
+        <v>-157.669809018364</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-38.69311059160902</v>
+        <v>-156.8082369940039</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-39.55205660908609</v>
+        <v>-156.1256935165932</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-40.50538487995897</v>
+        <v>-155.6019251332737</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-41.48267272608238</v>
+        <v>-155.2242033275911</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-42.33362727648465</v>
+        <v>-154.9854496866951</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-42.82289175945456</v>
+        <v>-154.8832212623216</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-42.74143746533364</v>
+        <v>-154.9193360409787</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-42.09267196489112</v>
+        <v>-155.1000535147098</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-41.09022728423513</v>
+        <v>-155.436802597095</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-39.97110043676198</v>
+        <v>-155.947730388055</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-38.88671718016069</v>
+        <v>-156.6605540357094</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-37.90931138950921</v>
+        <v>-157.6177668813912</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-37.06647553627793</v>
+        <v>-158.8867299087953</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-36.36543296611418</v>
+        <v>-160.5806054358167</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-35.80553891067944</v>
+        <v>-162.9068560017317</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-35.38402510208743</v>
+        <v>-166.291046925682</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-35.09853185178487</v>
+        <v>-171.5676361422382</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-34.9482120134992</v>
+        <v>-174.5209013950885</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-34.93422304207956</v>
+        <v>-168.5054452739074</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-35.05996245979167</v>
+        <v>-164.1423569111444</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-35.33115933345451</v>
+        <v>-161.2240651999035</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-35.75570546338734</v>
+        <v>-159.1242346672783</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-36.34286527811653</v>
+        <v>-157.5517904740717</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-37.10081011294131</v>
+        <v>-156.3587107473536</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-38.02981122357031</v>
+        <v>-155.462765278878</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-39.10500151980623</v>
+        <v>-154.8160878873747</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-40.23752614752011</v>
+        <v>-154.39107487259</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-41.21179650370764</v>
+        <v>-154.1736876941264</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-41.67762108062789</v>
+        <v>-154.1603549458762</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-41.38061497561614</v>
+        <v>-154.3571398796681</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-40.45276476868396</v>
+        <v>-154.7807029914729</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-39.25408631227702</v>
+        <v>-155.4614999581281</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-38.06103608892427</v>
+        <v>-156.4505757750891</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-37.00515300744187</v>
+        <v>-157.8334072750878</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-36.13291191120604</v>
+        <v>-159.7589503260696</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-35.45511032841624</v>
+        <v>-162.4999729930976</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-34.97077275998468</v>
+        <v>-166.4916722760238</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-34.67707245852068</v>
+        <v>-170.3797197186091</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-34.57326540148245</v>
+        <v>-167.1279976867899</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-34.6623421102052</v>
+        <v>-162.7083130632571</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-34.95177925390255</v>
+        <v>-159.5962816123557</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-35.45378038741858</v>
+        <v>-157.3732553773588</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-36.1844489772467</v>
+        <v>-155.7396891463906</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-37.15946518244451</v>
+        <v>-154.5343521928666</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-38.3786901252175</v>
+        <v>-153.66768626626</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-39.77829881252087</v>
+        <v>-153.0889858602685</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-41.11234772108084</v>
+        <v>-152.7711349761047</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-41.83047969868282</v>
+        <v>-152.7035368465728</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-41.43460002936053</v>
+        <v>-152.8894559486969</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-40.17635662201243</v>
+        <v>-153.3464316468691</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-38.67735943689965</v>
+        <v>-154.109806863167</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-37.30374794780024</v>
+        <v>-155.2408050273567</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-36.17657940304041</v>
+        <v>-156.8420819315095</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-35.31749694632298</v>
+        <v>-159.08207499916</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-34.72027666015543</v>
+        <v>-162.1738031065354</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-34.37574346562144</v>
+        <v>-165.5876918562301</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-34.27970651462532</v>
+        <v>-165.1663617222443</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-34.43568571403183</v>
+        <v>-161.5256951054775</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-34.85634490508891</v>
+        <v>-158.4250779232017</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-35.56473435789094</v>
+        <v>-156.1643033842884</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-36.59440127114685</v>
+        <v>-154.5304073787653</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-37.98241259485498</v>
+        <v>-153.3697621164994</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-39.72949733204783</v>
+        <v>-152.5924777701788</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-41.63357786132304</v>
+        <v>-152.1492878874987</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-42.88389375470658</v>
+        <v>-152.0181146083929</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-42.39730752288159</v>
+        <v>-152.1983502488891</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-40.65062097440816</v>
+        <v>-152.7106403314624</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-38.77558653800875</v>
+        <v>-153.6023797271532</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-37.22164643322186</v>
+        <v>-154.9617971088779</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-36.05832001427425</v>
+        <v>-156.9480935467768</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-35.2651673647588</v>
+        <v>-159.841523208259</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-34.81543795198056</v>
+        <v>-163.8809499673245</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-34.69448218621758</v>
+        <v>-166.0138254658394</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-34.90349811515953</v>
+        <v>-162.188057951746</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-35.46121783259097</v>
+        <v>-158.4429104929105</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-36.40603997143977</v>
+        <v>-155.831441640545</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-37.79522169964055</v>
+        <v>-154.0234730863905</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-39.6772663834129</v>
+        <v>-152.794352652979</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-41.91294379690476</v>
+        <v>-152.0233120487645</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-43.50264815504678</v>
+        <v>-151.6496939891171</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-42.75903534593407</v>
+        <v>-151.6515412420674</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-40.51844199173673</v>
+        <v>-152.0384104526791</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-38.35384285876113</v>
+        <v>-152.8545200261768</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-36.67993294702255</v>
+        <v>-154.1947437818508</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-35.49688533806895</v>
+        <v>-156.2456625632405</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-34.75152359553538</v>
+        <v>-159.3793412289216</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-34.40602308492959</v>
+        <v>-164.1212543678495</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-34.44645032877063</v>
+        <v>-166.2029388351091</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-34.88304043566457</v>
+        <v>-161.1607029650793</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-35.75095347031012</v>
+        <v>-157.2334899681341</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-37.10803240916781</v>
+        <v>-154.6570328243697</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-38.99945224575787</v>
+        <v>-152.9434400226649</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-41.22825994742156</v>
+        <v>-151.8450883095376</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-42.55495707849128</v>
+        <v>-151.2420614259642</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-41.35965986841285</v>
+        <v>-151.0828156474209</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-38.952265881631</v>
+        <v>-151.3620278568027</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-36.79229192334662</v>
+        <v>-152.1178973165582</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-35.17120075067771</v>
+        <v>-153.4464402680471</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-34.05947159599746</v>
+        <v>-155.5420617320423</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-33.40076917139033</v>
+        <v>-158.7715558164458</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-33.16061027780324</v>
+        <v>-163.268284809628</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-33.33078766147346</v>
+        <v>-163.4470343654785</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-33.92886442644551</v>
+        <v>-158.766756962947</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-34.99701156281191</v>
+        <v>-155.2783670983702</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-36.58734138698253</v>
+        <v>-152.9610165859326</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-38.65933418091496</v>
+        <v>-151.4397410497664</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-40.59842335050175</v>
+        <v>-150.516369974126</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-40.66774738678862</v>
+        <v>-150.0964329837663</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-38.69716862756695</v>
+        <v>-150.147330403085</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-36.45768595058158</v>
+        <v>-150.6845615596727</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-34.68580769034826</v>
+        <v>-151.7765526749398</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-33.45470654325743</v>
+        <v>-153.5693964784424</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-32.7203524690316</v>
+        <v>-156.3281349768644</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-32.4462248510258</v>
+        <v>-160.2150812752607</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-32.62277236189894</v>
+        <v>-161.9773243422076</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-33.26999190577715</v>
+        <v>-158.2041988379563</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-34.43681938522712</v>
+        <v>-154.6341801478505</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-36.18063344227172</v>
+        <v>-152.2087833371189</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-38.41424843817516</v>
+        <v>-150.6290433567361</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-40.21391066885293</v>
+        <v>-149.6929730244449</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-39.628060822326</v>
+        <v>-149.3019279109546</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-37.34156832622843</v>
+        <v>-149.4250864796497</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-35.15970615096263</v>
+        <v>-150.0876488900849</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-33.55681458184213</v>
+        <v>-151.3809523896646</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-32.53194570431153</v>
+        <v>-153.500138898337</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-32.03393749303009</v>
+        <v>-156.7934984996436</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-32.0373775498854</v>
+        <v>-161.0224337952441</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-32.55329639393287</v>
+        <v>-160.253661241299</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-33.63257825224075</v>
+        <v>-155.9033847133378</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-35.36090016633979</v>
+        <v>-152.7618396589856</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-37.76065158802864</v>
+        <v>-150.7352895785637</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-40.10980409865555</v>
+        <v>-149.5100499044931</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-39.90129771527099</v>
+        <v>-148.9256803980174</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-37.37923461383409</v>
+        <v>-148.9217426477078</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-34.96475524242178</v>
+        <v>-149.5115806228649</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-33.24738340173563</v>
+        <v>-150.789408695457</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-32.19380595526249</v>
+        <v>-152.9788876137658</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-31.73210117704519</v>
+        <v>-156.5351002911035</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-31.83291943738459</v>
+        <v>-161.367424098499</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-32.51727331784701</v>
+        <v>-159.738190103042</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-33.86110016809461</v>
+        <v>-154.9278749276655</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-35.98304434091946</v>
+        <v>-151.764028500902</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-38.80226882848202</v>
+        <v>-149.7978350901681</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-40.5371201754282</v>
+        <v>-148.6691021164611</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-38.57735687526085</v>
+        <v>-148.2164459751918</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-35.65701626655314</v>
+        <v>-148.391533143661</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-33.46031757721804</v>
+        <v>-149.2328976919763</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-32.05272582254858</v>
+        <v>-150.8848831362336</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-31.32375670270166</v>
+        <v>-153.6698241900196</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-31.2112804016784</v>
+        <v>-158.0361542277865</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-31.71546913425228</v>
+        <v>-160.3453893484378</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-32.90192543505764</v>
+        <v>-155.6861589812069</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-34.90603518295271</v>
+        <v>-151.8568694180383</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-37.80986067184401</v>
+        <v>-149.448717377647</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-40.35931442394671</v>
+        <v>-148.013796545722</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-38.88622214422445</v>
+        <v>-147.3259963567792</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-35.70895103649318</v>
+        <v>-147.3003626454826</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-33.29897341482873</v>
+        <v>-147.9477594947106</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-31.78185613661959</v>
+        <v>-149.3784428300145</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-31.0183890532008</v>
+        <v>-151.8500716990887</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-30.93392649545877</v>
+        <v>-155.7361126568921</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-31.53398290477256</v>
+        <v>-158.8099100569883</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-32.91161522527531</v>
+        <v>-155.1083999734182</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-35.26656028790492</v>
+        <v>-151.1905502125868</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-38.71899561551625</v>
+        <v>-148.6726925822384</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-40.87993391706092</v>
+        <v>-147.1751200516718</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-37.88043385830812</v>
+        <v>-146.4646591573446</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-34.4889584254245</v>
+        <v>-146.4527704626738</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-32.23529906685943</v>
+        <v>-147.155395375297</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-30.93343258745386</v>
+        <v>-148.7025718534584</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-30.41564963483126</v>
+        <v>-151.4073227382222</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-30.62684959398104</v>
+        <v>-155.7474502805419</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-31.61468407118398</v>
+        <v>-158.3709739661682</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-33.5499714521305</v>
+        <v>-153.7540781836036</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-36.7356717541696</v>
+        <v>-149.9170462000119</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-40.51690927198145</v>
+        <v>-147.5706937685411</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-39.03209090381795</v>
+        <v>-146.2574767793371</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-34.97845832799072</v>
+        <v>-145.7573119924749</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-32.170818387156</v>
+        <v>-146.008051275342</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-30.49424276582742</v>
+        <v>-147.0709711124368</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-29.69488211113852</v>
+        <v>-149.1689850048611</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-29.66619241492623</v>
+        <v>-152.8075195980088</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-30.41971540845644</v>
+        <v>-157.8061842233244</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-32.08922975091257</v>
+        <v>-155.312418301711</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-34.95607109964085</v>
+        <v>-150.4689120736974</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-38.89190844227668</v>
+        <v>-147.4748576977165</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-38.91944673406913</v>
+        <v>-145.7452629933194</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-34.82506270053549</v>
+        <v>-144.9362146071605</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-31.75899067128645</v>
+        <v>-144.9243180416163</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-29.91219648615682</v>
+        <v>-145.7284202003574</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-29.00723777599057</v>
+        <v>-147.5196559603709</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-28.91790837894898</v>
+        <v>-150.7139811550834</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-29.65093704926814</v>
+        <v>-155.5542958430914</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-31.35498217087973</v>
+        <v>-154.9691472551097</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-34.38593571943452</v>
+        <v>-149.9594409946042</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-38.88435145146611</v>
+        <v>-146.68800285905</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-38.88423531914461</v>
+        <v>-144.7742868266616</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-34.24272416391929</v>
+        <v>-143.8346935498256</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-31.05910614301624</v>
+        <v>-143.7214173464514</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-29.22809717599089</v>
+        <v>-144.4382724283069</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-28.40273014072699</v>
+        <v>-146.1420905274838</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-28.45352896774107</v>
+        <v>-149.2265091601257</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-29.41611930827708</v>
+        <v>-153.9767244166518</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-31.52244602886378</v>
+        <v>-153.8349373396109</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-35.35646525895002</v>
+        <v>-148.8520260636071</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-40.66089997578278</v>
+        <v>-145.5455571709041</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-37.18522466135519</v>
+        <v>-143.6282487417482</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-32.3318925559154</v>
+        <v>-142.7149756916372</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-29.50902388875549</v>
+        <v>-142.6612852243797</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-28.00748798165707</v>
+        <v>-143.485329736775</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-27.50269103992818</v>
+        <v>-145.3811913988091</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-27.91860970199482</v>
+        <v>-148.8321629744781</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-29.37135486672995</v>
+        <v>-153.8654252836106</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-32.26304832160942</v>
+        <v>-151.8162110823868</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-37.42846800622162</v>
+        <v>-146.8563334141636</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-39.24295858777268</v>
+        <v>-143.8170776922198</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-33.27924399461236</v>
+        <v>-142.1202346813297</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-29.51906596544002</v>
+        <v>-141.4172401253589</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-27.43375035464975</v>
+        <v>-141.6026588203252</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-26.48600833773948</v>
+        <v>-142.7451637411628</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-26.4971138140051</v>
+        <v>-145.1356359415459</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-27.50375231711526</v>
+        <v>-149.4084670234013</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-29.79639727917404</v>
+        <v>-153.2097450651959</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-34.22657152511121</v>
+        <v>-148.1905505653872</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-40.7382805753604</v>
+        <v>-143.9576853072364</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-34.75142521092614</v>
+        <v>-141.4945427616764</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-29.7498323131499</v>
+        <v>-140.2212857868747</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-27.06473982457164</v>
+        <v>-139.9002990108755</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-25.75243684505292</v>
+        <v>-140.5058998145767</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-25.50118764153365</v>
+        <v>-142.206220024366</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-26.2941147327298</v>
+        <v>-145.4776209619241</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-28.39997996973925</v>
+        <v>-150.6744888454554</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-32.76398066719196</v>
+        <v>-149.1945399071253</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-42.4475918189476</v>
+        <v>-143.9105447496131</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-35.04382309714163</v>
+        <v>-140.6965616768322</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-29.00652589065618</v>
+        <v>-138.9134365937118</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-25.99590755690343</v>
+        <v>-138.1799744717543</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-24.52589854507826</v>
+        <v>-138.3899762767589</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-24.19180634227864</v>
+        <v>-139.6366632649668</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-24.96091897442095</v>
+        <v>-142.2858251539608</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-27.13089382176677</v>
+        <v>-147.0969544979793</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-31.82014851729842</v>
+        <v>-149.2778664100405</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-42.74579646097148</v>
+        <v>-143.4038917419779</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-32.46330374050601</v>
+        <v>-139.4788098842675</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-26.69651052353909</v>
+        <v>-137.2509107805397</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-23.79284333375591</v>
+        <v>-136.1843384382763</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-22.38304697454038</v>
+        <v>-136.1004071773793</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-22.10572185355935</v>
+        <v>-137.0443027565108</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-22.9604729916837</v>
+        <v>-139.3256633267338</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-25.30889748553912</v>
+        <v>-143.7414911349123</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-30.55113881356928</v>
+        <v>-147.909240889455</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-42.37803219548051</v>
+        <v>-141.8934830768351</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-29.18735356855926</v>
+        <v>-137.3886687908611</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-23.82964132927362</v>
+        <v>-134.8103225132643</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-21.12698780423676</v>
+        <v>-133.4834632369364</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-19.88680468987707</v>
+        <v>-133.1756379130411</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-19.82623046360246</v>
+        <v>-133.9076116355923</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-21.0502918873595</v>
+        <v>-135.9772414354082</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-24.23113381672145</v>
+        <v>-140.2393902475145</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-32.8793180712135</v>
+        <v>-145.2083332570974</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-32.52714936909379</v>
+        <v>-138.6993236309569</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-22.83872169296465</v>
+        <v>-133.7519410564335</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-18.69113415680043</v>
+        <v>-130.8769058622059</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-16.52420845819013</v>
+        <v>-129.2907672471606</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-15.67683010073989</v>
+        <v>-128.7349078902823</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-16.08012317258139</v>
+        <v>-129.2305087887254</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-18.08371134632977</v>
+        <v>-131.1099760217829</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-22.40331565839233</v>
+        <v>-135.3780325568489</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-21.65360234964001</v>
+        <v>-139.3934576178647</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-14.74864400555309</v>
+        <v>-131.5013158980624</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-10.03514782635553</v>
+        <v>-126.0647952778061</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-6.762240644191738</v>
+        <v>-122.5012234593926</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-4.387281980381574</v>
+        <v>-119.983273562157</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-2.653936855473601</v>
+        <v>-118.1646380710235</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-1.429523053607499</v>
+        <v>-116.8769792604689</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.6418411617388428</v>
+        <v>-116.0304487019436</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.253438842063395</v>
+        <v>-115.5765246966853</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.2508284124385698</v>
+        <v>-115.4925551745482</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.6411427823434798</v>
+        <v>-115.7756057743269</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-1.454255928526908</v>
+        <v>-116.4416471668461</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-2.751797490973974</v>
+        <v>-117.5296018171653</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-4.649740787345612</v>
+        <v>-119.1127311539821</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-7.376589960163211</v>
+        <v>-121.3257216090836</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-11.4519965203364</v>
+        <v>-124.4339324246798</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-18.39179594424675</v>
+        <v>-129.0390813410104</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-24.53431658643393</v>
+        <v>-136.5096901015945</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-16.72655612625456</v>
+        <v>-137.5994033660795</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-13.21950483954605</v>
+        <v>-132.0849600692646</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-11.76695293467185</v>
+        <v>-129.5357685498201</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-11.55826178087958</v>
+        <v>-128.6528881768069</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-12.3669694276363</v>
+        <v>-128.9326040228199</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-14.23012496744288</v>
+        <v>-130.2816309533608</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-17.42498821610044</v>
+        <v>-132.9028344217013</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-22.2438473211064</v>
+        <v>-137.5004062590231</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-24.09692218829592</v>
+        <v>-144.5878123657824</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-20.12088655162226</v>
+        <v>-140.6691456765078</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-17.3513069229864</v>
+        <v>-135.9897829685511</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-16.08228409947453</v>
+        <v>-133.7540447863484</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-15.96703158891438</v>
+        <v>-132.9804771134516</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-16.90241000192382</v>
+        <v>-133.3370722662839</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-18.99735380261474</v>
+        <v>-134.8184206293812</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-22.54687937145925</v>
+        <v>-137.7338122879068</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-26.68692189164487</v>
+        <v>-142.9575073107188</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-25.0533656410358</v>
+        <v>-147.5838401410327</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-21.47316530630212</v>
+        <v>-141.778088732948</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-19.38266109293055</v>
+        <v>-138.0164017007177</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-18.57726295649763</v>
+        <v>-136.2302742972505</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-18.8520485813479</v>
+        <v>-135.7495176288318</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-20.20090163200048</v>
+        <v>-136.3772236974526</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-22.78419590574764</v>
+        <v>-138.2035213038323</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-26.50565296731881</v>
+        <v>-141.683830710323</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-27.68459883178691</v>
+        <v>-147.644213948745</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-24.46030806506467</v>
+        <v>-147.6780802106028</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-21.80614819243255</v>
+        <v>-142.2496313346437</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-20.43792870588173</v>
+        <v>-139.3020915816942</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-20.16145143466488</v>
+        <v>-137.9896159774541</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-20.89501093429464</v>
+        <v>-137.8730183049518</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-22.69843323170072</v>
+        <v>-138.8712478735197</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-25.63579366111773</v>
+        <v>-141.1865428049742</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-28.42520945765666</v>
+        <v>-145.4588615231246</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-27.11862813304541</v>
+        <v>-151.1104624885272</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-24.24600477871665</v>
+        <v>-146.9519312836315</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-22.37140283172184</v>
+        <v>-142.5663467012205</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-21.60706467643972</v>
+        <v>-140.3236996742436</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-21.85276823681614</v>
+        <v>-139.4855266685836</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-23.12231636835639</v>
+        <v>-139.7855525445987</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-25.5398889787963</v>
+        <v>-141.2558839478778</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-28.89666835451395</v>
+        <v>-144.2549018044494</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-30.00526474445972</v>
+        <v>-149.6008286637518</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-27.22479270391706</v>
+        <v>-151.8499249539106</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-24.75090447406345</v>
+        <v>-146.2131687528574</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-23.46987211181546</v>
+        <v>-142.8358050177614</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-23.27621675645145</v>
+        <v>-141.2295821657732</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-24.12725503177258</v>
+        <v>-140.8773191316627</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-26.11758243135768</v>
+        <v>-141.6535830793368</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-29.28531661942358</v>
+        <v>-143.7181426465517</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-31.63298903736344</v>
+        <v>-147.6391335329219</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-29.40122811461002</v>
+        <v>-153.3966574427091</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-26.50882048485878</v>
+        <v>-150.1983194668042</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-24.80331582852865</v>
+        <v>-145.5147781603278</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-24.22830473798884</v>
+        <v>-143.0467475076496</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-24.68775084446142</v>
+        <v>-142.0350969494616</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-26.2113452224941</v>
+        <v>-142.1768731771024</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-28.84063231886068</v>
+        <v>-143.4745473667615</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-31.52387429583753</v>
+        <v>-146.2344077897541</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-30.58944108750636</v>
+        <v>-151.1665788560875</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-27.74717249959534</v>
+        <v>-154.1265714326176</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-25.75235186672587</v>
+        <v>-148.7755709156349</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-24.85064519464737</v>
+        <v>-145.2350827258386</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-24.95302597408529</v>
+        <v>-143.491403362041</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-26.04883136601067</v>
+        <v>-143.0184628341611</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-28.17268806953036</v>
+        <v>-143.6722038680747</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-30.85265154336746</v>
+        <v>-145.5895041161973</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-31.34501227765311</v>
+        <v>-149.3060326714836</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-28.93280369438943</v>
+        <v>-155.2567662360661</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-26.68992686643803</v>
+        <v>-152.9716457361147</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-25.44194248673089</v>
+        <v>-147.9674758167288</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-25.16618098702169</v>
+        <v>-145.3134801624812</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-25.82011644432653</v>
+        <v>-144.1881929959681</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-27.40638226064194</v>
+        <v>-144.2500317419201</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-29.72595271240011</v>
+        <v>-145.4894514396876</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-31.27428442376588</v>
+        <v>-148.2214748538953</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-29.99471842111586</v>
+        <v>-153.2658889160808</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-27.78003783275905</v>
+        <v>-156.574681054984</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-26.25385134205455</v>
+        <v>-150.7961714595589</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-25.64521371415774</v>
+        <v>-147.1060273773366</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-25.94011092395321</v>
+        <v>-145.2843494099347</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-27.15377912751756</v>
+        <v>-144.7504002166189</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-29.2825127245366</v>
+        <v>-145.3437664138833</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-31.71098518988445</v>
+        <v>-147.1851550465151</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-31.98202221590786</v>
+        <v>-150.7555160106435</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-29.87849302843928</v>
+        <v>-156.2213794656919</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-27.94707958122437</v>
+        <v>-154.1835223805221</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-26.93611132420823</v>
+        <v>-149.3662198079277</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-26.88004422283569</v>
+        <v>-146.7001336261251</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-27.79113128938113</v>
+        <v>-145.5146266195213</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-29.75058546201346</v>
+        <v>-145.4821534302433</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-32.65425853710833</v>
+        <v>-146.575779235756</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-34.47429066243425</v>
+        <v>-149.052863125212</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-32.52327640216214</v>
+        <v>-153.6125574375854</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-29.99830950169744</v>
+        <v>-158.1264337794898</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-28.49970859887626</v>
+        <v>-153.0303145471628</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-28.07079234034189</v>
+        <v>-149.0444176132476</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-28.66269700354443</v>
+        <v>-147.0220302274449</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-30.30707393890852</v>
+        <v>-146.3370417689391</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-32.887375382705</v>
+        <v>-146.7927099667745</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-34.65634260300751</v>
+        <v>-148.4860701326435</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-32.88550718857363</v>
+        <v>-151.9034364271675</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-30.24989038598138</v>
+        <v>-157.9035126968239</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-28.51765646970958</v>
+        <v>-157.129551771999</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-27.78853842586132</v>
+        <v>-151.560581252426</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-27.98564321501006</v>
+        <v>-148.5498673845505</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-29.0686481557213</v>
+        <v>-147.1643118439521</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-30.89286013249049</v>
+        <v>-146.9785263295268</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-32.52912840504603</v>
+        <v>-147.9252169616876</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-32.02534773250494</v>
+        <v>-150.2268377766449</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-29.97732611216192</v>
+        <v>-154.5334166004226</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-28.1938885754941</v>
+        <v>-159.3618851404995</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-27.18448291960842</v>
+        <v>-154.6087366427916</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-26.97712592595038</v>
+        <v>-150.3978303511498</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-27.54535890433197</v>
+        <v>-148.1793248141099</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-28.83909117523857</v>
+        <v>-147.2959402663684</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-30.57405246497687</v>
+        <v>-147.5100408070012</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-31.67960390480692</v>
+        <v>-148.8528685817909</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-30.96646881802475</v>
+        <v>-151.6473705520762</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-29.35443166179923</v>
+        <v>-156.593318547679</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-28.06931114944654</v>
+        <v>-159.2447639733623</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-27.4841432153802</v>
+        <v>-153.8872004597451</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-27.66144691871127</v>
+        <v>-150.3626775234448</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-28.62042603610123</v>
+        <v>-148.5936945730239</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-30.33889228814236</v>
+        <v>-148.0681793141175</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-32.43366777100386</v>
+        <v>-148.6427902020783</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-33.38405561268213</v>
+        <v>-150.4472189295798</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-32.16908740047766</v>
+        <v>-154.0223346793693</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-30.44275168590223</v>
+        <v>-160.4258002711933</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-29.32752380989303</v>
+        <v>-159.1880295384618</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-29.04311550561086</v>
+        <v>-153.4612051824265</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-29.62945352567919</v>
+        <v>-150.4587006581236</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-31.15085213871631</v>
+        <v>-149.0842081278271</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-33.63421967346787</v>
+        <v>-148.9026601619339</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-36.24306739285309</v>
+        <v>-149.84927317387</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-35.96713537901838</v>
+        <v>-152.1613603454666</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-33.55434696987259</v>
+        <v>-156.5961695894766</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-31.69217147013856</v>
+        <v>-162.3091506485765</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-30.85889914805515</v>
+        <v>-156.9516838841377</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-31.03513574054808</v>
+        <v>-152.4186299347739</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-32.2442199578517</v>
+        <v>-150.0521160502247</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-34.53972152017144</v>
+        <v>-149.0475324331713</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-37.22341307157429</v>
+        <v>-149.126457595674</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-36.89000622734174</v>
+        <v>-150.2893812403306</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-33.98146239477283</v>
+        <v>-152.8098475460424</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-31.64372130382224</v>
+        <v>-157.3995315013736</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-30.34511207788794</v>
+        <v>-161.8146447681586</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-29.98324575774243</v>
+        <v>-156.6128876055986</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-30.47882982910259</v>
+        <v>-152.5739854881386</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-31.76139086428581</v>
+        <v>-150.4565607319608</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-33.48222088642897</v>
+        <v>-149.6258429246034</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-34.30885852686794</v>
+        <v>-149.8631611816458</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-33.05103429259351</v>
+        <v>-151.2138397910296</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-31.05118035298711</v>
+        <v>-154.0457912415581</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-29.50425040316295</v>
+        <v>-159.4772611694987</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-28.66523597298231</v>
+        <v>-164.4482202047269</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-28.52836937636152</v>
+        <v>-157.313433340607</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-29.04745307521155</v>
+        <v>-153.2185506112577</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-30.11510459734246</v>
+        <v>-151.1928790114927</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-31.37046935614768</v>
+        <v>-150.4793992992538</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-31.9578777032563</v>
+        <v>-150.8675735559854</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-31.25853355260855</v>
+        <v>-152.4469488995096</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-29.92394829963132</v>
+        <v>-155.7130251519846</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-28.77860960706704</v>
+        <v>-162.1159151708565</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-28.14748438051562</v>
+        <v>-163.1649473674599</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-28.10422714354477</v>
+        <v>-156.2515135774245</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-28.64857471001232</v>
+        <v>-152.6585112387312</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-29.72574812644988</v>
+        <v>-150.8347301099243</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-31.11298972306382</v>
+        <v>-150.1817051364608</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-32.18640086175581</v>
+        <v>-150.5244651272813</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-32.17184974895335</v>
+        <v>-151.9166064306688</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-31.265619227848</v>
+        <v>-154.6639823283298</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-30.31111053355308</v>
+        <v>-159.3287239061496</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-29.80390825816202</v>
+        <v>-161.8444197162596</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-29.92116708117179</v>
+        <v>-156.896018066707</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-30.7502164835889</v>
+        <v>-153.3286851728074</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-32.38569590983368</v>
+        <v>-151.3972407009573</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-34.89261607497854</v>
+        <v>-150.6211725194412</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-37.72785323990603</v>
+        <v>-150.824099053053</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-38.28857847204409</v>
+        <v>-152.0434764171882</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-36.25630144962426</v>
+        <v>-154.5787650572104</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-34.41473092141452</v>
+        <v>-159.3261962995948</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-33.54173358302757</v>
+        <v>-166.1439379223701</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-33.68166438764153</v>
+        <v>-159.9452623869845</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-34.90214362019503</v>
+        <v>-155.1885934544289</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-37.42568535971145</v>
+        <v>-152.7469954434054</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-41.20355820455543</v>
+        <v>-151.6680682742065</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-41.73012254972817</v>
+        <v>-151.6410438813715</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-37.72613232471978</v>
+        <v>-152.6452120482286</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-34.65115771771689</v>
+        <v>-154.9312652440153</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-32.86544619508823</v>
+        <v>-159.3242987867781</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-32.07179077289609</v>
+        <v>-166.9647984587608</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-32.09344251679417</v>
+        <v>-161.4111613572439</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-32.80396837900952</v>
+        <v>-156.0338245315298</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-33.9410421888381</v>
+        <v>-153.2452965994951</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-34.74664858694347</v>
+        <v>-151.8768567546788</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-34.20345437163989</v>
+        <v>-151.5388622094735</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-32.59845001766923</v>
+        <v>-152.1417136203425</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-30.9635104057592</v>
+        <v>-153.8036596877541</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-29.78309399640966</v>
+        <v>-156.9516664437126</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-29.1600833215169</v>
+        <v>-162.5256828538582</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-29.09037627572236</v>
+        <v>-164.2270033817994</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-29.54163144935251</v>
+        <v>-158.1827670020475</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-30.43326368231661</v>
+        <v>-154.5813511771128</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-31.52970504573396</v>
+        <v>-152.6460693934991</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-32.2910745355742</v>
+        <v>-151.819061366865</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-32.13444034488398</v>
+        <v>-151.9064968575003</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-31.20669705150106</v>
+        <v>-152.9140387608645</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-30.15337191382502</v>
+        <v>-155.0541713399417</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-29.39829915536706</v>
+        <v>-158.9461998224479</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-29.09730159172081</v>
+        <v>-165.5351557091793</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-29.29201922452427</v>
+        <v>-163.1277996917819</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-29.97912873854704</v>
+        <v>-157.559698982156</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-31.09498936879263</v>
+        <v>-154.5309052440966</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-32.40245840262792</v>
+        <v>-152.9628593684459</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-33.32173827004849</v>
+        <v>-152.4182609395623</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-33.23596740735383</v>
+        <v>-152.7662589573393</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-32.35819075945175</v>
+        <v>-154.0668848046107</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-31.3984323493456</v>
+        <v>-156.6326553357479</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-30.79045080018823</v>
+        <v>-161.4232750972608</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-30.69602705139103</v>
+        <v>-169.7216629395959</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-31.18496688183964</v>
+        <v>-162.8081205641304</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-32.32435639024642</v>
+        <v>-157.5479740178123</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-34.20354864388392</v>
+        <v>-154.8311334638684</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-36.84121040947573</v>
+        <v>-153.4770283258072</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-39.47961875304225</v>
+        <v>-153.1032267755872</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-39.59166759810589</v>
+        <v>-153.6151963825688</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-37.55923338995765</v>
+        <v>-155.1136951418624</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-35.80308445943707</v>
+        <v>-158.004415110027</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-34.91485486291867</v>
+        <v>-163.6513811105121</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-34.91849316086893</v>
+        <v>-172.694710747144</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-35.85581540254189</v>
+        <v>-162.3939076039679</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-37.91008734408642</v>
+        <v>-157.4905519275408</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-41.39693359478878</v>
+        <v>-154.9447488706168</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-44.73632272334986</v>
+        <v>-153.6661160969974</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-41.70951703609192</v>
+        <v>-153.3114326085092</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-37.75443911663892</v>
+        <v>-153.794317110834</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-35.2007409331015</v>
+        <v>-155.1983464358992</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-33.71751110824756</v>
+        <v>-157.8430379913748</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-33.04065965133765</v>
+        <v>-162.5468868612134</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-33.02415285743601</v>
+        <v>-167.7899544788878</v>
       </c>
     </row>
     <row r="602">
@@ -5243,7 +5243,7 @@
         <v>2.096724796611653</v>
       </c>
       <c r="B602" t="n">
-        <v>-33.55384578936355</v>
+        <v>-162.036729239738</v>
       </c>
     </row>
     <row r="603">
@@ -5251,7 +5251,7 @@
         <v>2.100219337939339</v>
       </c>
       <c r="B603" t="n">
-        <v>-34.42515241392996</v>
+        <v>-157.4881750864028</v>
       </c>
     </row>
     <row r="604">
@@ -5259,7 +5259,7 @@
         <v>2.103713879267025</v>
       </c>
       <c r="B604" t="n">
-        <v>-35.14347087543114</v>
+        <v>-154.8902005402187</v>
       </c>
     </row>
     <row r="605">
@@ -5267,7 +5267,7 @@
         <v>2.107208420594711</v>
       </c>
       <c r="B605" t="n">
-        <v>-34.97604449854076</v>
+        <v>-153.4592547569595</v>
       </c>
     </row>
     <row r="606">
@@ -5275,7 +5275,7 @@
         <v>2.110702961922397</v>
       </c>
       <c r="B606" t="n">
-        <v>-33.80326511096561</v>
+        <v>-152.877178135097</v>
       </c>
     </row>
     <row r="607">
@@ -5283,7 +5283,7 @@
         <v>2.114197503250083</v>
       </c>
       <c r="B607" t="n">
-        <v>-32.28608261214588</v>
+        <v>-153.0323882222442</v>
       </c>
     </row>
     <row r="608">
@@ -5291,7 +5291,7 @@
         <v>2.117692044577769</v>
       </c>
       <c r="B608" t="n">
-        <v>-30.95820505830355</v>
+        <v>-153.9387987952286</v>
       </c>
     </row>
     <row r="609">
@@ -5299,7 +5299,7 @@
         <v>2.121186585905456</v>
       </c>
       <c r="B609" t="n">
-        <v>-30.01251484920245</v>
+        <v>-155.7464206144229</v>
       </c>
     </row>
     <row r="610">
@@ -5307,7 +5307,7 @@
         <v>2.124681127233142</v>
       </c>
       <c r="B610" t="n">
-        <v>-29.48425172688254</v>
+        <v>-158.8602683472527</v>
       </c>
     </row>
     <row r="611">
@@ -5315,7 +5315,7 @@
         <v>2.128175668560828</v>
       </c>
       <c r="B611" t="n">
-        <v>-29.35865283349857</v>
+        <v>-164.2712041012612</v>
       </c>
     </row>
     <row r="612">
@@ -5323,7 +5323,7 @@
         <v>2.131670209888514</v>
       </c>
       <c r="B612" t="n">
-        <v>-29.59966105176763</v>
+        <v>-168.4000031958496</v>
       </c>
     </row>
     <row r="613">
@@ -5331,7 +5331,7 @@
         <v>2.1351647512162</v>
       </c>
       <c r="B613" t="n">
-        <v>-30.13936146890934</v>
+        <v>-162.0238182606483</v>
       </c>
     </row>
     <row r="614">
@@ -5339,7 +5339,7 @@
         <v>2.138659292543886</v>
       </c>
       <c r="B614" t="n">
-        <v>-30.83993470902604</v>
+        <v>-157.9564317559381</v>
       </c>
     </row>
     <row r="615">
@@ -5347,7 +5347,7 @@
         <v>2.142153833871572</v>
       </c>
       <c r="B615" t="n">
-        <v>-31.45079729395227</v>
+        <v>-155.7021938780665</v>
       </c>
     </row>
     <row r="616">
@@ -5355,7 +5355,7 @@
         <v>2.145648375199258</v>
       </c>
       <c r="B616" t="n">
-        <v>-31.66258466906789</v>
+        <v>-154.5583635130303</v>
       </c>
     </row>
     <row r="617">
@@ -5363,7 +5363,7 @@
         <v>2.149142916526944</v>
       </c>
       <c r="B617" t="n">
-        <v>-31.34596276259157</v>
+        <v>-154.2588352383333</v>
       </c>
     </row>
     <row r="618">
@@ -5371,7 +5371,7 @@
         <v>2.15263745785463</v>
       </c>
       <c r="B618" t="n">
-        <v>-30.69109436852165</v>
+        <v>-154.736282036434</v>
       </c>
     </row>
     <row r="619">
@@ -5379,7 +5379,7 @@
         <v>2.156131999182316</v>
       </c>
       <c r="B619" t="n">
-        <v>-30.00317462544303</v>
+        <v>-156.0731018698035</v>
       </c>
     </row>
     <row r="620">
@@ -5387,7 +5387,7 @@
         <v>2.159626540510002</v>
       </c>
       <c r="B620" t="n">
-        <v>-29.49811834142386</v>
+        <v>-158.5837704684328</v>
       </c>
     </row>
     <row r="621">
@@ -5395,7 +5395,7 @@
         <v>2.163121081837688</v>
       </c>
       <c r="B621" t="n">
-        <v>-29.28439177270656</v>
+        <v>-163.2769612505662</v>
       </c>
     </row>
     <row r="622">
@@ -5403,7 +5403,7 @@
         <v>2.166615623165375</v>
       </c>
       <c r="B622" t="n">
-        <v>-29.40956910983447</v>
+        <v>-176.4667154926949</v>
       </c>
     </row>
     <row r="623">
@@ -5411,7 +5411,7 @@
         <v>2.170110164493061</v>
       </c>
       <c r="B623" t="n">
-        <v>-29.89332387171936</v>
+        <v>-167.4387812044711</v>
       </c>
     </row>
     <row r="624">
@@ -5419,7 +5419,7 @@
         <v>2.173604705820747</v>
       </c>
       <c r="B624" t="n">
-        <v>-30.73642772324389</v>
+        <v>-160.5530420607033</v>
       </c>
     </row>
     <row r="625">
@@ -5427,7 +5427,7 @@
         <v>2.177099247148433</v>
       </c>
       <c r="B625" t="n">
-        <v>-31.90311723907204</v>
+        <v>-157.2466426093113</v>
       </c>
     </row>
     <row r="626">
@@ -5435,7 +5435,7 @@
         <v>2.180593788476119</v>
       </c>
       <c r="B626" t="n">
-        <v>-33.26094619885902</v>
+        <v>-155.430379274339</v>
       </c>
     </row>
     <row r="627">
@@ -5443,7 +5443,7 @@
         <v>2.184088329803805</v>
       </c>
       <c r="B627" t="n">
-        <v>-34.47889606907909</v>
+        <v>-154.5563817434081</v>
       </c>
     </row>
     <row r="628">
@@ -5451,7 +5451,7 @@
         <v>2.187582871131491</v>
       </c>
       <c r="B628" t="n">
-        <v>-35.06920065899973</v>
+        <v>-154.4348367767046</v>
       </c>
     </row>
     <row r="629">
@@ -5459,7 +5459,7 @@
         <v>2.191077412459177</v>
       </c>
       <c r="B629" t="n">
-        <v>-34.85970311948667</v>
+        <v>-155.0315426169815</v>
       </c>
     </row>
     <row r="630">
@@ -5467,7 +5467,7 @@
         <v>2.194571953786864</v>
       </c>
       <c r="B630" t="n">
-        <v>-34.24193351460524</v>
+        <v>-156.4373944245209</v>
       </c>
     </row>
     <row r="631">
@@ -5475,7 +5475,7 @@
         <v>2.19806649511455</v>
       </c>
       <c r="B631" t="n">
-        <v>-33.68788921903789</v>
+        <v>-158.9312043437151</v>
       </c>
     </row>
     <row r="632">
@@ -5483,7 +5483,7 @@
         <v>2.201561036442236</v>
       </c>
       <c r="B632" t="n">
-        <v>-33.45861490299547</v>
+        <v>-163.1874948557509</v>
       </c>
     </row>
     <row r="633">
@@ -5491,7 +5491,7 @@
         <v>2.205055577769921</v>
       </c>
       <c r="B633" t="n">
-        <v>-33.67132178884834</v>
+        <v>-168.9108913934089</v>
       </c>
     </row>
     <row r="634">
@@ -5499,7 +5499,7 @@
         <v>2.208550119097608</v>
       </c>
       <c r="B634" t="n">
-        <v>-34.39981840216874</v>
+        <v>-164.6884618286673</v>
       </c>
     </row>
     <row r="635">
@@ -5507,7 +5507,7 @@
         <v>2.212044660425294</v>
       </c>
       <c r="B635" t="n">
-        <v>-35.73274858918768</v>
+        <v>-159.7547778941952</v>
       </c>
     </row>
     <row r="636">
@@ -5515,7 +5515,7 @@
         <v>2.21553920175298</v>
       </c>
       <c r="B636" t="n">
-        <v>-37.81055300244466</v>
+        <v>-156.8249809699703</v>
       </c>
     </row>
     <row r="637">
@@ -5523,7 +5523,7 @@
         <v>2.219033743080666</v>
       </c>
       <c r="B637" t="n">
-        <v>-40.81761500240406</v>
+        <v>-155.0795166196093</v>
       </c>
     </row>
     <row r="638">
@@ -5531,7 +5531,7 @@
         <v>2.222528284408352</v>
       </c>
       <c r="B638" t="n">
-        <v>-44.43850197964576</v>
+        <v>-154.1459311398999</v>
       </c>
     </row>
     <row r="639">
@@ -5539,7 +5539,7 @@
         <v>2.226022825736038</v>
       </c>
       <c r="B639" t="n">
-        <v>-45.27605051226043</v>
+        <v>-153.8669522046735</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5547,7 @@
         <v>2.229517367063724</v>
       </c>
       <c r="B640" t="n">
-        <v>-42.53696607268853</v>
+        <v>-154.1951072347441</v>
       </c>
     </row>
     <row r="641">
@@ -5555,7 +5555,7 @@
         <v>2.23301190839141</v>
       </c>
       <c r="B641" t="n">
-        <v>-40.1331778151608</v>
+        <v>-155.1667244130368</v>
       </c>
     </row>
     <row r="642">
@@ -5563,7 +5563,7 @@
         <v>2.236506449719097</v>
       </c>
       <c r="B642" t="n">
-        <v>-38.7475592408266</v>
+        <v>-156.9261989059071</v>
       </c>
     </row>
     <row r="643">
@@ -5571,7 +5571,7 @@
         <v>2.240000991046783</v>
       </c>
       <c r="B643" t="n">
-        <v>-38.25482697930698</v>
+        <v>-159.8400737849533</v>
       </c>
     </row>
     <row r="644">
@@ -5579,7 +5579,7 @@
         <v>2.243495532374469</v>
       </c>
       <c r="B644" t="n">
-        <v>-38.57386790365704</v>
+        <v>-164.9418830990126</v>
       </c>
     </row>
     <row r="645">
@@ -5587,7 +5587,7 @@
         <v>2.246990073702155</v>
       </c>
       <c r="B645" t="n">
-        <v>-39.71663068718488</v>
+        <v>-173.6562348576291</v>
       </c>
     </row>
     <row r="646">
@@ -5595,7 +5595,7 @@
         <v>2.250484615029841</v>
       </c>
       <c r="B646" t="n">
-        <v>-41.70901130529276</v>
+        <v>-166.1883430179698</v>
       </c>
     </row>
     <row r="647">
@@ -5603,7 +5603,7 @@
         <v>2.253979156357527</v>
       </c>
       <c r="B647" t="n">
-        <v>-43.99966318078226</v>
+        <v>-160.885550673313</v>
       </c>
     </row>
     <row r="648">
@@ -5611,7 +5611,7 @@
         <v>2.257473697685213</v>
       </c>
       <c r="B648" t="n">
-        <v>-43.9141971955647</v>
+        <v>-158.0347968798376</v>
       </c>
     </row>
     <row r="649">
@@ -5619,7 +5619,7 @@
         <v>2.260968239012899</v>
       </c>
       <c r="B649" t="n">
-        <v>-41.01896733248007</v>
+        <v>-156.4292723057085</v>
       </c>
     </row>
     <row r="650">
@@ -5627,7 +5627,7 @@
         <v>2.264462780340585</v>
       </c>
       <c r="B650" t="n">
-        <v>-38.13388270148277</v>
+        <v>-155.6577257185061</v>
       </c>
     </row>
     <row r="651">
@@ -5635,7 +5635,7 @@
         <v>2.267957321668271</v>
       </c>
       <c r="B651" t="n">
-        <v>-35.98475554245369</v>
+        <v>-155.5661364429504</v>
       </c>
     </row>
     <row r="652">
@@ -5643,7 +5643,7 @@
         <v>2.271451862995957</v>
       </c>
       <c r="B652" t="n">
-        <v>-34.50271260920319</v>
+        <v>-156.1267536806711</v>
       </c>
     </row>
     <row r="653">
@@ -5651,7 +5651,7 @@
         <v>2.274946404323643</v>
       </c>
       <c r="B653" t="n">
-        <v>-33.56786118457855</v>
+        <v>-157.4200181548869</v>
       </c>
     </row>
     <row r="654">
@@ -5659,7 +5659,7 @@
         <v>2.278440945651329</v>
       </c>
       <c r="B654" t="n">
-        <v>-33.09448721099037</v>
+        <v>-159.6991496408662</v>
       </c>
     </row>
     <row r="655">
@@ -5667,7 +5667,7 @@
         <v>2.281935486979016</v>
       </c>
       <c r="B655" t="n">
-        <v>-33.02294319336196</v>
+        <v>-163.6846803927061</v>
       </c>
     </row>
     <row r="656">
@@ -5675,7 +5675,7 @@
         <v>2.285430028306702</v>
       </c>
       <c r="B656" t="n">
-        <v>-33.30029925771323</v>
+        <v>-172.4529533202223</v>
       </c>
     </row>
     <row r="657">
@@ -5683,7 +5683,7 @@
         <v>2.288924569634388</v>
       </c>
       <c r="B657" t="n">
-        <v>-33.85161080665636</v>
+        <v>-172.431555010626</v>
       </c>
     </row>
     <row r="658">
@@ -5691,7 +5691,7 @@
         <v>2.292419110962074</v>
       </c>
       <c r="B658" t="n">
-        <v>-34.53328079323515</v>
+        <v>-163.6983752486046</v>
       </c>
     </row>
     <row r="659">
@@ -5699,7 +5699,7 @@
         <v>2.29591365228976</v>
       </c>
       <c r="B659" t="n">
-        <v>-35.08405105816753</v>
+        <v>-159.7228247637027</v>
       </c>
     </row>
     <row r="660">
@@ -5707,7 +5707,7 @@
         <v>2.299408193617446</v>
       </c>
       <c r="B660" t="n">
-        <v>-35.17980161595352</v>
+        <v>-157.4319923711353</v>
       </c>
     </row>
     <row r="661">
@@ -5715,7 +5715,7 @@
         <v>2.302902734945132</v>
       </c>
       <c r="B661" t="n">
-        <v>-34.68739228706516</v>
+        <v>-156.0959518947476</v>
       </c>
     </row>
     <row r="662">
@@ -5723,7 +5723,7 @@
         <v>2.306397276272818</v>
       </c>
       <c r="B662" t="n">
-        <v>-33.80771163683648</v>
+        <v>-155.4458564884482</v>
       </c>
     </row>
     <row r="663">
@@ -5731,7 +5731,7 @@
         <v>2.309891817600504</v>
       </c>
       <c r="B663" t="n">
-        <v>-32.85221894032126</v>
+        <v>-155.3755593313028</v>
       </c>
     </row>
     <row r="664">
@@ -5739,7 +5739,7 @@
         <v>2.31338635892819</v>
       </c>
       <c r="B664" t="n">
-        <v>-32.03192087151462</v>
+        <v>-155.8662780163393</v>
       </c>
     </row>
     <row r="665">
@@ -5747,7 +5747,7 @@
         <v>2.316880900255876</v>
       </c>
       <c r="B665" t="n">
-        <v>-31.44438631757759</v>
+        <v>-156.9754998400331</v>
       </c>
     </row>
     <row r="666">
@@ -5755,7 +5755,7 @@
         <v>2.320375441583562</v>
       </c>
       <c r="B666" t="n">
-        <v>-31.1237916884528</v>
+        <v>-158.8721428995545</v>
       </c>
     </row>
     <row r="667">
@@ -5763,7 +5763,7 @@
         <v>2.323869982911249</v>
       </c>
       <c r="B667" t="n">
-        <v>-31.07576838536806</v>
+        <v>-161.9703479216271</v>
       </c>
     </row>
     <row r="668">
@@ -5771,7 +5771,7 @@
         <v>2.327364524238935</v>
       </c>
       <c r="B668" t="n">
-        <v>-31.2915089648485</v>
+        <v>-167.4183138068028</v>
       </c>
     </row>
     <row r="669">
@@ -5779,7 +5779,7 @@
         <v>2.330859065566621</v>
       </c>
       <c r="B669" t="n">
-        <v>-31.74774030926388</v>
+        <v>-174.1316796329127</v>
       </c>
     </row>
     <row r="670">
@@ -5787,7 +5787,7 @@
         <v>2.334353606894307</v>
       </c>
       <c r="B670" t="n">
-        <v>-32.39490747575289</v>
+        <v>-166.2964407902868</v>
       </c>
     </row>
     <row r="671">
@@ -5795,7 +5795,7 @@
         <v>2.337848148221993</v>
       </c>
       <c r="B671" t="n">
-        <v>-33.13378773248647</v>
+        <v>-161.4550957783979</v>
       </c>
     </row>
     <row r="672">
@@ -5803,7 +5803,7 @@
         <v>2.341342689549679</v>
       </c>
       <c r="B672" t="n">
-        <v>-33.79277389650061</v>
+        <v>-158.6602142092301</v>
       </c>
     </row>
     <row r="673">
@@ -5811,7 +5811,7 @@
         <v>2.344837230877365</v>
       </c>
       <c r="B673" t="n">
-        <v>-34.1550574283613</v>
+        <v>-156.9501883622916</v>
       </c>
     </row>
     <row r="674">
@@ -5819,7 +5819,7 @@
         <v>2.348331772205051</v>
       </c>
       <c r="B674" t="n">
-        <v>-34.08593854996887</v>
+        <v>-155.9632384928031</v>
       </c>
     </row>
     <row r="675">
@@ -5827,7 +5827,7 @@
         <v>2.351826313532738</v>
       </c>
       <c r="B675" t="n">
-        <v>-33.65216222340309</v>
+        <v>-155.5435482428628</v>
       </c>
     </row>
     <row r="676">
@@ -5835,7 +5835,7 @@
         <v>2.355320854860424</v>
       </c>
       <c r="B676" t="n">
-        <v>-33.05785728535093</v>
+        <v>-155.6302176201786</v>
       </c>
     </row>
     <row r="677">
@@ -5843,7 +5843,7 @@
         <v>2.35881539618811</v>
       </c>
       <c r="B677" t="n">
-        <v>-32.49655959994789</v>
+        <v>-156.2246207724787</v>
       </c>
     </row>
     <row r="678">
@@ -5851,7 +5851,7 @@
         <v>2.362309937515795</v>
       </c>
       <c r="B678" t="n">
-        <v>-32.08994121209457</v>
+        <v>-157.3919303518996</v>
       </c>
     </row>
     <row r="679">
@@ -5859,7 +5859,7 @@
         <v>2.365804478843482</v>
       </c>
       <c r="B679" t="n">
-        <v>-31.90125914376307</v>
+        <v>-159.2992968751754</v>
       </c>
     </row>
     <row r="680">
@@ -5867,7 +5867,7 @@
         <v>2.369299020171168</v>
       </c>
       <c r="B680" t="n">
-        <v>-31.96254239329831</v>
+        <v>-162.3483708353939</v>
       </c>
     </row>
     <row r="681">
@@ -5875,7 +5875,7 @@
         <v>2.372793561498854</v>
       </c>
       <c r="B681" t="n">
-        <v>-32.2935039499153</v>
+        <v>-167.7220060400936</v>
       </c>
     </row>
     <row r="682">
@@ -5883,7 +5883,7 @@
         <v>2.37628810282654</v>
       </c>
       <c r="B682" t="n">
-        <v>-32.91203056761738</v>
+        <v>-177.9159166626383</v>
       </c>
     </row>
     <row r="683">
@@ -5891,7 +5891,7 @@
         <v>2.379782644154226</v>
       </c>
       <c r="B683" t="n">
-        <v>-33.83959456724624</v>
+        <v>-168.345278543692</v>
       </c>
     </row>
     <row r="684">
@@ -5899,7 +5899,7 @@
         <v>2.383277185481912</v>
       </c>
       <c r="B684" t="n">
-        <v>-35.10280793745651</v>
+        <v>-162.8304104409348</v>
       </c>
     </row>
     <row r="685">
@@ -5907,7 +5907,7 @@
         <v>2.386771726809598</v>
       </c>
       <c r="B685" t="n">
-        <v>-36.72781179263112</v>
+        <v>-159.7806558266194</v>
       </c>
     </row>
     <row r="686">
@@ -5915,7 +5915,7 @@
         <v>2.390266268137284</v>
       </c>
       <c r="B686" t="n">
-        <v>-38.71147224090731</v>
+        <v>-157.9040734868287</v>
       </c>
     </row>
     <row r="687">
@@ -5923,7 +5923,7 @@
         <v>2.39376080946497</v>
       </c>
       <c r="B687" t="n">
-        <v>-40.91847633404664</v>
+        <v>-156.7674242059143</v>
       </c>
     </row>
     <row r="688">
@@ -5931,7 +5931,7 @@
         <v>2.397255350792657</v>
       </c>
       <c r="B688" t="n">
-        <v>-42.8402072244719</v>
+        <v>-156.1866970978516</v>
       </c>
     </row>
     <row r="689">
@@ -5939,7 +5939,7 @@
         <v>2.400749892120343</v>
       </c>
       <c r="B689" t="n">
-        <v>-43.62910363486196</v>
+        <v>-156.0814219293887</v>
       </c>
     </row>
     <row r="690">
@@ -5947,7 +5947,7 @@
         <v>2.404244433448029</v>
       </c>
       <c r="B690" t="n">
-        <v>-43.22714849004392</v>
+        <v>-156.4303087440673</v>
       </c>
     </row>
     <row r="691">
@@ -5955,7 +5955,7 @@
         <v>2.407738974775715</v>
       </c>
       <c r="B691" t="n">
-        <v>-42.50481043260765</v>
+        <v>-157.2616267181655</v>
       </c>
     </row>
     <row r="692">
@@ -5963,7 +5963,7 @@
         <v>2.411233516103401</v>
       </c>
       <c r="B692" t="n">
-        <v>-42.08484321186312</v>
+        <v>-158.6672571919677</v>
       </c>
     </row>
     <row r="693">
@@ -5971,7 +5971,7 @@
         <v>2.414728057431087</v>
       </c>
       <c r="B693" t="n">
-        <v>-42.20919458275176</v>
+        <v>-160.857051050034</v>
       </c>
     </row>
     <row r="694">
@@ -5979,7 +5979,7 @@
         <v>2.418222598758773</v>
       </c>
       <c r="B694" t="n">
-        <v>-43.01253697670251</v>
+        <v>-164.3410862972351</v>
       </c>
     </row>
     <row r="695">
@@ -5987,7 +5987,7 @@
         <v>2.421717140086459</v>
       </c>
       <c r="B695" t="n">
-        <v>-44.69131965808975</v>
+        <v>-170.7380101510699</v>
       </c>
     </row>
     <row r="696">
@@ -5995,7 +5995,7 @@
         <v>2.425211681414145</v>
       </c>
       <c r="B696" t="n">
-        <v>-47.64793391734612</v>
+        <v>-177.4324504021149</v>
       </c>
     </row>
     <row r="697">
@@ -6003,7 +6003,7 @@
         <v>2.428706222741831</v>
       </c>
       <c r="B697" t="n">
-        <v>-52.27678251080337</v>
+        <v>-167.5951042352466</v>
       </c>
     </row>
     <row r="698">
@@ -6011,7 +6011,7 @@
         <v>2.432200764069517</v>
       </c>
       <c r="B698" t="n">
-        <v>-52.33059492152126</v>
+        <v>-162.8840073527903</v>
       </c>
     </row>
     <row r="699">
@@ -6019,7 +6019,7 @@
         <v>2.435695305397203</v>
       </c>
       <c r="B699" t="n">
-        <v>-46.84985939705069</v>
+        <v>-160.1333875269417</v>
       </c>
     </row>
     <row r="700">
@@ -6027,7 +6027,7 @@
         <v>2.43918984672489</v>
       </c>
       <c r="B700" t="n">
-        <v>-42.9193869403416</v>
+        <v>-158.3870961444108</v>
       </c>
     </row>
     <row r="701">
@@ -6035,7 +6035,7 @@
         <v>2.442684388052576</v>
       </c>
       <c r="B701" t="n">
-        <v>-40.24394746594246</v>
+        <v>-157.2950235344685</v>
       </c>
     </row>
     <row r="702">
@@ -6043,7 +6043,7 @@
         <v>2.446178929380262</v>
       </c>
       <c r="B702" t="n">
-        <v>-38.36237468536965</v>
+        <v>-156.699838307548</v>
       </c>
     </row>
     <row r="703">
@@ -6051,7 +6051,7 @@
         <v>2.449673470707948</v>
       </c>
       <c r="B703" t="n">
-        <v>-37.03674828158077</v>
+        <v>-156.5280938601202</v>
       </c>
     </row>
     <row r="704">
@@ -6059,7 +6059,7 @@
         <v>2.453168012035634</v>
       </c>
       <c r="B704" t="n">
-        <v>-36.13723608922175</v>
+        <v>-156.7543257907114</v>
       </c>
     </row>
     <row r="705">
@@ -6067,7 +6067,7 @@
         <v>2.45666255336332</v>
       </c>
       <c r="B705" t="n">
-        <v>-35.58628571613462</v>
+        <v>-157.3909631379691</v>
       </c>
     </row>
     <row r="706">
@@ -6075,7 +6075,7 @@
         <v>2.460157094691006</v>
       </c>
       <c r="B706" t="n">
-        <v>-35.33226505499614</v>
+        <v>-158.4938087641975</v>
       </c>
     </row>
     <row r="707">
@@ -6083,7 +6083,7 @@
         <v>2.463651636018692</v>
       </c>
       <c r="B707" t="n">
-        <v>-35.33385756470174</v>
+        <v>-160.18869391051</v>
       </c>
     </row>
     <row r="708">
@@ -6091,7 +6091,7 @@
         <v>2.467146177346378</v>
       </c>
       <c r="B708" t="n">
-        <v>-35.54661207379698</v>
+        <v>-162.7517783808566</v>
       </c>
     </row>
     <row r="709">
@@ -6099,7 +6099,7 @@
         <v>2.470640718674064</v>
       </c>
       <c r="B709" t="n">
-        <v>-35.90683501658022</v>
+        <v>-166.8969909963179</v>
       </c>
     </row>
     <row r="710">
@@ -6107,7 +6107,7 @@
         <v>2.47413526000175</v>
       </c>
       <c r="B710" t="n">
-        <v>-36.31215864576442</v>
+        <v>-175.3816946045922</v>
       </c>
     </row>
     <row r="711">
@@ -6115,7 +6115,7 @@
         <v>2.477629801329436</v>
       </c>
       <c r="B711" t="n">
-        <v>-36.610914356538</v>
+        <v>-175.5331329669076</v>
       </c>
     </row>
     <row r="712">
@@ -6123,7 +6123,7 @@
         <v>2.481124342657123</v>
       </c>
       <c r="B712" t="n">
-        <v>-36.63394434872882</v>
+        <v>-167.1000767162932</v>
       </c>
     </row>
     <row r="713">
@@ -6131,7 +6131,7 @@
         <v>2.484618883984809</v>
       </c>
       <c r="B713" t="n">
-        <v>-36.28614548211866</v>
+        <v>-163.0414364378561</v>
       </c>
     </row>
     <row r="714">
@@ -6139,7 +6139,7 @@
         <v>2.488113425312495</v>
       </c>
       <c r="B714" t="n">
-        <v>-35.61719812914573</v>
+        <v>-160.5633909473187</v>
       </c>
     </row>
     <row r="715">
@@ -6147,7 +6147,7 @@
         <v>2.491607966640181</v>
       </c>
       <c r="B715" t="n">
-        <v>-34.77599709093396</v>
+        <v>-158.9414076407422</v>
       </c>
     </row>
     <row r="716">
@@ -6155,7 +6155,7 @@
         <v>2.495102507967867</v>
       </c>
       <c r="B716" t="n">
-        <v>-33.91170882626639</v>
+        <v>-157.8916414297011</v>
       </c>
     </row>
     <row r="717">
@@ -6163,7 +6163,7 @@
         <v>2.498597049295553</v>
       </c>
       <c r="B717" t="n">
-        <v>-33.12444346638328</v>
+        <v>-157.2797448969295</v>
       </c>
     </row>
     <row r="718">
@@ -6171,7 +6171,7 @@
         <v>2.502091590623239</v>
       </c>
       <c r="B718" t="n">
-        <v>-32.46745624316089</v>
+        <v>-157.0387312123681</v>
       </c>
     </row>
     <row r="719">
@@ -6179,7 +6179,7 @@
         <v>2.505586131950925</v>
       </c>
       <c r="B719" t="n">
-        <v>-31.96425723912089</v>
+        <v>-157.1399261171518</v>
       </c>
     </row>
     <row r="720">
@@ -6187,7 +6187,7 @@
         <v>2.509080673278612</v>
       </c>
       <c r="B720" t="n">
-        <v>-31.62250544761665</v>
+        <v>-157.5829313211386</v>
       </c>
     </row>
     <row r="721">
@@ -6195,7 +6195,7 @@
         <v>2.512575214606298</v>
       </c>
       <c r="B721" t="n">
-        <v>-31.44206020095685</v>
+        <v>-158.3957844368861</v>
       </c>
     </row>
     <row r="722">
@@ -6203,7 +6203,7 @@
         <v>2.516069755933983</v>
       </c>
       <c r="B722" t="n">
-        <v>-31.4188340400158</v>
+        <v>-159.6453710004283</v>
       </c>
     </row>
     <row r="723">
@@ -6211,7 +6211,7 @@
         <v>2.519564297261669</v>
       </c>
       <c r="B723" t="n">
-        <v>-31.54602578844033</v>
+        <v>-161.4673027203654</v>
       </c>
     </row>
     <row r="724">
@@ -6219,7 +6219,7 @@
         <v>2.523058838589356</v>
       </c>
       <c r="B724" t="n">
-        <v>-31.81354830919891</v>
+        <v>-164.1497892172952</v>
       </c>
     </row>
     <row r="725">
@@ -6227,7 +6227,7 @@
         <v>2.526553379917042</v>
       </c>
       <c r="B725" t="n">
-        <v>-32.20586633033041</v>
+        <v>-168.4250914200305</v>
       </c>
     </row>
     <row r="726">
@@ -6235,7 +6235,7 @@
         <v>2.530047921244728</v>
       </c>
       <c r="B726" t="n">
-        <v>-32.69815644065441</v>
+        <v>-176.7954611251833</v>
       </c>
     </row>
     <row r="727">
@@ -6243,7 +6243,7 @@
         <v>2.533542462572414</v>
       </c>
       <c r="B727" t="n">
-        <v>-33.2510084596508</v>
+        <v>-175.4268891020227</v>
       </c>
     </row>
     <row r="728">
@@ -6251,7 +6251,7 @@
         <v>2.5370370039001</v>
       </c>
       <c r="B728" t="n">
-        <v>-33.80548854000013</v>
+        <v>-167.9384645363061</v>
       </c>
     </row>
     <row r="729">
@@ -6259,7 +6259,7 @@
         <v>2.540531545227786</v>
       </c>
       <c r="B729" t="n">
-        <v>-34.28390132447146</v>
+        <v>-164.0427809408723</v>
       </c>
     </row>
     <row r="730">
@@ -6267,7 +6267,7 @@
         <v>2.544026086555472</v>
       </c>
       <c r="B730" t="n">
-        <v>-34.60454252205256</v>
+        <v>-161.5906055124074</v>
       </c>
     </row>
     <row r="731">
@@ -6275,7 +6275,7 @@
         <v>2.547520627883158</v>
       </c>
       <c r="B731" t="n">
-        <v>-34.71225360308264</v>
+        <v>-159.9343926832571</v>
       </c>
     </row>
     <row r="732">
@@ -6283,7 +6283,7 @@
         <v>2.551015169210844</v>
       </c>
       <c r="B732" t="n">
-        <v>-34.60666901394717</v>
+        <v>-158.8078273600676</v>
       </c>
     </row>
     <row r="733">
@@ -6291,7 +6291,7 @@
         <v>2.554509710538531</v>
       </c>
       <c r="B733" t="n">
-        <v>-34.34187260301488</v>
+        <v>-158.0797147091446</v>
       </c>
     </row>
     <row r="734">
@@ -6299,7 +6299,7 @@
         <v>2.558004251866217</v>
       </c>
       <c r="B734" t="n">
-        <v>-33.99778627231369</v>
+        <v>-157.6799266119102</v>
       </c>
     </row>
     <row r="735">
@@ -6307,7 +6307,7 @@
         <v>2.561498793193903</v>
       </c>
       <c r="B735" t="n">
-        <v>-33.64980953530621</v>
+        <v>-157.571628884611</v>
       </c>
     </row>
     <row r="736">
@@ -6315,7 +6315,7 @@
         <v>2.564993334521589</v>
       </c>
       <c r="B736" t="n">
-        <v>-33.35438208858627</v>
+        <v>-157.7399103830105</v>
       </c>
     </row>
     <row r="737">
@@ -6323,7 +6323,7 @@
         <v>2.568487875849275</v>
       </c>
       <c r="B737" t="n">
-        <v>-33.14840617029594</v>
+        <v>-158.187867437194</v>
       </c>
     </row>
     <row r="738">
@@ -6331,7 +6331,7 @@
         <v>2.571982417176961</v>
       </c>
       <c r="B738" t="n">
-        <v>-33.05424226344647</v>
+        <v>-158.937709336297</v>
       </c>
     </row>
     <row r="739">
@@ -6339,7 +6339,7 @@
         <v>2.575476958504647</v>
       </c>
       <c r="B739" t="n">
-        <v>-33.08505171426484</v>
+        <v>-160.0375092745925</v>
       </c>
     </row>
     <row r="740">
@@ -6347,7 +6347,7 @@
         <v>2.578971499832333</v>
       </c>
       <c r="B740" t="n">
-        <v>-33.24877042723022</v>
+        <v>-161.5784185880453</v>
       </c>
     </row>
     <row r="741">
@@ -6355,7 +6355,7 @@
         <v>2.582466041160019</v>
       </c>
       <c r="B741" t="n">
-        <v>-33.55060903267533</v>
+        <v>-163.7379041452758</v>
       </c>
     </row>
     <row r="742">
@@ -6363,7 +6363,7 @@
         <v>2.585960582487705</v>
       </c>
       <c r="B742" t="n">
-        <v>-33.99436590270118</v>
+        <v>-166.907283022853</v>
       </c>
     </row>
     <row r="743">
@@ -6371,7 +6371,7 @@
         <v>2.589455123815391</v>
       </c>
       <c r="B743" t="n">
-        <v>-34.58273826422662</v>
+        <v>-172.2080582910787</v>
       </c>
     </row>
     <row r="744">
@@ -6379,7 +6379,7 @@
         <v>2.592949665143077</v>
       </c>
       <c r="B744" t="n">
-        <v>-35.31651536770431</v>
+        <v>-183.8802472212874</v>
       </c>
     </row>
     <row r="745">
@@ -6387,7 +6387,7 @@
         <v>2.596444206470764</v>
       </c>
       <c r="B745" t="n">
-        <v>-36.19211487180127</v>
+        <v>-174.2638294666886</v>
       </c>
     </row>
     <row r="746">
@@ -6395,7 +6395,7 @@
         <v>2.59993874779845</v>
       </c>
       <c r="B746" t="n">
-        <v>-37.19625697598419</v>
+        <v>-168.1809928440568</v>
       </c>
     </row>
     <row r="747">
@@ -6403,7 +6403,7 @@
         <v>2.603433289126136</v>
       </c>
       <c r="B747" t="n">
-        <v>-38.2959232077374</v>
+        <v>-164.8011391989518</v>
       </c>
     </row>
     <row r="748">
@@ -6411,7 +6411,7 @@
         <v>2.606927830453822</v>
       </c>
       <c r="B748" t="n">
-        <v>-39.42254994428649</v>
+        <v>-162.5828032838386</v>
       </c>
     </row>
     <row r="749">
@@ -6419,7 +6419,7 @@
         <v>2.610422371781508</v>
       </c>
       <c r="B749" t="n">
-        <v>-40.45665569532633</v>
+        <v>-161.0347695371796</v>
       </c>
     </row>
     <row r="750">
@@ -6427,7 +6427,7 @@
         <v>2.613916913109194</v>
       </c>
       <c r="B750" t="n">
-        <v>-41.23847272079708</v>
+        <v>-159.9415270508562</v>
       </c>
     </row>
     <row r="751">
@@ -6435,7 +6435,7 @@
         <v>2.61741145443688</v>
       </c>
       <c r="B751" t="n">
-        <v>-41.63858093709879</v>
+        <v>-159.1914413699496</v>
       </c>
     </row>
     <row r="752">
@@ -6443,7 +6443,7 @@
         <v>2.620905995764566</v>
       </c>
       <c r="B752" t="n">
-        <v>-41.65339919846055</v>
+        <v>-158.721501755129</v>
       </c>
     </row>
     <row r="753">
@@ -6451,7 +6451,7 @@
         <v>2.624400537092252</v>
       </c>
       <c r="B753" t="n">
-        <v>-41.41043473460108</v>
+        <v>-158.4952683663532</v>
       </c>
     </row>
     <row r="754">
@@ -6459,7 +6459,7 @@
         <v>2.627895078419938</v>
       </c>
       <c r="B754" t="n">
-        <v>-41.07614734824853</v>
+        <v>-158.4931092308824</v>
       </c>
     </row>
     <row r="755">
@@ -6467,7 +6467,7 @@
         <v>2.631389619747624</v>
       </c>
       <c r="B755" t="n">
-        <v>-40.78086357284013</v>
+        <v>-158.7078089030306</v>
       </c>
     </row>
     <row r="756">
@@ -6475,7 +6475,7 @@
         <v>2.63488416107531</v>
       </c>
       <c r="B756" t="n">
-        <v>-40.60489883246499</v>
+        <v>-159.1432026222728</v>
       </c>
     </row>
     <row r="757">
@@ -6483,7 +6483,7 @@
         <v>2.638378702402997</v>
       </c>
       <c r="B757" t="n">
-        <v>-40.59389846746409</v>
+        <v>-159.8151558212473</v>
       </c>
     </row>
     <row r="758">
@@ -6491,7 +6491,7 @@
         <v>2.641873243730683</v>
       </c>
       <c r="B758" t="n">
-        <v>-40.77612632238931</v>
+        <v>-160.7553951491687</v>
       </c>
     </row>
     <row r="759">
@@ -6499,7 +6499,7 @@
         <v>2.645367785058369</v>
       </c>
       <c r="B759" t="n">
-        <v>-41.17467580877157</v>
+        <v>-162.0202241955285</v>
       </c>
     </row>
     <row r="760">
@@ -6507,7 +6507,7 @@
         <v>2.648862326386055</v>
       </c>
       <c r="B760" t="n">
-        <v>-41.81568670052493</v>
+        <v>-163.7100590407576</v>
       </c>
     </row>
     <row r="761">
@@ -6515,7 +6515,7 @@
         <v>2.652356867713741</v>
       </c>
       <c r="B761" t="n">
-        <v>-42.73499538994246</v>
+        <v>-166.0177431724463</v>
       </c>
     </row>
     <row r="762">
@@ -6523,7 +6523,7 @@
         <v>2.655851409041427</v>
       </c>
       <c r="B762" t="n">
-        <v>-43.9847615081187</v>
+        <v>-169.3752792017031</v>
       </c>
     </row>
     <row r="763">
@@ -6531,7 +6531,7 @@
         <v>2.659345950369113</v>
       </c>
       <c r="B763" t="n">
-        <v>-45.63859798425691</v>
+        <v>-175.1043738406167</v>
       </c>
     </row>
     <row r="764">
@@ -6539,7 +6539,7 @@
         <v>2.662840491696799</v>
       </c>
       <c r="B764" t="n">
-        <v>-47.77644648063031</v>
+        <v>-190.7008766816427</v>
       </c>
     </row>
     <row r="765">
@@ -6547,7 +6547,7 @@
         <v>2.666335033024485</v>
       </c>
       <c r="B765" t="n">
-        <v>-50.32704761610876</v>
+        <v>-176.024841833255</v>
       </c>
     </row>
     <row r="766">
@@ -6555,7 +6555,7 @@
         <v>2.669829574352172</v>
       </c>
       <c r="B766" t="n">
-        <v>-52.28843231544587</v>
+        <v>-170.0747587471461</v>
       </c>
     </row>
     <row r="767">
@@ -6563,7 +6563,7 @@
         <v>2.673324115679857</v>
       </c>
       <c r="B767" t="n">
-        <v>-51.53499325446003</v>
+        <v>-166.7349958422795</v>
       </c>
     </row>
     <row r="768">
@@ -6571,7 +6571,7 @@
         <v>2.676818657007543</v>
       </c>
       <c r="B768" t="n">
-        <v>-48.97569466360574</v>
+        <v>-164.4996460732789</v>
       </c>
     </row>
     <row r="769">
@@ -6579,7 +6579,7 @@
         <v>2.68031319833523</v>
       </c>
       <c r="B769" t="n">
-        <v>-46.48886078477175</v>
+        <v>-162.8949217829505</v>
       </c>
     </row>
     <row r="770">
@@ -6587,7 +6587,7 @@
         <v>2.683807739662916</v>
       </c>
       <c r="B770" t="n">
-        <v>-44.47825519050439</v>
+        <v>-161.7110130357855</v>
       </c>
     </row>
     <row r="771">
@@ -6595,7 +6595,7 @@
         <v>2.687302280990602</v>
       </c>
       <c r="B771" t="n">
-        <v>-42.89681394300886</v>
+        <v>-160.8372293422318</v>
       </c>
     </row>
     <row r="772">
@@ -6603,7 +6603,7 @@
         <v>2.690796822318288</v>
       </c>
       <c r="B772" t="n">
-        <v>-41.65601323163644</v>
+        <v>-160.2088364503416</v>
       </c>
     </row>
     <row r="773">
@@ -6611,7 +6611,7 @@
         <v>2.694291363645974</v>
       </c>
       <c r="B773" t="n">
-        <v>-40.68616198381229</v>
+        <v>-159.7856206212844</v>
       </c>
     </row>
     <row r="774">
@@ -6619,7 +6619,7 @@
         <v>2.69778590497366</v>
       </c>
       <c r="B774" t="n">
-        <v>-39.93731328357099</v>
+        <v>-159.5419578477326</v>
       </c>
     </row>
     <row r="775">
@@ -6627,7 +6627,7 @@
         <v>2.701280446301346</v>
       </c>
       <c r="B775" t="n">
-        <v>-39.37359607060967</v>
+        <v>-159.4617813543995</v>
       </c>
     </row>
     <row r="776">
@@ -6635,7 +6635,7 @@
         <v>2.704774987629032</v>
       </c>
       <c r="B776" t="n">
-        <v>-38.96846867080905</v>
+        <v>-159.5359749690108</v>
       </c>
     </row>
     <row r="777">
@@ -6643,7 +6643,7 @@
         <v>2.708269528956718</v>
       </c>
       <c r="B777" t="n">
-        <v>-38.70135616444909</v>
+        <v>-159.7610330368622</v>
       </c>
     </row>
     <row r="778">
@@ -6651,7 +6651,7 @@
         <v>2.711764070284405</v>
       </c>
       <c r="B778" t="n">
-        <v>-38.55523713606197</v>
+        <v>-160.1386996016909</v>
       </c>
     </row>
     <row r="779">
@@ -6659,7 +6659,7 @@
         <v>2.715258611612091</v>
       </c>
       <c r="B779" t="n">
-        <v>-38.51470415995787</v>
+        <v>-160.6762521604631</v>
       </c>
     </row>
     <row r="780">
@@ -6667,7 +6667,7 @@
         <v>2.718753152939777</v>
       </c>
       <c r="B780" t="n">
-        <v>-38.56426284512324</v>
+        <v>-161.387715775824</v>
       </c>
     </row>
     <row r="781">
@@ -6675,7 +6675,7 @@
         <v>2.722247694267463</v>
       </c>
       <c r="B781" t="n">
-        <v>-38.68659184092709</v>
+        <v>-162.2962838029207</v>
       </c>
     </row>
     <row r="782">
@@ -6683,7 +6683,7 @@
         <v>2.725742235595149</v>
       </c>
       <c r="B782" t="n">
-        <v>-38.86081756421056</v>
+        <v>-163.4390232002687</v>
       </c>
     </row>
     <row r="783">
@@ -6691,7 +6691,7 @@
         <v>2.729236776922835</v>
       </c>
       <c r="B783" t="n">
-        <v>-39.0609612176328</v>
+        <v>-164.8760175505346</v>
       </c>
     </row>
     <row r="784">
@@ -6699,7 +6699,7 @@
         <v>2.732731318250521</v>
       </c>
       <c r="B784" t="n">
-        <v>-39.25518384603979</v>
+        <v>-166.7098108637282</v>
       </c>
     </row>
     <row r="785">
@@ -6707,7 +6707,7 @@
         <v>2.736225859578207</v>
       </c>
       <c r="B785" t="n">
-        <v>-39.40693532981162</v>
+        <v>-169.1323143866542</v>
       </c>
     </row>
     <row r="786">
@@ -6715,7 +6715,7 @@
         <v>2.739720400905893</v>
       </c>
       <c r="B786" t="n">
-        <v>-39.47910658769129</v>
+        <v>-172.5624940963026</v>
       </c>
     </row>
     <row r="787">
@@ -6723,7 +6723,7 @@
         <v>2.743214942233579</v>
       </c>
       <c r="B787" t="n">
-        <v>-39.44129140275682</v>
+        <v>-178.201594321141</v>
       </c>
     </row>
     <row r="788">
@@ -6731,7 +6731,7 @@
         <v>2.746709483561265</v>
       </c>
       <c r="B788" t="n">
-        <v>-39.27774616643937</v>
+        <v>-188.7139404616091</v>
       </c>
     </row>
     <row r="789">
@@ -6739,7 +6739,7 @@
         <v>2.750204024888951</v>
       </c>
       <c r="B789" t="n">
-        <v>-38.99182566560969</v>
+        <v>-178.9937184680076</v>
       </c>
     </row>
     <row r="790">
@@ -6747,7 +6747,7 @@
         <v>2.753698566216638</v>
       </c>
       <c r="B790" t="n">
-        <v>-38.60400357777746</v>
+        <v>-173.3654075910555</v>
       </c>
     </row>
     <row r="791">
@@ -6755,7 +6755,7 @@
         <v>2.757193107544324</v>
       </c>
       <c r="B791" t="n">
-        <v>-38.14474152486943</v>
+        <v>-170.0964862930922</v>
       </c>
     </row>
     <row r="792">
@@ -6763,7 +6763,7 @@
         <v>2.76068764887201</v>
       </c>
       <c r="B792" t="n">
-        <v>-37.64640986868358</v>
+        <v>-167.8763332808993</v>
       </c>
     </row>
     <row r="793">
@@ -6771,7 +6771,7 @@
         <v>2.764182190199696</v>
       </c>
       <c r="B793" t="n">
-        <v>-37.13756497193264</v>
+        <v>-166.2583517376658</v>
       </c>
     </row>
     <row r="794">
@@ -6779,7 +6779,7 @@
         <v>2.767676731527382</v>
       </c>
       <c r="B794" t="n">
-        <v>-36.64053595416047</v>
+        <v>-165.0401571510919</v>
       </c>
     </row>
     <row r="795">
@@ -6787,7 +6787,7 @@
         <v>2.771171272855068</v>
       </c>
       <c r="B795" t="n">
-        <v>-36.17135063937788</v>
+        <v>-164.1140434794337</v>
       </c>
     </row>
     <row r="796">
@@ -6795,7 +6795,7 @@
         <v>2.774665814182754</v>
       </c>
       <c r="B796" t="n">
-        <v>-35.74084187091552</v>
+        <v>-163.4168358840006</v>
       </c>
     </row>
     <row r="797">
@@ -6803,7 +6803,7 @@
         <v>2.77816035551044</v>
       </c>
       <c r="B797" t="n">
-        <v>-35.35611660992058</v>
+        <v>-162.9089806623394</v>
       </c>
     </row>
     <row r="798">
@@ -6811,7 +6811,7 @@
         <v>2.781654896838126</v>
       </c>
       <c r="B798" t="n">
-        <v>-35.02208645779684</v>
+        <v>-162.5626137680302</v>
       </c>
     </row>
     <row r="799">
@@ -6819,7 +6819,7 @@
         <v>2.785149438165812</v>
       </c>
       <c r="B799" t="n">
-        <v>-34.74331734588684</v>
+        <v>-162.3408528989112</v>
       </c>
     </row>
     <row r="800">
@@ -6827,7 +6827,7 @@
         <v>2.788643979493498</v>
       </c>
       <c r="B800" t="n">
-        <v>-34.52807604361075</v>
+        <v>-161.9536049555973</v>
       </c>
     </row>
     <row r="801">
@@ -6835,239 +6835,297 @@
         <v>2.792138520821184</v>
       </c>
       <c r="B801" t="n">
-        <v>-34.41322263570321</v>
+        <v>-163.0438697413562</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="1" t="n">
         <v>2.795633062148871</v>
       </c>
-      <c r="B802" t="n">
-        <v>-34.91240830282285</v>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="1" t="n">
         <v>2.799127603476557</v>
       </c>
-      <c r="B803" t="n">
-        <v>-35.29138377399693</v>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="1" t="n">
         <v>2.802622144804243</v>
       </c>
-      <c r="B804" t="n">
-        <v>-34.09093158452255</v>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="1" t="n">
         <v>2.806116686131929</v>
       </c>
-      <c r="B805" t="n">
-        <v>-34.21942095653454</v>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="1" t="n">
         <v>2.809611227459615</v>
       </c>
-      <c r="B806" t="n">
-        <v>-34.40274373768096</v>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="1" t="n">
         <v>2.813105768787301</v>
       </c>
-      <c r="B807" t="n">
-        <v>-34.65025863591075</v>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="1" t="n">
         <v>2.816600310114987</v>
       </c>
-      <c r="B808" t="n">
-        <v>-34.85307052960839</v>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="1" t="n">
         <v>2.820094851442673</v>
       </c>
-      <c r="B809" t="n">
-        <v>-35.40860379275684</v>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="1" t="n">
         <v>2.823589392770359</v>
       </c>
-      <c r="B810" t="n">
-        <v>-36.36676431837364</v>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="1" t="n">
         <v>2.827083934098045</v>
       </c>
-      <c r="B811" t="n">
-        <v>-36.50506085299562</v>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="1" t="n">
         <v>2.830578475425731</v>
       </c>
-      <c r="B812" t="n">
-        <v>-36.71576213360998</v>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="1" t="n">
         <v>2.834073016753417</v>
       </c>
-      <c r="B813" t="n">
-        <v>-37.06363874531602</v>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="1" t="n">
         <v>2.837567558081104</v>
       </c>
-      <c r="B814" t="n">
-        <v>-38.27877826129984</v>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="1" t="n">
         <v>2.84106209940879</v>
       </c>
-      <c r="B815" t="n">
-        <v>-38.66164300206088</v>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="1" t="n">
         <v>2.844556640736476</v>
       </c>
-      <c r="B816" t="n">
-        <v>-38.96264753159256</v>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="1" t="n">
         <v>2.848051182064162</v>
       </c>
-      <c r="B817" t="n">
-        <v>-39.26216250398239</v>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="1" t="n">
         <v>2.851545723391848</v>
       </c>
-      <c r="B818" t="n">
-        <v>-39.27172543053653</v>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="1" t="n">
         <v>2.855040264719534</v>
       </c>
-      <c r="B819" t="n">
-        <v>-39.2693276038454</v>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="1" t="n">
         <v>2.85853480604722</v>
       </c>
-      <c r="B820" t="n">
-        <v>-39.53423483581908</v>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="1" t="n">
         <v>2.862029347374906</v>
       </c>
-      <c r="B821" t="n">
-        <v>-39.44203805143046</v>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="1" t="n">
         <v>2.865523888702592</v>
       </c>
-      <c r="B822" t="n">
-        <v>-43.64894659892598</v>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="1" t="n">
         <v>2.869018430030279</v>
       </c>
-      <c r="B823" t="n">
-        <v>-44.10235676689624</v>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="1" t="n">
         <v>2.872512971357965</v>
       </c>
-      <c r="B824" t="n">
-        <v>-40.67721556658057</v>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="1" t="n">
         <v>2.876007512685651</v>
       </c>
-      <c r="B825" t="n">
-        <v>-43.09976587677884</v>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="1" t="n">
         <v>2.879502054013336</v>
       </c>
-      <c r="B826" t="n">
-        <v>-48.31484257165108</v>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="1" t="n">
         <v>2.882996595341023</v>
       </c>
-      <c r="B827" t="n">
-        <v>-41.01480558429764</v>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="1" t="n">
         <v>2.886491136668709</v>
       </c>
-      <c r="B828" t="n">
-        <v>-47.98101633241679</v>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="1" t="n">
         <v>2.889985677996395</v>
       </c>
-      <c r="B829" t="n">
-        <v>-48.40099602869586</v>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="1" t="n">
         <v>2.893480219324081</v>
       </c>
-      <c r="B830" t="n">
-        <v>-49.53172040569291</v>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="831">

--- a/RT_radpat_20deg.xlsx
+++ b/RT_radpat_20deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-157.5388501757076</v>
+        <v>-157.5405575985349</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-157.5704518860067</v>
+        <v>-157.5722352015081</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-157.613632300806</v>
+        <v>-157.6154886625109</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-157.6695929281238</v>
+        <v>-157.6715339508337</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-157.7396565027235</v>
+        <v>-157.7416763020976</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-157.8252577057457</v>
+        <v>-157.8273635327538</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-157.9279848355052</v>
+        <v>-157.9301798604507</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-158.0495882723134</v>
+        <v>-158.0518783328923</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-158.1920220908565</v>
+        <v>-158.1944088105967</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-158.3574643201345</v>
+        <v>-158.3599590698825</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-158.5483831162858</v>
+        <v>-158.5509875629687</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-158.7675668306961</v>
+        <v>-158.7702964568941</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-159.0182251863158</v>
+        <v>-159.0210891064289</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-159.3040605988743</v>
+        <v>-159.3070710454049</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-159.6293933388463</v>
+        <v>-159.6325692168016</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-159.9993304192603</v>
+        <v>-160.0026865118047</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-160.4199514929204</v>
+        <v>-160.4235212779711</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-160.8986161402169</v>
+        <v>-160.9024292224805</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-161.4443244427042</v>
+        <v>-161.4484299258352</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-162.0682433474423</v>
+        <v>-162.0726876844741</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-162.7843967179775</v>
+        <v>-162.7892561383537</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-163.6106351960011</v>
+        <v>-163.6160205053986</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-164.5697799808115</v>
+        <v>-164.5758233180837</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-165.690731720004</v>
+        <v>-165.6976422406351</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-167.0081260807193</v>
+        <v>-167.0161780624672</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-168.5547742805593</v>
+        <v>-168.5643558196504</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-170.3253248516633</v>
+        <v>-170.3367986689888</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-172.1411221644898</v>
+        <v>-172.1540603612185</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-173.3437787160701</v>
+        <v>-173.3550113675881</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-172.9898599773693</v>
+        <v>-172.9949323665743</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-171.2829326321903</v>
+        <v>-171.2829626386085</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-169.203989403483</v>
+        <v>-169.2020532947494</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-167.2540253167508</v>
+        <v>-167.2516433177341</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-165.5427994315755</v>
+        <v>-165.5405201944762</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-164.0596740623612</v>
+        <v>-164.0576507928486</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-162.7710929663501</v>
+        <v>-162.7693540692562</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-161.6452152136342</v>
+        <v>-161.6437447385827</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-160.6563694370866</v>
+        <v>-160.6551501436919</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-159.7848182071813</v>
+        <v>-159.7838211231087</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-159.0155338803118</v>
+        <v>-159.0147367068807</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-158.3371266264174</v>
+        <v>-158.3365101287011</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-157.7409800675556</v>
+        <v>-157.740528192404</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-157.2206180899613</v>
+        <v>-157.2203145803063</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-156.7712589126905</v>
+        <v>-156.7710981435503</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-156.3894970117224</v>
+        <v>-156.3894676063059</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-156.0730839399301</v>
+        <v>-156.0731806874874</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-155.8207821450476</v>
+        <v>-155.8209980624139</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-155.6322689665184</v>
+        <v>-155.6326055099897</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-155.5081149849924</v>
+        <v>-155.5085739346957</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-155.4497961870051</v>
+        <v>-155.4503757909782</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-155.4597389131118</v>
+        <v>-155.4604452343808</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-155.541455946791</v>
+        <v>-155.5422938404045</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-155.6997347967941</v>
+        <v>-155.7007154917399</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-155.9409221622689</v>
+        <v>-155.9420598782954</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-156.2733749158867</v>
+        <v>-156.2746837446695</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-156.7080830372922</v>
+        <v>-156.7095909954205</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-157.25968495125</v>
+        <v>-157.2614238645784</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-157.9479936174061</v>
+        <v>-157.9500057906789</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-158.8004999366234</v>
+        <v>-158.8028504076857</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-159.8565747974012</v>
+        <v>-159.8593540437416</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-161.1748491392629</v>
+        <v>-161.1781965412746</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-162.8466538629021</v>
+        <v>-162.8507667928532</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-165.0199194533687</v>
+        <v>-165.0250937405546</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-167.9234950428759</v>
+        <v>-167.9299399955302</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-171.6308175447945</v>
+        <v>-171.6363383561271</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-173.5138693757817</v>
+        <v>-173.5063495189839</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-170.2953490196964</v>
+        <v>-170.2837330209645</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-166.6447324524368</v>
+        <v>-166.6361663499225</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-163.8601956520436</v>
+        <v>-163.8538189508414</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-161.7364525672893</v>
+        <v>-161.7314398455136</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-160.0717352853588</v>
+        <v>-160.067615918974</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-158.7415876712729</v>
+        <v>-158.7380970068851</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-157.669809018364</v>
+        <v>-157.6667712105013</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-156.8082369940039</v>
+        <v>-156.8055470525771</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-156.1256935165932</v>
+        <v>-156.1232770302829</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-155.6019251332737</v>
+        <v>-155.5997259587285</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-155.2242033275911</v>
+        <v>-155.2221837467734</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-154.9854496866951</v>
+        <v>-154.9835792899221</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-154.8832212623216</v>
+        <v>-154.8814745980497</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-154.9193360409787</v>
+        <v>-154.9176964490491</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-155.1000535147098</v>
+        <v>-155.0985039848289</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-155.436802597095</v>
+        <v>-155.4353256192911</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-155.947730388055</v>
+        <v>-155.9463155606765</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-156.6605540357094</v>
+        <v>-156.659181037287</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-157.6177668813912</v>
+        <v>-157.6164123291671</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-158.8867299087953</v>
+        <v>-158.8853516745099</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-160.5806054358167</v>
+        <v>-160.5791212668787</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-162.9068560017317</v>
+        <v>-162.90502111723</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-166.291046925682</v>
+        <v>-166.2879538021299</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-171.5676361422382</v>
+        <v>-171.5578445230836</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-174.5209013950885</v>
+        <v>-174.4978327230092</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-168.5054452739074</v>
+        <v>-168.4974322547298</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-164.1423569111444</v>
+        <v>-164.138154964852</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-161.2240651999035</v>
+        <v>-161.2210649645392</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-159.1242346672783</v>
+        <v>-159.1217541984331</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-157.5517904740717</v>
+        <v>-157.5495735254839</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-156.3587107473536</v>
+        <v>-156.3566345497232</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-155.462765278878</v>
+        <v>-155.4607600730455</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-154.8160878873747</v>
+        <v>-154.8141062497878</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-154.39107487259</v>
+        <v>-154.3890802875882</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-154.1736876941264</v>
+        <v>-154.171643975575</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-154.1603549458762</v>
+        <v>-154.1582276953085</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-154.3571398796681</v>
+        <v>-154.3548878832899</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-154.7807029914729</v>
+        <v>-154.7782708017893</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-155.4614999581281</v>
+        <v>-155.4588111708937</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-156.4505757750891</v>
+        <v>-156.4475096234954</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-157.8334072750878</v>
+        <v>-157.8297724699006</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-159.7589503260696</v>
+        <v>-159.7543859774122</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-162.4999729930976</v>
+        <v>-162.4937320498521</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-166.4916722760238</v>
+        <v>-166.4823078618145</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-170.3797197186091</v>
+        <v>-170.3723508439649</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-167.1279976867899</v>
+        <v>-167.1316115185058</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-162.7083130632571</v>
+        <v>-162.7119539382598</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-159.5962816123557</v>
+        <v>-159.599024569878</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-157.3732553773588</v>
+        <v>-157.3753510137443</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-155.7396891463906</v>
+        <v>-155.7413328917726</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-154.5343521928666</v>
+        <v>-154.5356691078277</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-153.66768626626</v>
+        <v>-153.6687543296434</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-153.0889858602685</v>
+        <v>-153.0898589192522</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-152.7711349761047</v>
+        <v>-152.7718481324994</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-152.7035368465728</v>
+        <v>-152.7041108785437</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-152.8894559486969</v>
+        <v>-152.8899103932349</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-153.3464316468691</v>
+        <v>-153.3467749759888</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-154.109806863167</v>
+        <v>-154.1100480091282</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-155.2408050273567</v>
+        <v>-155.2409628099525</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-156.8420819315095</v>
+        <v>-156.8422074329237</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-159.08207499916</v>
+        <v>-159.0823503381667</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-162.1738031065354</v>
+        <v>-162.1750431989342</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-165.5876918562301</v>
+        <v>-165.5930764502081</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-165.1663617222443</v>
+        <v>-165.1746390261785</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-161.5256951054775</v>
+        <v>-161.5310742433942</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-158.4250779232017</v>
+        <v>-158.4287018974235</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-156.1643033842884</v>
+        <v>-156.1670740723613</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-154.5304073787653</v>
+        <v>-154.5327114430352</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-153.3697621164994</v>
+        <v>-153.3718038026105</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-152.5924777701788</v>
+        <v>-152.5943616129076</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-152.1492878874987</v>
+        <v>-152.1510945112915</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-152.0181146083929</v>
+        <v>-152.0199012356541</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-152.1983502488891</v>
+        <v>-152.2001716926581</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-152.7106403314624</v>
+        <v>-152.7125638451731</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-153.6023797271532</v>
+        <v>-153.6044931020678</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-154.9617971088779</v>
+        <v>-154.9642511774009</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-156.9480935467768</v>
+        <v>-156.9511708756712</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-159.841523208259</v>
+        <v>-159.8458750784563</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-163.8809499673245</v>
+        <v>-163.8879619777339</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-166.0138254658394</v>
+        <v>-166.0194319556616</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-162.188057951746</v>
+        <v>-162.1884379028203</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-158.4429104929105</v>
+        <v>-158.4425167991261</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-155.831441640545</v>
+        <v>-155.8310907912725</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-154.0234730863905</v>
+        <v>-154.0232567145426</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-152.794352652979</v>
+        <v>-152.794275456642</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-152.0233120487645</v>
+        <v>-152.0233639004087</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-151.6496939891171</v>
+        <v>-151.6498723567818</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-151.6515412420674</v>
+        <v>-151.6518545912557</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-152.0384104526791</v>
+        <v>-152.0388731554557</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-152.8545200261768</v>
+        <v>-152.8551598436873</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-154.1947437818508</v>
+        <v>-154.195618910745</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-156.2456625632405</v>
+        <v>-156.2468436000417</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-159.3793412289216</v>
+        <v>-159.3808248461286</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-164.1212543678495</v>
+        <v>-164.12145927723</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-166.2029388351091</v>
+        <v>-166.1946059174757</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-161.1607029650793</v>
+        <v>-161.1549845016549</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-157.2334899681341</v>
+        <v>-157.2298531535486</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-154.6570328243697</v>
+        <v>-154.6543245657643</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-152.9434400226649</v>
+        <v>-152.941201160593</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-151.8450883095376</v>
+        <v>-151.8431132163082</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-151.2420614259642</v>
+        <v>-151.2402232911281</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-151.0828156474209</v>
+        <v>-151.0810270352214</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-151.3620278568027</v>
+        <v>-151.3602048267063</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-152.1178973165582</v>
+        <v>-152.1159415799502</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-153.4464402680471</v>
+        <v>-153.4441955570969</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-155.5420617320423</v>
+        <v>-155.5392072698185</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-158.7715558164458</v>
+        <v>-158.7672662775451</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-163.268284809628</v>
+        <v>-163.2606415833509</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-163.4470343654785</v>
+        <v>-163.442784394678</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-158.766756962947</v>
+        <v>-158.7661249036242</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-155.2783670983702</v>
+        <v>-155.278216189583</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-152.9610165859326</v>
+        <v>-152.9608699132851</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-151.4397410497664</v>
+        <v>-151.4395146574968</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-150.516369974126</v>
+        <v>-150.5160405697975</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-150.0964329837663</v>
+        <v>-150.095993077822</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-150.147330403085</v>
+        <v>-150.1467573753303</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-150.6845615596727</v>
+        <v>-150.6838249251173</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-151.7765526749398</v>
+        <v>-151.7756093715741</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-153.5693964784424</v>
+        <v>-153.568176866118</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-156.3281349768644</v>
+        <v>-156.3266357269287</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-160.2150812752607</v>
+        <v>-160.2143408044352</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-161.9773243422076</v>
+        <v>-161.9817017398094</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-158.2041988379563</v>
+        <v>-158.2085958132753</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-154.6341801478505</v>
+        <v>-154.63724597928</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-152.2087833371189</v>
+        <v>-152.2111202615748</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-150.6290433567361</v>
+        <v>-150.6309861852864</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-149.6929730244449</v>
+        <v>-149.6946963218493</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-149.3019279109546</v>
+        <v>-149.3035443868356</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-149.4250864796497</v>
+        <v>-149.4266871235602</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-150.0876488900849</v>
+        <v>-150.089331264501</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-151.3809523896646</v>
+        <v>-151.3828608607651</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-153.500138898337</v>
+        <v>-153.5025836171773</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-156.7934984996436</v>
+        <v>-156.7973164846011</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-161.0224337952441</v>
+        <v>-161.0294251367351</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-160.253661241299</v>
+        <v>-160.25773404289</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-155.9033847133378</v>
+        <v>-155.9046134260546</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-152.7618396589856</v>
+        <v>-152.7625013804712</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-150.7352895785637</v>
+        <v>-150.7358491471474</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-149.5100499044931</v>
+        <v>-149.5106286682981</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-148.9256803980174</v>
+        <v>-148.9263323671568</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-148.9217426477078</v>
+        <v>-148.9225101737412</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-149.5115806228649</v>
+        <v>-149.5125191835332</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-150.789408695457</v>
+        <v>-150.7905993689988</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-152.9788876137658</v>
+        <v>-152.9804616701824</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-156.5351002911035</v>
+        <v>-156.53712901589</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-161.367424098499</v>
+        <v>-161.3672521882974</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-159.738190103042</v>
+        <v>-159.7329785363862</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-154.9278749276655</v>
+        <v>-154.9244026258988</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-151.764028500902</v>
+        <v>-151.7615710021183</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-149.7978350901681</v>
+        <v>-149.7958759687274</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-148.6691021164611</v>
+        <v>-148.6673957380936</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-148.2164459751918</v>
+        <v>-148.2148520243662</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-148.391533143661</v>
+        <v>-148.3899406105543</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-149.2328976919763</v>
+        <v>-149.231182991503</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-150.8848831362336</v>
+        <v>-150.8828304066341</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-153.6698241900196</v>
+        <v>-153.6669147271087</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-158.0361542277865</v>
+        <v>-158.0307831435182</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-160.3453893484378</v>
+        <v>-160.3397293785818</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-155.6861589812069</v>
+        <v>-155.6849372371443</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-151.8568694180383</v>
+        <v>-151.8564247775012</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-149.448717377647</v>
+        <v>-149.4483703211964</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-148.013796545722</v>
+        <v>-148.0134169302464</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-147.3259963567792</v>
+        <v>-147.3255366134177</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-147.3003626454826</v>
+        <v>-147.2997913506674</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-147.9477594947106</v>
+        <v>-147.9470359217997</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-149.3784428300145</v>
+        <v>-149.3775099839185</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-151.8500716990887</v>
+        <v>-151.8488845341449</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-155.7361126568921</v>
+        <v>-155.7351620417139</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-158.8099100569883</v>
+        <v>-158.8132955612278</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-155.1083999734182</v>
+        <v>-155.1124552591215</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-151.1905502125868</v>
+        <v>-151.1932610679748</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-148.6726925822384</v>
+        <v>-148.6747318639657</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-147.1751200516718</v>
+        <v>-147.1768290071929</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-146.4646591573446</v>
+        <v>-146.4662152355093</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-146.4527704626738</v>
+        <v>-146.4542942045541</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-147.155395375297</v>
+        <v>-147.1570086125782</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-148.7025718534584</v>
+        <v>-148.7044647693515</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-151.4073227382222</v>
+        <v>-151.4099273163718</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-155.7474502805419</v>
+        <v>-155.7520474677394</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-158.3709739661682</v>
+        <v>-158.3756650775286</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-153.7540781836036</v>
+        <v>-153.7548960813094</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-149.9170462000119</v>
+        <v>-149.9172907594338</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-147.5706937685411</v>
+        <v>-147.5709108225961</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-146.2574767793371</v>
+        <v>-146.2577614620264</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-145.7573119924749</v>
+        <v>-145.7576930621258</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-146.008051275342</v>
+        <v>-146.0085605396523</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-147.0709711124368</v>
+        <v>-147.0716534156228</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-149.1689850048611</v>
+        <v>-149.16990537455</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-152.8075195980088</v>
+        <v>-152.808601822766</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-157.8061842233244</v>
+        <v>-157.8045126012536</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-155.312418301711</v>
+        <v>-155.3079176965438</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-150.4689120736974</v>
+        <v>-150.4662012268361</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-147.4748576977165</v>
+        <v>-147.4729294255632</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-145.7452629933194</v>
+        <v>-145.7436865135173</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-144.9362146071605</v>
+        <v>-144.934786210879</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-144.9243180416163</v>
+        <v>-144.9229102831637</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-145.7284202003574</v>
+        <v>-145.7268982057164</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-147.5196559603709</v>
+        <v>-147.5178021082414</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-150.7139811550834</v>
+        <v>-150.7112482197695</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-155.5542958430914</v>
+        <v>-155.5494422933687</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-154.9691472551097</v>
+        <v>-154.9674377497232</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-149.9594409946042</v>
+        <v>-149.9594183977558</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-146.68800285905</v>
+        <v>-146.688076262944</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-144.7742868266616</v>
+        <v>-144.7742932510128</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-143.8346935498256</v>
+        <v>-143.8346152925562</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-143.7214173464514</v>
+        <v>-143.721247124852</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-144.4382724283069</v>
+        <v>-144.437998263361</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-146.1420905274838</v>
+        <v>-146.1416962535698</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-149.2265091601257</v>
+        <v>-149.2260701595017</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-153.9767244166518</v>
+        <v>-153.9775770357786</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-153.8349373396109</v>
+        <v>-153.8387158214835</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-148.8520260636071</v>
+        <v>-148.8543058004032</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-145.5455571709041</v>
+        <v>-145.5471170479285</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-143.6282487417482</v>
+        <v>-143.629505801815</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-142.7149756916372</v>
+        <v>-142.7161112044505</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-142.6612852243797</v>
+        <v>-142.6624110455156</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-143.485329736775</v>
+        <v>-143.4865590725048</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-145.3811913988091</v>
+        <v>-145.3827146187502</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-148.8321629744781</v>
+        <v>-148.8344675156992</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-153.8654252836106</v>
+        <v>-153.8692821529656</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-151.8162110823868</v>
+        <v>-151.8167857412369</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-146.8563334141636</v>
+        <v>-146.8561421315866</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-143.8170776922198</v>
+        <v>-143.8169206433532</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-142.1202346813297</v>
+        <v>-142.1201656603028</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-141.4172401253589</v>
+        <v>-141.4172532151309</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-141.6026588203252</v>
+        <v>-141.6027550305883</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-142.7451637411628</v>
+        <v>-142.7453465778314</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-145.1356359415459</v>
+        <v>-145.1358906814549</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-149.4084670234013</v>
+        <v>-149.408416868132</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-153.2097450651959</v>
+        <v>-153.2065581032966</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-148.1905505653872</v>
+        <v>-148.1882833612377</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-143.9576853072364</v>
+        <v>-143.9563161259331</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-141.4945427616764</v>
+        <v>-141.4935065790457</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-140.2212857868747</v>
+        <v>-140.2203829014286</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-139.9002990108755</v>
+        <v>-139.8994248645703</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-140.5058998145767</v>
+        <v>-140.5049617040168</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-142.206220024366</v>
+        <v>-142.2050795473347</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-145.4776209619241</v>
+        <v>-145.4759454437727</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-150.6744888454554</v>
+        <v>-150.6716949465785</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-149.1945399071253</v>
+        <v>-149.194347206263</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-143.9105447496131</v>
+        <v>-143.9108787999629</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-140.6965616768322</v>
+        <v>-140.6968154250861</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-138.9134365937118</v>
+        <v>-138.9136027715051</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-138.1799744717543</v>
+        <v>-138.1800733363273</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-138.3899762767589</v>
+        <v>-138.3900187518489</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-139.6366632649668</v>
+        <v>-139.6366588320294</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-142.2858251539608</v>
+        <v>-142.2858212610474</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-147.0969544979793</v>
+        <v>-147.097462992557</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-149.2778664100405</v>
+        <v>-149.2804818296132</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-143.4038917419779</v>
+        <v>-143.4052208288238</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-139.4788098842675</v>
+        <v>-139.4796487762063</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-137.2509107805397</v>
+        <v>-137.2515800563369</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-136.1843384382763</v>
+        <v>-136.1849520628274</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-136.1004071773793</v>
+        <v>-136.1010340951992</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-137.0443027565108</v>
+        <v>-137.0450179074198</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-139.3256633267338</v>
+        <v>-139.3266071126683</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-143.7414911349123</v>
+        <v>-143.7430398810539</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-147.909240889455</v>
+        <v>-147.9101355677225</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-141.8934830768351</v>
+        <v>-141.8929700528186</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-137.3886687908611</v>
+        <v>-137.3882916413912</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-134.8103225132643</v>
+        <v>-134.8100602755613</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-133.4834632369364</v>
+        <v>-133.4832723615067</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-133.1756379130411</v>
+        <v>-133.1754934037189</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-133.9076116355923</v>
+        <v>-133.9074943115602</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-135.9772414354082</v>
+        <v>-135.9771164528859</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-140.2393902475145</v>
+        <v>-140.2390509614236</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-145.2083332570974</v>
+        <v>-145.206436614712</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-138.6993236309569</v>
+        <v>-138.6985200375933</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-133.7519410564335</v>
+        <v>-133.7515143512977</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-130.8769058622059</v>
+        <v>-130.8765897088113</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-129.2907672471606</v>
+        <v>-129.2904908342705</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-128.7349078902823</v>
+        <v>-128.7346374858087</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-129.2305087887254</v>
+        <v>-129.2302143271949</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-131.1099760217829</v>
+        <v>-131.1096078976584</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-135.3780325568489</v>
+        <v>-135.3774689176931</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-139.3934576178647</v>
+        <v>-139.3934716916643</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-131.5013158980624</v>
+        <v>-131.5015820603016</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-126.0647952778061</v>
+        <v>-126.0649444987027</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-122.5012234593926</v>
+        <v>-122.5013148378326</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-119.983273562157</v>
+        <v>-119.9833330606247</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-118.1646380710235</v>
+        <v>-118.1646775640111</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-116.8769792604689</v>
+        <v>-116.8770048335076</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-116.0304487019436</v>
+        <v>-116.0304636173202</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-115.5765246966853</v>
+        <v>-115.576530650096</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-115.4925551745482</v>
+        <v>-115.4925527903484</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-115.7756057743269</v>
+        <v>-115.7755947977798</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-116.4416471668461</v>
+        <v>-116.4416264316481</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-117.5296018171653</v>
+        <v>-117.5295687089228</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-119.1127311539821</v>
+        <v>-119.1126809597328</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-121.3257216090836</v>
+        <v>-121.3256453131275</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-124.4339324246798</v>
+        <v>-124.4338109893734</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-129.0390813410104</v>
+        <v>-129.0388703649063</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-136.5096901015945</v>
+        <v>-136.5093777874243</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-137.5994033660795</v>
+        <v>-137.6000512730392</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-132.0849600692646</v>
+        <v>-132.0853763283302</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-129.5357685498201</v>
+        <v>-129.5360809879495</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-128.6528881768069</v>
+        <v>-128.6531648432623</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-128.9326040228199</v>
+        <v>-128.9328799168029</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-130.2816309533608</v>
+        <v>-130.2819391543149</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-132.9028344217013</v>
+        <v>-132.9032367321192</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-137.5004062590231</v>
+        <v>-137.5011170780269</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-144.5878123657824</v>
+        <v>-144.5896888886786</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-140.6691456765078</v>
+        <v>-140.6695169709194</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-135.9897829685511</v>
+        <v>-135.9898867875988</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-133.7540447863484</v>
+        <v>-133.7541414326317</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-132.9804771134516</v>
+        <v>-132.98060235549</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-133.3370722662839</v>
+        <v>-133.337244328665</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-134.8184206293812</v>
+        <v>-134.8186651161646</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-137.7338122879068</v>
+        <v>-137.7341703631077</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-142.9575073107188</v>
+        <v>-142.9579119311892</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-147.5838401410327</v>
+        <v>-147.5820024500566</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-141.778088732948</v>
+        <v>-141.7767842760613</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-138.0164017007177</v>
+        <v>-138.0155640199104</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-136.2302742972505</v>
+        <v>-136.2296015889585</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-135.7495176288318</v>
+        <v>-135.7488929617866</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-136.3772236974526</v>
+        <v>-136.376569898138</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-138.2035213038323</v>
+        <v>-138.2027356884904</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-141.683830710323</v>
+        <v>-141.6826673429281</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-147.644213948745</v>
+        <v>-147.6419010285279</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-147.6780802106028</v>
+        <v>-147.6775668545752</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-142.2496313346437</v>
+        <v>-142.2497963246131</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-139.3020915816942</v>
+        <v>-139.3022228021125</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-137.9896159774541</v>
+        <v>-137.9896847137836</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-137.8730183049518</v>
+        <v>-137.8730281882727</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-138.8712478735197</v>
+        <v>-138.871200491241</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-141.1865428049742</v>
+        <v>-141.1864465356958</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-145.4588615231246</v>
+        <v>-145.4588926341998</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-151.1104624885272</v>
+        <v>-151.1128418235978</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-146.9519312836315</v>
+        <v>-146.9540223450323</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-142.5663467012205</v>
+        <v>-142.5675574510647</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-140.3236996742436</v>
+        <v>-140.3246395720985</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-139.4855266685836</v>
+        <v>-139.4863948196189</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-139.7855525445987</v>
+        <v>-139.7864647753653</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-141.2558839478778</v>
+        <v>-141.2569730933444</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-144.2549018044494</v>
+        <v>-144.2564428809509</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-149.6008286637518</v>
+        <v>-149.6035270785782</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-151.8499249539106</v>
+        <v>-151.8502952715676</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-146.2131687528574</v>
+        <v>-146.2123878254894</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-142.8358050177614</v>
+        <v>-142.8352124314492</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-141.2295821657732</v>
+        <v>-141.229136299101</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-140.8773191316627</v>
+        <v>-140.8769633427282</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-141.6535830793368</v>
+        <v>-141.6532737942024</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-143.7181426465517</v>
+        <v>-143.7178093599717</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-147.6391335329219</v>
+        <v>-147.6384472378235</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-153.3966574427091</v>
+        <v>-153.3931881875139</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-150.1983194668042</v>
+        <v>-150.1956099332186</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-145.5147781603278</v>
+        <v>-145.5133767079755</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-143.0467475076496</v>
+        <v>-143.045687120556</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-142.0350969494616</v>
+        <v>-142.0341165164093</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-142.1768731771024</v>
+        <v>-142.1758363112723</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-143.4745473667615</v>
+        <v>-143.4733105815062</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-146.2344077897541</v>
+        <v>-146.2327108643537</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-151.1665788560875</v>
+        <v>-151.163969389019</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-154.1265714326176</v>
+        <v>-154.1270751531608</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-148.7755709156349</v>
+        <v>-148.7771783783399</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-145.2350827258386</v>
+        <v>-145.2362499963667</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-143.491403362041</v>
+        <v>-143.4923260676992</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-143.0184628341611</v>
+        <v>-143.0192744123816</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-143.6722038680747</v>
+        <v>-143.673007258138</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-145.5895041161973</v>
+        <v>-145.5904524080524</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-149.3060326714836</v>
+        <v>-149.307632565817</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-155.2567662360661</v>
+        <v>-155.2617070922877</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-152.9716457361147</v>
+        <v>-152.9746625567278</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-147.9674758167288</v>
+        <v>-147.9687183509691</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-145.3134801624812</v>
+        <v>-145.3143849073192</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-144.1881929959681</v>
+        <v>-144.1890540383139</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-144.2500317419201</v>
+        <v>-144.2509806809889</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-145.4894514396876</v>
+        <v>-145.4906191640943</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-148.2214748538953</v>
+        <v>-148.2230740341675</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-153.2658889160808</v>
+        <v>-153.2679966436715</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-156.574681054984</v>
+        <v>-156.571404271419</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-150.7961714595589</v>
+        <v>-150.7932651840337</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-147.1060273773366</v>
+        <v>-147.1040829679382</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-145.2843494099347</v>
+        <v>-145.2828014822189</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-144.7504002166189</v>
+        <v>-144.7489917175088</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-145.3437664138833</v>
+        <v>-145.3423166127694</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-147.1851550465151</v>
+        <v>-147.1834123748724</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-150.7555160106435</v>
+        <v>-150.7528109872641</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-156.2213794656919</v>
+        <v>-156.2158207974872</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-154.1835223805221</v>
+        <v>-154.1817027593673</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-149.3662198079277</v>
+        <v>-149.3658255007986</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-146.7001336261251</v>
+        <v>-146.6998685955895</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-145.5146266195213</v>
+        <v>-145.5143163135674</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-145.4821534302433</v>
+        <v>-145.4817438088609</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-146.575779235756</v>
+        <v>-146.5752241878559</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-149.052863125212</v>
+        <v>-149.0521208737652</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-153.6125574375854</v>
+        <v>-153.6120140888955</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-158.1264337794898</v>
+        <v>-158.1313835570669</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-153.0303145471628</v>
+        <v>-153.0341244331938</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-149.0444176132476</v>
+        <v>-149.0467794187363</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-147.0220302274449</v>
+        <v>-147.0238892572967</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-146.3370417689391</v>
+        <v>-146.3387553174741</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-146.7927099667745</v>
+        <v>-146.7945053587399</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-148.4860701326435</v>
+        <v>-148.4882361826662</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-151.9034364271675</v>
+        <v>-151.9066260792541</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-157.9035126968239</v>
+        <v>-157.9091735764714</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-157.129551771999</v>
+        <v>-157.1288310647986</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-151.560581252426</v>
+        <v>-151.5592358429573</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-148.5498673845505</v>
+        <v>-148.548871292958</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-147.1643118439521</v>
+        <v>-147.1635392661354</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-146.9785263295268</v>
+        <v>-146.9778716399946</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-147.9252169616876</v>
+        <v>-147.9245914904367</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-150.2268377766449</v>
+        <v>-150.2260553796927</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-154.5334166004226</v>
+        <v>-154.5315793362321</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-159.3618851404995</v>
+        <v>-159.3550013801988</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-154.6087366427916</v>
+        <v>-154.6053133513334</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-150.3978303511498</v>
+        <v>-150.3959524458638</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-148.1793248141099</v>
+        <v>-148.1778504267409</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-147.2959402663684</v>
+        <v>-147.2945423923613</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-147.5100408070012</v>
+        <v>-147.5085396846858</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-148.8528685817909</v>
+        <v>-148.8510592384099</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-151.6473705520762</v>
+        <v>-151.6448930595292</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-156.593318547679</v>
+        <v>-156.5897446499685</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-159.2447639733623</v>
+        <v>-159.2466298181371</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-153.8872004597451</v>
+        <v>-153.8899899963549</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-150.3626775234448</v>
+        <v>-150.3646534332755</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-148.5936945730239</v>
+        <v>-148.5952572427289</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-148.0681793141175</v>
+        <v>-148.0695621483972</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-148.6427902020783</v>
+        <v>-148.6441559583932</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-150.4472189295798</v>
+        <v>-150.448797409237</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-154.0223346793693</v>
+        <v>-154.0247642576905</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-160.4258002711933</v>
+        <v>-160.4325723937445</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-159.1880295384618</v>
+        <v>-159.1917850273023</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-153.4612051824265</v>
+        <v>-153.4622962478662</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-150.4587006581236</v>
+        <v>-150.4594573420486</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-149.0842081278271</v>
+        <v>-149.0849496807656</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-148.9026601619339</v>
+        <v>-148.9035005052222</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-149.84927317387</v>
+        <v>-149.8503189899362</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-152.1613603454666</v>
+        <v>-152.1627690982149</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-156.5961695894766</v>
+        <v>-156.5980172227982</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-162.3091506485765</v>
+        <v>-162.3054962306099</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-156.9516838841377</v>
+        <v>-156.9472158297795</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-152.4186299347739</v>
+        <v>-152.41594510247</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-150.0521160502247</v>
+        <v>-150.0500874338107</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-149.0475324331713</v>
+        <v>-149.0457406384796</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-149.126457595674</v>
+        <v>-149.1246738132349</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-150.2893812403306</v>
+        <v>-150.2873666334245</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-152.8098475460424</v>
+        <v>-152.8071556239535</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-157.3995315013736</v>
+        <v>-157.3948089041564</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-161.8146447681586</v>
+        <v>-161.8094817435158</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-156.6128876055986</v>
+        <v>-156.613156083499</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-152.5739854881386</v>
+        <v>-152.5744998708749</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-150.4565607319608</v>
+        <v>-150.4569281484796</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-149.6258429246034</v>
+        <v>-149.626063939514</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-149.8631611816458</v>
+        <v>-149.8632482574886</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-151.2138397910296</v>
+        <v>-151.2137968999539</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-154.0457912415581</v>
+        <v>-154.0456639616889</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-159.4772611694987</v>
+        <v>-159.4780591999468</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-164.4482202047269</v>
+        <v>-164.4590059118069</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-157.313433340607</v>
+        <v>-157.3177433616079</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-153.2185506112577</v>
+        <v>-153.2211685015797</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-151.1928790114927</v>
+        <v>-151.1950224923501</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-150.4793992992538</v>
+        <v>-150.4814617744476</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-150.8675735559854</v>
+        <v>-150.8698203157807</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-152.4469488995096</v>
+        <v>-152.4497283899369</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-155.7130251519846</v>
+        <v>-155.7171230916064</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-162.1159151708565</v>
+        <v>-162.1235391591538</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-163.1649473674599</v>
+        <v>-163.1606074733705</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-156.2515135774245</v>
+        <v>-156.2480394072788</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-152.6585112387312</v>
+        <v>-152.6561451321043</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-150.8347301099243</v>
+        <v>-150.8328735333691</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-150.1817051364608</v>
+        <v>-150.1800743933876</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-150.5244651272813</v>
+        <v>-150.5228688627279</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-151.9166064306688</v>
+        <v>-151.9148138814279</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-154.6639823283298</v>
+        <v>-154.6614324847031</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-159.3287239061496</v>
+        <v>-159.3231754237719</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-161.8444197162596</v>
+        <v>-161.8361686173385</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-156.896018066707</v>
+        <v>-156.8932533018963</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-153.3286851728074</v>
+        <v>-153.3271761217981</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-151.3972407009573</v>
+        <v>-151.396006907374</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-150.6211725194412</v>
+        <v>-150.6199430391193</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-150.824099053053</v>
+        <v>-150.8227142519005</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-152.0434764171882</v>
+        <v>-152.04176003054</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-154.5787650572104</v>
+        <v>-154.5763955894315</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-159.3261962995948</v>
+        <v>-159.3226392015442</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-166.1439379223701</v>
+        <v>-166.1483251628422</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-159.9452623869845</v>
+        <v>-159.9518279744921</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-155.1885934544289</v>
+        <v>-155.1924725440042</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-152.7469954434054</v>
+        <v>-152.7499166953121</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-151.6680682742065</v>
+        <v>-151.6706321052051</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-151.6410438813715</v>
+        <v>-151.6435666607019</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-152.6452120482286</v>
+        <v>-152.6480041317114</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-154.9312652440153</v>
+        <v>-154.9348705088552</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-159.3242987867781</v>
+        <v>-159.3304418811273</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-166.9647984587608</v>
+        <v>-166.9785036591045</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-161.4111613572439</v>
+        <v>-161.4097928885755</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-156.0338245315298</v>
+        <v>-156.0323956004961</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-153.2452965994951</v>
+        <v>-153.2442900778757</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-151.8768567546788</v>
+        <v>-151.8761314964828</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-151.5388622094735</v>
+        <v>-151.5383275187153</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-152.1417136203425</v>
+        <v>-152.1413034900858</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-153.8036596877541</v>
+        <v>-153.8032892646256</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-156.9516664437126</v>
+        <v>-156.9509992847478</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-162.5256828538582</v>
+        <v>-162.5216871255808</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-164.2270033817994</v>
+        <v>-164.2158821760025</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-158.1827670020475</v>
+        <v>-158.1781677438886</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-154.5813511771128</v>
+        <v>-154.5784545679279</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-152.6460693934991</v>
+        <v>-152.6437031493624</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-151.819061366865</v>
+        <v>-151.8168274409522</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-151.9064968575003</v>
+        <v>-151.9041535308983</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-152.9140387608645</v>
+        <v>-152.9113311281622</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-155.0541713399417</v>
+        <v>-155.0506581404516</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-158.9461998224479</v>
+        <v>-158.9408364257617</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-165.5351557091793</v>
+        <v>-165.5279314034913</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-163.1277996917819</v>
+        <v>-163.1335609389537</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-157.559698982156</v>
+        <v>-157.5636730904319</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-154.5309052440966</v>
+        <v>-154.5337253104959</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-152.9628593684459</v>
+        <v>-152.9651191910792</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-152.4182609395623</v>
+        <v>-152.4202516502416</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-152.7662589573393</v>
+        <v>-152.7681744210964</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-154.0668848046107</v>
+        <v>-154.0689382684573</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-156.6326553357479</v>
+        <v>-156.6352755976751</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-161.4232750972608</v>
+        <v>-161.4282060845732</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-169.7216629395959</v>
+        <v>-169.7410416458926</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-162.8081205641304</v>
+        <v>-162.810832649585</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-157.5479740178123</v>
+        <v>-157.5489039757577</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-154.8311334638684</v>
+        <v>-154.8318931598226</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-153.4770283258072</v>
+        <v>-153.4778424458145</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-153.1032267755872</v>
+        <v>-153.1041883006415</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-153.6151963825688</v>
+        <v>-153.6164052955427</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-155.1136951418624</v>
+        <v>-155.1153209182643</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-158.004415110027</v>
+        <v>-158.0068233187778</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-163.6513811105121</v>
+        <v>-163.6553556229322</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-172.694710747144</v>
+        <v>-172.6748864481497</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-162.3939076039679</v>
+        <v>-162.386637108895</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-157.4905519275408</v>
+        <v>-157.4864896573122</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-154.9447488706168</v>
+        <v>-154.9416921053084</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-153.6661160969974</v>
+        <v>-153.6634500150334</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-153.3114326085092</v>
+        <v>-153.3088584781877</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-153.794317110834</v>
+        <v>-153.7915844056704</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-155.1983464358992</v>
+        <v>-155.1951342350957</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-157.8430379913748</v>
+        <v>-157.8386934834771</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-162.5468868612134</v>
+        <v>-162.5395118196673</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-167.7899544788878</v>
+        <v>-167.7840695869188</v>
       </c>
     </row>
     <row r="602">
@@ -5243,7 +5243,7 @@
         <v>2.096724796611653</v>
       </c>
       <c r="B602" t="n">
-        <v>-162.036729239738</v>
+        <v>-162.0396466931186</v>
       </c>
     </row>
     <row r="603">
@@ -5251,7 +5251,7 @@
         <v>2.100219337939339</v>
       </c>
       <c r="B603" t="n">
-        <v>-157.4881750864028</v>
+        <v>-157.4904170898421</v>
       </c>
     </row>
     <row r="604">
@@ -5259,7 +5259,7 @@
         <v>2.103713879267025</v>
       </c>
       <c r="B604" t="n">
-        <v>-154.8902005402187</v>
+        <v>-154.8918471440354</v>
       </c>
     </row>
     <row r="605">
@@ -5267,7 +5267,7 @@
         <v>2.107208420594711</v>
       </c>
       <c r="B605" t="n">
-        <v>-153.4592547569595</v>
+        <v>-153.4605442833081</v>
       </c>
     </row>
     <row r="606">
@@ -5275,7 +5275,7 @@
         <v>2.110702961922397</v>
       </c>
       <c r="B606" t="n">
-        <v>-152.877178135097</v>
+        <v>-152.8782465596799</v>
       </c>
     </row>
     <row r="607">
@@ -5283,7 +5283,7 @@
         <v>2.114197503250083</v>
       </c>
       <c r="B607" t="n">
-        <v>-153.0323882222442</v>
+        <v>-153.0333219821742</v>
       </c>
     </row>
     <row r="608">
@@ -5291,7 +5291,7 @@
         <v>2.117692044577769</v>
       </c>
       <c r="B608" t="n">
-        <v>-153.9387987952286</v>
+        <v>-153.9396762239965</v>
       </c>
     </row>
     <row r="609">
@@ -5299,7 +5299,7 @@
         <v>2.121186585905456</v>
       </c>
       <c r="B609" t="n">
-        <v>-155.7464206144229</v>
+        <v>-155.7473651111406</v>
       </c>
     </row>
     <row r="610">
@@ -5307,7 +5307,7 @@
         <v>2.124681127233142</v>
       </c>
       <c r="B610" t="n">
-        <v>-158.8602683472527</v>
+        <v>-158.8616637404493</v>
       </c>
     </row>
     <row r="611">
@@ -5315,7 +5315,7 @@
         <v>2.128175668560828</v>
       </c>
       <c r="B611" t="n">
-        <v>-164.2712041012612</v>
+        <v>-164.275585874608</v>
       </c>
     </row>
     <row r="612">
@@ -5323,7 +5323,7 @@
         <v>2.131670209888514</v>
       </c>
       <c r="B612" t="n">
-        <v>-168.4000031958496</v>
+        <v>-168.4142119253625</v>
       </c>
     </row>
     <row r="613">
@@ -5331,7 +5331,7 @@
         <v>2.1351647512162</v>
       </c>
       <c r="B613" t="n">
-        <v>-162.0238182606483</v>
+        <v>-162.028565677423</v>
       </c>
     </row>
     <row r="614">
@@ -5339,7 +5339,7 @@
         <v>2.138659292543886</v>
       </c>
       <c r="B614" t="n">
-        <v>-157.9564317559381</v>
+        <v>-157.9590856279763</v>
       </c>
     </row>
     <row r="615">
@@ -5347,7 +5347,7 @@
         <v>2.142153833871572</v>
       </c>
       <c r="B615" t="n">
-        <v>-155.7021938780665</v>
+        <v>-155.7042737789141</v>
       </c>
     </row>
     <row r="616">
@@ -5355,7 +5355,7 @@
         <v>2.145648375199258</v>
       </c>
       <c r="B616" t="n">
-        <v>-154.5583635130303</v>
+        <v>-154.5602946522034</v>
       </c>
     </row>
     <row r="617">
@@ -5363,7 +5363,7 @@
         <v>2.149142916526944</v>
       </c>
       <c r="B617" t="n">
-        <v>-154.2588352383333</v>
+        <v>-154.2608195635068</v>
       </c>
     </row>
     <row r="618">
@@ -5371,7 +5371,7 @@
         <v>2.15263745785463</v>
       </c>
       <c r="B618" t="n">
-        <v>-154.736282036434</v>
+        <v>-154.7385069307455</v>
       </c>
     </row>
     <row r="619">
@@ -5379,7 +5379,7 @@
         <v>2.156131999182316</v>
       </c>
       <c r="B619" t="n">
-        <v>-156.0731018698035</v>
+        <v>-156.0758298496019</v>
       </c>
     </row>
     <row r="620">
@@ -5387,7 +5387,7 @@
         <v>2.159626540510002</v>
       </c>
       <c r="B620" t="n">
-        <v>-158.5837704684328</v>
+        <v>-158.58755514313</v>
       </c>
     </row>
     <row r="621">
@@ -5395,7 +5395,7 @@
         <v>2.163121081837688</v>
       </c>
       <c r="B621" t="n">
-        <v>-163.2769612505662</v>
+        <v>-163.2835861478626</v>
       </c>
     </row>
     <row r="622">
@@ -5403,7 +5403,7 @@
         <v>2.166615623165375</v>
       </c>
       <c r="B622" t="n">
-        <v>-176.4667154926949</v>
+        <v>-176.4912653861704</v>
       </c>
     </row>
     <row r="623">
@@ -5411,7 +5411,7 @@
         <v>2.170110164493061</v>
       </c>
       <c r="B623" t="n">
-        <v>-167.4387812044711</v>
+        <v>-167.4267612781455</v>
       </c>
     </row>
     <row r="624">
@@ -5419,7 +5419,7 @@
         <v>2.173604705820747</v>
       </c>
       <c r="B624" t="n">
-        <v>-160.5530420607033</v>
+        <v>-160.5476334173131</v>
       </c>
     </row>
     <row r="625">
@@ -5427,7 +5427,7 @@
         <v>2.177099247148433</v>
       </c>
       <c r="B625" t="n">
-        <v>-157.2466426093113</v>
+        <v>-157.2429468967723</v>
       </c>
     </row>
     <row r="626">
@@ -5435,7 +5435,7 @@
         <v>2.180593788476119</v>
       </c>
       <c r="B626" t="n">
-        <v>-155.430379274339</v>
+        <v>-155.4273929523586</v>
       </c>
     </row>
     <row r="627">
@@ -5443,7 +5443,7 @@
         <v>2.184088329803805</v>
       </c>
       <c r="B627" t="n">
-        <v>-154.5563817434081</v>
+        <v>-154.5537038599402</v>
       </c>
     </row>
     <row r="628">
@@ -5451,7 +5451,7 @@
         <v>2.187582871131491</v>
       </c>
       <c r="B628" t="n">
-        <v>-154.4348367767046</v>
+        <v>-154.4322271076648</v>
       </c>
     </row>
     <row r="629">
@@ -5459,7 +5459,7 @@
         <v>2.191077412459177</v>
       </c>
       <c r="B629" t="n">
-        <v>-155.0315426169815</v>
+        <v>-155.0287866921032</v>
       </c>
     </row>
     <row r="630">
@@ -5467,7 +5467,7 @@
         <v>2.194571953786864</v>
       </c>
       <c r="B630" t="n">
-        <v>-156.4373944245209</v>
+        <v>-156.4341911371473</v>
       </c>
     </row>
     <row r="631">
@@ -5475,7 +5475,7 @@
         <v>2.19806649511455</v>
       </c>
       <c r="B631" t="n">
-        <v>-158.9312043437151</v>
+        <v>-158.926945776245</v>
       </c>
     </row>
     <row r="632">
@@ -5483,7 +5483,7 @@
         <v>2.201561036442236</v>
       </c>
       <c r="B632" t="n">
-        <v>-163.1874948557509</v>
+        <v>-163.1803750550949</v>
       </c>
     </row>
     <row r="633">
@@ -5491,7 +5491,7 @@
         <v>2.205055577769921</v>
       </c>
       <c r="B633" t="n">
-        <v>-168.9108913934089</v>
+        <v>-168.8998667528397</v>
       </c>
     </row>
     <row r="634">
@@ -5499,7 +5499,7 @@
         <v>2.208550119097608</v>
       </c>
       <c r="B634" t="n">
-        <v>-164.6884618286673</v>
+        <v>-164.6894677632316</v>
       </c>
     </row>
     <row r="635">
@@ -5507,7 +5507,7 @@
         <v>2.212044660425294</v>
       </c>
       <c r="B635" t="n">
-        <v>-159.7547778941952</v>
+        <v>-159.7563754911698</v>
       </c>
     </row>
     <row r="636">
@@ -5515,7 +5515,7 @@
         <v>2.21553920175298</v>
       </c>
       <c r="B636" t="n">
-        <v>-156.8249809699703</v>
+        <v>-156.8262016686643</v>
       </c>
     </row>
     <row r="637">
@@ -5523,7 +5523,7 @@
         <v>2.219033743080666</v>
       </c>
       <c r="B637" t="n">
-        <v>-155.0795166196093</v>
+        <v>-155.0804342081376</v>
       </c>
     </row>
     <row r="638">
@@ -5531,7 +5531,7 @@
         <v>2.222528284408352</v>
       </c>
       <c r="B638" t="n">
-        <v>-154.1459311398999</v>
+        <v>-154.1466289070882</v>
       </c>
     </row>
     <row r="639">
@@ -5539,7 +5539,7 @@
         <v>2.226022825736038</v>
       </c>
       <c r="B639" t="n">
-        <v>-153.8669522046735</v>
+        <v>-153.8674833003263</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5547,7 @@
         <v>2.229517367063724</v>
       </c>
       <c r="B640" t="n">
-        <v>-154.1951072347441</v>
+        <v>-154.1954959446245</v>
       </c>
     </row>
     <row r="641">
@@ -5555,7 +5555,7 @@
         <v>2.23301190839141</v>
       </c>
       <c r="B641" t="n">
-        <v>-155.1667244130368</v>
+        <v>-155.1669845162122</v>
       </c>
     </row>
     <row r="642">
@@ -5563,7 +5563,7 @@
         <v>2.236506449719097</v>
       </c>
       <c r="B642" t="n">
-        <v>-156.9261989059071</v>
+        <v>-156.926339191947</v>
       </c>
     </row>
     <row r="643">
@@ -5571,7 +5571,7 @@
         <v>2.240000991046783</v>
       </c>
       <c r="B643" t="n">
-        <v>-159.8400737849533</v>
+        <v>-159.8401631706575</v>
       </c>
     </row>
     <row r="644">
@@ -5579,7 +5579,7 @@
         <v>2.243495532374469</v>
       </c>
       <c r="B644" t="n">
-        <v>-164.9418830990126</v>
+        <v>-164.9428030827896</v>
       </c>
     </row>
     <row r="645">
@@ -5587,7 +5587,7 @@
         <v>2.246990073702155</v>
       </c>
       <c r="B645" t="n">
-        <v>-173.6562348576291</v>
+        <v>-173.6771485449269</v>
       </c>
     </row>
     <row r="646">
@@ -5595,7 +5595,7 @@
         <v>2.250484615029841</v>
       </c>
       <c r="B646" t="n">
-        <v>-166.1883430179698</v>
+        <v>-166.1960475368674</v>
       </c>
     </row>
     <row r="647">
@@ -5603,7 +5603,7 @@
         <v>2.253979156357527</v>
       </c>
       <c r="B647" t="n">
-        <v>-160.885550673313</v>
+        <v>-160.8892563731287</v>
       </c>
     </row>
     <row r="648">
@@ -5611,7 +5611,7 @@
         <v>2.257473697685213</v>
       </c>
       <c r="B648" t="n">
-        <v>-158.0347968798376</v>
+        <v>-158.0375005938788</v>
       </c>
     </row>
     <row r="649">
@@ -5619,7 +5619,7 @@
         <v>2.260968239012899</v>
       </c>
       <c r="B649" t="n">
-        <v>-156.4292723057085</v>
+        <v>-156.4316288622272</v>
       </c>
     </row>
     <row r="650">
@@ -5627,7 +5627,7 @@
         <v>2.264462780340585</v>
       </c>
       <c r="B650" t="n">
-        <v>-155.6577257185061</v>
+        <v>-155.6600023941431</v>
       </c>
     </row>
     <row r="651">
@@ -5635,7 +5635,7 @@
         <v>2.267957321668271</v>
       </c>
       <c r="B651" t="n">
-        <v>-155.5661364429504</v>
+        <v>-155.5685022714757</v>
       </c>
     </row>
     <row r="652">
@@ -5643,7 +5643,7 @@
         <v>2.271451862995957</v>
       </c>
       <c r="B652" t="n">
-        <v>-156.1267536806711</v>
+        <v>-156.1293825777068</v>
       </c>
     </row>
     <row r="653">
@@ -5651,7 +5651,7 @@
         <v>2.274946404323643</v>
       </c>
       <c r="B653" t="n">
-        <v>-157.4200181548869</v>
+        <v>-157.4231757181011</v>
       </c>
     </row>
     <row r="654">
@@ -5659,7 +5659,7 @@
         <v>2.278440945651329</v>
       </c>
       <c r="B654" t="n">
-        <v>-159.6991496408662</v>
+        <v>-159.7033480380563</v>
       </c>
     </row>
     <row r="655">
@@ -5667,7 +5667,7 @@
         <v>2.281935486979016</v>
       </c>
       <c r="B655" t="n">
-        <v>-163.6846803927061</v>
+        <v>-163.6913527035433</v>
       </c>
     </row>
     <row r="656">
@@ -5675,7 +5675,7 @@
         <v>2.285430028306702</v>
       </c>
       <c r="B656" t="n">
-        <v>-172.4529533202223</v>
+        <v>-172.469333926521</v>
       </c>
     </row>
     <row r="657">
@@ -5683,7 +5683,7 @@
         <v>2.288924569634388</v>
       </c>
       <c r="B657" t="n">
-        <v>-172.431555010626</v>
+        <v>-172.4122048350873</v>
       </c>
     </row>
     <row r="658">
@@ -5691,7 +5691,7 @@
         <v>2.292419110962074</v>
       </c>
       <c r="B658" t="n">
-        <v>-163.6983752486046</v>
+        <v>-163.6911659532914</v>
       </c>
     </row>
     <row r="659">
@@ -5699,7 +5699,7 @@
         <v>2.29591365228976</v>
       </c>
       <c r="B659" t="n">
-        <v>-159.7228247637027</v>
+        <v>-159.7183117106549</v>
       </c>
     </row>
     <row r="660">
@@ -5707,7 +5707,7 @@
         <v>2.299408193617446</v>
       </c>
       <c r="B660" t="n">
-        <v>-157.4319923711353</v>
+        <v>-157.428568677817</v>
       </c>
     </row>
     <row r="661">
@@ -5715,7 +5715,7 @@
         <v>2.302902734945132</v>
       </c>
       <c r="B661" t="n">
-        <v>-156.0959518947476</v>
+        <v>-156.093070298958</v>
       </c>
     </row>
     <row r="662">
@@ -5723,7 +5723,7 @@
         <v>2.306397276272818</v>
       </c>
       <c r="B662" t="n">
-        <v>-155.4458564884482</v>
+        <v>-155.4432395935013</v>
       </c>
     </row>
     <row r="663">
@@ -5731,7 +5731,7 @@
         <v>2.309891817600504</v>
       </c>
       <c r="B663" t="n">
-        <v>-155.3755593313028</v>
+        <v>-155.3730312439722</v>
       </c>
     </row>
     <row r="664">
@@ -5739,7 +5739,7 @@
         <v>2.31338635892819</v>
       </c>
       <c r="B664" t="n">
-        <v>-155.8662780163393</v>
+        <v>-155.8636764645494</v>
       </c>
     </row>
     <row r="665">
@@ -5747,7 +5747,7 @@
         <v>2.316880900255876</v>
       </c>
       <c r="B665" t="n">
-        <v>-156.9754998400331</v>
+        <v>-156.9726265673503</v>
       </c>
     </row>
     <row r="666">
@@ -5755,7 +5755,7 @@
         <v>2.320375441583562</v>
       </c>
       <c r="B666" t="n">
-        <v>-158.8721428995545</v>
+        <v>-158.8686497701657</v>
       </c>
     </row>
     <row r="667">
@@ -5763,7 +5763,7 @@
         <v>2.323869982911249</v>
       </c>
       <c r="B667" t="n">
-        <v>-161.9703479216271</v>
+        <v>-161.9653815559581</v>
       </c>
     </row>
     <row r="668">
@@ -5771,7 +5771,7 @@
         <v>2.327364524238935</v>
       </c>
       <c r="B668" t="n">
-        <v>-167.4183138068028</v>
+        <v>-167.40849751953</v>
       </c>
     </row>
     <row r="669">
@@ -5779,7 +5779,7 @@
         <v>2.330859065566621</v>
       </c>
       <c r="B669" t="n">
-        <v>-174.1316796329127</v>
+        <v>-174.1183615871531</v>
       </c>
     </row>
     <row r="670">
@@ -5787,7 +5787,7 @@
         <v>2.334353606894307</v>
       </c>
       <c r="B670" t="n">
-        <v>-166.2964407902868</v>
+        <v>-166.2987463762427</v>
       </c>
     </row>
     <row r="671">
@@ -5795,7 +5795,7 @@
         <v>2.337848148221993</v>
       </c>
       <c r="B671" t="n">
-        <v>-161.4550957783979</v>
+        <v>-161.4569502232343</v>
       </c>
     </row>
     <row r="672">
@@ -5803,7 +5803,7 @@
         <v>2.341342689549679</v>
       </c>
       <c r="B672" t="n">
-        <v>-158.6602142092301</v>
+        <v>-158.6615323822835</v>
       </c>
     </row>
     <row r="673">
@@ -5811,7 +5811,7 @@
         <v>2.344837230877365</v>
       </c>
       <c r="B673" t="n">
-        <v>-156.9501883622916</v>
+        <v>-156.9511626619696</v>
       </c>
     </row>
     <row r="674">
@@ -5819,7 +5819,7 @@
         <v>2.348331772205051</v>
       </c>
       <c r="B674" t="n">
-        <v>-155.9632384928031</v>
+        <v>-155.9639715512896</v>
       </c>
     </row>
     <row r="675">
@@ -5827,7 +5827,7 @@
         <v>2.351826313532738</v>
       </c>
       <c r="B675" t="n">
-        <v>-155.5435482428628</v>
+        <v>-155.5441019562938</v>
       </c>
     </row>
     <row r="676">
@@ -5835,7 +5835,7 @@
         <v>2.355320854860424</v>
       </c>
       <c r="B676" t="n">
-        <v>-155.6302176201786</v>
+        <v>-155.6306260062419</v>
       </c>
     </row>
     <row r="677">
@@ -5843,7 +5843,7 @@
         <v>2.35881539618811</v>
       </c>
       <c r="B677" t="n">
-        <v>-156.2246207724787</v>
+        <v>-156.2248920762087</v>
       </c>
     </row>
     <row r="678">
@@ -5851,7 +5851,7 @@
         <v>2.362309937515795</v>
       </c>
       <c r="B678" t="n">
-        <v>-157.3919303518996</v>
+        <v>-157.3920722695785</v>
       </c>
     </row>
     <row r="679">
@@ -5859,7 +5859,7 @@
         <v>2.365804478843482</v>
       </c>
       <c r="B679" t="n">
-        <v>-159.2992968751754</v>
+        <v>-159.2992882744722</v>
       </c>
     </row>
     <row r="680">
@@ -5867,7 +5867,7 @@
         <v>2.369299020171168</v>
       </c>
       <c r="B680" t="n">
-        <v>-162.3483708353939</v>
+        <v>-162.3482457966727</v>
       </c>
     </row>
     <row r="681">
@@ -5875,7 +5875,7 @@
         <v>2.372793561498854</v>
       </c>
       <c r="B681" t="n">
-        <v>-167.7220060400936</v>
+        <v>-167.7225927352605</v>
       </c>
     </row>
     <row r="682">
@@ -5883,7 +5883,7 @@
         <v>2.37628810282654</v>
       </c>
       <c r="B682" t="n">
-        <v>-177.9159166626383</v>
+        <v>-177.947441277134</v>
       </c>
     </row>
     <row r="683">
@@ -5891,7 +5891,7 @@
         <v>2.379782644154226</v>
       </c>
       <c r="B683" t="n">
-        <v>-168.345278543692</v>
+        <v>-168.3529802433118</v>
       </c>
     </row>
     <row r="684">
@@ -5899,7 +5899,7 @@
         <v>2.383277185481912</v>
       </c>
       <c r="B684" t="n">
-        <v>-162.8304104409348</v>
+        <v>-162.834057890514</v>
       </c>
     </row>
     <row r="685">
@@ -5907,7 +5907,7 @@
         <v>2.386771726809598</v>
       </c>
       <c r="B685" t="n">
-        <v>-159.7806558266194</v>
+        <v>-159.7832704456221</v>
       </c>
     </row>
     <row r="686">
@@ -5915,7 +5915,7 @@
         <v>2.390266268137284</v>
       </c>
       <c r="B686" t="n">
-        <v>-157.9040734868287</v>
+        <v>-157.9062931422527</v>
       </c>
     </row>
     <row r="687">
@@ -5923,7 +5923,7 @@
         <v>2.39376080946497</v>
       </c>
       <c r="B687" t="n">
-        <v>-156.7674242059143</v>
+        <v>-156.7694876938756</v>
       </c>
     </row>
     <row r="688">
@@ -5931,7 +5931,7 @@
         <v>2.397255350792657</v>
       </c>
       <c r="B688" t="n">
-        <v>-156.1866970978516</v>
+        <v>-156.1887355210567</v>
       </c>
     </row>
     <row r="689">
@@ -5939,7 +5939,7 @@
         <v>2.400749892120343</v>
       </c>
       <c r="B689" t="n">
-        <v>-156.0814219293887</v>
+        <v>-156.0835381531027</v>
       </c>
     </row>
     <row r="690">
@@ -5947,7 +5947,7 @@
         <v>2.404244433448029</v>
       </c>
       <c r="B690" t="n">
-        <v>-156.4303087440673</v>
+        <v>-156.4326031762595</v>
       </c>
     </row>
     <row r="691">
@@ -5955,7 +5955,7 @@
         <v>2.407738974775715</v>
       </c>
       <c r="B691" t="n">
-        <v>-157.2616267181655</v>
+        <v>-157.2642397389244</v>
       </c>
     </row>
     <row r="692">
@@ -5963,7 +5963,7 @@
         <v>2.411233516103401</v>
       </c>
       <c r="B692" t="n">
-        <v>-158.6672571919677</v>
+        <v>-158.6704092308829</v>
       </c>
     </row>
     <row r="693">
@@ -5971,7 +5971,7 @@
         <v>2.414728057431087</v>
       </c>
       <c r="B693" t="n">
-        <v>-160.857051050034</v>
+        <v>-160.8611625767234</v>
       </c>
     </row>
     <row r="694">
@@ -5979,7 +5979,7 @@
         <v>2.418222598758773</v>
       </c>
       <c r="B694" t="n">
-        <v>-164.3410862972351</v>
+        <v>-164.3471787204169</v>
       </c>
     </row>
     <row r="695">
@@ -5987,7 +5987,7 @@
         <v>2.421717140086459</v>
       </c>
       <c r="B695" t="n">
-        <v>-170.7380101510699</v>
+        <v>-170.7494210333691</v>
       </c>
     </row>
     <row r="696">
@@ -5995,7 +5995,7 @@
         <v>2.425211681414145</v>
       </c>
       <c r="B696" t="n">
-        <v>-177.4324504021149</v>
+        <v>-177.4112100652475</v>
       </c>
     </row>
     <row r="697">
@@ -6003,7 +6003,7 @@
         <v>2.428706222741831</v>
       </c>
       <c r="B697" t="n">
-        <v>-167.5951042352466</v>
+        <v>-167.5852928162004</v>
       </c>
     </row>
     <row r="698">
@@ -6011,7 +6011,7 @@
         <v>2.432200764069517</v>
       </c>
       <c r="B698" t="n">
-        <v>-162.8840073527903</v>
+        <v>-162.8783246891966</v>
       </c>
     </row>
     <row r="699">
@@ -6019,7 +6019,7 @@
         <v>2.435695305397203</v>
       </c>
       <c r="B699" t="n">
-        <v>-160.1333875269417</v>
+        <v>-160.129299423809</v>
       </c>
     </row>
     <row r="700">
@@ -6027,7 +6027,7 @@
         <v>2.43918984672489</v>
       </c>
       <c r="B700" t="n">
-        <v>-158.3870961444108</v>
+        <v>-158.3837999073956</v>
       </c>
     </row>
     <row r="701">
@@ -6035,7 +6035,7 @@
         <v>2.442684388052576</v>
       </c>
       <c r="B701" t="n">
-        <v>-157.2950235344685</v>
+        <v>-157.2921749447045</v>
       </c>
     </row>
     <row r="702">
@@ -6043,7 +6043,7 @@
         <v>2.446178929380262</v>
       </c>
       <c r="B702" t="n">
-        <v>-156.699838307548</v>
+        <v>-156.6972358523743</v>
       </c>
     </row>
     <row r="703">
@@ -6051,7 +6051,7 @@
         <v>2.449673470707948</v>
       </c>
       <c r="B703" t="n">
-        <v>-156.5280938601202</v>
+        <v>-156.5256034655593</v>
       </c>
     </row>
     <row r="704">
@@ -6059,7 +6059,7 @@
         <v>2.453168012035634</v>
       </c>
       <c r="B704" t="n">
-        <v>-156.7543257907114</v>
+        <v>-156.7518462468499</v>
       </c>
     </row>
     <row r="705">
@@ -6067,7 +6067,7 @@
         <v>2.45666255336332</v>
       </c>
       <c r="B705" t="n">
-        <v>-157.3909631379691</v>
+        <v>-157.3883745989467</v>
       </c>
     </row>
     <row r="706">
@@ -6075,7 +6075,7 @@
         <v>2.460157094691006</v>
       </c>
       <c r="B706" t="n">
-        <v>-158.4938087641975</v>
+        <v>-158.4909625102541</v>
       </c>
     </row>
     <row r="707">
@@ -6083,7 +6083,7 @@
         <v>2.463651636018692</v>
       </c>
       <c r="B707" t="n">
-        <v>-160.18869391051</v>
+        <v>-160.1853435487949</v>
       </c>
     </row>
     <row r="708">
@@ -6091,7 +6091,7 @@
         <v>2.467146177346378</v>
       </c>
       <c r="B708" t="n">
-        <v>-162.7517783808566</v>
+        <v>-162.7473827318167</v>
       </c>
     </row>
     <row r="709">
@@ -6099,7 +6099,7 @@
         <v>2.470640718674064</v>
       </c>
       <c r="B709" t="n">
-        <v>-166.8969909963179</v>
+        <v>-166.8899250975728</v>
       </c>
     </row>
     <row r="710">
@@ -6107,7 +6107,7 @@
         <v>2.47413526000175</v>
       </c>
       <c r="B710" t="n">
-        <v>-175.3816946045922</v>
+        <v>-175.3608094073961</v>
       </c>
     </row>
     <row r="711">
@@ -6115,7 +6115,7 @@
         <v>2.477629801329436</v>
       </c>
       <c r="B711" t="n">
-        <v>-175.5331329669076</v>
+        <v>-175.5383417589412</v>
       </c>
     </row>
     <row r="712">
@@ -6123,7 +6123,7 @@
         <v>2.481124342657123</v>
       </c>
       <c r="B712" t="n">
-        <v>-167.1000767162932</v>
+        <v>-167.1040518060764</v>
       </c>
     </row>
     <row r="713">
@@ -6131,7 +6131,7 @@
         <v>2.484618883984809</v>
       </c>
       <c r="B713" t="n">
-        <v>-163.0414364378561</v>
+        <v>-163.0439818789204</v>
       </c>
     </row>
     <row r="714">
@@ -6139,7 +6139,7 @@
         <v>2.488113425312495</v>
       </c>
       <c r="B714" t="n">
-        <v>-160.5633909473187</v>
+        <v>-160.5652052144409</v>
       </c>
     </row>
     <row r="715">
@@ -6147,7 +6147,7 @@
         <v>2.491607966640181</v>
       </c>
       <c r="B715" t="n">
-        <v>-158.9414076407422</v>
+        <v>-158.9428000483035</v>
       </c>
     </row>
     <row r="716">
@@ -6155,7 +6155,7 @@
         <v>2.495102507967867</v>
       </c>
       <c r="B716" t="n">
-        <v>-157.8916414297011</v>
+        <v>-157.8927559023515</v>
       </c>
     </row>
     <row r="717">
@@ -6163,7 +6163,7 @@
         <v>2.498597049295553</v>
       </c>
       <c r="B717" t="n">
-        <v>-157.2797448969295</v>
+        <v>-157.280668388403</v>
       </c>
     </row>
     <row r="718">
@@ -6171,7 +6171,7 @@
         <v>2.502091590623239</v>
       </c>
       <c r="B718" t="n">
-        <v>-157.0387312123681</v>
+        <v>-157.0395116341152</v>
       </c>
     </row>
     <row r="719">
@@ -6179,7 +6179,7 @@
         <v>2.505586131950925</v>
       </c>
       <c r="B719" t="n">
-        <v>-157.1399261171518</v>
+        <v>-157.1405975905411</v>
       </c>
     </row>
     <row r="720">
@@ -6187,7 +6187,7 @@
         <v>2.509080673278612</v>
       </c>
       <c r="B720" t="n">
-        <v>-157.5829313211386</v>
+        <v>-157.5835184965914</v>
       </c>
     </row>
     <row r="721">
@@ -6195,7 +6195,7 @@
         <v>2.512575214606298</v>
       </c>
       <c r="B721" t="n">
-        <v>-158.3957844368861</v>
+        <v>-158.3962982487793</v>
       </c>
     </row>
     <row r="722">
@@ -6203,7 +6203,7 @@
         <v>2.516069755933983</v>
       </c>
       <c r="B722" t="n">
-        <v>-159.6453710004283</v>
+        <v>-159.6458354030194</v>
       </c>
     </row>
     <row r="723">
@@ -6211,7 +6211,7 @@
         <v>2.519564297261669</v>
       </c>
       <c r="B723" t="n">
-        <v>-161.4673027203654</v>
+        <v>-161.4677463479082</v>
       </c>
     </row>
     <row r="724">
@@ -6219,7 +6219,7 @@
         <v>2.523058838589356</v>
       </c>
       <c r="B724" t="n">
-        <v>-164.1497892172952</v>
+        <v>-164.1503183374198</v>
       </c>
     </row>
     <row r="725">
@@ -6227,7 +6227,7 @@
         <v>2.526553379917042</v>
       </c>
       <c r="B725" t="n">
-        <v>-168.4250914200305</v>
+        <v>-168.4263566164581</v>
       </c>
     </row>
     <row r="726">
@@ -6235,7 +6235,7 @@
         <v>2.530047921244728</v>
       </c>
       <c r="B726" t="n">
-        <v>-176.7954611251833</v>
+        <v>-176.8074206208729</v>
       </c>
     </row>
     <row r="727">
@@ -6243,7 +6243,7 @@
         <v>2.533542462572414</v>
       </c>
       <c r="B727" t="n">
-        <v>-175.4268891020227</v>
+        <v>-175.4412218498341</v>
       </c>
     </row>
     <row r="728">
@@ -6251,7 +6251,7 @@
         <v>2.5370370039001</v>
       </c>
       <c r="B728" t="n">
-        <v>-167.9384645363061</v>
+        <v>-167.9425230860365</v>
       </c>
     </row>
     <row r="729">
@@ -6259,7 +6259,7 @@
         <v>2.540531545227786</v>
       </c>
       <c r="B729" t="n">
-        <v>-164.0427809408723</v>
+        <v>-164.0452108174955</v>
       </c>
     </row>
     <row r="730">
@@ -6267,7 +6267,7 @@
         <v>2.544026086555472</v>
       </c>
       <c r="B730" t="n">
-        <v>-161.5906055124074</v>
+        <v>-161.5924889274767</v>
       </c>
     </row>
     <row r="731">
@@ -6275,7 +6275,7 @@
         <v>2.547520627883158</v>
       </c>
       <c r="B731" t="n">
-        <v>-159.9343926832571</v>
+        <v>-159.9360397039993</v>
       </c>
     </row>
     <row r="732">
@@ -6283,7 +6283,7 @@
         <v>2.551015169210844</v>
       </c>
       <c r="B732" t="n">
-        <v>-158.8078273600676</v>
+        <v>-158.8093733564515</v>
       </c>
     </row>
     <row r="733">
@@ -6291,7 +6291,7 @@
         <v>2.554509710538531</v>
       </c>
       <c r="B733" t="n">
-        <v>-158.0797147091446</v>
+        <v>-158.0812302447409</v>
       </c>
     </row>
     <row r="734">
@@ -6299,7 +6299,7 @@
         <v>2.558004251866217</v>
       </c>
       <c r="B734" t="n">
-        <v>-157.6799266119102</v>
+        <v>-157.6814674971188</v>
       </c>
     </row>
     <row r="735">
@@ -6307,7 +6307,7 @@
         <v>2.561498793193903</v>
       </c>
       <c r="B735" t="n">
-        <v>-157.571628884611</v>
+        <v>-157.5732389779056</v>
       </c>
     </row>
     <row r="736">
@@ -6315,7 +6315,7 @@
         <v>2.564993334521589</v>
       </c>
       <c r="B736" t="n">
-        <v>-157.7399103830105</v>
+        <v>-157.7416426800161</v>
       </c>
     </row>
     <row r="737">
@@ -6323,7 +6323,7 @@
         <v>2.568487875849275</v>
       </c>
       <c r="B737" t="n">
-        <v>-158.187867437194</v>
+        <v>-158.189777986952</v>
       </c>
     </row>
     <row r="738">
@@ -6331,7 +6331,7 @@
         <v>2.571982417176961</v>
       </c>
       <c r="B738" t="n">
-        <v>-158.937709336297</v>
+        <v>-158.9398770006922</v>
       </c>
     </row>
     <row r="739">
@@ -6339,7 +6339,7 @@
         <v>2.575476958504647</v>
       </c>
       <c r="B739" t="n">
-        <v>-160.0375092745925</v>
+        <v>-160.0400608083301</v>
       </c>
     </row>
     <row r="740">
@@ -6347,7 +6347,7 @@
         <v>2.578971499832333</v>
       </c>
       <c r="B740" t="n">
-        <v>-161.5784185880453</v>
+        <v>-161.5815470584914</v>
       </c>
     </row>
     <row r="741">
@@ -6355,7 +6355,7 @@
         <v>2.582466041160019</v>
       </c>
       <c r="B741" t="n">
-        <v>-163.7379041452758</v>
+        <v>-163.7420017218154</v>
       </c>
     </row>
     <row r="742">
@@ -6363,7 +6363,7 @@
         <v>2.585960582487705</v>
       </c>
       <c r="B742" t="n">
-        <v>-166.907283022853</v>
+        <v>-166.9131971432475</v>
       </c>
     </row>
     <row r="743">
@@ -6371,7 +6371,7 @@
         <v>2.589455123815391</v>
       </c>
       <c r="B743" t="n">
-        <v>-172.2080582910787</v>
+        <v>-172.2183466822658</v>
       </c>
     </row>
     <row r="744">
@@ -6379,7 +6379,7 @@
         <v>2.592949665143077</v>
       </c>
       <c r="B744" t="n">
-        <v>-183.8802472212874</v>
+        <v>-183.8783850436329</v>
       </c>
     </row>
     <row r="745">
@@ -6387,7 +6387,7 @@
         <v>2.596444206470764</v>
       </c>
       <c r="B745" t="n">
-        <v>-174.2638294666886</v>
+        <v>-174.2465252662552</v>
       </c>
     </row>
     <row r="746">
@@ -6395,7 +6395,7 @@
         <v>2.59993874779845</v>
       </c>
       <c r="B746" t="n">
-        <v>-168.1809928440568</v>
+        <v>-168.1725649746546</v>
       </c>
     </row>
     <row r="747">
@@ -6403,7 +6403,7 @@
         <v>2.603433289126136</v>
       </c>
       <c r="B747" t="n">
-        <v>-164.8011391989518</v>
+        <v>-164.7954345714294</v>
       </c>
     </row>
     <row r="748">
@@ -6411,7 +6411,7 @@
         <v>2.606927830453822</v>
       </c>
       <c r="B748" t="n">
-        <v>-162.5828032838386</v>
+        <v>-162.5783724654545</v>
       </c>
     </row>
     <row r="749">
@@ -6419,7 +6419,7 @@
         <v>2.610422371781508</v>
       </c>
       <c r="B749" t="n">
-        <v>-161.0347695371796</v>
+        <v>-161.0310555508904</v>
       </c>
     </row>
     <row r="750">
@@ -6427,7 +6427,7 @@
         <v>2.613916913109194</v>
       </c>
       <c r="B750" t="n">
-        <v>-159.9415270508562</v>
+        <v>-159.9382406274453</v>
       </c>
     </row>
     <row r="751">
@@ -6435,7 +6435,7 @@
         <v>2.61741145443688</v>
       </c>
       <c r="B751" t="n">
-        <v>-159.1914413699496</v>
+        <v>-159.1884273936101</v>
       </c>
     </row>
     <row r="752">
@@ -6443,7 +6443,7 @@
         <v>2.620905995764566</v>
       </c>
       <c r="B752" t="n">
-        <v>-158.721501755129</v>
+        <v>-158.7186449500979</v>
       </c>
     </row>
     <row r="753">
@@ -6451,7 +6451,7 @@
         <v>2.624400537092252</v>
       </c>
       <c r="B753" t="n">
-        <v>-158.4952683663532</v>
+        <v>-158.4924835242176</v>
       </c>
     </row>
     <row r="754">
@@ -6459,7 +6459,7 @@
         <v>2.627895078419938</v>
       </c>
       <c r="B754" t="n">
-        <v>-158.4931092308824</v>
+        <v>-158.4903284613972</v>
       </c>
     </row>
     <row r="755">
@@ -6467,7 +6467,7 @@
         <v>2.631389619747624</v>
       </c>
       <c r="B755" t="n">
-        <v>-158.7078089030306</v>
+        <v>-158.7049718034627</v>
       </c>
     </row>
     <row r="756">
@@ -6475,7 +6475,7 @@
         <v>2.63488416107531</v>
       </c>
       <c r="B756" t="n">
-        <v>-159.1432026222728</v>
+        <v>-159.1402333761786</v>
       </c>
     </row>
     <row r="757">
@@ -6483,7 +6483,7 @@
         <v>2.638378702402997</v>
       </c>
       <c r="B757" t="n">
-        <v>-159.8151558212473</v>
+        <v>-159.8119628315297</v>
       </c>
     </row>
     <row r="758">
@@ -6491,7 +6491,7 @@
         <v>2.641873243730683</v>
       </c>
       <c r="B758" t="n">
-        <v>-160.7553951491687</v>
+        <v>-160.7518586139797</v>
       </c>
     </row>
     <row r="759">
@@ -6499,7 +6499,7 @@
         <v>2.645367785058369</v>
       </c>
       <c r="B759" t="n">
-        <v>-162.0202241955285</v>
+        <v>-162.0161626009889</v>
       </c>
     </row>
     <row r="760">
@@ -6507,7 +6507,7 @@
         <v>2.648862326386055</v>
       </c>
       <c r="B760" t="n">
-        <v>-163.7100590407576</v>
+        <v>-163.7051663643115</v>
       </c>
     </row>
     <row r="761">
@@ -6515,7 +6515,7 @@
         <v>2.652356867713741</v>
       </c>
       <c r="B761" t="n">
-        <v>-166.0177431724463</v>
+        <v>-166.0114053291563</v>
       </c>
     </row>
     <row r="762">
@@ -6523,7 +6523,7 @@
         <v>2.655851409041427</v>
       </c>
       <c r="B762" t="n">
-        <v>-169.3752792017031</v>
+        <v>-169.3660019917444</v>
       </c>
     </row>
     <row r="763">
@@ -6531,7 +6531,7 @@
         <v>2.659345950369113</v>
       </c>
       <c r="B763" t="n">
-        <v>-175.1043738406167</v>
+        <v>-175.0863393956614</v>
       </c>
     </row>
     <row r="764">
@@ -6539,7 +6539,7 @@
         <v>2.662840491696799</v>
       </c>
       <c r="B764" t="n">
-        <v>-190.7008766816427</v>
+        <v>-190.6373683361559</v>
       </c>
     </row>
     <row r="765">
@@ -6547,7 +6547,7 @@
         <v>2.666335033024485</v>
       </c>
       <c r="B765" t="n">
-        <v>-176.024841833255</v>
+        <v>-176.0419056354657</v>
       </c>
     </row>
     <row r="766">
@@ -6555,7 +6555,7 @@
         <v>2.669829574352172</v>
       </c>
       <c r="B766" t="n">
-        <v>-170.0747587471461</v>
+        <v>-170.0836340020846</v>
       </c>
     </row>
     <row r="767">
@@ -6563,7 +6563,7 @@
         <v>2.673324115679857</v>
       </c>
       <c r="B767" t="n">
-        <v>-166.7349958422795</v>
+        <v>-166.7410034667241</v>
       </c>
     </row>
     <row r="768">
@@ -6571,7 +6571,7 @@
         <v>2.676818657007543</v>
       </c>
       <c r="B768" t="n">
-        <v>-164.4996460732789</v>
+        <v>-164.5042242712042</v>
       </c>
     </row>
     <row r="769">
@@ -6579,7 +6579,7 @@
         <v>2.68031319833523</v>
       </c>
       <c r="B769" t="n">
-        <v>-162.8949217829505</v>
+        <v>-162.8986662066966</v>
       </c>
     </row>
     <row r="770">
@@ -6587,7 +6587,7 @@
         <v>2.683807739662916</v>
       </c>
       <c r="B770" t="n">
-        <v>-161.7110130357855</v>
+        <v>-161.7142168646359</v>
       </c>
     </row>
     <row r="771">
@@ -6595,7 +6595,7 @@
         <v>2.687302280990602</v>
       </c>
       <c r="B771" t="n">
-        <v>-160.8372293422318</v>
+        <v>-160.8400641356853</v>
       </c>
     </row>
     <row r="772">
@@ -6603,7 +6603,7 @@
         <v>2.690796822318288</v>
       </c>
       <c r="B772" t="n">
-        <v>-160.2088364503416</v>
+        <v>-160.2114129669599</v>
       </c>
     </row>
     <row r="773">
@@ -6611,7 +6611,7 @@
         <v>2.694291363645974</v>
       </c>
       <c r="B773" t="n">
-        <v>-159.7856206212844</v>
+        <v>-159.7880136950096</v>
       </c>
     </row>
     <row r="774">
@@ -6619,7 +6619,7 @@
         <v>2.69778590497366</v>
       </c>
       <c r="B774" t="n">
-        <v>-159.5419578477326</v>
+        <v>-159.5442259747374</v>
       </c>
     </row>
     <row r="775">
@@ -6627,7 +6627,7 @@
         <v>2.701280446301346</v>
       </c>
       <c r="B775" t="n">
-        <v>-159.4617813543995</v>
+        <v>-159.4639672555449</v>
       </c>
     </row>
     <row r="776">
@@ -6635,7 +6635,7 @@
         <v>2.704774987629032</v>
       </c>
       <c r="B776" t="n">
-        <v>-159.5359749690108</v>
+        <v>-159.5381161660972</v>
       </c>
     </row>
     <row r="777">
@@ -6643,7 +6643,7 @@
         <v>2.708269528956718</v>
       </c>
       <c r="B777" t="n">
-        <v>-159.7610330368622</v>
+        <v>-159.7631687838714</v>
       </c>
     </row>
     <row r="778">
@@ -6651,7 +6651,7 @@
         <v>2.711764070284405</v>
       </c>
       <c r="B778" t="n">
-        <v>-160.1386996016909</v>
+        <v>-160.1408641159998</v>
       </c>
     </row>
     <row r="779">
@@ -6659,7 +6659,7 @@
         <v>2.715258611612091</v>
       </c>
       <c r="B779" t="n">
-        <v>-160.6762521604631</v>
+        <v>-160.6784864019151</v>
       </c>
     </row>
     <row r="780">
@@ -6667,7 +6667,7 @@
         <v>2.718753152939777</v>
       </c>
       <c r="B780" t="n">
-        <v>-161.387715775824</v>
+        <v>-161.3900627400108</v>
       </c>
     </row>
     <row r="781">
@@ -6675,7 +6675,7 @@
         <v>2.722247694267463</v>
       </c>
       <c r="B781" t="n">
-        <v>-162.2962838029207</v>
+        <v>-162.2988172145436</v>
       </c>
     </row>
     <row r="782">
@@ -6683,7 +6683,7 @@
         <v>2.725742235595149</v>
       </c>
       <c r="B782" t="n">
-        <v>-163.4390232002687</v>
+        <v>-163.4418268204781</v>
       </c>
     </row>
     <row r="783">
@@ -6691,7 +6691,7 @@
         <v>2.729236776922835</v>
       </c>
       <c r="B783" t="n">
-        <v>-164.8760175505346</v>
+        <v>-164.8792436056841</v>
       </c>
     </row>
     <row r="784">
@@ -6699,7 +6699,7 @@
         <v>2.732731318250521</v>
       </c>
       <c r="B784" t="n">
-        <v>-166.7098108637282</v>
+        <v>-166.7137162054146</v>
       </c>
     </row>
     <row r="785">
@@ -6707,7 +6707,7 @@
         <v>2.736225859578207</v>
       </c>
       <c r="B785" t="n">
-        <v>-169.1323143866542</v>
+        <v>-169.1374477783097</v>
       </c>
     </row>
     <row r="786">
@@ -6715,7 +6715,7 @@
         <v>2.739720400905893</v>
       </c>
       <c r="B786" t="n">
-        <v>-172.5624940963026</v>
+        <v>-172.5703341861612</v>
       </c>
     </row>
     <row r="787">
@@ -6723,7 +6723,7 @@
         <v>2.743214942233579</v>
       </c>
       <c r="B787" t="n">
-        <v>-178.201594321141</v>
+        <v>-178.2187093021651</v>
       </c>
     </row>
     <row r="788">
@@ -6731,7 +6731,7 @@
         <v>2.746709483561265</v>
       </c>
       <c r="B788" t="n">
-        <v>-188.7139404616091</v>
+        <v>-188.7907515607638</v>
       </c>
     </row>
     <row r="789">
@@ -6739,7 +6739,7 @@
         <v>2.750204024888951</v>
       </c>
       <c r="B789" t="n">
-        <v>-178.9937184680076</v>
+        <v>-178.9910854713741</v>
       </c>
     </row>
     <row r="790">
@@ -6747,7 +6747,7 @@
         <v>2.753698566216638</v>
       </c>
       <c r="B790" t="n">
-        <v>-173.3654075910555</v>
+        <v>-173.3622177194837</v>
       </c>
     </row>
     <row r="791">
@@ -6755,7 +6755,7 @@
         <v>2.757193107544324</v>
       </c>
       <c r="B791" t="n">
-        <v>-170.0964862930922</v>
+        <v>-170.0940316404504</v>
       </c>
     </row>
     <row r="792">
@@ -6763,7 +6763,7 @@
         <v>2.76068764887201</v>
       </c>
       <c r="B792" t="n">
-        <v>-167.8763332808993</v>
+        <v>-167.8744320698987</v>
       </c>
     </row>
     <row r="793">
@@ -6771,7 +6771,7 @@
         <v>2.764182190199696</v>
       </c>
       <c r="B793" t="n">
-        <v>-166.2583517376658</v>
+        <v>-166.2568190332097</v>
       </c>
     </row>
     <row r="794">
@@ -6779,7 +6779,7 @@
         <v>2.767676731527382</v>
       </c>
       <c r="B794" t="n">
-        <v>-165.0401571510919</v>
+        <v>-165.0388995604087</v>
       </c>
     </row>
     <row r="795">
@@ -6787,7 +6787,7 @@
         <v>2.771171272855068</v>
       </c>
       <c r="B795" t="n">
-        <v>-164.1140434794337</v>
+        <v>-164.1129888932089</v>
       </c>
     </row>
     <row r="796">
@@ -6795,7 +6795,7 @@
         <v>2.774665814182754</v>
       </c>
       <c r="B796" t="n">
-        <v>-163.4168358840006</v>
+        <v>-163.4159386974682</v>
       </c>
     </row>
     <row r="797">
@@ -6803,7 +6803,7 @@
         <v>2.77816035551044</v>
       </c>
       <c r="B797" t="n">
-        <v>-162.9089806623394</v>
+        <v>-162.9082123821093</v>
       </c>
     </row>
     <row r="798">
@@ -6811,7 +6811,7 @@
         <v>2.781654896838126</v>
       </c>
       <c r="B798" t="n">
-        <v>-162.5626137680302</v>
+        <v>-162.5619555058985</v>
       </c>
     </row>
     <row r="799">
@@ -6819,7 +6819,7 @@
         <v>2.785149438165812</v>
       </c>
       <c r="B799" t="n">
-        <v>-162.3408528989112</v>
+        <v>-162.3402888770692</v>
       </c>
     </row>
     <row r="800">
@@ -6827,7 +6827,7 @@
         <v>2.788643979493498</v>
       </c>
       <c r="B800" t="n">
-        <v>-161.9536049555973</v>
+        <v>-161.9531500490753</v>
       </c>
     </row>
     <row r="801">
@@ -6835,7 +6835,7 @@
         <v>2.792138520821184</v>
       </c>
       <c r="B801" t="n">
-        <v>-163.0438697413562</v>
+        <v>-163.0436674409967</v>
       </c>
     </row>
     <row r="802">

--- a/RT_radpat_20deg.xlsx
+++ b/RT_radpat_20deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-157.5405575985349</v>
+        <v>-157.8066976567879</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-157.5722352015081</v>
+        <v>-157.8563940208987</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-157.6154886625109</v>
+        <v>-157.9183732077692</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-157.6715339508337</v>
+        <v>-157.9939396507878</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-157.7416763020976</v>
+        <v>-158.0845138117676</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-157.8273635327538</v>
+        <v>-158.1916624454047</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-157.9301798604507</v>
+        <v>-158.3171267786689</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-158.0518783328923</v>
+        <v>-158.4628413643605</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-158.1944088105967</v>
+        <v>-158.6309824729389</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-158.3599590698825</v>
+        <v>-158.8239892266463</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-158.5509875629687</v>
+        <v>-159.04466222856</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-158.7702964568941</v>
+        <v>-159.296190474916</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-159.0210891064289</v>
+        <v>-159.5822740339865</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-159.3070710454049</v>
+        <v>-159.9072507078226</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-159.6325692168016</v>
+        <v>-160.2762330919792</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-160.0026865118047</v>
+        <v>-160.6953559344573</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-160.4235212779711</v>
+        <v>-161.1720500141757</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-160.9024292224805</v>
+        <v>-161.715462324041</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-161.4484299258352</v>
+        <v>-162.3370331431113</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-162.0726876844741</v>
+        <v>-163.0512915674776</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-162.7892561383537</v>
+        <v>-163.8770110581001</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-163.6160205053986</v>
+        <v>-164.8388687720845</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-164.5758233180837</v>
+        <v>-165.9695249606898</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-165.6976422406351</v>
+        <v>-167.3117088413359</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-167.0161780624672</v>
+        <v>-168.916718789245</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-168.5643558196504</v>
+        <v>-170.8221884895697</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-170.3367986689888</v>
+        <v>-172.9339467359635</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-172.1540603612185</v>
+        <v>-174.6118958020772</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-173.3550113675881</v>
+        <v>-174.4916603462954</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-172.9949323665743</v>
+        <v>-172.5699945004543</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-171.2829626386085</v>
+        <v>-170.212855617752</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-169.2020532947494</v>
+        <v>-168.064434577412</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-167.2516433177341</v>
+        <v>-166.2212053389987</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-165.5405201944762</v>
+        <v>-164.647089985394</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-164.0576507928486</v>
+        <v>-163.2921896241706</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-162.7693540692562</v>
+        <v>-162.1152021151852</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-161.6437447385827</v>
+        <v>-161.0849541505769</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-160.6551501436919</v>
+        <v>-160.1783390453558</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-159.7838211231087</v>
+        <v>-159.3782144798042</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-159.0147367068807</v>
+        <v>-158.6717789085457</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-158.3365101287011</v>
+        <v>-158.0494463381121</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-157.740528192404</v>
+        <v>-157.5040347915305</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-157.2203145803063</v>
+        <v>-157.0302422882199</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-156.7710981435503</v>
+        <v>-156.6242351789981</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-156.3894676063059</v>
+        <v>-156.2834145668541</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-156.0731806874874</v>
+        <v>-156.0062275306631</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-155.8209980624139</v>
+        <v>-155.7920567629868</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-155.6326055099897</v>
+        <v>-155.641169307683</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-155.5085739346957</v>
+        <v>-155.5547143529341</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-155.4503757909782</v>
+        <v>-155.5347512562589</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-155.4604452343808</v>
+        <v>-155.5843674807708</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-155.5422938404045</v>
+        <v>-155.7078044840929</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-155.7007154917399</v>
+        <v>-155.9107312754156</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-155.9420598782954</v>
+        <v>-156.2005899756628</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-156.2746837446695</v>
+        <v>-156.5871340449</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-156.7095909954205</v>
+        <v>-157.0832304387823</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-157.2614238645784</v>
+        <v>-157.7060990982451</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-157.9500057906789</v>
+        <v>-158.4792209272124</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-158.8028504076857</v>
+        <v>-159.4354658678166</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-159.8593540437416</v>
+        <v>-160.62228808971</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-161.1781965412746</v>
+        <v>-162.1104224881275</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-162.8507667928532</v>
+        <v>-164.0073709626746</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-165.0250937405546</v>
+        <v>-166.4656473107816</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-167.9299399955302</v>
+        <v>-169.5577699533694</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-171.6363383561271</v>
+        <v>-172.1004121992501</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-173.5063495189839</v>
+        <v>-170.7123834486523</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-170.2837330209645</v>
+        <v>-167.3612560110386</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-166.6361663499225</v>
+        <v>-164.4684870984857</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-163.8538189508414</v>
+        <v>-162.2053434082674</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-161.7314398455136</v>
+        <v>-160.4177362233294</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-160.067615918974</v>
+        <v>-158.9817547395703</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-158.7380970068851</v>
+        <v>-157.8163578738229</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-157.6667712105013</v>
+        <v>-156.8690212637154</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-156.8055470525771</v>
+        <v>-156.1051784356853</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-156.1232770302829</v>
+        <v>-155.5019097316093</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-155.5997259587285</v>
+        <v>-155.0442486428684</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-155.2221837467734</v>
+        <v>-154.7230208443228</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-154.9835792899221</v>
+        <v>-154.533623965513</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-154.8814745980497</v>
+        <v>-154.4754214540916</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-154.9176964490491</v>
+        <v>-154.5516016621476</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-155.0985039848289</v>
+        <v>-154.7694805822601</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-155.4353256192911</v>
+        <v>-155.1413277153376</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-155.9463155606765</v>
+        <v>-155.6858950550876</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-156.659181037287</v>
+        <v>-156.4311466139189</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-157.6164123291671</v>
+        <v>-157.4190151169331</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-158.8853516745099</v>
+        <v>-158.7139453437831</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-160.5791212668787</v>
+        <v>-160.4184959075516</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-162.90502111723</v>
+        <v>-162.6992673281741</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-166.2879538021299</v>
+        <v>-165.7893834333829</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-171.5578445230836</v>
+        <v>-169.4204854041214</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-174.4978327230092</v>
+        <v>-169.6945812533635</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-168.4974322547298</v>
+        <v>-166.0072326181777</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-164.138154964852</v>
+        <v>-162.6676909584757</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-161.2210649645392</v>
+        <v>-160.1680121450276</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-159.1217541984331</v>
+        <v>-158.2803425175261</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-157.5495735254839</v>
+        <v>-156.8320550737678</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-156.3566345497232</v>
+        <v>-155.7184008567858</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-155.4607600730455</v>
+        <v>-154.8758595614582</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-154.8141062497878</v>
+        <v>-154.2656595166607</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-154.3890802875882</v>
+        <v>-153.8648778617702</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-154.171643975575</v>
+        <v>-153.6618278185868</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-154.1582276953085</v>
+        <v>-153.6538370643312</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-154.3548878832899</v>
+        <v>-153.8467006713138</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-154.7782708017893</v>
+        <v>-154.2555428752655</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-155.4588111708937</v>
+        <v>-154.9074780483198</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-156.4475096234954</v>
+        <v>-155.8470246408737</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-157.8297724699006</v>
+        <v>-157.1466335121688</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-159.7543859774122</v>
+        <v>-158.9270852064531</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-162.4937320498521</v>
+        <v>-161.3935096872962</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-166.4823078618145</v>
+        <v>-164.8317553795325</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-170.3723508439649</v>
+        <v>-168.5279037736476</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-167.1316115185058</v>
+        <v>-167.1865044783829</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-162.7119539382598</v>
+        <v>-163.1221360815729</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-159.599024569878</v>
+        <v>-159.9649370343429</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-157.3753510137443</v>
+        <v>-157.6788340651511</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-155.7413328917726</v>
+        <v>-155.9983738062675</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-154.5356691078277</v>
+        <v>-154.761100437325</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-153.6687543296434</v>
+        <v>-153.8737678945887</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-153.0898589192522</v>
+        <v>-153.2830064933122</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-152.7718481324994</v>
+        <v>-152.9601094912319</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-152.7041108785437</v>
+        <v>-152.8937975277566</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-152.8899103932349</v>
+        <v>-153.0874976208198</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-153.3467749759888</v>
+        <v>-153.5599441197288</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-154.1100480091282</v>
+        <v>-154.3493791954556</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-155.2409628099525</v>
+        <v>-155.5233639027182</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-156.8422074329237</v>
+        <v>-157.1992100570751</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-159.0823503381667</v>
+        <v>-159.5836263196224</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-162.1750431989342</v>
+        <v>-163.0007993444262</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-165.5930764502081</v>
+        <v>-167.0185203650948</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-165.1746390261785</v>
+        <v>-166.0383462063244</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-161.5310742433942</v>
+        <v>-161.792234202502</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-158.4287018974235</v>
+        <v>-158.547149175066</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-156.1670740723613</v>
+        <v>-156.2565524341892</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-154.5327114430352</v>
+        <v>-154.6239606951582</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-153.3718038026105</v>
+        <v>-153.4758234635945</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-152.5943616129076</v>
+        <v>-152.7167956125481</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-152.1510945112915</v>
+        <v>-152.2963660357428</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-152.0199012356541</v>
+        <v>-152.1929235342748</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-152.2001716926581</v>
+        <v>-152.4074627156644</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-152.7125638451731</v>
+        <v>-152.9636628731575</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-153.6044931020678</v>
+        <v>-153.9143546879358</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-154.9642511774009</v>
+        <v>-155.357978042268</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-156.9511708756712</v>
+        <v>-157.473982147666</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-159.8458750784563</v>
+        <v>-160.5778761532738</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-163.8879619777339</v>
+        <v>-164.8042426132074</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-166.0194319556616</v>
+        <v>-165.8152780410404</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-162.1884379028203</v>
+        <v>-161.5296014991612</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-158.4425167991261</v>
+        <v>-157.9458024512571</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-155.8310907912725</v>
+        <v>-155.4690820834584</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-154.0232567145426</v>
+        <v>-153.7534390030854</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-152.794275456642</v>
+        <v>-152.5912171780957</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-152.0233639004087</v>
+        <v>-151.8724293192816</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-151.6498723567818</v>
+        <v>-151.5427248198246</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-151.6518545912557</v>
+        <v>-151.5841775165738</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-152.0388731554557</v>
+        <v>-152.0092928138276</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-152.8551598436873</v>
+        <v>-152.8647322710313</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-154.195618910745</v>
+        <v>-154.2470694460623</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-156.2468436000417</v>
+        <v>-156.3398487892882</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-159.3808248461286</v>
+        <v>-159.475383653411</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-164.12145927723</v>
+        <v>-163.8011158209994</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-166.1946059174757</v>
+        <v>-164.5987812604585</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-161.1549845016549</v>
+        <v>-160.1655609252995</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-157.2298531535486</v>
+        <v>-156.6187646230247</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-154.6543245657643</v>
+        <v>-154.2156687087979</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-152.941201160593</v>
+        <v>-152.596259677226</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-151.8431132163082</v>
+        <v>-151.5558383373552</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-151.2402232911281</v>
+        <v>-150.9909828782075</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-151.0810270352214</v>
+        <v>-150.8572686535508</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-151.3602048267063</v>
+        <v>-151.1523371408151</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-152.1159415799502</v>
+        <v>-151.9147732527186</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-153.4441955570969</v>
+        <v>-153.238159280335</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-155.5392072698185</v>
+        <v>-155.3092085405997</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-158.7672662775451</v>
+        <v>-158.4750347086812</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-163.2606415833509</v>
+        <v>-162.8828241132338</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-163.442784394678</v>
+        <v>-163.4296324211773</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-158.7661249036242</v>
+        <v>-158.8863292037067</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-155.278216189583</v>
+        <v>-155.3890616370107</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-152.9608699132851</v>
+        <v>-153.0629948378399</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-151.4395146574968</v>
+        <v>-151.5407225150777</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-150.5160405697975</v>
+        <v>-150.6227083773819</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-150.095993077822</v>
+        <v>-150.2138135766197</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-150.1467573753303</v>
+        <v>-150.2821035581576</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-150.6838249251173</v>
+        <v>-150.8456905145393</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-151.7756093715741</v>
+        <v>-151.9796410794667</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-153.568176866118</v>
+        <v>-153.8477070776347</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-156.3266357269287</v>
+        <v>-156.7707232437564</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-160.2143408044352</v>
+        <v>-161.0908467764004</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-161.9817017398094</v>
+        <v>-162.9974209271405</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-158.2085958132753</v>
+        <v>-158.5580170087874</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-154.63724597928</v>
+        <v>-154.8176330700518</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-152.2111202615748</v>
+        <v>-152.3624986865268</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-150.6309861852864</v>
+        <v>-150.7891993394191</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-149.6946963218493</v>
+        <v>-149.8742855693878</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-149.3035443868356</v>
+        <v>-149.514922624814</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-149.4266871235602</v>
+        <v>-149.6818679700746</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-150.089331264501</v>
+        <v>-150.4064224816223</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-151.3828608607651</v>
+        <v>-151.7937850431716</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-153.5025836171773</v>
+        <v>-154.0713397512684</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-156.7973164846011</v>
+        <v>-157.6572716440604</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-161.0294251367351</v>
+        <v>-162.0499001216345</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-160.25773404289</v>
+        <v>-160.043137120095</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-155.9046134260546</v>
+        <v>-155.5384560819293</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-152.7625013804712</v>
+        <v>-152.4936735392631</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-150.7358491471474</v>
+        <v>-150.5511394169851</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-149.5106286682981</v>
+        <v>-149.3908629586703</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-148.9263323671568</v>
+        <v>-148.8602852696323</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-148.9225101737412</v>
+        <v>-148.9053512417106</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-149.5125191835332</v>
+        <v>-149.5447223877929</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-150.7905993689988</v>
+        <v>-150.8781350751779</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-152.9804616701824</v>
+        <v>-153.1343377182853</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-156.53712901589</v>
+        <v>-156.7443240573065</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-161.3672521882974</v>
+        <v>-161.1665410720176</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-159.7329785363862</v>
+        <v>-158.9609876228761</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-154.9244026258988</v>
+        <v>-154.4478849426941</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-151.7615710021183</v>
+        <v>-151.4505914284019</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-149.7958759687274</v>
+        <v>-149.5756294821804</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-148.6673957380936</v>
+        <v>-148.5052827607653</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-148.2148520243662</v>
+        <v>-148.0948270298848</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-148.3899406105543</v>
+        <v>-148.3034215449256</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-149.231182991503</v>
+        <v>-149.1735622184641</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-150.8828304066341</v>
+        <v>-150.8519428568092</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-153.6669147271087</v>
+        <v>-153.6610314508104</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-158.0307831435182</v>
+        <v>-158.0291747766211</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-160.3397293785818</v>
+        <v>-160.2357713858779</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-155.6849372371443</v>
+        <v>-155.6213738977876</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-151.8564247775012</v>
+        <v>-151.8422123109374</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-149.4483703211964</v>
+        <v>-149.4684642357659</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-148.0134169302464</v>
+        <v>-148.0633302226279</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-147.3255366134177</v>
+        <v>-147.4059747507051</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-147.2997913506674</v>
+        <v>-147.4156367823441</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-147.9470359217997</v>
+        <v>-148.1092930206777</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-149.3775099839185</v>
+        <v>-149.6102029995382</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-151.8488845341449</v>
+        <v>-152.2118450650836</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-155.7351620417139</v>
+        <v>-156.3950695046826</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-158.8132955612278</v>
+        <v>-159.5668575361967</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-155.1124552591215</v>
+        <v>-155.2344478249943</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-151.1932610679748</v>
+        <v>-151.2277462595271</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-148.6747318639657</v>
+        <v>-148.7270057253672</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-147.1768290071929</v>
+        <v>-147.2639312495354</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-146.4662152355093</v>
+        <v>-146.5952424700416</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-146.4542942045541</v>
+        <v>-146.6343601442599</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-147.1570086125782</v>
+        <v>-147.4043458919049</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-148.7044647693515</v>
+        <v>-149.0502854522113</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-151.4099273163718</v>
+        <v>-151.9154538135847</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-155.7520474677394</v>
+        <v>-156.4373271554709</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-158.3756650775286</v>
+        <v>-158.0859461431777</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-153.7548960813094</v>
+        <v>-153.2166657905734</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-149.9172907594338</v>
+        <v>-149.562703985785</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-147.5709108225961</v>
+        <v>-147.3384888656094</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-146.2577614620264</v>
+        <v>-146.108094782073</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-145.7576930621258</v>
+        <v>-145.67196298353</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-146.0085605396523</v>
+        <v>-145.9793258009696</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-147.0716534156228</v>
+        <v>-147.0992482741444</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-149.16990537455</v>
+        <v>-149.2599505891477</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-152.808601822766</v>
+        <v>-152.9411468719423</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-157.8045126012536</v>
+        <v>-157.4980131879201</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-155.3079176965438</v>
+        <v>-154.6322030457598</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-150.4662012268361</v>
+        <v>-150.0771920622236</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-147.4729294255632</v>
+        <v>-147.2268208572292</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-145.7436865135173</v>
+        <v>-145.5781064804343</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-144.934786210879</v>
+        <v>-144.8244805636585</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-144.9229102831637</v>
+        <v>-144.8571565042004</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-145.7268982057164</v>
+        <v>-145.7028036325905</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-147.5178021082414</v>
+        <v>-147.5393673011713</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-150.7112482197695</v>
+        <v>-150.7904227005503</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-155.5494422933687</v>
+        <v>-155.6393700262742</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-154.9674377497232</v>
+        <v>-154.8062885048668</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-149.9594183977558</v>
+        <v>-149.8494527948892</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-146.688076262944</v>
+        <v>-146.6381905119157</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-144.7742932510128</v>
+        <v>-144.7696644550376</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-143.8346152925562</v>
+        <v>-143.8706707972895</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-143.721247124852</v>
+        <v>-143.8005145855455</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-144.437998263361</v>
+        <v>-144.5708618745919</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-146.1416962535698</v>
+        <v>-146.3530612648484</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-149.2260701595017</v>
+        <v>-149.5748583260074</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-153.9775770357786</v>
+        <v>-154.4856613719806</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-153.8387158214835</v>
+        <v>-153.7057227670233</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-148.8543058004032</v>
+        <v>-148.6647101139001</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-145.5471170479285</v>
+        <v>-145.4339234571122</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-143.629505801815</v>
+        <v>-143.5779580785902</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-142.7161112044505</v>
+        <v>-142.7167871718467</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-142.6624110455156</v>
+        <v>-142.7145122731277</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-143.4865590725048</v>
+        <v>-143.5981603161755</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-145.3827146187502</v>
+        <v>-145.5754728753313</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-148.8344675156992</v>
+        <v>-149.1478713086506</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-153.8692821529656</v>
+        <v>-154.0603487184484</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-151.8167857412369</v>
+        <v>-151.3732325219219</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-146.8561421315866</v>
+        <v>-146.5648836749642</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-143.8169206433532</v>
+        <v>-143.64013191983</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-142.1201656603028</v>
+        <v>-142.0167411839248</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-141.4172532151309</v>
+        <v>-141.3700487739796</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-141.6027550305883</v>
+        <v>-141.6070998413031</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-142.7453465778314</v>
+        <v>-142.8062540019741</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-145.1358906814549</v>
+        <v>-145.2707686112794</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-149.408416868132</v>
+        <v>-149.6278127770346</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-153.2065581032966</v>
+        <v>-153.001963648048</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-148.1882833612377</v>
+        <v>-147.8828935973429</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-143.9563161259331</v>
+        <v>-143.7806902485879</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-141.4935065790457</v>
+        <v>-141.3963379021492</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-140.2203829014286</v>
+        <v>-140.1794173045218</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-139.8994248645703</v>
+        <v>-139.9080183137235</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-140.5049617040168</v>
+        <v>-140.5666653744287</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-142.2050795473347</v>
+        <v>-142.3364004510622</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-145.4759454437727</v>
+        <v>-145.7179277316575</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-150.6716949465785</v>
+        <v>-150.9559619450036</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-149.194347206263</v>
+        <v>-148.9189579705849</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-143.9108787999629</v>
+        <v>-143.7162435802699</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-140.6968154250861</v>
+        <v>-140.5889955356499</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-138.9136027715051</v>
+        <v>-138.8668012285821</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-138.1800733363273</v>
+        <v>-138.1848943061621</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-138.3900187518489</v>
+        <v>-138.4478866333346</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-139.6366588320294</v>
+        <v>-139.7608463092221</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-142.2858212610474</v>
+        <v>-142.5115597309891</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-147.097462992557</v>
+        <v>-147.458628991904</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-149.2804818296132</v>
+        <v>-149.001584456505</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-143.4052208288238</v>
+        <v>-143.1198635220711</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-139.4796487762063</v>
+        <v>-139.3145939072346</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-137.2515800563369</v>
+        <v>-137.162389744246</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-136.1849520628274</v>
+        <v>-136.1533646167379</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-136.1010340951992</v>
+        <v>-136.1233827978124</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-137.0450179074198</v>
+        <v>-137.1296128449451</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-139.3266071126683</v>
+        <v>-139.5009906337791</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-143.7430398810539</v>
+        <v>-144.0599770054852</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-147.9101355677225</v>
+        <v>-147.7359392889789</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-141.8929700528186</v>
+        <v>-141.5760811488994</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-137.3882916413912</v>
+        <v>-137.2063034233391</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-134.8100602755613</v>
+        <v>-134.7086120948573</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-133.4832723615067</v>
+        <v>-133.4404958219164</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-133.1754934037189</v>
+        <v>-133.186302239277</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-133.9074943115602</v>
+        <v>-133.9793367916412</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-135.9771164528859</v>
+        <v>-136.1373376224307</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-140.2390509614236</v>
+        <v>-140.5547047300254</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-145.206436614712</v>
+        <v>-145.0849578955304</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-138.6985200375933</v>
+        <v>-138.3614230493709</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-133.7515143512977</v>
+        <v>-133.557937801293</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-130.8765897088113</v>
+        <v>-130.7646486805948</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-129.2904908342705</v>
+        <v>-129.236793861869</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-128.7346374858087</v>
+        <v>-128.733929420611</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-129.2302143271949</v>
+        <v>-129.2907209351781</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-131.1096078976584</v>
+        <v>-131.2621968882295</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-135.3774689176931</v>
+        <v>-135.7014380479133</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-139.3934716916643</v>
+        <v>-139.0996035790082</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-131.5015820603016</v>
+        <v>-131.1439547411649</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-126.0649444987027</v>
+        <v>-125.8422534940256</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-122.5013148378326</v>
+        <v>-122.3479212014544</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-119.9833330606247</v>
+        <v>-119.8731124128182</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-118.1646775640111</v>
+        <v>-118.0856123477889</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-116.8770048335076</v>
+        <v>-116.8228386736334</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-116.0304636173202</v>
+        <v>-115.9977625955632</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-115.576530650096</v>
+        <v>-115.5634942134396</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-115.4925527903484</v>
+        <v>-115.4985096796348</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-115.7755947977798</v>
+        <v>-115.8008377216792</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-116.4416264316481</v>
+        <v>-116.4874884059486</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-117.5295687089228</v>
+        <v>-117.5987865374392</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-119.1126809597328</v>
+        <v>-119.2102826453252</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-121.3256453131275</v>
+        <v>-121.4610922214217</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-124.4338109893734</v>
+        <v>-124.6268159618367</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-129.0388703649063</v>
+        <v>-129.3377158433573</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-136.5093777874243</v>
+        <v>-136.9679448814072</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-137.6000512730392</v>
+        <v>-137.2425420981667</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-132.0853763283302</v>
+        <v>-131.8988430813155</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-129.5360809879495</v>
+        <v>-129.458786762911</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-128.6531648432623</v>
+        <v>-128.6428025360155</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-128.9328799168029</v>
+        <v>-128.9770700330238</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-130.2819391543149</v>
+        <v>-130.3835497722227</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-132.9032367321192</v>
+        <v>-133.0828701380036</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-137.5011170780269</v>
+        <v>-137.8179545314587</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-144.5896888886786</v>
+        <v>-144.813816661889</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-140.6695169709194</v>
+        <v>-140.347943706127</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-135.9898867875988</v>
+        <v>-135.8286030296505</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-133.7541414326317</v>
+        <v>-133.6833249949461</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-132.98060235549</v>
+        <v>-132.97163977558</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-133.337244328665</v>
+        <v>-133.3829165612844</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-134.8186651161646</v>
+        <v>-134.925621772906</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-137.7341703631077</v>
+        <v>-137.9291177504814</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-142.9579119311892</v>
+        <v>-143.2950395541069</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-147.5820024500566</v>
+        <v>-147.3914130012126</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-141.7767842760613</v>
+        <v>-141.516779287967</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-138.0155640199104</v>
+        <v>-137.8845513446027</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-136.2296015889585</v>
+        <v>-136.1748006270012</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-135.7488929617866</v>
+        <v>-135.7511293006149</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-136.376569898138</v>
+        <v>-136.4331141554517</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-138.2027356884904</v>
+        <v>-138.3247621945727</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-141.6826673429281</v>
+        <v>-141.9053903312328</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-147.6419010285279</v>
+        <v>-147.9597500822913</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-147.6775668545752</v>
+        <v>-147.4023536258396</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-142.2497963246131</v>
+        <v>-142.0768122879027</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-139.3022228021125</v>
+        <v>-139.2242580241189</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-137.9896847137836</v>
+        <v>-137.9761098505546</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-137.8730281882727</v>
+        <v>-137.9151033094736</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-138.871200491241</v>
+        <v>-138.974147480604</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-141.1864465356958</v>
+        <v>-141.3738211461801</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-145.4588926341998</v>
+        <v>-145.7887966601228</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-151.1128418235978</v>
+        <v>-151.253860508537</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-146.9540223450323</v>
+        <v>-146.6633803274947</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-142.5675574510647</v>
+        <v>-142.4047425107704</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-140.3246395720985</v>
+        <v>-140.2469137269253</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-139.4863948196189</v>
+        <v>-139.4704711904849</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-139.7864647753653</v>
+        <v>-139.8268025079531</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-141.2569730933444</v>
+        <v>-141.3612746759425</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-144.2564428809509</v>
+        <v>-144.4502833455049</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-149.6035270785782</v>
+        <v>-149.8798247711305</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-151.8502952715676</v>
+        <v>-151.466016673017</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-146.2123878254894</v>
+        <v>-145.9344322541984</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-142.8352124314492</v>
+        <v>-142.6849926365562</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-141.229136299101</v>
+        <v>-141.1537759253114</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-140.8769633427282</v>
+        <v>-140.8572842370399</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-141.6532737942024</v>
+        <v>-141.6857082564599</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-143.7178093599717</v>
+        <v>-143.8117756921686</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-147.6384472378235</v>
+        <v>-147.8216195108479</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-153.3931881875139</v>
+        <v>-153.5103883814928</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-150.1956099332186</v>
+        <v>-149.9928456550065</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-145.5133767079755</v>
+        <v>-145.4138317698972</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-143.045687120556</v>
+        <v>-143.0183487256377</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-142.0341165164093</v>
+        <v>-142.0627335040226</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-142.1758363112723</v>
+        <v>-142.2601226165092</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-143.4733105815062</v>
+        <v>-143.6277877729108</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-146.2327108643537</v>
+        <v>-146.5010995173985</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-151.163969389019</v>
+        <v>-151.6472536136782</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-154.1270751531608</v>
+        <v>-154.1398083341129</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-148.7771783783399</v>
+        <v>-148.5923101369547</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-145.2362499963667</v>
+        <v>-145.1369396762166</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-143.4923260676992</v>
+        <v>-143.4618201415617</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-143.0192744123816</v>
+        <v>-143.0483276672646</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-143.673007258138</v>
+        <v>-143.7650143464633</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-145.5904524080524</v>
+        <v>-145.7637505603733</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-149.307632565817</v>
+        <v>-149.597313771046</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-155.2617070922877</v>
+        <v>-155.3377151033518</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-152.9746625567278</v>
+        <v>-152.3743539991183</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-147.9687183509691</v>
+        <v>-147.6216745612254</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-145.3143849073192</v>
+        <v>-145.0985290464548</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-144.1890540383139</v>
+        <v>-144.0473458906362</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-144.2509806809889</v>
+        <v>-144.1596329617095</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-145.4906191640943</v>
+        <v>-145.4379938598111</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-148.2230740341675</v>
+        <v>-148.1986651598449</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-153.2679966436715</v>
+        <v>-153.2089747937704</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-156.571404271419</v>
+        <v>-156.2182393106734</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-150.7932651840337</v>
+        <v>-150.6466307582843</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-147.1040829679382</v>
+        <v>-147.0528424728085</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-145.2828014822189</v>
+        <v>-145.283130241036</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-144.7489917175088</v>
+        <v>-144.7909518570762</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-145.3423166127694</v>
+        <v>-145.4291494681313</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-147.1834123748724</v>
+        <v>-147.334511076578</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-150.7528109872641</v>
+        <v>-151.0382857127707</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-156.2158207974872</v>
+        <v>-156.8478373607835</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-154.1817027593673</v>
+        <v>-154.3975671311866</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-149.3658255007986</v>
+        <v>-149.462727917748</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-146.6998685955895</v>
+        <v>-146.8155317938628</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-145.5143163135674</v>
+        <v>-145.671461561248</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-145.4817438088609</v>
+        <v>-145.6968988785167</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-146.5752241878559</v>
+        <v>-146.8769831062959</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-149.0521208737652</v>
+        <v>-149.5037817844199</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-153.6120140888955</v>
+        <v>-154.3437746383905</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-158.1313835570669</v>
+        <v>-158.1220335464221</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-153.0341244331938</v>
+        <v>-152.5578384634512</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-149.0467794187363</v>
+        <v>-148.7547459509891</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-147.0238892572967</v>
+        <v>-146.8476868751321</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-146.3387553174741</v>
+        <v>-146.2405991974967</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-146.7945053587399</v>
+        <v>-146.7588691769844</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-148.4882361826662</v>
+        <v>-148.5115914818542</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-151.9066260792541</v>
+        <v>-151.9851846796201</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-157.9091735764714</v>
+        <v>-157.8154653614144</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-157.1288310647986</v>
+        <v>-156.5727184863787</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-151.5592358429573</v>
+        <v>-151.2981554626751</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-148.548871292958</v>
+        <v>-148.4124310360717</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-147.1635392661354</v>
+        <v>-147.0964265973497</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-146.9778716399946</v>
+        <v>-146.9624866938663</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-147.9245914904367</v>
+        <v>-147.9591047654329</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-150.2260553796927</v>
+        <v>-150.327021170227</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-154.5315793362321</v>
+        <v>-154.7813796517894</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-159.3550013801988</v>
+        <v>-159.8985362997585</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-154.6053133513334</v>
+        <v>-154.7879073420219</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-150.3959524458638</v>
+        <v>-150.5366986468399</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-148.1778504267409</v>
+        <v>-148.3463503905581</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-147.2945423923613</v>
+        <v>-147.5131610652533</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-147.5085396846858</v>
+        <v>-147.8019248853709</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-148.8510592384099</v>
+        <v>-149.2658535034196</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-151.6448930595292</v>
+        <v>-152.2953571611585</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-156.5897446499685</v>
+        <v>-157.7602710803015</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-159.2466298181371</v>
+        <v>-159.3599629724158</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-153.8899899963549</v>
+        <v>-153.5426486069123</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-150.3646534332755</v>
+        <v>-150.1461928650577</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-148.5952572427289</v>
+        <v>-148.4851343112924</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-148.0695621483972</v>
+        <v>-148.049682445768</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-148.6441559583932</v>
+        <v>-148.7146413228695</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-150.448797409237</v>
+        <v>-150.6295758867741</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-154.0247642576905</v>
+        <v>-154.3532875822457</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-160.4325723937445</v>
+        <v>-160.4319248375272</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-159.1917850273023</v>
+        <v>-157.9671222215299</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-153.4622962478662</v>
+        <v>-152.7974328589524</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-150.4594573420486</v>
+        <v>-150.027372699101</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-149.0849496807656</v>
+        <v>-148.7687210155541</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-148.9035005052222</v>
+        <v>-148.6560976748349</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-149.8503189899362</v>
+        <v>-149.646146255503</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-152.1627690982149</v>
+        <v>-151.9790984121797</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-156.5980172227982</v>
+        <v>-156.3855156176241</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-162.3054962306099</v>
+        <v>-161.9946986312949</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-156.9472158297795</v>
+        <v>-156.9068053256204</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-152.41594510247</v>
+        <v>-152.4353180746213</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-150.0500874338107</v>
+        <v>-150.1066991512744</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-149.0457406384796</v>
+        <v>-149.1447875206861</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-149.1246738132349</v>
+        <v>-149.281028598223</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-150.2873666334245</v>
+        <v>-150.5327637958032</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-152.8071556239535</v>
+        <v>-153.2208380801976</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-157.3948089041564</v>
+        <v>-158.2208136226056</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-161.8094817435158</v>
+        <v>-162.3934952890971</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-156.613156083499</v>
+        <v>-156.3457127749</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-152.5744998708749</v>
+        <v>-152.3683661872571</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-150.4569281484796</v>
+        <v>-150.3305879606176</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-149.626063939514</v>
+        <v>-149.5686610669802</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-149.8632482574886</v>
+        <v>-149.8745192844927</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-151.2137968999539</v>
+        <v>-151.306435008039</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-154.0456639616889</v>
+        <v>-154.2454926630373</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-159.4780591999468</v>
+        <v>-159.6631911604886</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-164.4590059118069</v>
+        <v>-162.4726132210449</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-157.3177433616079</v>
+        <v>-156.2447730591755</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-153.2211685015797</v>
+        <v>-152.543845936993</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-151.1950224923501</v>
+        <v>-150.6638383664013</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-150.4814617744476</v>
+        <v>-150.0062676476334</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-150.8698203157807</v>
+        <v>-150.3939594170832</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-152.4497283899369</v>
+        <v>-151.9045667425717</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-155.7171230916064</v>
+        <v>-154.946156325236</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-162.1235391591538</v>
+        <v>-160.5433393611378</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-163.1606074733705</v>
+        <v>-162.8740897142131</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-156.2480394072788</v>
+        <v>-156.5804668249597</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-152.6561451321043</v>
+        <v>-152.9439447537114</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-150.8328735333691</v>
+        <v>-151.0923982827955</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-150.1800743933876</v>
+        <v>-150.4398730177418</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-150.5228688627279</v>
+        <v>-150.8128998802133</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-151.9148138814279</v>
+        <v>-152.2848105346288</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-154.6614324847031</v>
+        <v>-155.2474865093213</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-159.3231754237719</v>
+        <v>-160.7321575045779</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-161.8361686173385</v>
+        <v>-163.8477310023458</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-156.8932533018963</v>
+        <v>-157.3935397705907</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-153.3271761217981</v>
+        <v>-153.5912440586544</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-151.396006907374</v>
+        <v>-151.6297661735637</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-150.6199430391193</v>
+        <v>-150.8757463817058</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-150.8227142519005</v>
+        <v>-151.1311278545826</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-152.04176003054</v>
+        <v>-152.4407803808928</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-154.5763955894315</v>
+        <v>-155.1367154954702</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-159.3226392015442</v>
+        <v>-160.1590630662909</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-166.1483251628422</v>
+        <v>-165.2499409711663</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-159.9518279744921</v>
+        <v>-158.8278514756559</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-155.1924725440042</v>
+        <v>-154.5649073016513</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-152.7499166953121</v>
+        <v>-152.3279500007175</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-151.6706321052051</v>
+        <v>-151.3534523936804</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-151.6435666607019</v>
+        <v>-151.3839964104437</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-152.6480041317114</v>
+        <v>-152.4131510475701</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-154.9348705088552</v>
+        <v>-154.6808366496401</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-159.3304418811273</v>
+        <v>-158.9194579668796</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-166.9785036591045</v>
+        <v>-165.7066258722989</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-161.4097928885755</v>
+        <v>-161.2061352456592</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-156.0323956004961</v>
+        <v>-156.0388686599585</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-153.2442900778757</v>
+        <v>-153.2970716003274</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-151.8761314964828</v>
+        <v>-151.9580308542527</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-151.5383275187153</v>
+        <v>-151.650416745042</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-152.1413034900858</v>
+        <v>-152.2928136330627</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-153.8032892646256</v>
+        <v>-154.0180145294087</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-156.9509992847478</v>
+        <v>-157.3044933294061</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-162.5216871255808</v>
+        <v>-163.3885737251045</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-164.2158821760025</v>
+        <v>-164.9988098342368</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-158.1781677438886</v>
+        <v>-158.380054298632</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-154.5784545679279</v>
+        <v>-154.7468403711317</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-152.6437031493624</v>
+        <v>-152.8404241304876</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-151.8168274409522</v>
+        <v>-152.0620752811834</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-151.9041535308983</v>
+        <v>-152.2186257728088</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-152.9113311281622</v>
+        <v>-153.330793461478</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-155.0506581404516</v>
+        <v>-155.6535864677953</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-158.9408364257617</v>
+        <v>-159.9466770933727</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-165.5279314034913</v>
+        <v>-167.0613547349461</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-163.1335609389537</v>
+        <v>-162.4236391396275</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-157.5636730904319</v>
+        <v>-157.0986718352983</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-154.5337253104959</v>
+        <v>-154.2656012160762</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-152.9651191910792</v>
+        <v>-152.8249284832966</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-152.4202516502416</v>
+        <v>-152.3813085437643</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-152.7681744210964</v>
+        <v>-152.8273698090715</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-154.0689382684573</v>
+        <v>-154.244585624754</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-156.6352755976751</v>
+        <v>-156.9800820992012</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-161.4282060845732</v>
+        <v>-162.0328653226566</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-169.7410416458926</v>
+        <v>-168.2637264643057</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-162.810832649585</v>
+        <v>-161.3679101587672</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-157.5489039757577</v>
+        <v>-156.7564040558568</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-154.8318931598226</v>
+        <v>-154.2822166479778</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-153.4778424458145</v>
+        <v>-153.051821151499</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-153.1041883006415</v>
+        <v>-152.7514715714003</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-153.6164052955427</v>
+        <v>-153.3077813498136</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-155.1153209182643</v>
+        <v>-154.8232565834639</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-158.0068233187778</v>
+        <v>-157.6720189424527</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-163.6553556229322</v>
+        <v>-162.9298227196653</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-172.6748864481497</v>
+        <v>-168.9289252861391</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-162.386637108895</v>
+        <v>-161.6637302854842</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-157.4864896573122</v>
+        <v>-157.1306736575879</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-154.9416921053084</v>
+        <v>-154.6816389195832</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-153.6634500150334</v>
+        <v>-153.4411047890353</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-153.3088584781877</v>
+        <v>-153.100422679423</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-153.7915844056704</v>
+        <v>-153.5804959361316</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-155.1951342350957</v>
+        <v>-154.963861375699</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-157.8386934834771</v>
+        <v>-157.5686715776622</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-162.5395118196673</v>
+        <v>-162.311271424363</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-167.7840695869188</v>
+        <v>-169.8059900214604</v>
       </c>
     </row>
     <row r="602">
@@ -5243,7 +5243,7 @@
         <v>2.096724796611653</v>
       </c>
       <c r="B602" t="n">
-        <v>-162.0396466931186</v>
+        <v>-163.4375871924798</v>
       </c>
     </row>
     <row r="603">
@@ -5251,7 +5251,7 @@
         <v>2.100219337939339</v>
       </c>
       <c r="B603" t="n">
-        <v>-157.4904170898421</v>
+        <v>-158.2858113586869</v>
       </c>
     </row>
     <row r="604">
@@ -5259,7 +5259,7 @@
         <v>2.103713879267025</v>
       </c>
       <c r="B604" t="n">
-        <v>-154.8918471440354</v>
+        <v>-155.5131632714682</v>
       </c>
     </row>
     <row r="605">
@@ -5267,7 +5267,7 @@
         <v>2.107208420594711</v>
       </c>
       <c r="B605" t="n">
-        <v>-153.4605442833081</v>
+        <v>-154.0342613679718</v>
       </c>
     </row>
     <row r="606">
@@ -5275,7 +5275,7 @@
         <v>2.110702961922397</v>
       </c>
       <c r="B606" t="n">
-        <v>-152.8782465596799</v>
+        <v>-153.467143135892</v>
       </c>
     </row>
     <row r="607">
@@ -5283,7 +5283,7 @@
         <v>2.114197503250083</v>
       </c>
       <c r="B607" t="n">
-        <v>-153.0333219821742</v>
+        <v>-153.6891726318266</v>
       </c>
     </row>
     <row r="608">
@@ -5291,7 +5291,7 @@
         <v>2.117692044577769</v>
       </c>
       <c r="B608" t="n">
-        <v>-153.9396762239965</v>
+        <v>-154.7296748331551</v>
       </c>
     </row>
     <row r="609">
@@ -5299,7 +5299,7 @@
         <v>2.121186585905456</v>
       </c>
       <c r="B609" t="n">
-        <v>-155.7473651111406</v>
+        <v>-156.7950243447468</v>
       </c>
     </row>
     <row r="610">
@@ -5307,7 +5307,7 @@
         <v>2.124681127233142</v>
       </c>
       <c r="B610" t="n">
-        <v>-158.8616637404493</v>
+        <v>-160.4765894964101</v>
       </c>
     </row>
     <row r="611">
@@ -5315,7 +5315,7 @@
         <v>2.128175668560828</v>
       </c>
       <c r="B611" t="n">
-        <v>-164.275585874608</v>
+        <v>-167.429388386937</v>
       </c>
     </row>
     <row r="612">
@@ -5323,7 +5323,7 @@
         <v>2.131670209888514</v>
       </c>
       <c r="B612" t="n">
-        <v>-168.4142119253625</v>
+        <v>-167.6103627758372</v>
       </c>
     </row>
     <row r="613">
@@ -5331,7 +5331,7 @@
         <v>2.1351647512162</v>
       </c>
       <c r="B613" t="n">
-        <v>-162.028565677423</v>
+        <v>-160.6798166793874</v>
       </c>
     </row>
     <row r="614">
@@ -5339,7 +5339,7 @@
         <v>2.138659292543886</v>
       </c>
       <c r="B614" t="n">
-        <v>-157.9590856279763</v>
+        <v>-157.0448541670749</v>
       </c>
     </row>
     <row r="615">
@@ -5347,7 +5347,7 @@
         <v>2.142153833871572</v>
       </c>
       <c r="B615" t="n">
-        <v>-155.7042737789141</v>
+        <v>-155.0298100540992</v>
       </c>
     </row>
     <row r="616">
@@ -5355,7 +5355,7 @@
         <v>2.145648375199258</v>
       </c>
       <c r="B616" t="n">
-        <v>-154.5602946522034</v>
+        <v>-154.0272671525249</v>
       </c>
     </row>
     <row r="617">
@@ -5363,7 +5363,7 @@
         <v>2.149142916526944</v>
       </c>
       <c r="B617" t="n">
-        <v>-154.2608195635068</v>
+        <v>-153.8173939081458</v>
       </c>
     </row>
     <row r="618">
@@ -5371,7 +5371,7 @@
         <v>2.15263745785463</v>
       </c>
       <c r="B618" t="n">
-        <v>-154.7385069307455</v>
+        <v>-154.3515050471973</v>
       </c>
     </row>
     <row r="619">
@@ -5379,7 +5379,7 @@
         <v>2.156131999182316</v>
       </c>
       <c r="B619" t="n">
-        <v>-156.0758298496019</v>
+        <v>-155.7147409240674</v>
       </c>
     </row>
     <row r="620">
@@ -5387,7 +5387,7 @@
         <v>2.159626540510002</v>
       </c>
       <c r="B620" t="n">
-        <v>-158.58755514313</v>
+        <v>-158.1971130291453</v>
       </c>
     </row>
     <row r="621">
@@ -5395,7 +5395,7 @@
         <v>2.163121081837688</v>
       </c>
       <c r="B621" t="n">
-        <v>-163.2835861478626</v>
+        <v>-162.617478352242</v>
       </c>
     </row>
     <row r="622">
@@ -5403,7 +5403,7 @@
         <v>2.166615623165375</v>
       </c>
       <c r="B622" t="n">
-        <v>-176.4912653861704</v>
+        <v>-170.7201463225985</v>
       </c>
     </row>
     <row r="623">
@@ -5411,7 +5411,7 @@
         <v>2.170110164493061</v>
       </c>
       <c r="B623" t="n">
-        <v>-167.4267612781455</v>
+        <v>-165.8550528380928</v>
       </c>
     </row>
     <row r="624">
@@ -5419,7 +5419,7 @@
         <v>2.173604705820747</v>
       </c>
       <c r="B624" t="n">
-        <v>-160.5476334173131</v>
+        <v>-160.0124644443295</v>
       </c>
     </row>
     <row r="625">
@@ -5427,7 +5427,7 @@
         <v>2.177099247148433</v>
       </c>
       <c r="B625" t="n">
-        <v>-157.2429468967723</v>
+        <v>-156.8943079437145</v>
       </c>
     </row>
     <row r="626">
@@ -5435,7 +5435,7 @@
         <v>2.180593788476119</v>
       </c>
       <c r="B626" t="n">
-        <v>-155.4273929523586</v>
+        <v>-155.146161410304</v>
       </c>
     </row>
     <row r="627">
@@ -5443,7 +5443,7 @@
         <v>2.184088329803805</v>
       </c>
       <c r="B627" t="n">
-        <v>-154.5537038599402</v>
+        <v>-154.3026560369293</v>
       </c>
     </row>
     <row r="628">
@@ -5451,7 +5451,7 @@
         <v>2.187582871131491</v>
       </c>
       <c r="B628" t="n">
-        <v>-154.4322271076648</v>
+        <v>-154.192582241373</v>
       </c>
     </row>
     <row r="629">
@@ -5459,7 +5459,7 @@
         <v>2.191077412459177</v>
       </c>
       <c r="B629" t="n">
-        <v>-155.0287866921032</v>
+        <v>-154.7864504981601</v>
       </c>
     </row>
     <row r="630">
@@ -5467,7 +5467,7 @@
         <v>2.194571953786864</v>
       </c>
       <c r="B630" t="n">
-        <v>-156.4341911371473</v>
+        <v>-156.1756764803575</v>
       </c>
     </row>
     <row r="631">
@@ -5475,7 +5475,7 @@
         <v>2.19806649511455</v>
       </c>
       <c r="B631" t="n">
-        <v>-158.926945776245</v>
+        <v>-158.6460453490153</v>
       </c>
     </row>
     <row r="632">
@@ -5483,7 +5483,7 @@
         <v>2.201561036442236</v>
       </c>
       <c r="B632" t="n">
-        <v>-163.1803750550949</v>
+        <v>-162.9940704441644</v>
       </c>
     </row>
     <row r="633">
@@ -5491,7 +5491,7 @@
         <v>2.205055577769921</v>
       </c>
       <c r="B633" t="n">
-        <v>-168.8998667528397</v>
+        <v>-171.2202595961375</v>
       </c>
     </row>
     <row r="634">
@@ -5499,7 +5499,7 @@
         <v>2.208550119097608</v>
       </c>
       <c r="B634" t="n">
-        <v>-164.6894677632316</v>
+        <v>-166.9482402036906</v>
       </c>
     </row>
     <row r="635">
@@ -5507,7 +5507,7 @@
         <v>2.212044660425294</v>
       </c>
       <c r="B635" t="n">
-        <v>-159.7563754911698</v>
+        <v>-160.8282327948354</v>
       </c>
     </row>
     <row r="636">
@@ -5515,7 +5515,7 @@
         <v>2.21553920175298</v>
       </c>
       <c r="B636" t="n">
-        <v>-156.8262016686643</v>
+        <v>-157.5786429733688</v>
       </c>
     </row>
     <row r="637">
@@ -5523,7 +5523,7 @@
         <v>2.219033743080666</v>
       </c>
       <c r="B637" t="n">
-        <v>-155.0804342081376</v>
+        <v>-155.7234018203014</v>
       </c>
     </row>
     <row r="638">
@@ -5531,7 +5531,7 @@
         <v>2.222528284408352</v>
       </c>
       <c r="B638" t="n">
-        <v>-154.1466289070882</v>
+        <v>-154.7643657649776</v>
       </c>
     </row>
     <row r="639">
@@ -5539,7 +5539,7 @@
         <v>2.226022825736038</v>
       </c>
       <c r="B639" t="n">
-        <v>-153.8674833003263</v>
+        <v>-154.5120125161626</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5547,7 @@
         <v>2.229517367063724</v>
       </c>
       <c r="B640" t="n">
-        <v>-154.1954959446245</v>
+        <v>-154.915484535613</v>
       </c>
     </row>
     <row r="641">
@@ -5555,7 +5555,7 @@
         <v>2.23301190839141</v>
       </c>
       <c r="B641" t="n">
-        <v>-155.1669845162122</v>
+        <v>-156.027615004606</v>
       </c>
     </row>
     <row r="642">
@@ -5563,7 +5563,7 @@
         <v>2.236506449719097</v>
       </c>
       <c r="B642" t="n">
-        <v>-156.926339191947</v>
+        <v>-158.0433088096066</v>
       </c>
     </row>
     <row r="643">
@@ -5571,7 +5571,7 @@
         <v>2.240000991046783</v>
       </c>
       <c r="B643" t="n">
-        <v>-159.8401631706575</v>
+        <v>-161.481090683505</v>
       </c>
     </row>
     <row r="644">
@@ -5579,7 +5579,7 @@
         <v>2.243495532374469</v>
       </c>
       <c r="B644" t="n">
-        <v>-164.9428030827896</v>
+        <v>-167.9244104823607</v>
       </c>
     </row>
     <row r="645">
@@ -5587,7 +5587,7 @@
         <v>2.246990073702155</v>
       </c>
       <c r="B645" t="n">
-        <v>-173.6771485449269</v>
+        <v>-171.8623707842478</v>
       </c>
     </row>
     <row r="646">
@@ -5595,7 +5595,7 @@
         <v>2.250484615029841</v>
       </c>
       <c r="B646" t="n">
-        <v>-166.1960475368674</v>
+        <v>-163.6081404966356</v>
       </c>
     </row>
     <row r="647">
@@ -5603,7 +5603,7 @@
         <v>2.253979156357527</v>
       </c>
       <c r="B647" t="n">
-        <v>-160.8892563731287</v>
+        <v>-159.3745111226827</v>
       </c>
     </row>
     <row r="648">
@@ -5611,7 +5611,7 @@
         <v>2.257473697685213</v>
       </c>
       <c r="B648" t="n">
-        <v>-158.0375005938788</v>
+        <v>-156.9656815548707</v>
       </c>
     </row>
     <row r="649">
@@ -5619,7 +5619,7 @@
         <v>2.260968239012899</v>
       </c>
       <c r="B649" t="n">
-        <v>-156.4316288622272</v>
+        <v>-155.5894780502832</v>
       </c>
     </row>
     <row r="650">
@@ -5627,7 +5627,7 @@
         <v>2.264462780340585</v>
       </c>
       <c r="B650" t="n">
-        <v>-155.6600023941431</v>
+        <v>-154.9519149838954</v>
       </c>
     </row>
     <row r="651">
@@ -5635,7 +5635,7 @@
         <v>2.267957321668271</v>
       </c>
       <c r="B651" t="n">
-        <v>-155.5685022714757</v>
+        <v>-154.9408342106217</v>
       </c>
     </row>
     <row r="652">
@@ -5643,7 +5643,7 @@
         <v>2.271451862995957</v>
       </c>
       <c r="B652" t="n">
-        <v>-156.1293825777068</v>
+        <v>-155.5440663602347</v>
       </c>
     </row>
     <row r="653">
@@ -5651,7 +5651,7 @@
         <v>2.274946404323643</v>
       </c>
       <c r="B653" t="n">
-        <v>-157.4231757181011</v>
+        <v>-156.8424289352431</v>
       </c>
     </row>
     <row r="654">
@@ -5659,7 +5659,7 @@
         <v>2.278440945651329</v>
       </c>
       <c r="B654" t="n">
-        <v>-159.7033480380563</v>
+        <v>-159.0669261290315</v>
       </c>
     </row>
     <row r="655">
@@ -5667,7 +5667,7 @@
         <v>2.281935486979016</v>
       </c>
       <c r="B655" t="n">
-        <v>-163.6913527035433</v>
+        <v>-162.825050661112</v>
       </c>
     </row>
     <row r="656">
@@ -5675,7 +5675,7 @@
         <v>2.285430028306702</v>
       </c>
       <c r="B656" t="n">
-        <v>-172.469333926521</v>
+        <v>-170.039857696738</v>
       </c>
     </row>
     <row r="657">
@@ -5683,7 +5683,7 @@
         <v>2.288924569634388</v>
       </c>
       <c r="B657" t="n">
-        <v>-172.4122048350873</v>
+        <v>-171.4060637585848</v>
       </c>
     </row>
     <row r="658">
@@ -5691,7 +5691,7 @@
         <v>2.292419110962074</v>
       </c>
       <c r="B658" t="n">
-        <v>-163.6911659532914</v>
+        <v>-163.6038420414973</v>
       </c>
     </row>
     <row r="659">
@@ -5699,7 +5699,7 @@
         <v>2.29591365228976</v>
       </c>
       <c r="B659" t="n">
-        <v>-159.7183117106549</v>
+        <v>-159.6490778321993</v>
       </c>
     </row>
     <row r="660">
@@ -5707,7 +5707,7 @@
         <v>2.299408193617446</v>
       </c>
       <c r="B660" t="n">
-        <v>-157.428568677817</v>
+        <v>-157.3509278636029</v>
       </c>
     </row>
     <row r="661">
@@ -5715,7 +5715,7 @@
         <v>2.302902734945132</v>
       </c>
       <c r="B661" t="n">
-        <v>-156.093070298958</v>
+        <v>-156.0091963079217</v>
       </c>
     </row>
     <row r="662">
@@ -5723,7 +5723,7 @@
         <v>2.306397276272818</v>
       </c>
       <c r="B662" t="n">
-        <v>-155.4432395935013</v>
+        <v>-155.3558991902797</v>
       </c>
     </row>
     <row r="663">
@@ -5731,7 +5731,7 @@
         <v>2.309891817600504</v>
       </c>
       <c r="B663" t="n">
-        <v>-155.3730312439722</v>
+        <v>-155.2837349265997</v>
       </c>
     </row>
     <row r="664">
@@ -5739,7 +5739,7 @@
         <v>2.31338635892819</v>
       </c>
       <c r="B664" t="n">
-        <v>-155.8636764645494</v>
+        <v>-155.772849389955</v>
       </c>
     </row>
     <row r="665">
@@ -5747,7 +5747,7 @@
         <v>2.316880900255876</v>
       </c>
       <c r="B665" t="n">
-        <v>-156.9726265673503</v>
+        <v>-156.8799098012277</v>
       </c>
     </row>
     <row r="666">
@@ -5755,7 +5755,7 @@
         <v>2.320375441583562</v>
       </c>
       <c r="B666" t="n">
-        <v>-158.8686497701657</v>
+        <v>-158.7738480854938</v>
       </c>
     </row>
     <row r="667">
@@ -5763,7 +5763,7 @@
         <v>2.323869982911249</v>
       </c>
       <c r="B667" t="n">
-        <v>-161.9653815559581</v>
+        <v>-161.8754956037023</v>
       </c>
     </row>
     <row r="668">
@@ -5771,7 +5771,7 @@
         <v>2.327364524238935</v>
       </c>
       <c r="B668" t="n">
-        <v>-167.40849751953</v>
+        <v>-167.4297068659886</v>
       </c>
     </row>
     <row r="669">
@@ -5779,7 +5779,7 @@
         <v>2.330859065566621</v>
       </c>
       <c r="B669" t="n">
-        <v>-174.1183615871531</v>
+        <v>-175.9332507624403</v>
       </c>
     </row>
     <row r="670">
@@ -5787,7 +5787,7 @@
         <v>2.334353606894307</v>
       </c>
       <c r="B670" t="n">
-        <v>-166.2987463762427</v>
+        <v>-166.7683588401075</v>
       </c>
     </row>
     <row r="671">
@@ -5795,7 +5795,7 @@
         <v>2.337848148221993</v>
       </c>
       <c r="B671" t="n">
-        <v>-161.4569502232343</v>
+        <v>-161.6693236778551</v>
       </c>
     </row>
     <row r="672">
@@ -5803,7 +5803,7 @@
         <v>2.341342689549679</v>
       </c>
       <c r="B672" t="n">
-        <v>-158.6615323822835</v>
+        <v>-158.8053043710485</v>
       </c>
     </row>
     <row r="673">
@@ -5811,7 +5811,7 @@
         <v>2.344837230877365</v>
       </c>
       <c r="B673" t="n">
-        <v>-156.9511626619696</v>
+        <v>-157.0709339177378</v>
       </c>
     </row>
     <row r="674">
@@ -5819,7 +5819,7 @@
         <v>2.348331772205051</v>
       </c>
       <c r="B674" t="n">
-        <v>-155.9639715512896</v>
+        <v>-156.0774094893091</v>
       </c>
     </row>
     <row r="675">
@@ -5827,7 +5827,7 @@
         <v>2.351826313532738</v>
       </c>
       <c r="B675" t="n">
-        <v>-155.5441019562938</v>
+        <v>-155.6611765716054</v>
       </c>
     </row>
     <row r="676">
@@ -5835,7 +5835,7 @@
         <v>2.355320854860424</v>
       </c>
       <c r="B676" t="n">
-        <v>-155.6306260062419</v>
+        <v>-155.7591551284449</v>
       </c>
     </row>
     <row r="677">
@@ -5843,7 +5843,7 @@
         <v>2.35881539618811</v>
       </c>
       <c r="B677" t="n">
-        <v>-156.2248920762087</v>
+        <v>-156.3732354980094</v>
       </c>
     </row>
     <row r="678">
@@ -5851,7 +5851,7 @@
         <v>2.362309937515795</v>
       </c>
       <c r="B678" t="n">
-        <v>-157.3920722695785</v>
+        <v>-157.5719148777311</v>
       </c>
     </row>
     <row r="679">
@@ -5859,7 +5859,7 @@
         <v>2.365804478843482</v>
       </c>
       <c r="B679" t="n">
-        <v>-159.2992882744722</v>
+        <v>-159.5310091129246</v>
       </c>
     </row>
     <row r="680">
@@ -5867,7 +5867,7 @@
         <v>2.369299020171168</v>
       </c>
       <c r="B680" t="n">
-        <v>-162.3482457966727</v>
+        <v>-162.676522614461</v>
       </c>
     </row>
     <row r="681">
@@ -5875,7 +5875,7 @@
         <v>2.372793561498854</v>
       </c>
       <c r="B681" t="n">
-        <v>-167.7225927352605</v>
+        <v>-168.2742472205787</v>
       </c>
     </row>
     <row r="682">
@@ -5883,7 +5883,7 @@
         <v>2.37628810282654</v>
       </c>
       <c r="B682" t="n">
-        <v>-177.947441277134</v>
+        <v>-177.2815700130113</v>
       </c>
     </row>
     <row r="683">
@@ -5891,7 +5891,7 @@
         <v>2.379782644154226</v>
       </c>
       <c r="B683" t="n">
-        <v>-168.3529802433118</v>
+        <v>-167.7248604985792</v>
       </c>
     </row>
     <row r="684">
@@ -5899,7 +5899,7 @@
         <v>2.383277185481912</v>
       </c>
       <c r="B684" t="n">
-        <v>-162.834057890514</v>
+        <v>-162.5347821898898</v>
       </c>
     </row>
     <row r="685">
@@ -5907,7 +5907,7 @@
         <v>2.386771726809598</v>
       </c>
       <c r="B685" t="n">
-        <v>-159.7832704456221</v>
+        <v>-159.6055975341267</v>
       </c>
     </row>
     <row r="686">
@@ -5915,7 +5915,7 @@
         <v>2.390266268137284</v>
       </c>
       <c r="B686" t="n">
-        <v>-157.9062931422527</v>
+        <v>-157.7942270243641</v>
       </c>
     </row>
     <row r="687">
@@ -5923,7 +5923,7 @@
         <v>2.39376080946497</v>
       </c>
       <c r="B687" t="n">
-        <v>-156.7694876938756</v>
+        <v>-156.7013437885517</v>
       </c>
     </row>
     <row r="688">
@@ -5931,7 +5931,7 @@
         <v>2.397255350792657</v>
       </c>
       <c r="B688" t="n">
-        <v>-156.1887355210567</v>
+        <v>-156.1548477854462</v>
       </c>
     </row>
     <row r="689">
@@ -5939,7 +5939,7 @@
         <v>2.400749892120343</v>
       </c>
       <c r="B689" t="n">
-        <v>-156.0835381531027</v>
+        <v>-156.0799515988985</v>
       </c>
     </row>
     <row r="690">
@@ -5947,7 +5947,7 @@
         <v>2.404244433448029</v>
       </c>
       <c r="B690" t="n">
-        <v>-156.4326031762595</v>
+        <v>-156.4591113773147</v>
       </c>
     </row>
     <row r="691">
@@ -5955,7 +5955,7 @@
         <v>2.407738974775715</v>
       </c>
       <c r="B691" t="n">
-        <v>-157.2642397389244</v>
+        <v>-157.3243154690181</v>
       </c>
     </row>
     <row r="692">
@@ -5963,7 +5963,7 @@
         <v>2.411233516103401</v>
       </c>
       <c r="B692" t="n">
-        <v>-158.6704092308829</v>
+        <v>-158.7730320119774</v>
       </c>
     </row>
     <row r="693">
@@ -5971,7 +5971,7 @@
         <v>2.414728057431087</v>
       </c>
       <c r="B693" t="n">
-        <v>-160.8611625767234</v>
+        <v>-161.0269904525969</v>
       </c>
     </row>
     <row r="694">
@@ -5979,7 +5979,7 @@
         <v>2.418222598758773</v>
       </c>
       <c r="B694" t="n">
-        <v>-164.3471787204169</v>
+        <v>-164.6311490488467</v>
       </c>
     </row>
     <row r="695">
@@ -5987,7 +5987,7 @@
         <v>2.421717140086459</v>
       </c>
       <c r="B695" t="n">
-        <v>-170.7494210333691</v>
+        <v>-171.3556224838339</v>
       </c>
     </row>
     <row r="696">
@@ -5995,7 +5995,7 @@
         <v>2.425211681414145</v>
       </c>
       <c r="B696" t="n">
-        <v>-177.4112100652475</v>
+        <v>-176.6058166893122</v>
       </c>
     </row>
     <row r="697">
@@ -6003,7 +6003,7 @@
         <v>2.428706222741831</v>
       </c>
       <c r="B697" t="n">
-        <v>-167.5852928162004</v>
+        <v>-167.1605027626508</v>
       </c>
     </row>
     <row r="698">
@@ -6011,7 +6011,7 @@
         <v>2.432200764069517</v>
       </c>
       <c r="B698" t="n">
-        <v>-162.8783246891966</v>
+        <v>-162.6398988682557</v>
       </c>
     </row>
     <row r="699">
@@ -6019,7 +6019,7 @@
         <v>2.435695305397203</v>
       </c>
       <c r="B699" t="n">
-        <v>-160.129299423809</v>
+        <v>-159.974282836139</v>
       </c>
     </row>
     <row r="700">
@@ -6027,7 +6027,7 @@
         <v>2.43918984672489</v>
       </c>
       <c r="B700" t="n">
-        <v>-158.3837999073956</v>
+        <v>-158.2787423226451</v>
       </c>
     </row>
     <row r="701">
@@ -6035,7 +6035,7 @@
         <v>2.442684388052576</v>
       </c>
       <c r="B701" t="n">
-        <v>-157.2921749447045</v>
+        <v>-157.222846735994</v>
       </c>
     </row>
     <row r="702">
@@ -6043,7 +6043,7 @@
         <v>2.446178929380262</v>
       </c>
       <c r="B702" t="n">
-        <v>-156.6972358523743</v>
+        <v>-156.6569150930328</v>
       </c>
     </row>
     <row r="703">
@@ -6051,7 +6051,7 @@
         <v>2.449673470707948</v>
       </c>
       <c r="B703" t="n">
-        <v>-156.5256034655593</v>
+        <v>-156.51137067851</v>
       </c>
     </row>
     <row r="704">
@@ -6059,7 +6059,7 @@
         <v>2.453168012035634</v>
       </c>
       <c r="B704" t="n">
-        <v>-156.7518462468499</v>
+        <v>-156.7633150133534</v>
       </c>
     </row>
     <row r="705">
@@ -6067,7 +6067,7 @@
         <v>2.45666255336332</v>
       </c>
       <c r="B705" t="n">
-        <v>-157.3883745989467</v>
+        <v>-157.4275414316179</v>
       </c>
     </row>
     <row r="706">
@@ -6075,7 +6075,7 @@
         <v>2.460157094691006</v>
       </c>
       <c r="B706" t="n">
-        <v>-158.4909625102541</v>
+        <v>-158.5629584838634</v>
       </c>
     </row>
     <row r="707">
@@ -6083,7 +6083,7 @@
         <v>2.463651636018692</v>
       </c>
       <c r="B707" t="n">
-        <v>-160.1853435487949</v>
+        <v>-160.300849132115</v>
       </c>
     </row>
     <row r="708">
@@ -6091,7 +6091,7 @@
         <v>2.467146177346378</v>
       </c>
       <c r="B708" t="n">
-        <v>-162.7473827318167</v>
+        <v>-162.9295478951858</v>
       </c>
     </row>
     <row r="709">
@@ -6099,7 +6099,7 @@
         <v>2.470640718674064</v>
       </c>
       <c r="B709" t="n">
-        <v>-166.8899250975728</v>
+        <v>-167.1975135024917</v>
       </c>
     </row>
     <row r="710">
@@ -6107,7 +6107,7 @@
         <v>2.47413526000175</v>
       </c>
       <c r="B710" t="n">
-        <v>-175.3608094073961</v>
+        <v>-175.8504992043335</v>
       </c>
     </row>
     <row r="711">
@@ -6115,7 +6115,7 @@
         <v>2.477629801329436</v>
       </c>
       <c r="B711" t="n">
-        <v>-175.5383417589412</v>
+        <v>-174.3312037482218</v>
       </c>
     </row>
     <row r="712">
@@ -6123,7 +6123,7 @@
         <v>2.481124342657123</v>
       </c>
       <c r="B712" t="n">
-        <v>-167.1040518060764</v>
+        <v>-166.6765523092293</v>
       </c>
     </row>
     <row r="713">
@@ -6131,7 +6131,7 @@
         <v>2.484618883984809</v>
       </c>
       <c r="B713" t="n">
-        <v>-163.0439818789204</v>
+        <v>-162.7998172319145</v>
       </c>
     </row>
     <row r="714">
@@ -6139,7 +6139,7 @@
         <v>2.488113425312495</v>
       </c>
       <c r="B714" t="n">
-        <v>-160.5652052144409</v>
+        <v>-160.4036934621136</v>
       </c>
     </row>
     <row r="715">
@@ -6147,7 +6147,7 @@
         <v>2.491607966640181</v>
       </c>
       <c r="B715" t="n">
-        <v>-158.9428000483035</v>
+        <v>-158.831048264528</v>
       </c>
     </row>
     <row r="716">
@@ -6155,7 +6155,7 @@
         <v>2.495102507967867</v>
       </c>
       <c r="B716" t="n">
-        <v>-157.8927559023515</v>
+        <v>-157.8165296566562</v>
       </c>
     </row>
     <row r="717">
@@ -6163,7 +6163,7 @@
         <v>2.498597049295553</v>
       </c>
       <c r="B717" t="n">
-        <v>-157.280668388403</v>
+        <v>-157.2330280054581</v>
       </c>
     </row>
     <row r="718">
@@ -6171,7 +6171,7 @@
         <v>2.502091590623239</v>
       </c>
       <c r="B718" t="n">
-        <v>-157.0395116341152</v>
+        <v>-157.0171840044749</v>
       </c>
     </row>
     <row r="719">
@@ -6179,7 +6179,7 @@
         <v>2.505586131950925</v>
       </c>
       <c r="B719" t="n">
-        <v>-157.1405975905411</v>
+        <v>-157.1426561900877</v>
       </c>
     </row>
     <row r="720">
@@ -6187,7 +6187,7 @@
         <v>2.509080673278612</v>
       </c>
       <c r="B720" t="n">
-        <v>-157.5835184965914</v>
+        <v>-157.6110593579121</v>
       </c>
     </row>
     <row r="721">
@@ -6195,7 +6195,7 @@
         <v>2.512575214606298</v>
       </c>
       <c r="B721" t="n">
-        <v>-158.3962982487793</v>
+        <v>-158.4528387124335</v>
       </c>
     </row>
     <row r="722">
@@ -6203,7 +6203,7 @@
         <v>2.516069755933983</v>
       </c>
       <c r="B722" t="n">
-        <v>-159.6458354030194</v>
+        <v>-159.7387756873764</v>
       </c>
     </row>
     <row r="723">
@@ -6211,7 +6211,7 @@
         <v>2.519564297261669</v>
       </c>
       <c r="B723" t="n">
-        <v>-161.4677463479082</v>
+        <v>-161.612463767667</v>
       </c>
     </row>
     <row r="724">
@@ -6219,7 +6219,7 @@
         <v>2.523058838589356</v>
       </c>
       <c r="B724" t="n">
-        <v>-164.1503183374198</v>
+        <v>-164.383373477211</v>
       </c>
     </row>
     <row r="725">
@@ -6227,7 +6227,7 @@
         <v>2.526553379917042</v>
       </c>
       <c r="B725" t="n">
-        <v>-168.4263566164581</v>
+        <v>-168.8664899282386</v>
       </c>
     </row>
     <row r="726">
@@ -6235,7 +6235,7 @@
         <v>2.530047921244728</v>
       </c>
       <c r="B726" t="n">
-        <v>-176.8074206208729</v>
+        <v>-178.2149952238546</v>
       </c>
     </row>
     <row r="727">
@@ -6243,7 +6243,7 @@
         <v>2.533542462572414</v>
       </c>
       <c r="B727" t="n">
-        <v>-175.4412218498341</v>
+        <v>-175.041693290587</v>
       </c>
     </row>
     <row r="728">
@@ -6251,7 +6251,7 @@
         <v>2.5370370039001</v>
       </c>
       <c r="B728" t="n">
-        <v>-167.9425230860365</v>
+        <v>-167.6717369320629</v>
       </c>
     </row>
     <row r="729">
@@ -6259,7 +6259,7 @@
         <v>2.540531545227786</v>
       </c>
       <c r="B729" t="n">
-        <v>-164.0452108174955</v>
+        <v>-163.8751096629412</v>
       </c>
     </row>
     <row r="730">
@@ -6267,7 +6267,7 @@
         <v>2.544026086555472</v>
       </c>
       <c r="B730" t="n">
-        <v>-161.5924889274767</v>
+        <v>-161.4806535315679</v>
       </c>
     </row>
     <row r="731">
@@ -6275,7 +6275,7 @@
         <v>2.547520627883158</v>
       </c>
       <c r="B731" t="n">
-        <v>-159.9360397039993</v>
+        <v>-159.8642541559108</v>
       </c>
     </row>
     <row r="732">
@@ -6283,7 +6283,7 @@
         <v>2.551015169210844</v>
       </c>
       <c r="B732" t="n">
-        <v>-158.8093733564515</v>
+        <v>-158.7689434863753</v>
       </c>
     </row>
     <row r="733">
@@ -6291,7 +6291,7 @@
         <v>2.554509710538531</v>
       </c>
       <c r="B733" t="n">
-        <v>-158.0812302447409</v>
+        <v>-158.0679292210867</v>
       </c>
     </row>
     <row r="734">
@@ -6299,7 +6299,7 @@
         <v>2.558004251866217</v>
       </c>
       <c r="B734" t="n">
-        <v>-157.6814674971188</v>
+        <v>-157.6936108184336</v>
       </c>
     </row>
     <row r="735">
@@ -6307,7 +6307,7 @@
         <v>2.561498793193903</v>
       </c>
       <c r="B735" t="n">
-        <v>-157.5732389779056</v>
+        <v>-157.6109604682452</v>
       </c>
     </row>
     <row r="736">
@@ -6315,7 +6315,7 @@
         <v>2.564993334521589</v>
       </c>
       <c r="B736" t="n">
-        <v>-157.7416426800161</v>
+        <v>-157.8067267903166</v>
       </c>
     </row>
     <row r="737">
@@ -6323,7 +6323,7 @@
         <v>2.568487875849275</v>
       </c>
       <c r="B737" t="n">
-        <v>-158.189777986952</v>
+        <v>-158.2859413527183</v>
       </c>
     </row>
     <row r="738">
@@ -6331,7 +6331,7 @@
         <v>2.571982417176961</v>
       </c>
       <c r="B738" t="n">
-        <v>-158.9398770006922</v>
+        <v>-159.073580300197</v>
       </c>
     </row>
     <row r="739">
@@ -6339,7 +6339,7 @@
         <v>2.575476958504647</v>
       </c>
       <c r="B739" t="n">
-        <v>-160.0400608083301</v>
+        <v>-160.222319498385</v>
       </c>
     </row>
     <row r="740">
@@ -6347,7 +6347,7 @@
         <v>2.578971499832333</v>
       </c>
       <c r="B740" t="n">
-        <v>-161.5815470584914</v>
+        <v>-161.8321026348491</v>
       </c>
     </row>
     <row r="741">
@@ -6355,7 +6355,7 @@
         <v>2.582466041160019</v>
       </c>
       <c r="B741" t="n">
-        <v>-163.7420017218154</v>
+        <v>-164.1001904224796</v>
       </c>
     </row>
     <row r="742">
@@ -6363,7 +6363,7 @@
         <v>2.585960582487705</v>
       </c>
       <c r="B742" t="n">
-        <v>-166.9131971432475</v>
+        <v>-167.4739655993599</v>
       </c>
     </row>
     <row r="743">
@@ -6371,7 +6371,7 @@
         <v>2.589455123815391</v>
       </c>
       <c r="B743" t="n">
-        <v>-172.2183466822658</v>
+        <v>-173.3107400360931</v>
       </c>
     </row>
     <row r="744">
@@ -6379,7 +6379,7 @@
         <v>2.592949665143077</v>
       </c>
       <c r="B744" t="n">
-        <v>-183.8783850436329</v>
+        <v>-184.4346638604941</v>
       </c>
     </row>
     <row r="745">
@@ -6387,7 +6387,7 @@
         <v>2.596444206470764</v>
       </c>
       <c r="B745" t="n">
-        <v>-174.2465252662552</v>
+        <v>-172.9743052656019</v>
       </c>
     </row>
     <row r="746">
@@ -6395,7 +6395,7 @@
         <v>2.59993874779845</v>
       </c>
       <c r="B746" t="n">
-        <v>-168.1725649746546</v>
+        <v>-167.5015687712814</v>
       </c>
     </row>
     <row r="747">
@@ -6403,7 +6403,7 @@
         <v>2.603433289126136</v>
       </c>
       <c r="B747" t="n">
-        <v>-164.7954345714294</v>
+        <v>-164.3421865591126</v>
       </c>
     </row>
     <row r="748">
@@ -6411,7 +6411,7 @@
         <v>2.606927830453822</v>
       </c>
       <c r="B748" t="n">
-        <v>-162.5783724654545</v>
+        <v>-162.2376784856692</v>
       </c>
     </row>
     <row r="749">
@@ -6419,7 +6419,7 @@
         <v>2.610422371781508</v>
       </c>
       <c r="B749" t="n">
-        <v>-161.0310555508904</v>
+        <v>-160.7602390086044</v>
       </c>
     </row>
     <row r="750">
@@ -6427,7 +6427,7 @@
         <v>2.613916913109194</v>
       </c>
       <c r="B750" t="n">
-        <v>-159.9382406274453</v>
+        <v>-159.7160054919939</v>
       </c>
     </row>
     <row r="751">
@@ -6435,7 +6435,7 @@
         <v>2.61741145443688</v>
       </c>
       <c r="B751" t="n">
-        <v>-159.1884273936101</v>
+        <v>-159.0027484135173</v>
       </c>
     </row>
     <row r="752">
@@ -6443,7 +6443,7 @@
         <v>2.620905995764566</v>
       </c>
       <c r="B752" t="n">
-        <v>-158.7186449500979</v>
+        <v>-158.5622026580083</v>
       </c>
     </row>
     <row r="753">
@@ -6451,7 +6451,7 @@
         <v>2.624400537092252</v>
       </c>
       <c r="B753" t="n">
-        <v>-158.4924835242176</v>
+        <v>-158.3606455247694</v>
       </c>
     </row>
     <row r="754">
@@ -6459,7 +6459,7 @@
         <v>2.627895078419938</v>
       </c>
       <c r="B754" t="n">
-        <v>-158.4903284613972</v>
+        <v>-158.3801758439551</v>
       </c>
     </row>
     <row r="755">
@@ -6467,7 +6467,7 @@
         <v>2.631389619747624</v>
       </c>
       <c r="B755" t="n">
-        <v>-158.7049718034627</v>
+        <v>-158.6147881513882</v>
       </c>
     </row>
     <row r="756">
@@ -6475,7 +6475,7 @@
         <v>2.63488416107531</v>
       </c>
       <c r="B756" t="n">
-        <v>-159.1402333761786</v>
+        <v>-159.069312713282</v>
       </c>
     </row>
     <row r="757">
@@ -6483,7 +6483,7 @@
         <v>2.638378702402997</v>
       </c>
       <c r="B757" t="n">
-        <v>-159.8119628315297</v>
+        <v>-159.7605640974695</v>
       </c>
     </row>
     <row r="758">
@@ -6491,7 +6491,7 @@
         <v>2.641873243730683</v>
       </c>
       <c r="B758" t="n">
-        <v>-160.7518586139797</v>
+        <v>-160.7213893043718</v>
       </c>
     </row>
     <row r="759">
@@ -6499,7 +6499,7 @@
         <v>2.645367785058369</v>
       </c>
       <c r="B759" t="n">
-        <v>-162.0161626009889</v>
+        <v>-162.0096935169616</v>
       </c>
     </row>
     <row r="760">
@@ -6507,7 +6507,7 @@
         <v>2.648862326386055</v>
       </c>
       <c r="B760" t="n">
-        <v>-163.7051663643115</v>
+        <v>-163.7285902251618</v>
       </c>
     </row>
     <row r="761">
@@ -6515,7 +6515,7 @@
         <v>2.652356867713741</v>
       </c>
       <c r="B761" t="n">
-        <v>-166.0114053291563</v>
+        <v>-166.0762651827927</v>
       </c>
     </row>
     <row r="762">
@@ -6523,7 +6523,7 @@
         <v>2.655851409041427</v>
       </c>
       <c r="B762" t="n">
-        <v>-169.3660019917444</v>
+        <v>-169.4968837085472</v>
       </c>
     </row>
     <row r="763">
@@ -6531,7 +6531,7 @@
         <v>2.659345950369113</v>
       </c>
       <c r="B763" t="n">
-        <v>-175.0863393956614</v>
+        <v>-175.3310406784046</v>
       </c>
     </row>
     <row r="764">
@@ -6539,7 +6539,7 @@
         <v>2.662840491696799</v>
       </c>
       <c r="B764" t="n">
-        <v>-190.6373683361559</v>
+        <v>-186.9478926943647</v>
       </c>
     </row>
     <row r="765">
@@ -6547,7 +6547,7 @@
         <v>2.666335033024485</v>
       </c>
       <c r="B765" t="n">
-        <v>-176.0419056354657</v>
+        <v>-175.2862686133093</v>
       </c>
     </row>
     <row r="766">
@@ -6555,7 +6555,7 @@
         <v>2.669829574352172</v>
       </c>
       <c r="B766" t="n">
-        <v>-170.0836340020846</v>
+        <v>-169.7186735903318</v>
       </c>
     </row>
     <row r="767">
@@ -6563,7 +6563,7 @@
         <v>2.673324115679857</v>
       </c>
       <c r="B767" t="n">
-        <v>-166.7410034667241</v>
+        <v>-166.4944599500646</v>
       </c>
     </row>
     <row r="768">
@@ -6571,7 +6571,7 @@
         <v>2.676818657007543</v>
       </c>
       <c r="B768" t="n">
-        <v>-164.5042242712042</v>
+        <v>-164.31609389</v>
       </c>
     </row>
     <row r="769">
@@ -6579,7 +6579,7 @@
         <v>2.68031319833523</v>
       </c>
       <c r="B769" t="n">
-        <v>-162.8986662066966</v>
+        <v>-162.7465320363106</v>
       </c>
     </row>
     <row r="770">
@@ -6587,7 +6587,7 @@
         <v>2.683807739662916</v>
       </c>
       <c r="B770" t="n">
-        <v>-161.7142168646359</v>
+        <v>-161.5873509793564</v>
       </c>
     </row>
     <row r="771">
@@ -6595,7 +6595,7 @@
         <v>2.687302280990602</v>
       </c>
       <c r="B771" t="n">
-        <v>-160.8400641356853</v>
+        <v>-160.7325456241936</v>
       </c>
     </row>
     <row r="772">
@@ -6603,7 +6603,7 @@
         <v>2.690796822318288</v>
       </c>
       <c r="B772" t="n">
-        <v>-160.2114129669599</v>
+        <v>-160.1196684287899</v>
       </c>
     </row>
     <row r="773">
@@ -6611,7 +6611,7 @@
         <v>2.694291363645974</v>
       </c>
       <c r="B773" t="n">
-        <v>-159.7880136950096</v>
+        <v>-159.709768279558</v>
       </c>
     </row>
     <row r="774">
@@ -6619,7 +6619,7 @@
         <v>2.69778590497366</v>
       </c>
       <c r="B774" t="n">
-        <v>-159.5442259747374</v>
+        <v>-159.4779897514562</v>
       </c>
     </row>
     <row r="775">
@@ -6627,7 +6627,7 @@
         <v>2.701280446301346</v>
       </c>
       <c r="B775" t="n">
-        <v>-159.4639672555449</v>
+        <v>-159.4087827163512</v>
       </c>
     </row>
     <row r="776">
@@ -6635,7 +6635,7 @@
         <v>2.704774987629032</v>
       </c>
       <c r="B776" t="n">
-        <v>-159.5381161660972</v>
+        <v>-159.4933985018831</v>
       </c>
     </row>
     <row r="777">
@@ -6643,7 +6643,7 @@
         <v>2.708269528956718</v>
       </c>
       <c r="B777" t="n">
-        <v>-159.7631687838714</v>
+        <v>-159.728656880217</v>
       </c>
     </row>
     <row r="778">
@@ -6651,7 +6651,7 @@
         <v>2.711764070284405</v>
       </c>
       <c r="B778" t="n">
-        <v>-160.1408641159998</v>
+        <v>-160.1165772681344</v>
       </c>
     </row>
     <row r="779">
@@ -6659,7 +6659,7 @@
         <v>2.715258611612091</v>
       </c>
       <c r="B779" t="n">
-        <v>-160.6784864019151</v>
+        <v>-160.6647424193795</v>
       </c>
     </row>
     <row r="780">
@@ -6667,7 +6667,7 @@
         <v>2.718753152939777</v>
       </c>
       <c r="B780" t="n">
-        <v>-161.3900627400108</v>
+        <v>-161.3875378766032</v>
       </c>
     </row>
     <row r="781">
@@ -6675,7 +6675,7 @@
         <v>2.722247694267463</v>
       </c>
       <c r="B781" t="n">
-        <v>-162.2988172145436</v>
+        <v>-162.3086889187245</v>
       </c>
     </row>
     <row r="782">
@@ -6683,7 +6683,7 @@
         <v>2.725742235595149</v>
       </c>
       <c r="B782" t="n">
-        <v>-163.4418268204781</v>
+        <v>-163.4660507581456</v>
       </c>
     </row>
     <row r="783">
@@ -6691,7 +6691,7 @@
         <v>2.729236776922835</v>
       </c>
       <c r="B783" t="n">
-        <v>-164.8792436056841</v>
+        <v>-164.9210819667168</v>
       </c>
     </row>
     <row r="784">
@@ -6699,7 +6699,7 @@
         <v>2.732731318250521</v>
       </c>
       <c r="B784" t="n">
-        <v>-166.7137162054146</v>
+        <v>-166.7791004145938</v>
       </c>
     </row>
     <row r="785">
@@ -6707,7 +6707,7 @@
         <v>2.736225859578207</v>
       </c>
       <c r="B785" t="n">
-        <v>-169.1374477783097</v>
+        <v>-169.2385780733068</v>
       </c>
     </row>
     <row r="786">
@@ -6715,7 +6715,7 @@
         <v>2.739720400905893</v>
       </c>
       <c r="B786" t="n">
-        <v>-172.5703341861612</v>
+        <v>-172.7388733227116</v>
       </c>
     </row>
     <row r="787">
@@ -6723,7 +6723,7 @@
         <v>2.743214942233579</v>
       </c>
       <c r="B787" t="n">
-        <v>-178.2187093021651</v>
+        <v>-178.5870819529154</v>
       </c>
     </row>
     <row r="788">
@@ -6731,7 +6731,7 @@
         <v>2.746709483561265</v>
       </c>
       <c r="B788" t="n">
-        <v>-188.7907515607638</v>
+        <v>-190.012780469361</v>
       </c>
     </row>
     <row r="789">
@@ -6739,7 +6739,7 @@
         <v>2.750204024888951</v>
       </c>
       <c r="B789" t="n">
-        <v>-178.9910854713741</v>
+        <v>-178.8443343865677</v>
       </c>
     </row>
     <row r="790">
@@ -6747,7 +6747,7 @@
         <v>2.753698566216638</v>
       </c>
       <c r="B790" t="n">
-        <v>-173.3622177194837</v>
+        <v>-173.2799415232887</v>
       </c>
     </row>
     <row r="791">
@@ -6755,7 +6755,7 @@
         <v>2.757193107544324</v>
       </c>
       <c r="B791" t="n">
-        <v>-170.0940316404504</v>
+        <v>-170.0561252640992</v>
       </c>
     </row>
     <row r="792">
@@ -6763,7 +6763,7 @@
         <v>2.76068764887201</v>
       </c>
       <c r="B792" t="n">
-        <v>-167.8744320698987</v>
+        <v>-167.8690955880307</v>
       </c>
     </row>
     <row r="793">
@@ -6771,7 +6771,7 @@
         <v>2.764182190199696</v>
       </c>
       <c r="B793" t="n">
-        <v>-166.2568190332097</v>
+        <v>-166.2799792475569</v>
       </c>
     </row>
     <row r="794">
@@ -6779,7 +6779,7 @@
         <v>2.767676731527382</v>
       </c>
       <c r="B794" t="n">
-        <v>-165.0388995604087</v>
+        <v>-165.0907330734306</v>
       </c>
     </row>
     <row r="795">
@@ -6787,7 +6787,7 @@
         <v>2.771171272855068</v>
       </c>
       <c r="B795" t="n">
-        <v>-164.1129888932089</v>
+        <v>-164.1971839713704</v>
       </c>
     </row>
     <row r="796">
@@ -6795,7 +6795,7 @@
         <v>2.774665814182754</v>
       </c>
       <c r="B796" t="n">
-        <v>-163.4159386974682</v>
+        <v>-163.5406567076113</v>
       </c>
     </row>
     <row r="797">
@@ -6803,7 +6803,7 @@
         <v>2.77816035551044</v>
       </c>
       <c r="B797" t="n">
-        <v>-162.9082123821093</v>
+        <v>-163.0895229033623</v>
       </c>
     </row>
     <row r="798">
@@ -6811,7 +6811,7 @@
         <v>2.781654896838126</v>
       </c>
       <c r="B798" t="n">
-        <v>-162.5619555058985</v>
+        <v>-162.8340432244119</v>
       </c>
     </row>
     <row r="799">
@@ -6819,7 +6819,7 @@
         <v>2.785149438165812</v>
       </c>
       <c r="B799" t="n">
-        <v>-162.3402888770692</v>
+        <v>-162.7946471004997</v>
       </c>
     </row>
     <row r="800">
@@ -6827,7 +6827,7 @@
         <v>2.788643979493498</v>
       </c>
       <c r="B800" t="n">
-        <v>-161.9531500490753</v>
+        <v>-163.0764959711434</v>
       </c>
     </row>
     <row r="801">
@@ -6835,7 +6835,7 @@
         <v>2.792138520821184</v>
       </c>
       <c r="B801" t="n">
-        <v>-163.0436674409967</v>
+        <v>-164.6859735396144</v>
       </c>
     </row>
     <row r="802">

--- a/RT_radpat_20deg.xlsx
+++ b/RT_radpat_20deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-157.8066976567879</v>
+        <v>-152.407927130142</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-157.8563940208987</v>
+        <v>-152.5099883420108</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-157.9183732077692</v>
+        <v>-152.6089733719509</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-157.9939396507878</v>
+        <v>-152.7026994230789</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-158.0845138117676</v>
+        <v>-152.7887012109647</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-158.1916624454047</v>
+        <v>-152.8642635067331</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-158.3171267786689</v>
+        <v>-152.9264702438687</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-158.4628413643605</v>
+        <v>-152.9722956836661</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-158.6309824729389</v>
+        <v>-152.9987300106786</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-158.8239892266463</v>
+        <v>-153.0029285686941</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-159.04466222856</v>
+        <v>-152.9823871220945</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-159.296190474916</v>
+        <v>-152.9351234443964</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-159.5822740339865</v>
+        <v>-152.8598388239291</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-159.9072507078226</v>
+        <v>-152.7560451416885</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-160.2762330919792</v>
+        <v>-152.6241370318061</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-160.6953559344573</v>
+        <v>-152.465397438508</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-161.1720500141757</v>
+        <v>-152.2819192431062</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-161.715462324041</v>
+        <v>-152.0764927192172</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-162.3370331431113</v>
+        <v>-151.8524407001711</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-163.0512915674776</v>
+        <v>-151.6134372639956</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-163.8770110581001</v>
+        <v>-151.3633404114485</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-164.8388687720845</v>
+        <v>-151.1060365929745</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-165.9695249606898</v>
+        <v>-150.8453282856528</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-167.3117088413359</v>
+        <v>-150.5848393051877</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-168.916718789245</v>
+        <v>-150.3279658368225</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-170.8221884895697</v>
+        <v>-150.077850318214</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-172.9339467359635</v>
+        <v>-149.8373813833029</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-174.6118958020772</v>
+        <v>-149.6092017524266</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-174.4916603462954</v>
+        <v>-149.3957371373981</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-172.5699945004543</v>
+        <v>-149.1992287652508</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-170.212855617752</v>
+        <v>-149.0217606477219</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-168.064434577412</v>
+        <v>-148.8653078715484</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-166.2212053389987</v>
+        <v>-148.7317587205983</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-164.647089985394</v>
+        <v>-148.6229649870796</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-163.2921896241706</v>
+        <v>-148.5407653719167</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-162.1152021151852</v>
+        <v>-148.4870235526079</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-161.0849541505769</v>
+        <v>-148.4636658344247</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-160.1783390453558</v>
+        <v>-148.4727059640631</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-159.3782144798042</v>
+        <v>-148.5162849372552</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-158.6717789085457</v>
+        <v>-148.5966978877686</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-158.0494463381121</v>
+        <v>-148.7164276266187</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-157.5040347915305</v>
+        <v>-148.8781707312321</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-157.0302422882199</v>
+        <v>-149.0848598964461</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-156.6242351789981</v>
+        <v>-149.3396587013115</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-156.2834145668541</v>
+        <v>-149.6459529060039</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-156.0062275306631</v>
+        <v>-150.0072492336233</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-155.7920567629868</v>
+        <v>-150.4269970824628</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-155.641169307683</v>
+        <v>-150.9082096938543</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-155.5547143529341</v>
+        <v>-151.4527282309404</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-155.5347512562589</v>
+        <v>-152.0598750880367</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-155.5843674807708</v>
+        <v>-152.7240525525561</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-155.7078044840929</v>
+        <v>-153.4306611660218</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-155.9107312754156</v>
+        <v>-154.1498529777185</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-156.2005899756628</v>
+        <v>-154.8287723588906</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-156.5871340449</v>
+        <v>-155.387077052736</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-157.0832304387823</v>
+        <v>-155.726819059639</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-157.7060990982451</v>
+        <v>-155.7670771220712</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-158.4792209272124</v>
+        <v>-155.4886408072395</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-159.4354658678166</v>
+        <v>-154.9470970434772</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-160.62228808971</v>
+        <v>-154.2394733921834</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-162.1104224881275</v>
+        <v>-153.4601961359389</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-164.0073709626746</v>
+        <v>-152.6787212198506</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-166.4656473107816</v>
+        <v>-151.9383264544325</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-169.5577699533694</v>
+        <v>-151.2631759160518</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-172.1004121992501</v>
+        <v>-150.6656626885345</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-170.7123834486523</v>
+        <v>-150.1516185502805</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-167.3612560110386</v>
+        <v>-149.7235703805824</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-164.4684870984857</v>
+        <v>-149.3826312730366</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-162.2053434082674</v>
+        <v>-149.1295987954272</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-160.4177362233294</v>
+        <v>-148.9655958122169</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-158.9817547395703</v>
+        <v>-148.8924770586143</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-157.8163578738229</v>
+        <v>-148.9131224372364</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-156.8690212637154</v>
+        <v>-149.0317170582352</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-156.1051784356853</v>
+        <v>-149.2540035731694</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-155.5019097316093</v>
+        <v>-149.5876276104522</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-155.0442486428684</v>
+        <v>-150.0424829858632</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-154.7230208443228</v>
+        <v>-150.6310528448906</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-154.533623965513</v>
+        <v>-151.3685086760553</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-154.4754214540916</v>
+        <v>-152.2719058924225</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-154.5516016621476</v>
+        <v>-153.3564056653548</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-154.7694805822601</v>
+        <v>-154.6229026464471</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-155.1413277153376</v>
+        <v>-156.0220819216633</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-155.6858950550876</v>
+        <v>-157.3689935915345</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-156.4311466139189</v>
+        <v>-158.2388974334691</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-157.4190151169331</v>
+        <v>-158.1497050397849</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-158.7139453437831</v>
+        <v>-157.1385247509374</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-160.4184959075516</v>
+        <v>-155.7101352625998</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-162.6992673281741</v>
+        <v>-154.2665483934606</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-165.7893834333829</v>
+        <v>-152.9759205692954</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-169.4204854041214</v>
+        <v>-151.8827594317429</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-169.6945812533635</v>
+        <v>-150.9874066327642</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-166.0072326181777</v>
+        <v>-150.278445099666</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-162.6676909584757</v>
+        <v>-149.7439146695361</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-160.1680121450276</v>
+        <v>-149.3747846317494</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-158.2803425175261</v>
+        <v>-149.1659614320868</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-156.8320550737678</v>
+        <v>-149.1165547742636</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-155.7184008567858</v>
+        <v>-149.2301982727613</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-154.8758595614582</v>
+        <v>-149.5156035957765</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-154.2656595166607</v>
+        <v>-149.9876468066132</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-153.8648778617702</v>
+        <v>-150.669159256364</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-153.6618278185868</v>
+        <v>-151.5937107580124</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-153.6538370643312</v>
+        <v>-152.809225339594</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-153.8467006713138</v>
+        <v>-154.3798728420673</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-154.2555428752655</v>
+        <v>-156.3692700309212</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-154.9074780483198</v>
+        <v>-158.7131252318188</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-155.8470246408737</v>
+        <v>-160.6559833154898</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-157.1466335121688</v>
+        <v>-160.4152341246082</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-158.9270852064531</v>
+        <v>-158.2422011099979</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-161.3935096872962</v>
+        <v>-155.8775305159547</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-164.8317553795325</v>
+        <v>-153.9091832694444</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-168.5279037736476</v>
+        <v>-152.3650213965772</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-167.1865044783829</v>
+        <v>-151.1823587106038</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-163.1221360815729</v>
+        <v>-150.3044792598895</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-159.9649370343429</v>
+        <v>-149.6921128794944</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-157.6788340651511</v>
+        <v>-149.3212633245919</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-155.9983738062675</v>
+        <v>-149.1803751517454</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-154.761100437325</v>
+        <v>-149.2688162354032</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-153.8737678945887</v>
+        <v>-149.5970016472774</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-153.2830064933122</v>
+        <v>-150.1884890151749</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-152.9601094912319</v>
+        <v>-151.0849190195588</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-152.8937975277566</v>
+        <v>-152.3559243638845</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-153.0874976208198</v>
+        <v>-154.1180654759237</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-153.5599441197288</v>
+        <v>-156.5654747714412</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-154.3493791954556</v>
+        <v>-159.940381324986</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-155.5233639027182</v>
+        <v>-163.4016688256382</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-157.1992100570751</v>
+        <v>-162.0902622362385</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-159.5836263196224</v>
+        <v>-158.2594810675426</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-163.0007993444262</v>
+        <v>-155.2483099942533</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-167.0185203650948</v>
+        <v>-153.0803639791987</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-166.0383462063244</v>
+        <v>-151.5176747043707</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-161.792234202502</v>
+        <v>-150.4089000083506</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-158.547149175066</v>
+        <v>-149.6673941318285</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-156.2565524341892</v>
+        <v>-149.2457426163117</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-154.6239606951582</v>
+        <v>-149.1223853068594</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-153.4758234635945</v>
+        <v>-149.2960614801196</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-152.7167956125481</v>
+        <v>-149.7855543640825</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-152.2963660357428</v>
+        <v>-150.6350079116127</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-152.1929235342748</v>
+        <v>-151.9282185168657</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-152.4074627156644</v>
+        <v>-153.8229902798542</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-152.9636628731575</v>
+        <v>-156.6387685291508</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-153.9143546879358</v>
+        <v>-161.0746823756248</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-155.357978042268</v>
+        <v>-166.8443939772828</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-157.473982147666</v>
+        <v>-162.5717627562962</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-160.5778761532738</v>
+        <v>-157.4742928258722</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-164.8042426132074</v>
+        <v>-154.2666806945416</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-165.8152780410404</v>
+        <v>-152.1253851444642</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-161.5296014991612</v>
+        <v>-150.6648598739279</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-157.9458024512571</v>
+        <v>-149.7035022477856</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-155.4690820834584</v>
+        <v>-149.1510798107104</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-153.7534390030854</v>
+        <v>-148.9664587470092</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-152.5912171780957</v>
+        <v>-149.1418254851071</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-151.8724293192816</v>
+        <v>-149.6999003290845</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-151.5427248198246</v>
+        <v>-150.7021240497989</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-151.5841775165738</v>
+        <v>-152.2752207716251</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-152.0092928138276</v>
+        <v>-154.6862411171039</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-152.8647322710313</v>
+        <v>-158.5972653225468</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-154.2470694460623</v>
+        <v>-166.2487699327475</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-156.3398487892882</v>
+        <v>-167.1393193517525</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-159.475383653411</v>
+        <v>-158.9072875711378</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-163.8011158209994</v>
+        <v>-154.7516630536198</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-164.5987812604585</v>
+        <v>-152.1965663007127</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-160.1655609252995</v>
+        <v>-150.5272026748931</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-156.6187646230247</v>
+        <v>-149.4652208174919</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-154.2156687087979</v>
+        <v>-148.8850799841332</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-152.596259677226</v>
+        <v>-148.7336063431287</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-151.5558383373552</v>
+        <v>-149.0040651662647</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-150.9909828782075</v>
+        <v>-149.732976667142</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-150.8572686535508</v>
+        <v>-151.0165724125544</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-151.1523371408151</v>
+        <v>-153.0660164416475</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-151.9147732527186</v>
+        <v>-156.3943175625304</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-153.238159280335</v>
+        <v>-162.7706328747346</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-155.3092085405997</v>
+        <v>-176.3476309028378</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-158.4750347086812</v>
+        <v>-160.3724881556433</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-162.8828241132338</v>
+        <v>-155.1300961127924</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-163.4296324211773</v>
+        <v>-152.1691364759787</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-158.8863292037067</v>
+        <v>-150.3066659080529</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-155.3890616370107</v>
+        <v>-149.1551291174333</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-153.0629948378399</v>
+        <v>-148.5531143973647</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-151.5407225150777</v>
+        <v>-148.4363731088503</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-150.6227083773819</v>
+        <v>-148.8007219099554</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-150.2138135766197</v>
+        <v>-149.6994626119016</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-150.2821035581576</v>
+        <v>-151.2720154291255</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-150.8456905145393</v>
+        <v>-153.8455204172566</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-151.9796410794667</v>
+        <v>-158.350448865885</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-153.8477070776347</v>
+        <v>-170.0906784464973</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-156.7707232437564</v>
+        <v>-164.1386688760193</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-161.0908467764004</v>
+        <v>-156.3604765643361</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-162.9974209271405</v>
+        <v>-152.6078050797592</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-158.5580170087874</v>
+        <v>-150.3558449982602</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-154.8176330700518</v>
+        <v>-148.9793410996031</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-152.3624986865268</v>
+        <v>-148.242349333671</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-150.7891993394191</v>
+        <v>-148.0517346382232</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-149.8742855693878</v>
+        <v>-148.3931933317443</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-149.514922624814</v>
+        <v>-149.3223628943249</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-149.6818679700746</v>
+        <v>-150.9977914965792</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-150.4064224816223</v>
+        <v>-153.8088465579203</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-151.7937850431716</v>
+        <v>-158.9396378664295</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-154.0713397512684</v>
+        <v>-172.7310989966293</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-157.6572716440604</v>
+        <v>-160.6669168420252</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-162.0499001216345</v>
+        <v>-154.48795368466</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-160.043137120095</v>
+        <v>-151.2280108270318</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-155.5384560819293</v>
+        <v>-149.2703211700114</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-152.4936735392631</v>
+        <v>-148.1369043474336</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-150.5511394169851</v>
+        <v>-147.6438790902663</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-149.3908629586703</v>
+        <v>-147.731379420754</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-148.8602852696323</v>
+        <v>-148.4227275481981</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-148.9053512417106</v>
+        <v>-149.8380899536438</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-149.5447223877929</v>
+        <v>-152.283995263456</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-150.8781350751779</v>
+        <v>-156.6139633267039</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-153.1343377182853</v>
+        <v>-166.1071263019233</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-156.7443240573065</v>
+        <v>-161.5128944397407</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-161.1665410720176</v>
+        <v>-154.5213993422246</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-158.9609876228761</v>
+        <v>-150.9504868508917</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-154.4478849426941</v>
+        <v>-148.8466968245921</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-151.4505914284019</v>
+        <v>-147.6459694765327</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-149.5756294821804</v>
+        <v>-147.137751064039</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-148.5052827607653</v>
+        <v>-147.2558654467327</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-148.0948270298848</v>
+        <v>-148.0302958546734</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-148.3034215449256</v>
+        <v>-149.6061416553328</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-149.1735622184641</v>
+        <v>-152.361081511347</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-150.8519428568092</v>
+        <v>-157.3835733439053</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-153.6610314508104</v>
+        <v>-166.1212739444632</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-158.0291747766211</v>
+        <v>-157.8660543573758</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-160.2357713858779</v>
+        <v>-152.4295368671215</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-155.6213738977876</v>
+        <v>-149.4331685991356</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-151.8422123109374</v>
+        <v>-147.6803468462571</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-149.4684642357659</v>
+        <v>-146.7687226585184</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-148.0633302226279</v>
+        <v>-146.5506538534853</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-147.4059747507051</v>
+        <v>-147.0050609172602</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-147.4156367823441</v>
+        <v>-148.2213186189206</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-148.1092930206777</v>
+        <v>-150.4649164481718</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-149.6102029995382</v>
+        <v>-154.444992969012</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-152.2118450650836</v>
+        <v>-161.9195131782872</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-156.3950695046826</v>
+        <v>-159.2345845530521</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-159.5668575361967</v>
+        <v>-152.8058056081385</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-155.2344478249943</v>
+        <v>-149.3270514802721</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-151.2277462595271</v>
+        <v>-147.309404081703</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-148.7270057253672</v>
+        <v>-146.2322142164867</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-147.2639312495354</v>
+        <v>-145.9042700784402</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-146.5952424700416</v>
+        <v>-146.2857803419386</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-146.6343601442599</v>
+        <v>-147.457597744748</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-147.4043458919049</v>
+        <v>-149.6809257015829</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-149.0502854522113</v>
+        <v>-153.6465606019382</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-151.9154538135847</v>
+        <v>-160.6382973528678</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-156.4373271554709</v>
+        <v>-157.6099013034651</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-158.0859461431777</v>
+        <v>-151.6265347372187</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-153.2166657905734</v>
+        <v>-148.298543051082</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-149.562703985785</v>
+        <v>-146.3835854261542</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-147.3384888656094</v>
+        <v>-145.4099702365345</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-146.108094782073</v>
+        <v>-145.2079196784808</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-145.67196298353</v>
+        <v>-145.7593427040026</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-145.9793258009696</v>
+        <v>-147.1828903732499</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-147.0992482741444</v>
+        <v>-149.8267048583326</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-149.2599505891477</v>
+        <v>-154.5862992617929</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-152.9411468719423</v>
+        <v>-160.1983134347621</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-157.4980131879201</v>
+        <v>-153.9582582292299</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-154.6322030457598</v>
+        <v>-149.233871051284</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-150.0771920622236</v>
+        <v>-146.5394793711584</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-147.2268208572292</v>
+        <v>-145.0403385310695</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-145.5781064804343</v>
+        <v>-144.4190954451035</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-144.8244805636585</v>
+        <v>-144.580006119871</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-144.8571565042004</v>
+        <v>-145.5713141061455</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-145.7028036325905</v>
+        <v>-147.6202521815739</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-147.5393673011713</v>
+        <v>-151.3244311005033</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-150.7904227005503</v>
+        <v>-157.4924863345144</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-155.6393700262742</v>
+        <v>-155.2934251509306</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-154.8062885048668</v>
+        <v>-149.6105566855703</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-149.8494527948892</v>
+        <v>-146.3382332241665</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-146.6381905119157</v>
+        <v>-144.483702666112</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-144.7696644550376</v>
+        <v>-143.6064906469036</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-143.8706707972895</v>
+        <v>-143.5555315630441</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-143.8005145855455</v>
+        <v>-144.3432300903768</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-144.5708618745919</v>
+        <v>-146.1534410066377</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-146.3530612648484</v>
+        <v>-149.4889185349549</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-149.5748583260074</v>
+        <v>-155.2163887575139</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-154.4856613719806</v>
+        <v>-154.9397653786721</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-153.7057227670233</v>
+        <v>-149.0439664684227</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-148.6647101139001</v>
+        <v>-145.5432314232019</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-145.4339234571122</v>
+        <v>-143.5580258798214</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-143.5779580785902</v>
+        <v>-142.6030597722763</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-142.7167871718467</v>
+        <v>-142.508935025528</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-142.7145122731277</v>
+        <v>-143.2830690391474</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-143.5981603161755</v>
+        <v>-145.11411186757</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-145.5754728753313</v>
+        <v>-148.5202970681917</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-149.1478713086506</v>
+        <v>-154.2150197132999</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-154.0603487184484</v>
+        <v>-153.0885071449756</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-151.3732325219219</v>
+        <v>-147.4317612851682</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-146.5648836749642</v>
+        <v>-144.0839372206825</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-143.64013191983</v>
+        <v>-142.2043770666518</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-142.0167411839248</v>
+        <v>-141.3511254312474</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-141.3700487739796</v>
+        <v>-141.3792408049126</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-141.6070998413031</v>
+        <v>-142.3242683805117</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-142.8062540019741</v>
+        <v>-144.4288376851675</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-145.2707686112794</v>
+        <v>-148.3253171878623</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-149.6278127770346</v>
+        <v>-153.8691351775261</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-153.001963648048</v>
+        <v>-149.9450507584185</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-147.8828935973429</v>
+        <v>-144.9338309133953</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-143.7806902485879</v>
+        <v>-142.034630956234</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-141.3963379021492</v>
+        <v>-140.4594561072639</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-140.1794173045218</v>
+        <v>-139.8710099648022</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-139.9080183137235</v>
+        <v>-140.1853374447964</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-140.5666653744287</v>
+        <v>-141.5047227641129</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-142.3364004510622</v>
+        <v>-144.198686597328</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-145.7179277316575</v>
+        <v>-149.0861878818226</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-150.9559619450036</v>
+        <v>-151.8384021137323</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-148.9189579705849</v>
+        <v>-145.8351350668036</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-143.7162435802699</v>
+        <v>-141.8134569121238</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-140.5889955356499</v>
+        <v>-139.5293493824914</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-138.8668012285821</v>
+        <v>-138.400611559092</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-138.1848943061621</v>
+        <v>-138.2213503751598</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-138.4478866333346</v>
+        <v>-138.9998160660176</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-139.7608463092221</v>
+        <v>-140.9654026425566</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-142.5115597309891</v>
+        <v>-144.7524919057924</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-147.458628991904</v>
+        <v>-150.3596403250936</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-149.001584456505</v>
+        <v>-146.3850249521764</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-143.1198635220711</v>
+        <v>-141.2345662648964</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-139.3145939072346</v>
+        <v>-138.2647215815829</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-137.162389744246</v>
+        <v>-136.656987750765</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-136.1533646167379</v>
+        <v>-136.074682627102</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-136.1233827978124</v>
+        <v>-136.4514720242322</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-137.1296128449451</v>
+        <v>-137.9365423227159</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-139.5009906337791</v>
+        <v>-141.0267976446245</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-144.0599770054852</v>
+        <v>-146.6342397693163</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-147.7359392889789</v>
+        <v>-146.0056539042602</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-141.5760811488994</v>
+        <v>-139.889757472523</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-137.2063034233391</v>
+        <v>-136.283908869989</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-134.7086120948573</v>
+        <v>-134.2525248239772</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-133.4404958219164</v>
+        <v>-133.3273908856303</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-133.186302239277</v>
+        <v>-133.3821323041497</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-133.9793367916412</v>
+        <v>-134.5205463548506</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-136.1373376224307</v>
+        <v>-137.1782392075444</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-140.5547047300254</v>
+        <v>-142.4465415460653</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-145.0849578955304</v>
+        <v>-143.9782698709184</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-138.3614230493709</v>
+        <v>-137.0405330395459</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-133.557937801293</v>
+        <v>-132.8565707869944</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-130.7646486805948</v>
+        <v>-130.4148711601869</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-129.236793861869</v>
+        <v>-129.1315267076989</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-128.733929420611</v>
+        <v>-128.8380602038579</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-129.2907209351781</v>
+        <v>-129.6194125665764</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-131.2621968882295</v>
+        <v>-131.9099502192359</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-135.7014380479133</v>
+        <v>-136.9066112792535</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-139.0996035790082</v>
+        <v>-138.1641908675508</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-131.1439547411649</v>
+        <v>-130.3337061811964</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-125.8422534940256</v>
+        <v>-125.4020893382417</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-122.3479212014544</v>
+        <v>-122.0986147550527</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-119.8731124128182</v>
+        <v>-119.739681098489</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-118.0856123477889</v>
+        <v>-118.0304032620092</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-116.8228386736334</v>
+        <v>-116.8235635829128</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-115.9977625955632</v>
+        <v>-116.039465472199</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-115.5634942134396</v>
+        <v>-115.6350741258304</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-115.4985096796348</v>
+        <v>-115.590973836161</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-115.8008377216792</v>
+        <v>-115.9062743749894</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-116.4874884059486</v>
+        <v>-116.5983184694526</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-117.5987865374392</v>
+        <v>-117.7070199076552</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-119.2102826453252</v>
+        <v>-119.3064602944884</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-121.4610922214217</v>
+        <v>-121.5322287215864</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-124.6268159618367</v>
+        <v>-124.6512663295586</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-129.3377158433573</v>
+        <v>-129.2698167573995</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-136.9679448814072</v>
+        <v>-136.7685872140278</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-137.2425420981667</v>
+        <v>-137.7500396979543</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-131.8988430813155</v>
+        <v>-132.2222003038667</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-129.458786762911</v>
+        <v>-129.6578318188834</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-128.6428025360155</v>
+        <v>-128.7461459687303</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-128.9770700330238</v>
+        <v>-128.9811242842433</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-130.3835497722227</v>
+        <v>-130.2614859717798</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-133.0828701380036</v>
+        <v>-132.7694986677489</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-137.8179545314587</v>
+        <v>-137.1572080806195</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-144.813816661889</v>
+        <v>-144.3618048825846</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-140.347943706127</v>
+        <v>-141.477831472168</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-135.8286030296505</v>
+        <v>-136.4490169647077</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-133.6833249949461</v>
+        <v>-134.0119516875104</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-132.97163977558</v>
+        <v>-133.0858330624661</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-133.3829165612844</v>
+        <v>-133.289570366551</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-134.925621772906</v>
+        <v>-134.5814187065109</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-137.9291177504814</v>
+        <v>-137.2113026094425</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-143.2950395541069</v>
+        <v>-141.9580822761384</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-147.3914130012126</v>
+        <v>-148.1612242883684</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-141.516779287967</v>
+        <v>-143.0008091834855</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-137.8845513446027</v>
+        <v>-138.6720447037823</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-136.1748006270012</v>
+        <v>-136.5497243672687</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-135.7511293006149</v>
+        <v>-135.8064284180775</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-136.4331141554517</v>
+        <v>-136.1697628672486</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-138.3247621945727</v>
+        <v>-137.6655501070213</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-141.9053903312328</v>
+        <v>-140.6404973177382</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-147.9597500822913</v>
+        <v>-146.0233069388674</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-147.4023536258396</v>
+        <v>-149.7242390443795</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-142.0768122879027</v>
+        <v>-143.7064091433152</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-139.2242580241189</v>
+        <v>-140.0576599825422</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-137.9761098505546</v>
+        <v>-138.3048808139271</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-137.9151033094736</v>
+        <v>-137.8250639253283</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-138.974147480604</v>
+        <v>-138.4431207393822</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-141.3738211461801</v>
+        <v>-140.2648544488763</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-145.7887966601228</v>
+        <v>-143.7777864314331</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-151.253860508537</v>
+        <v>-149.9299124359021</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-146.6633803274947</v>
+        <v>-149.6329239966319</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-142.4047425107704</v>
+        <v>-144.0136372289689</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-140.2469137269253</v>
+        <v>-141.0140522288348</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-139.4704711904849</v>
+        <v>-139.6562660924486</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-139.8268025079531</v>
+        <v>-139.49151944376</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-141.3612746759425</v>
+        <v>-140.4383991764045</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-144.4502833455049</v>
+        <v>-142.7045712800796</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-149.8798247711305</v>
+        <v>-146.9846020420504</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-151.466016673017</v>
+        <v>-153.2768628531918</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-145.9344322541984</v>
+        <v>-148.8564108209294</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-142.6849926365562</v>
+        <v>-144.1452383578121</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-141.1537759253114</v>
+        <v>-141.750870268774</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-140.8572842370399</v>
+        <v>-140.7990962103682</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-141.6857082564599</v>
+        <v>-140.989512367842</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-143.8117756921686</v>
+        <v>-142.3371897702619</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-147.8216195108479</v>
+        <v>-145.1892219280655</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-153.5103883814928</v>
+        <v>-150.5210129505448</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-149.9928456550065</v>
+        <v>-154.319523488424</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-145.4138317698972</v>
+        <v>-148.008570965492</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-143.0183487256377</v>
+        <v>-144.2299407653309</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-142.0627335040226</v>
+        <v>-142.3917119190443</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-142.2601226165092</v>
+        <v>-141.8504230285393</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-143.6277877729108</v>
+        <v>-142.4331181631162</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-146.5010995173985</v>
+        <v>-144.2633601181166</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-151.6472536136782</v>
+        <v>-147.8931583933189</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-154.1398083341129</v>
+        <v>-154.4446560987274</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-148.5923101369547</v>
+        <v>-153.0467729217294</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-145.1369396762166</v>
+        <v>-147.3050192762605</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-143.4618201415617</v>
+        <v>-144.3412306718657</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-143.0483276672646</v>
+        <v>-143.0128294039971</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-143.7650143464633</v>
+        <v>-142.8852729045137</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-145.7637505603733</v>
+        <v>-143.9005911575737</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-149.597313771046</v>
+        <v>-146.3178491021048</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-155.3377151033518</v>
+        <v>-151.0063614580281</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-152.3743539991183</v>
+        <v>-157.5036799007732</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-147.6216745612254</v>
+        <v>-151.3855198077577</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-145.0985290464548</v>
+        <v>-146.7952261213758</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-144.0473458906362</v>
+        <v>-144.5187758232955</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-144.1596329617095</v>
+        <v>-143.6606365378869</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-145.4379938598111</v>
+        <v>-143.9522398515571</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-148.1986651598449</v>
+        <v>-145.4493035242822</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-153.2089747937704</v>
+        <v>-148.598948022666</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-156.2182393106734</v>
+        <v>-154.7440234865689</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-150.6466307582843</v>
+        <v>-156.9984710562283</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-147.0528424728085</v>
+        <v>-150.0574345377215</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-145.283130241036</v>
+        <v>-146.4757096340828</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-144.7909518570762</v>
+        <v>-144.7805853286431</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-145.4291494681313</v>
+        <v>-144.3606615431557</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-147.334511076578</v>
+        <v>-145.0808999446348</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-151.0382857127707</v>
+        <v>-147.1233262811812</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-156.8478373607835</v>
+        <v>-151.221344573399</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-154.3975671311866</v>
+        <v>-159.0142465207183</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-149.462727917748</v>
+        <v>-154.8001664077545</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-146.8155317938628</v>
+        <v>-149.1116301128519</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-145.671461561248</v>
+        <v>-146.3268723329675</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-145.6968988785167</v>
+        <v>-145.1297232766114</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-146.8769831062959</v>
+        <v>-145.1222325967261</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-149.5037817844199</v>
+        <v>-146.2850973196444</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-154.3437746383905</v>
+        <v>-148.9574300678351</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-158.1220335464221</v>
+        <v>-154.3418883662187</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-152.5578384634512</v>
+        <v>-161.283702933821</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-148.7547459509891</v>
+        <v>-152.9482164573994</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-146.8476868751321</v>
+        <v>-148.4805414077393</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-146.2405991974967</v>
+        <v>-146.3233625422576</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-146.7588691769844</v>
+        <v>-145.5576907790577</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-148.5115914818542</v>
+        <v>-145.9405239831878</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-151.9851846796201</v>
+        <v>-147.5633050859897</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-157.8154653614144</v>
+        <v>-150.9783026920339</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-156.5727184863787</v>
+        <v>-158.1906140411048</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-151.2981554626751</v>
+        <v>-159.3592566208008</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-148.4124310360717</v>
+        <v>-151.6492041462264</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-147.0964265973497</v>
+        <v>-148.0942199904886</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-146.9624866938663</v>
+        <v>-146.4365284102359</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-147.9591047654329</v>
+        <v>-146.0459640164447</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-150.327021170227</v>
+        <v>-146.7968229786649</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-154.7813796517894</v>
+        <v>-148.8962137795056</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-159.8985362997585</v>
+        <v>-153.2016625157292</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-154.7879073420219</v>
+        <v>-162.9552901560785</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-150.5366986468399</v>
+        <v>-156.973361225499</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-148.3463503905581</v>
+        <v>-150.7832953959461</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-147.5131610652533</v>
+        <v>-147.8942399277046</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-147.8019248853709</v>
+        <v>-146.6349768929445</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-149.2658535034196</v>
+        <v>-146.5668888814491</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-152.2953571611585</v>
+        <v>-147.657995497258</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-157.7602710803015</v>
+        <v>-150.2417476656466</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-159.3599629724158</v>
+        <v>-155.6215071703145</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-153.5426486069123</v>
+        <v>-166.9533618354892</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-150.1461928650577</v>
+        <v>-155.3122893081697</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-148.4851343112924</v>
+        <v>-150.2369462282901</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-148.049682445768</v>
+        <v>-147.8319760348294</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-148.7146413228695</v>
+        <v>-146.8848743026982</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-150.6295758867741</v>
+        <v>-147.084483048816</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-154.3532875822457</v>
+        <v>-148.4757248840101</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-160.4319248375272</v>
+        <v>-151.5274058939379</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-157.9671222215299</v>
+        <v>-158.1787714100264</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-152.7974328589524</v>
+        <v>-165.8837587920905</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-150.027372699101</v>
+        <v>-154.271573552293</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-148.7687210155541</v>
+        <v>-149.9297594106752</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-148.6560976748349</v>
+        <v>-147.8668719675734</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-149.646146255503</v>
+        <v>-147.151447247575</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-151.9790984121797</v>
+        <v>-147.5566436131722</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-156.3855156176241</v>
+        <v>-149.1879136016742</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-161.9946986312949</v>
+        <v>-152.6438845003077</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-156.9068053256204</v>
+        <v>-160.6810733324909</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-152.4353180746213</v>
+        <v>-163.6892954036988</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-150.1066991512744</v>
+        <v>-153.6981625046239</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-149.1447875206861</v>
+        <v>-149.8084836953583</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-149.281028598223</v>
+        <v>-147.9664210315623</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-150.5327637958032</v>
+        <v>-147.4017513559063</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-153.2208380801976</v>
+        <v>-147.9393377561815</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-158.2208136226056</v>
+        <v>-149.7243867394098</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-162.3934952890971</v>
+        <v>-153.4491129382199</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-156.3457127749</v>
+        <v>-162.6372018350905</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-152.3683661872571</v>
+        <v>-162.5876956831839</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-150.3305879606176</v>
+        <v>-153.5059517388801</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-149.5686610669802</v>
+        <v>-149.8434984188032</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-149.8745192844927</v>
+        <v>-148.1088659549491</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-151.306435008039</v>
+        <v>-147.6096599692144</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-154.2454926630373</v>
+        <v>-148.1941388615446</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-159.6631911604886</v>
+        <v>-150.0201923330326</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-162.4726132210449</v>
+        <v>-153.7997646896146</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-156.2447730591755</v>
+        <v>-163.2173147770888</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-152.543845936993</v>
+        <v>-162.612019581053</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-150.6638383664013</v>
+        <v>-153.6718398149214</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-150.0062676476334</v>
+        <v>-150.0298332401841</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-150.3939594170832</v>
+        <v>-148.2877630479903</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-151.9045667425717</v>
+        <v>-147.7623747821713</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-154.946156325236</v>
+        <v>-148.2980903857835</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-160.5433393611378</v>
+        <v>-150.0347266299572</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-162.8740897142131</v>
+        <v>-153.6119532513719</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-156.5804668249597</v>
+        <v>-162.0134460522147</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-152.9439447537114</v>
+        <v>-163.8207056999376</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-151.0923982827955</v>
+        <v>-154.2385513046812</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-150.4398730177418</v>
+        <v>-150.393775200466</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-150.8128998802133</v>
+        <v>-148.5189972721378</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-152.2848105346288</v>
+        <v>-147.8683146761389</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-155.2474865093213</v>
+        <v>-148.2542809478364</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-160.7321575045779</v>
+        <v>-149.7701937165608</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-163.8477310023458</v>
+        <v>-152.9128767274441</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-157.3935397705907</v>
+        <v>-159.6459182137643</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-153.5912440586544</v>
+        <v>-166.2273372757596</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-151.6297661735637</v>
+        <v>-155.337879776325</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-150.8757463817058</v>
+        <v>-151.0063626354579</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-151.1311278545826</v>
+        <v>-148.8505183751044</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-152.4407803808928</v>
+        <v>-147.9655966937555</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-155.1367154954702</v>
+        <v>-148.1002597455339</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-160.1590630662909</v>
+        <v>-149.2798622897213</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-165.2499409711663</v>
+        <v>-151.8338416872534</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-158.8278514756559</v>
+        <v>-156.8961118306171</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-154.5649073016513</v>
+        <v>-166.3957168954204</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-152.3279500007175</v>
+        <v>-157.2340067301306</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-151.3534523936804</v>
+        <v>-152.0081040195913</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-151.3839964104437</v>
+        <v>-149.3762310184974</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-152.4131510475701</v>
+        <v>-148.1307358817334</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-154.6808366496401</v>
+        <v>-147.9124066020034</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-158.9194579668796</v>
+        <v>-148.6626615506069</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-165.7066258722989</v>
+        <v>-150.5559768080129</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-161.2061352456592</v>
+        <v>-154.1901069560828</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-156.0388686599585</v>
+        <v>-161.1474009126702</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-153.2970716003274</v>
+        <v>-160.1726368167949</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-151.9580308542527</v>
+        <v>-153.6534655880323</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-151.650416745042</v>
+        <v>-150.2603841410294</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-152.2928136330627</v>
+        <v>-148.4914877588877</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-154.0180145294087</v>
+        <v>-147.8098930780035</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-157.3044933294061</v>
+        <v>-148.0534864954031</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-163.3885737251045</v>
+        <v>-149.2656351401068</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-164.9988098342368</v>
+        <v>-151.7267384506033</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-158.380054298632</v>
+        <v>-156.1669698612339</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-154.7468403711317</v>
+        <v>-161.4234507694328</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-152.8404241304876</v>
+        <v>-156.3054425844351</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-152.0620752811834</v>
+        <v>-151.7802473524777</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-152.2186257728088</v>
+        <v>-149.2507507526418</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-153.330793461478</v>
+        <v>-147.9647543762254</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-155.6535864677953</v>
+        <v>-147.6207079932311</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-159.9466770933727</v>
+        <v>-148.1440863725903</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-167.0613547349461</v>
+        <v>-149.6252303355142</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-162.4236391396275</v>
+        <v>-152.3651939776472</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-157.0986718352983</v>
+        <v>-156.8020372509636</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-154.2656012160762</v>
+        <v>-158.9723265462755</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-152.8249284832966</v>
+        <v>-154.3239308149733</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-152.3813085437643</v>
+        <v>-150.729977405382</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-152.8273698090715</v>
+        <v>-148.6289409344838</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-154.244585624754</v>
+        <v>-147.5808836169892</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-156.9800820992012</v>
+        <v>-147.3854533062147</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-162.0328653226566</v>
+        <v>-148.0016054335395</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-168.2637264643057</v>
+        <v>-149.5177924840067</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-161.3679101587672</v>
+        <v>-152.159247073696</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-156.7564040558568</v>
+        <v>-155.9200682720655</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-154.2822166479778</v>
+        <v>-157.0011976030539</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-153.051821151499</v>
+        <v>-153.3174381135967</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-152.7514715714003</v>
+        <v>-150.177964915694</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-153.3077813498136</v>
+        <v>-148.2367998973198</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-154.8232565834639</v>
+        <v>-147.2336988115069</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-157.6720189424527</v>
+        <v>-147.0149116342019</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-162.9298227196653</v>
+        <v>-147.5410112259755</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-168.9289252861391</v>
+        <v>-148.866322592283</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-161.6637302854842</v>
+        <v>-151.1121641229834</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-157.1306736575879</v>
+        <v>-154.1219754727618</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-154.6816389195832</v>
+        <v>-155.4433704123929</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-153.4411047890353</v>
+        <v>-152.8896785152984</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-153.100422679423</v>
+        <v>-150.0087169593455</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-153.5804959361316</v>
+        <v>-148.0393453951552</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-154.963861375699</v>
+        <v>-146.9177070963847</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-157.5686715776622</v>
+        <v>-146.52229504987</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-162.311271424363</v>
+        <v>-146.8014573985761</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-169.8059900214604</v>
+        <v>-147.767964830196</v>
       </c>
     </row>
     <row r="602">
@@ -5243,7 +5243,7 @@
         <v>2.096724796611653</v>
       </c>
       <c r="B602" t="n">
-        <v>-163.4375871924798</v>
+        <v>-149.4695766454807</v>
       </c>
     </row>
     <row r="603">
@@ -5251,7 +5251,7 @@
         <v>2.100219337939339</v>
       </c>
       <c r="B603" t="n">
-        <v>-158.2858113586869</v>
+        <v>-151.8043610181135</v>
       </c>
     </row>
     <row r="604">
@@ -5259,7 +5259,7 @@
         <v>2.103713879267025</v>
       </c>
       <c r="B604" t="n">
-        <v>-155.5131632714682</v>
+        <v>-153.6137630222347</v>
       </c>
     </row>
     <row r="605">
@@ -5267,7 +5267,7 @@
         <v>2.107208420594711</v>
       </c>
       <c r="B605" t="n">
-        <v>-154.0342613679718</v>
+        <v>-152.6464448726531</v>
       </c>
     </row>
     <row r="606">
@@ -5275,7 +5275,7 @@
         <v>2.110702961922397</v>
       </c>
       <c r="B606" t="n">
-        <v>-153.467143135892</v>
+        <v>-150.1798533028543</v>
       </c>
     </row>
     <row r="607">
@@ -5283,7 +5283,7 @@
         <v>2.114197503250083</v>
       </c>
       <c r="B607" t="n">
-        <v>-153.6891726318266</v>
+        <v>-148.0949017664995</v>
       </c>
     </row>
     <row r="608">
@@ -5291,7 +5291,7 @@
         <v>2.117692044577769</v>
       </c>
       <c r="B608" t="n">
-        <v>-154.7296748331551</v>
+        <v>-146.725427811733</v>
       </c>
     </row>
     <row r="609">
@@ -5299,7 +5299,7 @@
         <v>2.121186585905456</v>
       </c>
       <c r="B609" t="n">
-        <v>-156.7950243447468</v>
+        <v>-146.0249900906323</v>
       </c>
     </row>
     <row r="610">
@@ -5307,7 +5307,7 @@
         <v>2.124681127233142</v>
       </c>
       <c r="B610" t="n">
-        <v>-160.4765894964101</v>
+        <v>-145.9369568863501</v>
       </c>
     </row>
     <row r="611">
@@ -5315,7 +5315,7 @@
         <v>2.128175668560828</v>
       </c>
       <c r="B611" t="n">
-        <v>-167.429388386937</v>
+        <v>-146.4415687062714</v>
       </c>
     </row>
     <row r="612">
@@ -5323,7 +5323,7 @@
         <v>2.131670209888514</v>
       </c>
       <c r="B612" t="n">
-        <v>-167.6103627758372</v>
+        <v>-147.5444600567791</v>
       </c>
     </row>
     <row r="613">
@@ -5331,7 +5331,7 @@
         <v>2.1351647512162</v>
       </c>
       <c r="B613" t="n">
-        <v>-160.6798166793874</v>
+        <v>-149.2057690712398</v>
       </c>
     </row>
     <row r="614">
@@ -5339,7 +5339,7 @@
         <v>2.138659292543886</v>
       </c>
       <c r="B614" t="n">
-        <v>-157.0448541670749</v>
+        <v>-151.0395099764795</v>
       </c>
     </row>
     <row r="615">
@@ -5347,7 +5347,7 @@
         <v>2.142153833871572</v>
       </c>
       <c r="B615" t="n">
-        <v>-155.0298100540992</v>
+        <v>-151.7445348296284</v>
       </c>
     </row>
     <row r="616">
@@ -5355,7 +5355,7 @@
         <v>2.145648375199258</v>
       </c>
       <c r="B616" t="n">
-        <v>-154.0272671525249</v>
+        <v>-150.4554090156745</v>
       </c>
     </row>
     <row r="617">
@@ -5363,7 +5363,7 @@
         <v>2.149142916526944</v>
       </c>
       <c r="B617" t="n">
-        <v>-153.8173939081458</v>
+        <v>-148.4734828256133</v>
       </c>
     </row>
     <row r="618">
@@ -5371,7 +5371,7 @@
         <v>2.15263745785463</v>
       </c>
       <c r="B618" t="n">
-        <v>-154.3515050471973</v>
+        <v>-146.823887182016</v>
       </c>
     </row>
     <row r="619">
@@ -5379,7 +5379,7 @@
         <v>2.156131999182316</v>
       </c>
       <c r="B619" t="n">
-        <v>-155.7147409240674</v>
+        <v>-145.7305361663405</v>
       </c>
     </row>
     <row r="620">
@@ -5387,7 +5387,7 @@
         <v>2.159626540510002</v>
       </c>
       <c r="B620" t="n">
-        <v>-158.1971130291453</v>
+        <v>-145.1893393041354</v>
       </c>
     </row>
     <row r="621">
@@ -5395,7 +5395,7 @@
         <v>2.163121081837688</v>
       </c>
       <c r="B621" t="n">
-        <v>-162.617478352242</v>
+        <v>-145.1713994213802</v>
       </c>
     </row>
     <row r="622">
@@ -5403,7 +5403,7 @@
         <v>2.166615623165375</v>
       </c>
       <c r="B622" t="n">
-        <v>-170.7201463225985</v>
+        <v>-145.6592512512671</v>
       </c>
     </row>
     <row r="623">
@@ -5411,7 +5411,7 @@
         <v>2.170110164493061</v>
       </c>
       <c r="B623" t="n">
-        <v>-165.8550528380928</v>
+        <v>-146.6323151569741</v>
       </c>
     </row>
     <row r="624">
@@ -5419,7 +5419,7 @@
         <v>2.173604705820747</v>
       </c>
       <c r="B624" t="n">
-        <v>-160.0124644443295</v>
+        <v>-147.9916061175534</v>
       </c>
     </row>
     <row r="625">
@@ -5427,7 +5427,7 @@
         <v>2.177099247148433</v>
       </c>
       <c r="B625" t="n">
-        <v>-156.8943079437145</v>
+        <v>-149.3410519494116</v>
       </c>
     </row>
     <row r="626">
@@ -5435,7 +5435,7 @@
         <v>2.180593788476119</v>
       </c>
       <c r="B626" t="n">
-        <v>-155.146161410304</v>
+        <v>-149.7916532617506</v>
       </c>
     </row>
     <row r="627">
@@ -5443,7 +5443,7 @@
         <v>2.184088329803805</v>
       </c>
       <c r="B627" t="n">
-        <v>-154.3026560369293</v>
+        <v>-148.8609791851397</v>
       </c>
     </row>
     <row r="628">
@@ -5451,7 +5451,7 @@
         <v>2.187582871131491</v>
       </c>
       <c r="B628" t="n">
-        <v>-154.192582241373</v>
+        <v>-147.3024990068785</v>
       </c>
     </row>
     <row r="629">
@@ -5459,7 +5459,7 @@
         <v>2.191077412459177</v>
       </c>
       <c r="B629" t="n">
-        <v>-154.7864504981601</v>
+        <v>-145.8782908578422</v>
       </c>
     </row>
     <row r="630">
@@ -5467,7 +5467,7 @@
         <v>2.194571953786864</v>
       </c>
       <c r="B630" t="n">
-        <v>-156.1756764803575</v>
+        <v>-144.8567415259907</v>
       </c>
     </row>
     <row r="631">
@@ -5475,7 +5475,7 @@
         <v>2.19806649511455</v>
       </c>
       <c r="B631" t="n">
-        <v>-158.6460453490153</v>
+        <v>-144.2846798498036</v>
       </c>
     </row>
     <row r="632">
@@ -5483,7 +5483,7 @@
         <v>2.201561036442236</v>
       </c>
       <c r="B632" t="n">
-        <v>-162.9940704441644</v>
+        <v>-144.1535085043471</v>
       </c>
     </row>
     <row r="633">
@@ -5491,7 +5491,7 @@
         <v>2.205055577769921</v>
       </c>
       <c r="B633" t="n">
-        <v>-171.2202595961375</v>
+        <v>-144.4452841342264</v>
       </c>
     </row>
     <row r="634">
@@ -5499,7 +5499,7 @@
         <v>2.208550119097608</v>
       </c>
       <c r="B634" t="n">
-        <v>-166.9482402036906</v>
+        <v>-145.129555965688</v>
       </c>
     </row>
     <row r="635">
@@ -5507,7 +5507,7 @@
         <v>2.212044660425294</v>
       </c>
       <c r="B635" t="n">
-        <v>-160.8282327948354</v>
+        <v>-146.1203796157849</v>
       </c>
     </row>
     <row r="636">
@@ -5515,7 +5515,7 @@
         <v>2.21553920175298</v>
       </c>
       <c r="B636" t="n">
-        <v>-157.5786429733688</v>
+        <v>-147.1707513799423</v>
       </c>
     </row>
     <row r="637">
@@ -5523,7 +5523,7 @@
         <v>2.219033743080666</v>
       </c>
       <c r="B637" t="n">
-        <v>-155.7234018203014</v>
+        <v>-147.7697096801312</v>
       </c>
     </row>
     <row r="638">
@@ -5531,7 +5531,7 @@
         <v>2.222528284408352</v>
       </c>
       <c r="B638" t="n">
-        <v>-154.7643657649776</v>
+        <v>-147.4459963851902</v>
       </c>
     </row>
     <row r="639">
@@ -5539,7 +5539,7 @@
         <v>2.226022825736038</v>
       </c>
       <c r="B639" t="n">
-        <v>-154.5120125161626</v>
+        <v>-146.3845081005286</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5547,7 @@
         <v>2.229517367063724</v>
       </c>
       <c r="B640" t="n">
-        <v>-154.915484535613</v>
+        <v>-145.1490468866489</v>
       </c>
     </row>
     <row r="641">
@@ -5555,7 +5555,7 @@
         <v>2.23301190839141</v>
       </c>
       <c r="B641" t="n">
-        <v>-156.027615004606</v>
+        <v>-144.1045539481</v>
       </c>
     </row>
     <row r="642">
@@ -5563,7 +5563,7 @@
         <v>2.236506449719097</v>
       </c>
       <c r="B642" t="n">
-        <v>-158.0433088096066</v>
+        <v>-143.3851951748562</v>
       </c>
     </row>
     <row r="643">
@@ -5571,7 +5571,7 @@
         <v>2.240000991046783</v>
       </c>
       <c r="B643" t="n">
-        <v>-161.481090683505</v>
+        <v>-143.0217239700756</v>
       </c>
     </row>
     <row r="644">
@@ -5579,7 +5579,7 @@
         <v>2.243495532374469</v>
       </c>
       <c r="B644" t="n">
-        <v>-167.9244104823607</v>
+        <v>-143.0094688116785</v>
       </c>
     </row>
     <row r="645">
@@ -5587,7 +5587,7 @@
         <v>2.246990073702155</v>
       </c>
       <c r="B645" t="n">
-        <v>-171.8623707842478</v>
+        <v>-143.326836126734</v>
       </c>
     </row>
     <row r="646">
@@ -5595,7 +5595,7 @@
         <v>2.250484615029841</v>
       </c>
       <c r="B646" t="n">
-        <v>-163.6081404966356</v>
+        <v>-143.9250739353013</v>
       </c>
     </row>
     <row r="647">
@@ -5603,7 +5603,7 @@
         <v>2.253979156357527</v>
       </c>
       <c r="B647" t="n">
-        <v>-159.3745111226827</v>
+        <v>-144.6909092142198</v>
       </c>
     </row>
     <row r="648">
@@ -5611,7 +5611,7 @@
         <v>2.257473697685213</v>
       </c>
       <c r="B648" t="n">
-        <v>-156.9656815548707</v>
+        <v>-145.3895584678243</v>
       </c>
     </row>
     <row r="649">
@@ -5619,7 +5619,7 @@
         <v>2.260968239012899</v>
       </c>
       <c r="B649" t="n">
-        <v>-155.5894780502832</v>
+        <v>-145.6764330086153</v>
       </c>
     </row>
     <row r="650">
@@ -5627,7 +5627,7 @@
         <v>2.264462780340585</v>
       </c>
       <c r="B650" t="n">
-        <v>-154.9519149838954</v>
+        <v>-145.3333897349344</v>
       </c>
     </row>
     <row r="651">
@@ -5635,7 +5635,7 @@
         <v>2.267957321668271</v>
       </c>
       <c r="B651" t="n">
-        <v>-154.9408342106217</v>
+        <v>-144.5090775204242</v>
       </c>
     </row>
     <row r="652">
@@ -5643,7 +5643,7 @@
         <v>2.271451862995957</v>
       </c>
       <c r="B652" t="n">
-        <v>-155.5440663602347</v>
+        <v>-143.541194321698</v>
       </c>
     </row>
     <row r="653">
@@ -5651,7 +5651,7 @@
         <v>2.274946404323643</v>
       </c>
       <c r="B653" t="n">
-        <v>-156.8424289352431</v>
+        <v>-142.6818929347177</v>
       </c>
     </row>
     <row r="654">
@@ -5659,7 +5659,7 @@
         <v>2.278440945651329</v>
       </c>
       <c r="B654" t="n">
-        <v>-159.0669261290315</v>
+        <v>-142.0511436313416</v>
       </c>
     </row>
     <row r="655">
@@ -5667,7 +5667,7 @@
         <v>2.281935486979016</v>
       </c>
       <c r="B655" t="n">
-        <v>-162.825050661112</v>
+        <v>-141.6903100430414</v>
       </c>
     </row>
     <row r="656">
@@ -5675,7 +5675,7 @@
         <v>2.285430028306702</v>
       </c>
       <c r="B656" t="n">
-        <v>-170.039857696738</v>
+        <v>-141.6037205063285</v>
       </c>
     </row>
     <row r="657">
@@ -5683,7 +5683,7 @@
         <v>2.288924569634388</v>
       </c>
       <c r="B657" t="n">
-        <v>-171.4060637585848</v>
+        <v>-141.7744940482277</v>
       </c>
     </row>
     <row r="658">
@@ -5691,7 +5691,7 @@
         <v>2.292419110962074</v>
       </c>
       <c r="B658" t="n">
-        <v>-163.6038420414973</v>
+        <v>-142.1619202389735</v>
       </c>
     </row>
     <row r="659">
@@ -5699,7 +5699,7 @@
         <v>2.29591365228976</v>
       </c>
       <c r="B659" t="n">
-        <v>-159.6490778321993</v>
+        <v>-142.6846088264369</v>
       </c>
     </row>
     <row r="660">
@@ -5707,7 +5707,7 @@
         <v>2.299408193617446</v>
       </c>
       <c r="B660" t="n">
-        <v>-157.3509278636029</v>
+        <v>-143.1974849772297</v>
       </c>
     </row>
     <row r="661">
@@ -5715,7 +5715,7 @@
         <v>2.302902734945132</v>
       </c>
       <c r="B661" t="n">
-        <v>-156.0091963079217</v>
+        <v>-143.4968723509269</v>
       </c>
     </row>
     <row r="662">
@@ -5723,7 +5723,7 @@
         <v>2.306397276272818</v>
       </c>
       <c r="B662" t="n">
-        <v>-155.3558991902797</v>
+        <v>-143.4106241767747</v>
       </c>
     </row>
     <row r="663">
@@ -5731,7 +5731,7 @@
         <v>2.309891817600504</v>
       </c>
       <c r="B663" t="n">
-        <v>-155.2837349265997</v>
+        <v>-142.9325893161781</v>
       </c>
     </row>
     <row r="664">
@@ -5739,7 +5739,7 @@
         <v>2.31338635892819</v>
       </c>
       <c r="B664" t="n">
-        <v>-155.772849389955</v>
+        <v>-142.2247096046584</v>
       </c>
     </row>
     <row r="665">
@@ -5747,7 +5747,7 @@
         <v>2.316880900255876</v>
       </c>
       <c r="B665" t="n">
-        <v>-156.8799098012277</v>
+        <v>-141.4831058962422</v>
       </c>
     </row>
     <row r="666">
@@ -5755,7 +5755,7 @@
         <v>2.320375441583562</v>
       </c>
       <c r="B666" t="n">
-        <v>-158.7738480854938</v>
+        <v>-140.8449676905194</v>
       </c>
     </row>
     <row r="667">
@@ -5763,7 +5763,7 @@
         <v>2.323869982911249</v>
       </c>
       <c r="B667" t="n">
-        <v>-161.8754956037023</v>
+        <v>-140.381391154007</v>
       </c>
     </row>
     <row r="668">
@@ -5771,7 +5771,7 @@
         <v>2.327364524238935</v>
       </c>
       <c r="B668" t="n">
-        <v>-167.4297068659886</v>
+        <v>-140.1198367540966</v>
       </c>
     </row>
     <row r="669">
@@ -5779,7 +5779,7 @@
         <v>2.330859065566621</v>
       </c>
       <c r="B669" t="n">
-        <v>-175.9332507624403</v>
+        <v>-140.0618234878353</v>
       </c>
     </row>
     <row r="670">
@@ -5787,7 +5787,7 @@
         <v>2.334353606894307</v>
       </c>
       <c r="B670" t="n">
-        <v>-166.7683588401075</v>
+        <v>-140.189827940147</v>
       </c>
     </row>
     <row r="671">
@@ -5795,7 +5795,7 @@
         <v>2.337848148221993</v>
       </c>
       <c r="B671" t="n">
-        <v>-161.6693236778551</v>
+        <v>-140.4652702666754</v>
       </c>
     </row>
     <row r="672">
@@ -5803,7 +5803,7 @@
         <v>2.341342689549679</v>
       </c>
       <c r="B672" t="n">
-        <v>-158.8053043710485</v>
+        <v>-140.8207918890192</v>
       </c>
     </row>
     <row r="673">
@@ -5811,7 +5811,7 @@
         <v>2.344837230877365</v>
       </c>
       <c r="B673" t="n">
-        <v>-157.0709339177378</v>
+        <v>-141.1542741753173</v>
       </c>
     </row>
     <row r="674">
@@ -5819,7 +5819,7 @@
         <v>2.348331772205051</v>
       </c>
       <c r="B674" t="n">
-        <v>-156.0774094893091</v>
+        <v>-141.341393770254</v>
       </c>
     </row>
     <row r="675">
@@ -5827,7 +5827,7 @@
         <v>2.351826313532738</v>
       </c>
       <c r="B675" t="n">
-        <v>-155.6611765716054</v>
+        <v>-141.2826929685083</v>
       </c>
     </row>
     <row r="676">
@@ -5835,7 +5835,7 @@
         <v>2.355320854860424</v>
       </c>
       <c r="B676" t="n">
-        <v>-155.7591551284449</v>
+        <v>-140.9622909784404</v>
       </c>
     </row>
     <row r="677">
@@ -5843,7 +5843,7 @@
         <v>2.35881539618811</v>
       </c>
       <c r="B677" t="n">
-        <v>-156.3732354980094</v>
+        <v>-140.4566949347682</v>
       </c>
     </row>
     <row r="678">
@@ -5851,7 +5851,7 @@
         <v>2.362309937515795</v>
       </c>
       <c r="B678" t="n">
-        <v>-157.5719148777311</v>
+        <v>-139.8826082576033</v>
       </c>
     </row>
     <row r="679">
@@ -5859,7 +5859,7 @@
         <v>2.365804478843482</v>
       </c>
       <c r="B679" t="n">
-        <v>-159.5310091129246</v>
+        <v>-139.342186380494</v>
       </c>
     </row>
     <row r="680">
@@ -5867,7 +5867,7 @@
         <v>2.369299020171168</v>
       </c>
       <c r="B680" t="n">
-        <v>-162.676522614461</v>
+        <v>-138.9023792521233</v>
       </c>
     </row>
     <row r="681">
@@ -5875,7 +5875,7 @@
         <v>2.372793561498854</v>
       </c>
       <c r="B681" t="n">
-        <v>-168.2742472205787</v>
+        <v>-138.5982259682147</v>
       </c>
     </row>
     <row r="682">
@@ -5883,7 +5883,7 @@
         <v>2.37628810282654</v>
       </c>
       <c r="B682" t="n">
-        <v>-177.2815700130113</v>
+        <v>-138.4418279230521</v>
       </c>
     </row>
     <row r="683">
@@ -5891,7 +5891,7 @@
         <v>2.379782644154226</v>
       </c>
       <c r="B683" t="n">
-        <v>-167.7248604985792</v>
+        <v>-138.4285961364865</v>
       </c>
     </row>
     <row r="684">
@@ -5899,7 +5899,7 @@
         <v>2.383277185481912</v>
       </c>
       <c r="B684" t="n">
-        <v>-162.5347821898898</v>
+        <v>-138.5392415571871</v>
       </c>
     </row>
     <row r="685">
@@ -5907,7 +5907,7 @@
         <v>2.386771726809598</v>
       </c>
       <c r="B685" t="n">
-        <v>-159.6055975341267</v>
+        <v>-138.738498805747</v>
       </c>
     </row>
     <row r="686">
@@ -5915,7 +5915,7 @@
         <v>2.390266268137284</v>
       </c>
       <c r="B686" t="n">
-        <v>-157.7942270243641</v>
+        <v>-138.9730320534108</v>
       </c>
     </row>
     <row r="687">
@@ -5923,7 +5923,7 @@
         <v>2.39376080946497</v>
       </c>
       <c r="B687" t="n">
-        <v>-156.7013437885517</v>
+        <v>-139.1733363323597</v>
       </c>
     </row>
     <row r="688">
@@ -5931,7 +5931,7 @@
         <v>2.397255350792657</v>
       </c>
       <c r="B688" t="n">
-        <v>-156.1548477854462</v>
+        <v>-139.266146698554</v>
       </c>
     </row>
     <row r="689">
@@ -5939,7 +5939,7 @@
         <v>2.400749892120343</v>
       </c>
       <c r="B689" t="n">
-        <v>-156.0799515988985</v>
+        <v>-139.1989025038267</v>
       </c>
     </row>
     <row r="690">
@@ -5947,7 +5947,7 @@
         <v>2.404244433448029</v>
       </c>
       <c r="B690" t="n">
-        <v>-156.4591113773147</v>
+        <v>-138.9634426122538</v>
       </c>
     </row>
     <row r="691">
@@ -5955,7 +5955,7 @@
         <v>2.407738974775715</v>
       </c>
       <c r="B691" t="n">
-        <v>-157.3243154690181</v>
+        <v>-138.5987879029443</v>
       </c>
     </row>
     <row r="692">
@@ -5963,7 +5963,7 @@
         <v>2.411233516103401</v>
       </c>
       <c r="B692" t="n">
-        <v>-158.7730320119774</v>
+        <v>-138.170243903013</v>
       </c>
     </row>
     <row r="693">
@@ -5971,7 +5971,7 @@
         <v>2.414728057431087</v>
       </c>
       <c r="B693" t="n">
-        <v>-161.0269904525969</v>
+        <v>-137.7433715385358</v>
       </c>
     </row>
     <row r="694">
@@ -5979,7 +5979,7 @@
         <v>2.418222598758773</v>
       </c>
       <c r="B694" t="n">
-        <v>-164.6311490488467</v>
+        <v>-137.3687309622228</v>
       </c>
     </row>
     <row r="695">
@@ -5987,7 +5987,7 @@
         <v>2.421717140086459</v>
       </c>
       <c r="B695" t="n">
-        <v>-171.3556224838339</v>
+        <v>-137.0784517590122</v>
       </c>
     </row>
     <row r="696">
@@ -5995,7 +5995,7 @@
         <v>2.425211681414145</v>
       </c>
       <c r="B696" t="n">
-        <v>-176.6058166893122</v>
+        <v>-136.8885918320045</v>
       </c>
     </row>
     <row r="697">
@@ -6003,7 +6003,7 @@
         <v>2.428706222741831</v>
       </c>
       <c r="B697" t="n">
-        <v>-167.1605027626508</v>
+        <v>-136.8024035858352</v>
       </c>
     </row>
     <row r="698">
@@ -6011,7 +6011,7 @@
         <v>2.432200764069517</v>
       </c>
       <c r="B698" t="n">
-        <v>-162.6398988682557</v>
+        <v>-136.812449063433</v>
       </c>
     </row>
     <row r="699">
@@ -6019,7 +6019,7 @@
         <v>2.435695305397203</v>
       </c>
       <c r="B699" t="n">
-        <v>-159.974282836139</v>
+        <v>-136.9012782253061</v>
       </c>
     </row>
     <row r="700">
@@ -6027,7 +6027,7 @@
         <v>2.43918984672489</v>
       </c>
       <c r="B700" t="n">
-        <v>-158.2787423226451</v>
+        <v>-137.0413308104391</v>
       </c>
     </row>
     <row r="701">
@@ -6035,7 +6035,7 @@
         <v>2.442684388052576</v>
       </c>
       <c r="B701" t="n">
-        <v>-157.222846735994</v>
+        <v>-137.1954752900634</v>
       </c>
     </row>
     <row r="702">
@@ -6043,7 +6043,7 @@
         <v>2.446178929380262</v>
       </c>
       <c r="B702" t="n">
-        <v>-156.6569150930328</v>
+        <v>-137.3202404517861</v>
       </c>
     </row>
     <row r="703">
@@ -6051,7 +6051,7 @@
         <v>2.449673470707948</v>
       </c>
       <c r="B703" t="n">
-        <v>-156.51137067851</v>
+        <v>-137.373498377055</v>
       </c>
     </row>
     <row r="704">
@@ -6059,7 +6059,7 @@
         <v>2.453168012035634</v>
       </c>
       <c r="B704" t="n">
-        <v>-156.7633150133534</v>
+        <v>-137.3257330544635</v>
       </c>
     </row>
     <row r="705">
@@ -6067,7 +6067,7 @@
         <v>2.45666255336332</v>
       </c>
       <c r="B705" t="n">
-        <v>-157.4275414316179</v>
+        <v>-137.1698124307535</v>
       </c>
     </row>
     <row r="706">
@@ -6075,7 +6075,7 @@
         <v>2.460157094691006</v>
       </c>
       <c r="B706" t="n">
-        <v>-158.5629584838634</v>
+        <v>-136.9228883080547</v>
       </c>
     </row>
     <row r="707">
@@ -6083,7 +6083,7 @@
         <v>2.463651636018692</v>
       </c>
       <c r="B707" t="n">
-        <v>-160.300849132115</v>
+        <v>-136.6190085740471</v>
       </c>
     </row>
     <row r="708">
@@ -6091,7 +6091,7 @@
         <v>2.467146177346378</v>
       </c>
       <c r="B708" t="n">
-        <v>-162.9295478951858</v>
+        <v>-136.2976030735657</v>
       </c>
     </row>
     <row r="709">
@@ -6099,7 +6099,7 @@
         <v>2.470640718674064</v>
       </c>
       <c r="B709" t="n">
-        <v>-167.1975135024917</v>
+        <v>-135.9941124918053</v>
       </c>
     </row>
     <row r="710">
@@ -6107,7 +6107,7 @@
         <v>2.47413526000175</v>
       </c>
       <c r="B710" t="n">
-        <v>-175.8504992043335</v>
+        <v>-135.7353163018879</v>
       </c>
     </row>
     <row r="711">
@@ -6115,7 +6115,7 @@
         <v>2.477629801329436</v>
       </c>
       <c r="B711" t="n">
-        <v>-174.3312037482218</v>
+        <v>-135.5384026578585</v>
       </c>
     </row>
     <row r="712">
@@ -6123,7 +6123,7 @@
         <v>2.481124342657123</v>
       </c>
       <c r="B712" t="n">
-        <v>-166.6765523092293</v>
+        <v>-135.4118291192776</v>
       </c>
     </row>
     <row r="713">
@@ -6131,7 +6131,7 @@
         <v>2.484618883984809</v>
       </c>
       <c r="B713" t="n">
-        <v>-162.7998172319145</v>
+        <v>-135.3565285775501</v>
       </c>
     </row>
     <row r="714">
@@ -6139,7 +6139,7 @@
         <v>2.488113425312495</v>
       </c>
       <c r="B714" t="n">
-        <v>-160.4036934621136</v>
+        <v>-135.3668140049148</v>
       </c>
     </row>
     <row r="715">
@@ -6147,7 +6147,7 @@
         <v>2.491607966640181</v>
       </c>
       <c r="B715" t="n">
-        <v>-158.831048264528</v>
+        <v>-135.4308787018967</v>
       </c>
     </row>
     <row r="716">
@@ -6155,7 +6155,7 @@
         <v>2.495102507967867</v>
       </c>
       <c r="B716" t="n">
-        <v>-157.8165296566562</v>
+        <v>-135.5311677413519</v>
       </c>
     </row>
     <row r="717">
@@ -6163,7 +6163,7 @@
         <v>2.498597049295553</v>
       </c>
       <c r="B717" t="n">
-        <v>-157.2330280054581</v>
+        <v>-135.6451534648862</v>
       </c>
     </row>
     <row r="718">
@@ -6171,7 +6171,7 @@
         <v>2.502091590623239</v>
       </c>
       <c r="B718" t="n">
-        <v>-157.0171840044749</v>
+        <v>-135.7471899446214</v>
       </c>
     </row>
     <row r="719">
@@ -6179,7 +6179,7 @@
         <v>2.505586131950925</v>
       </c>
       <c r="B719" t="n">
-        <v>-157.1426561900877</v>
+        <v>-135.8119376922056</v>
       </c>
     </row>
     <row r="720">
@@ -6187,7 +6187,7 @@
         <v>2.509080673278612</v>
       </c>
       <c r="B720" t="n">
-        <v>-157.6110593579121</v>
+        <v>-135.8191025151573</v>
       </c>
     </row>
     <row r="721">
@@ -6195,7 +6195,7 @@
         <v>2.512575214606298</v>
       </c>
       <c r="B721" t="n">
-        <v>-158.4528387124335</v>
+        <v>-135.7580946972184</v>
       </c>
     </row>
     <row r="722">
@@ -6203,7 +6203,7 @@
         <v>2.516069755933983</v>
       </c>
       <c r="B722" t="n">
-        <v>-159.7387756873764</v>
+        <v>-135.6305340993703</v>
       </c>
     </row>
     <row r="723">
@@ -6211,7 +6211,7 @@
         <v>2.519564297261669</v>
       </c>
       <c r="B723" t="n">
-        <v>-161.612463767667</v>
+        <v>-135.4492840530465</v>
       </c>
     </row>
     <row r="724">
@@ -6219,7 +6219,7 @@
         <v>2.523058838589356</v>
       </c>
       <c r="B724" t="n">
-        <v>-164.383373477211</v>
+        <v>-135.2345430317354</v>
       </c>
     </row>
     <row r="725">
@@ -6227,7 +6227,7 @@
         <v>2.526553379917042</v>
       </c>
       <c r="B725" t="n">
-        <v>-168.8664899282386</v>
+        <v>-135.0089319229866</v>
       </c>
     </row>
     <row r="726">
@@ -6235,7 +6235,7 @@
         <v>2.530047921244728</v>
       </c>
       <c r="B726" t="n">
-        <v>-178.2149952238546</v>
+        <v>-134.7934436414008</v>
       </c>
     </row>
     <row r="727">
@@ -6243,7 +6243,7 @@
         <v>2.533542462572414</v>
       </c>
       <c r="B727" t="n">
-        <v>-175.041693290587</v>
+        <v>-134.605056059136</v>
       </c>
     </row>
     <row r="728">
@@ -6251,7 +6251,7 @@
         <v>2.5370370039001</v>
       </c>
       <c r="B728" t="n">
-        <v>-167.6717369320629</v>
+        <v>-134.455835645485</v>
       </c>
     </row>
     <row r="729">
@@ -6259,7 +6259,7 @@
         <v>2.540531545227786</v>
       </c>
       <c r="B729" t="n">
-        <v>-163.8751096629412</v>
+        <v>-134.3529648158079</v>
       </c>
     </row>
     <row r="730">
@@ -6267,7 +6267,7 @@
         <v>2.544026086555472</v>
       </c>
       <c r="B730" t="n">
-        <v>-161.4806535315679</v>
+        <v>-134.2991449516942</v>
       </c>
     </row>
     <row r="731">
@@ -6275,7 +6275,7 @@
         <v>2.547520627883158</v>
       </c>
       <c r="B731" t="n">
-        <v>-159.8642541559108</v>
+        <v>-134.2930568358552</v>
       </c>
     </row>
     <row r="732">
@@ -6283,7 +6283,7 @@
         <v>2.551015169210844</v>
       </c>
       <c r="B732" t="n">
-        <v>-158.7689434863753</v>
+        <v>-134.3297355403672</v>
       </c>
     </row>
     <row r="733">
@@ -6291,7 +6291,7 @@
         <v>2.554509710538531</v>
       </c>
       <c r="B733" t="n">
-        <v>-158.0679292210867</v>
+        <v>-134.4008825845281</v>
       </c>
     </row>
     <row r="734">
@@ -6299,7 +6299,7 @@
         <v>2.558004251866217</v>
       </c>
       <c r="B734" t="n">
-        <v>-157.6936108184336</v>
+        <v>-134.4952293679727</v>
       </c>
     </row>
     <row r="735">
@@ -6307,7 +6307,7 @@
         <v>2.561498793193903</v>
       </c>
       <c r="B735" t="n">
-        <v>-157.6109604682452</v>
+        <v>-134.5991344080542</v>
       </c>
     </row>
     <row r="736">
@@ -6315,7 +6315,7 @@
         <v>2.564993334521589</v>
       </c>
       <c r="B736" t="n">
-        <v>-157.8067267903166</v>
+        <v>-134.6976155467842</v>
       </c>
     </row>
     <row r="737">
@@ -6323,7 +6323,7 @@
         <v>2.568487875849275</v>
       </c>
       <c r="B737" t="n">
-        <v>-158.2859413527183</v>
+        <v>-134.7759076570167</v>
       </c>
     </row>
     <row r="738">
@@ -6331,7 +6331,7 @@
         <v>2.571982417176961</v>
       </c>
       <c r="B738" t="n">
-        <v>-159.073580300197</v>
+        <v>-134.8214477041014</v>
       </c>
     </row>
     <row r="739">
@@ -6339,7 +6339,7 @@
         <v>2.575476958504647</v>
       </c>
       <c r="B739" t="n">
-        <v>-160.222319498385</v>
+        <v>-134.8258734451722</v>
       </c>
     </row>
     <row r="740">
@@ -6347,7 +6347,7 @@
         <v>2.578971499832333</v>
       </c>
       <c r="B740" t="n">
-        <v>-161.8321026348491</v>
+        <v>-134.7864417143521</v>
       </c>
     </row>
     <row r="741">
@@ -6355,7 +6355,7 @@
         <v>2.582466041160019</v>
       </c>
       <c r="B741" t="n">
-        <v>-164.1001904224796</v>
+        <v>-134.7063420359542</v>
       </c>
     </row>
     <row r="742">
@@ -6363,7 +6363,7 @@
         <v>2.585960582487705</v>
       </c>
       <c r="B742" t="n">
-        <v>-167.4739655993599</v>
+        <v>-134.5937949103505</v>
       </c>
     </row>
     <row r="743">
@@ -6371,7 +6371,7 @@
         <v>2.589455123815391</v>
       </c>
       <c r="B743" t="n">
-        <v>-173.3107400360931</v>
+        <v>-134.4602853156903</v>
       </c>
     </row>
     <row r="744">
@@ -6379,7 +6379,7 @@
         <v>2.592949665143077</v>
       </c>
       <c r="B744" t="n">
-        <v>-184.4346638604941</v>
+        <v>-134.3185435556941</v>
       </c>
     </row>
     <row r="745">
@@ -6387,7 +6387,7 @@
         <v>2.596444206470764</v>
       </c>
       <c r="B745" t="n">
-        <v>-172.9743052656019</v>
+        <v>-134.1808133057291</v>
       </c>
     </row>
     <row r="746">
@@ -6395,7 +6395,7 @@
         <v>2.59993874779845</v>
       </c>
       <c r="B746" t="n">
-        <v>-167.5015687712814</v>
+        <v>-134.0576722885883</v>
       </c>
     </row>
     <row r="747">
@@ -6403,7 +6403,7 @@
         <v>2.603433289126136</v>
       </c>
       <c r="B747" t="n">
-        <v>-164.3421865591126</v>
+        <v>-133.9574194808834</v>
       </c>
     </row>
     <row r="748">
@@ -6411,7 +6411,7 @@
         <v>2.606927830453822</v>
       </c>
       <c r="B748" t="n">
-        <v>-162.2376784856692</v>
+        <v>-133.8858796084703</v>
       </c>
     </row>
     <row r="749">
@@ -6419,7 +6419,7 @@
         <v>2.610422371781508</v>
       </c>
       <c r="B749" t="n">
-        <v>-160.7602390086044</v>
+        <v>-133.8464618434025</v>
       </c>
     </row>
     <row r="750">
@@ -6427,7 +6427,7 @@
         <v>2.613916913109194</v>
       </c>
       <c r="B750" t="n">
-        <v>-159.7160054919939</v>
+        <v>-133.8403272683529</v>
       </c>
     </row>
     <row r="751">
@@ -6435,7 +6435,7 @@
         <v>2.61741145443688</v>
       </c>
       <c r="B751" t="n">
-        <v>-159.0027484135173</v>
+        <v>-133.8665825849933</v>
       </c>
     </row>
     <row r="752">
@@ -6443,7 +6443,7 @@
         <v>2.620905995764566</v>
       </c>
       <c r="B752" t="n">
-        <v>-158.5622026580083</v>
+        <v>-133.922462967151</v>
       </c>
     </row>
     <row r="753">
@@ -6451,7 +6451,7 @@
         <v>2.624400537092252</v>
       </c>
       <c r="B753" t="n">
-        <v>-158.3606455247694</v>
+        <v>-134.003505715206</v>
       </c>
     </row>
     <row r="754">
@@ -6459,7 +6459,7 @@
         <v>2.627895078419938</v>
       </c>
       <c r="B754" t="n">
-        <v>-158.3801758439551</v>
+        <v>-134.1037431797185</v>
       </c>
     </row>
     <row r="755">
@@ -6467,7 +6467,7 @@
         <v>2.631389619747624</v>
       </c>
       <c r="B755" t="n">
-        <v>-158.6147881513882</v>
+        <v>-134.215961227642</v>
       </c>
     </row>
     <row r="756">
@@ -6475,7 +6475,7 @@
         <v>2.63488416107531</v>
       </c>
       <c r="B756" t="n">
-        <v>-159.069312713282</v>
+        <v>-134.3320736715114</v>
       </c>
     </row>
     <row r="757">
@@ -6483,7 +6483,7 @@
         <v>2.638378702402997</v>
       </c>
       <c r="B757" t="n">
-        <v>-159.7605640974695</v>
+        <v>-134.4436541221282</v>
       </c>
     </row>
     <row r="758">
@@ -6491,7 +6491,7 @@
         <v>2.641873243730683</v>
       </c>
       <c r="B758" t="n">
-        <v>-160.7213893043718</v>
+        <v>-134.5426149212489</v>
       </c>
     </row>
     <row r="759">
@@ -6499,7 +6499,7 @@
         <v>2.645367785058369</v>
       </c>
       <c r="B759" t="n">
-        <v>-162.0096935169616</v>
+        <v>-134.6219907890528</v>
       </c>
     </row>
     <row r="760">
@@ -6507,7 +6507,7 @@
         <v>2.648862326386055</v>
       </c>
       <c r="B760" t="n">
-        <v>-163.7285902251618</v>
+        <v>-134.6766951053518</v>
       </c>
     </row>
     <row r="761">
@@ -6515,7 +6515,7 @@
         <v>2.652356867713741</v>
       </c>
       <c r="B761" t="n">
-        <v>-166.0762651827927</v>
+        <v>-134.7040986431383</v>
       </c>
     </row>
     <row r="762">
@@ -6523,7 +6523,7 @@
         <v>2.655851409041427</v>
       </c>
       <c r="B762" t="n">
-        <v>-169.4968837085472</v>
+        <v>-134.7042844435475</v>
       </c>
     </row>
     <row r="763">
@@ -6531,7 +6531,7 @@
         <v>2.659345950369113</v>
       </c>
       <c r="B763" t="n">
-        <v>-175.3310406784046</v>
+        <v>-134.6799158577722</v>
       </c>
     </row>
     <row r="764">
@@ -6539,7 +6539,7 @@
         <v>2.662840491696799</v>
       </c>
       <c r="B764" t="n">
-        <v>-186.9478926943647</v>
+        <v>-134.635754068344</v>
       </c>
     </row>
     <row r="765">
@@ -6547,7 +6547,7 @@
         <v>2.666335033024485</v>
       </c>
       <c r="B765" t="n">
-        <v>-175.2862686133093</v>
+        <v>-134.5779568997613</v>
       </c>
     </row>
     <row r="766">
@@ -6555,7 +6555,7 @@
         <v>2.669829574352172</v>
       </c>
       <c r="B766" t="n">
-        <v>-169.7186735903318</v>
+        <v>-134.5133188230815</v>
       </c>
     </row>
     <row r="767">
@@ -6563,7 +6563,7 @@
         <v>2.673324115679857</v>
       </c>
       <c r="B767" t="n">
-        <v>-166.4944599500646</v>
+        <v>-134.4485933901576</v>
       </c>
     </row>
     <row r="768">
@@ -6571,7 +6571,7 @@
         <v>2.676818657007543</v>
       </c>
       <c r="B768" t="n">
-        <v>-164.31609389</v>
+        <v>-134.3899801307946</v>
       </c>
     </row>
     <row r="769">
@@ -6579,7 +6579,7 @@
         <v>2.68031319833523</v>
       </c>
       <c r="B769" t="n">
-        <v>-162.7465320363106</v>
+        <v>-134.3427915238195</v>
       </c>
     </row>
     <row r="770">
@@ -6587,7 +6587,7 @@
         <v>2.683807739662916</v>
       </c>
       <c r="B770" t="n">
-        <v>-161.5873509793564</v>
+        <v>-134.3112826045149</v>
       </c>
     </row>
     <row r="771">
@@ -6595,7 +6595,7 @@
         <v>2.687302280990602</v>
       </c>
       <c r="B771" t="n">
-        <v>-160.7325456241936</v>
+        <v>-134.298600194209</v>
       </c>
     </row>
     <row r="772">
@@ -6603,7 +6603,7 @@
         <v>2.690796822318288</v>
       </c>
       <c r="B772" t="n">
-        <v>-160.1196684287899</v>
+        <v>-134.3068086557805</v>
       </c>
     </row>
     <row r="773">
@@ -6611,7 +6611,7 @@
         <v>2.694291363645974</v>
       </c>
       <c r="B773" t="n">
-        <v>-159.709768279558</v>
+        <v>-134.3369537308893</v>
       </c>
     </row>
     <row r="774">
@@ -6619,7 +6619,7 @@
         <v>2.69778590497366</v>
       </c>
       <c r="B774" t="n">
-        <v>-159.4779897514562</v>
+        <v>-134.3891457115753</v>
       </c>
     </row>
     <row r="775">
@@ -6627,7 +6627,7 @@
         <v>2.701280446301346</v>
       </c>
       <c r="B775" t="n">
-        <v>-159.4087827163512</v>
+        <v>-134.4626414355716</v>
       </c>
     </row>
     <row r="776">
@@ -6635,7 +6635,7 @@
         <v>2.704774987629032</v>
       </c>
       <c r="B776" t="n">
-        <v>-159.4933985018831</v>
+        <v>-134.5559256245098</v>
       </c>
     </row>
     <row r="777">
@@ -6643,7 +6643,7 @@
         <v>2.708269528956718</v>
       </c>
       <c r="B777" t="n">
-        <v>-159.728656880217</v>
+        <v>-134.6667883524937</v>
       </c>
     </row>
     <row r="778">
@@ -6651,7 +6651,7 @@
         <v>2.711764070284405</v>
       </c>
       <c r="B778" t="n">
-        <v>-160.1165772681344</v>
+        <v>-134.7924095630699</v>
       </c>
     </row>
     <row r="779">
@@ -6659,7 +6659,7 @@
         <v>2.715258611612091</v>
       </c>
       <c r="B779" t="n">
-        <v>-160.6647424193795</v>
+        <v>-134.929456485269</v>
       </c>
     </row>
     <row r="780">
@@ -6667,7 +6667,7 @@
         <v>2.718753152939777</v>
       </c>
       <c r="B780" t="n">
-        <v>-161.3875378766032</v>
+        <v>-135.074201933975</v>
       </c>
     </row>
     <row r="781">
@@ -6675,7 +6675,7 @@
         <v>2.722247694267463</v>
       </c>
       <c r="B781" t="n">
-        <v>-162.3086889187245</v>
+        <v>-135.2226776116763</v>
       </c>
     </row>
     <row r="782">
@@ -6683,7 +6683,7 @@
         <v>2.725742235595149</v>
       </c>
       <c r="B782" t="n">
-        <v>-163.4660507581456</v>
+        <v>-135.3708620872995</v>
       </c>
     </row>
     <row r="783">
@@ -6691,7 +6691,7 @@
         <v>2.729236776922835</v>
       </c>
       <c r="B783" t="n">
-        <v>-164.9210819667168</v>
+        <v>-135.5149016438554</v>
       </c>
     </row>
     <row r="784">
@@ -6699,7 +6699,7 @@
         <v>2.732731318250521</v>
       </c>
       <c r="B784" t="n">
-        <v>-166.7791004145938</v>
+        <v>-135.6513523381362</v>
       </c>
     </row>
     <row r="785">
@@ -6707,7 +6707,7 @@
         <v>2.736225859578207</v>
       </c>
       <c r="B785" t="n">
-        <v>-169.2385780733068</v>
+        <v>-135.7774253260065</v>
       </c>
     </row>
     <row r="786">
@@ -6715,7 +6715,7 @@
         <v>2.739720400905893</v>
       </c>
       <c r="B786" t="n">
-        <v>-172.7388733227116</v>
+        <v>-135.8912030215542</v>
       </c>
     </row>
     <row r="787">
@@ -6723,7 +6723,7 @@
         <v>2.743214942233579</v>
       </c>
       <c r="B787" t="n">
-        <v>-178.5870819529154</v>
+        <v>-135.9918049163523</v>
       </c>
     </row>
     <row r="788">
@@ -6731,7 +6731,7 @@
         <v>2.746709483561265</v>
       </c>
       <c r="B788" t="n">
-        <v>-190.012780469361</v>
+        <v>-136.0794740082162</v>
       </c>
     </row>
     <row r="789">
@@ -6739,7 +6739,7 @@
         <v>2.750204024888951</v>
       </c>
       <c r="B789" t="n">
-        <v>-178.8443343865677</v>
+        <v>-136.1555852398371</v>
       </c>
     </row>
     <row r="790">
@@ -6747,7 +6747,7 @@
         <v>2.753698566216638</v>
       </c>
       <c r="B790" t="n">
-        <v>-173.2799415232887</v>
+        <v>-136.2225785803463</v>
       </c>
     </row>
     <row r="791">
@@ -6755,7 +6755,7 @@
         <v>2.757193107544324</v>
       </c>
       <c r="B791" t="n">
-        <v>-170.0561252640992</v>
+        <v>-136.2838490482442</v>
       </c>
     </row>
     <row r="792">
@@ -6763,7 +6763,7 @@
         <v>2.76068764887201</v>
       </c>
       <c r="B792" t="n">
-        <v>-167.8690955880307</v>
+        <v>-136.3436350656244</v>
       </c>
     </row>
     <row r="793">
@@ -6771,7 +6771,7 @@
         <v>2.764182190199696</v>
       </c>
       <c r="B793" t="n">
-        <v>-166.2799792475569</v>
+        <v>-136.4069572872168</v>
       </c>
     </row>
     <row r="794">
@@ -6779,7 +6779,7 @@
         <v>2.767676731527382</v>
       </c>
       <c r="B794" t="n">
-        <v>-165.0907330734306</v>
+        <v>-136.4796863978186</v>
       </c>
     </row>
     <row r="795">
@@ -6787,7 +6787,7 @@
         <v>2.771171272855068</v>
       </c>
       <c r="B795" t="n">
-        <v>-164.1971839713704</v>
+        <v>-136.5688526126644</v>
       </c>
     </row>
     <row r="796">
@@ -6795,7 +6795,7 @@
         <v>2.774665814182754</v>
       </c>
       <c r="B796" t="n">
-        <v>-163.5406567076113</v>
+        <v>-136.6834304164218</v>
       </c>
     </row>
     <row r="797">
@@ -6803,7 +6803,7 @@
         <v>2.77816035551044</v>
       </c>
       <c r="B797" t="n">
-        <v>-163.0895229033623</v>
+        <v>-136.8361718247206</v>
       </c>
     </row>
     <row r="798">
@@ -6811,7 +6811,7 @@
         <v>2.781654896838126</v>
       </c>
       <c r="B798" t="n">
-        <v>-162.8340432244119</v>
+        <v>-137.0482034802712</v>
       </c>
     </row>
     <row r="799">
@@ -6819,7 +6819,7 @@
         <v>2.785149438165812</v>
       </c>
       <c r="B799" t="n">
-        <v>-162.7946471004997</v>
+        <v>-137.3629362559658</v>
       </c>
     </row>
     <row r="800">
@@ -6827,7 +6827,7 @@
         <v>2.788643979493498</v>
       </c>
       <c r="B800" t="n">
-        <v>-163.0764959711434</v>
+        <v>-137.907640679908</v>
       </c>
     </row>
     <row r="801">
@@ -6835,7 +6835,7 @@
         <v>2.792138520821184</v>
       </c>
       <c r="B801" t="n">
-        <v>-164.6859735396144</v>
+        <v>-139.9057844943937</v>
       </c>
     </row>
     <row r="802">

--- a/RT_radpat_20deg.xlsx
+++ b/RT_radpat_20deg.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-152.407927130142</v>
+        <v>-157.8764169869693</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>0.003494541327686088</v>
       </c>
       <c r="B3" t="n">
-        <v>-152.5099883420108</v>
+        <v>-157.9325855438599</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>0.006989082655372176</v>
       </c>
       <c r="B4" t="n">
-        <v>-152.6089733719509</v>
+        <v>-158.001489565966</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>0.01048362398305826</v>
       </c>
       <c r="B5" t="n">
-        <v>-152.7026994230789</v>
+        <v>-158.0844598125252</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>0.01397816531074435</v>
       </c>
       <c r="B6" t="n">
-        <v>-152.7887012109647</v>
+        <v>-158.1829663889154</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>0.01747270663843044</v>
       </c>
       <c r="B7" t="n">
-        <v>-152.8642635067331</v>
+        <v>-158.2986334674239</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>0.02096724796611653</v>
       </c>
       <c r="B8" t="n">
-        <v>-152.9264702438687</v>
+        <v>-158.4332615822181</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>0.02446178929380262</v>
       </c>
       <c r="B9" t="n">
-        <v>-152.9722956836661</v>
+        <v>-158.5888695548713</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>0.02795633062148871</v>
       </c>
       <c r="B10" t="n">
-        <v>-152.9987300106786</v>
+        <v>-158.7677133713325</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>0.03145087194917479</v>
       </c>
       <c r="B11" t="n">
-        <v>-153.0029285686941</v>
+        <v>-158.9723623398896</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>0.03494541327686088</v>
       </c>
       <c r="B12" t="n">
-        <v>-152.9823871220945</v>
+        <v>-159.2057400649383</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>0.03843995460454697</v>
       </c>
       <c r="B13" t="n">
-        <v>-152.9351234443964</v>
+        <v>-159.4712161762453</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>0.04193449593223306</v>
       </c>
       <c r="B14" t="n">
-        <v>-152.8598388239291</v>
+        <v>-159.7727100926063</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>0.04542903725991915</v>
       </c>
       <c r="B15" t="n">
-        <v>-152.7560451416885</v>
+        <v>-160.114815494898</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>0.04892357858760524</v>
       </c>
       <c r="B16" t="n">
-        <v>-152.6241370318061</v>
+        <v>-160.5029974328759</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>0.05241811991529132</v>
       </c>
       <c r="B17" t="n">
-        <v>-152.465397438508</v>
+        <v>-160.9438268596299</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>0.05591266124297741</v>
       </c>
       <c r="B18" t="n">
-        <v>-152.2819192431062</v>
+        <v>-161.4453109050511</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>0.0594072025706635</v>
       </c>
       <c r="B19" t="n">
-        <v>-152.0764927192172</v>
+        <v>-162.0173610173459</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>0.06290174389834959</v>
       </c>
       <c r="B20" t="n">
-        <v>-151.8524407001711</v>
+        <v>-162.6724377928683</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.06639628522603568</v>
       </c>
       <c r="B21" t="n">
-        <v>-151.6134372639956</v>
+        <v>-163.4264573152157</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>0.06989082655372177</v>
       </c>
       <c r="B22" t="n">
-        <v>-151.3633404114485</v>
+        <v>-164.300119074881</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>0.07338536788140786</v>
       </c>
       <c r="B23" t="n">
-        <v>-151.1060365929745</v>
+        <v>-165.3206471424877</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>0.07687990920909395</v>
       </c>
       <c r="B24" t="n">
-        <v>-150.8453282856528</v>
+        <v>-166.5239726175356</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>0.08037445053678002</v>
       </c>
       <c r="B25" t="n">
-        <v>-150.5848393051877</v>
+        <v>-167.9560146247759</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>0.08386899186446611</v>
       </c>
       <c r="B26" t="n">
-        <v>-150.3279658368225</v>
+        <v>-169.6663527744783</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>0.0873635331921522</v>
       </c>
       <c r="B27" t="n">
-        <v>-150.077850318214</v>
+        <v>-171.6636201708447</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>0.09085807451983829</v>
       </c>
       <c r="B28" t="n">
-        <v>-149.8373813833029</v>
+        <v>-173.7125177430013</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>0.09435261584752438</v>
       </c>
       <c r="B29" t="n">
-        <v>-149.6092017524266</v>
+        <v>-174.836660380763</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>0.09784715717521048</v>
       </c>
       <c r="B30" t="n">
-        <v>-149.3957371373981</v>
+        <v>-173.9029051438202</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>0.1013416985028966</v>
       </c>
       <c r="B31" t="n">
-        <v>-149.1992287652508</v>
+        <v>-171.7008397112803</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>0.1048362398305826</v>
       </c>
       <c r="B32" t="n">
-        <v>-149.0217606477219</v>
+        <v>-169.4062310345628</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>0.1083307811582687</v>
       </c>
       <c r="B33" t="n">
-        <v>-148.8653078715484</v>
+        <v>-167.3825777651274</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>0.1118253224859548</v>
       </c>
       <c r="B34" t="n">
-        <v>-148.7317587205983</v>
+        <v>-165.6516840570244</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>0.1153198638136409</v>
       </c>
       <c r="B35" t="n">
-        <v>-148.6229649870796</v>
+        <v>-164.1682233732072</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>0.118814405141327</v>
       </c>
       <c r="B36" t="n">
-        <v>-148.5407653719167</v>
+        <v>-162.8856453955024</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>0.1223089464690131</v>
       </c>
       <c r="B37" t="n">
-        <v>-148.4870235526079</v>
+        <v>-161.767131467097</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>0.1258034877966992</v>
       </c>
       <c r="B38" t="n">
-        <v>-148.4636658344247</v>
+        <v>-160.7850897699482</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>0.1292980291243853</v>
       </c>
       <c r="B39" t="n">
-        <v>-148.4727059640631</v>
+        <v>-159.9190415703205</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>0.1327925704520714</v>
       </c>
       <c r="B40" t="n">
-        <v>-148.5162849372552</v>
+        <v>-159.1537228869073</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>0.1362871117797574</v>
       </c>
       <c r="B41" t="n">
-        <v>-148.5966978877686</v>
+        <v>-158.4777139645316</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>0.1397816531074435</v>
       </c>
       <c r="B42" t="n">
-        <v>-148.7164276266187</v>
+        <v>-157.8824307939995</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>0.1432761944351296</v>
       </c>
       <c r="B43" t="n">
-        <v>-148.8781707312321</v>
+        <v>-157.3614605451095</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>0.1467707357628157</v>
       </c>
       <c r="B44" t="n">
-        <v>-149.0848598964461</v>
+        <v>-156.9100887226716</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>0.1502652770905018</v>
       </c>
       <c r="B45" t="n">
-        <v>-149.3396587013115</v>
+        <v>-156.5249509699827</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>0.1537598184181879</v>
       </c>
       <c r="B46" t="n">
-        <v>-149.6459529060039</v>
+        <v>-156.2038313568418</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>0.157254359745874</v>
       </c>
       <c r="B47" t="n">
-        <v>-150.0072492336233</v>
+        <v>-155.9455009080722</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>0.16074890107356</v>
       </c>
       <c r="B48" t="n">
-        <v>-150.4269970824628</v>
+        <v>-155.7496237031105</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>0.1642434424012461</v>
       </c>
       <c r="B49" t="n">
-        <v>-150.9082096938543</v>
+        <v>-155.6167313807593</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>0.1677379837289322</v>
       </c>
       <c r="B50" t="n">
-        <v>-151.4527282309404</v>
+        <v>-155.5482276965403</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>0.1712325250566183</v>
       </c>
       <c r="B51" t="n">
-        <v>-152.0598750880367</v>
+        <v>-155.5464280560186</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.1747270663843044</v>
       </c>
       <c r="B52" t="n">
-        <v>-152.7240525525561</v>
+        <v>-155.6147019517951</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.1782216077119905</v>
       </c>
       <c r="B53" t="n">
-        <v>-153.4306611660218</v>
+        <v>-155.7576067292466</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.1817161490396766</v>
       </c>
       <c r="B54" t="n">
-        <v>-154.1498529777185</v>
+        <v>-155.9811905269192</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.1852106903673627</v>
       </c>
       <c r="B55" t="n">
-        <v>-154.8287723588906</v>
+        <v>-156.2933687825521</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.1887052316950488</v>
       </c>
       <c r="B56" t="n">
-        <v>-155.387077052736</v>
+        <v>-156.7045114714621</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.1921997730227349</v>
       </c>
       <c r="B57" t="n">
-        <v>-155.726819059639</v>
+        <v>-157.2283297615621</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.195694314350421</v>
       </c>
       <c r="B58" t="n">
-        <v>-155.7670771220712</v>
+        <v>-157.8832196792752</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.199188855678107</v>
       </c>
       <c r="B59" t="n">
-        <v>-155.4886408072395</v>
+        <v>-158.6943920018827</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.2026833970057931</v>
       </c>
       <c r="B60" t="n">
-        <v>-154.9470970434772</v>
+        <v>-159.69734806412</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.2061779383334792</v>
       </c>
       <c r="B61" t="n">
-        <v>-154.2394733921834</v>
+        <v>-160.9436673567808</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.2096724796611653</v>
       </c>
       <c r="B62" t="n">
-        <v>-153.4601961359389</v>
+        <v>-162.5106589290006</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.2131670209888514</v>
       </c>
       <c r="B63" t="n">
-        <v>-152.6787212198506</v>
+        <v>-164.5153428077307</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.2166615623165375</v>
       </c>
       <c r="B64" t="n">
-        <v>-151.9383264544325</v>
+        <v>-167.1136856841973</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.2201561036442236</v>
       </c>
       <c r="B65" t="n">
-        <v>-151.2631759160518</v>
+        <v>-170.274259272149</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.2236506449719096</v>
       </c>
       <c r="B66" t="n">
-        <v>-150.6656626885345</v>
+        <v>-172.1810846373848</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.2271451862995957</v>
       </c>
       <c r="B67" t="n">
-        <v>-150.1516185502805</v>
+        <v>-169.9993978490227</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.2306397276272818</v>
       </c>
       <c r="B68" t="n">
-        <v>-149.7235703805824</v>
+        <v>-166.6792203892836</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.2341342689549679</v>
       </c>
       <c r="B69" t="n">
-        <v>-149.3826312730366</v>
+        <v>-163.9396391770462</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.237628810282654</v>
       </c>
       <c r="B70" t="n">
-        <v>-149.1295987954272</v>
+        <v>-161.7958922933537</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.2411233516103401</v>
       </c>
       <c r="B71" t="n">
-        <v>-148.9655958122169</v>
+        <v>-160.0948967817974</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2446178929380262</v>
       </c>
       <c r="B72" t="n">
-        <v>-148.8924770586143</v>
+        <v>-158.7238223117937</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2481124342657123</v>
       </c>
       <c r="B73" t="n">
-        <v>-148.9131224372364</v>
+        <v>-157.609282392595</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2516069755933983</v>
       </c>
       <c r="B74" t="n">
-        <v>-149.0317170582352</v>
+        <v>-156.7035405364064</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2551015169210845</v>
       </c>
       <c r="B75" t="n">
-        <v>-149.2540035731694</v>
+        <v>-155.9750506874466</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2585960582487705</v>
       </c>
       <c r="B76" t="n">
-        <v>-149.5876276104522</v>
+        <v>-155.4028967777056</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2620905995764566</v>
       </c>
       <c r="B77" t="n">
-        <v>-150.0424829858632</v>
+        <v>-154.9735098929233</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2655851409041427</v>
       </c>
       <c r="B78" t="n">
-        <v>-150.6310528448906</v>
+        <v>-154.6787638480119</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2690796822318288</v>
       </c>
       <c r="B79" t="n">
-        <v>-151.3685086760553</v>
+        <v>-154.5149020256188</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2725742235595149</v>
       </c>
       <c r="B80" t="n">
-        <v>-152.2719058924225</v>
+        <v>-154.482034939998</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.2760687648872009</v>
       </c>
       <c r="B81" t="n">
-        <v>-153.3564056653548</v>
+        <v>-154.5841002693861</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.2795633062148871</v>
       </c>
       <c r="B82" t="n">
-        <v>-154.6229026464471</v>
+        <v>-154.8292406259587</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.2830578475425731</v>
       </c>
       <c r="B83" t="n">
-        <v>-156.0220819216633</v>
+        <v>-155.230730037348</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.2865523888702592</v>
       </c>
       <c r="B84" t="n">
-        <v>-157.3689935915345</v>
+        <v>-155.8086937856883</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.2900469301979453</v>
       </c>
       <c r="B85" t="n">
-        <v>-158.2388974334691</v>
+        <v>-156.5930723224663</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.2935414715256314</v>
       </c>
       <c r="B86" t="n">
-        <v>-158.1497050397849</v>
+        <v>-157.6288743968209</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.2970360128533175</v>
       </c>
       <c r="B87" t="n">
-        <v>-157.1385247509374</v>
+        <v>-158.9856356775793</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.3005305541810036</v>
       </c>
       <c r="B88" t="n">
-        <v>-155.7101352625998</v>
+        <v>-160.7745559444922</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3040250955086897</v>
       </c>
       <c r="B89" t="n">
-        <v>-154.2665483934606</v>
+        <v>-163.1753019031779</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3075196368363758</v>
       </c>
       <c r="B90" t="n">
-        <v>-152.9759205692954</v>
+        <v>-166.4138628394353</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3110141781640618</v>
       </c>
       <c r="B91" t="n">
-        <v>-151.8827594317429</v>
+        <v>-169.8810170959941</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3145087194917479</v>
       </c>
       <c r="B92" t="n">
-        <v>-150.9874066327642</v>
+        <v>-169.1626183914975</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.318003260819434</v>
       </c>
       <c r="B93" t="n">
-        <v>-150.278445099666</v>
+        <v>-165.3768353735255</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.3214978021471201</v>
       </c>
       <c r="B94" t="n">
-        <v>-149.7439146695361</v>
+        <v>-162.1961819076363</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.3249923434748062</v>
       </c>
       <c r="B95" t="n">
-        <v>-149.3747846317494</v>
+        <v>-159.8184635247741</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.3284868848024923</v>
       </c>
       <c r="B96" t="n">
-        <v>-149.1659614320868</v>
+        <v>-158.0161079464908</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.3319814261301784</v>
       </c>
       <c r="B97" t="n">
-        <v>-149.1165547742636</v>
+        <v>-156.6306235170394</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.3354759674578645</v>
       </c>
       <c r="B98" t="n">
-        <v>-149.2301982727613</v>
+        <v>-155.5661373126008</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.3389705087855506</v>
       </c>
       <c r="B99" t="n">
-        <v>-149.5156035957765</v>
+        <v>-154.7643287211561</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.3424650501132366</v>
       </c>
       <c r="B100" t="n">
-        <v>-149.9876468066132</v>
+        <v>-154.1896220747507</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.3459595914409228</v>
       </c>
       <c r="B101" t="n">
-        <v>-150.669159256364</v>
+        <v>-153.8212360749426</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>0.3494541327686088</v>
       </c>
       <c r="B102" t="n">
-        <v>-151.5937107580124</v>
+        <v>-153.6490666673121</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>0.3529486740962949</v>
       </c>
       <c r="B103" t="n">
-        <v>-152.809225339594</v>
+        <v>-153.6718005915978</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>0.356443215423981</v>
       </c>
       <c r="B104" t="n">
-        <v>-154.3798728420673</v>
+        <v>-153.8965758907968</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>0.3599377567516671</v>
       </c>
       <c r="B105" t="n">
-        <v>-156.3692700309212</v>
+        <v>-154.3400966340056</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>0.3634322980793532</v>
       </c>
       <c r="B106" t="n">
-        <v>-158.7131252318188</v>
+        <v>-155.031604421588</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>0.3669268394070392</v>
       </c>
       <c r="B107" t="n">
-        <v>-160.6559833154898</v>
+        <v>-156.0188537918895</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>0.3704213807347254</v>
       </c>
       <c r="B108" t="n">
-        <v>-160.4152341246082</v>
+        <v>-157.3796618334291</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>0.3739159220624114</v>
       </c>
       <c r="B109" t="n">
-        <v>-158.2422011099979</v>
+        <v>-159.2442494076379</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>0.3774104633900975</v>
       </c>
       <c r="B110" t="n">
-        <v>-155.8775305159547</v>
+        <v>-161.8326388432641</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>0.3809050047177836</v>
       </c>
       <c r="B111" t="n">
-        <v>-153.9091832694444</v>
+        <v>-165.4156148949088</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>0.3843995460454697</v>
       </c>
       <c r="B112" t="n">
-        <v>-152.3650213965772</v>
+        <v>-168.7693772656968</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>0.3878940873731558</v>
       </c>
       <c r="B113" t="n">
-        <v>-151.1823587106038</v>
+        <v>-166.5909363216336</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>0.3913886287008419</v>
       </c>
       <c r="B114" t="n">
-        <v>-150.3044792598895</v>
+        <v>-162.6027981896105</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>0.394883170028528</v>
       </c>
       <c r="B115" t="n">
-        <v>-149.6921128794944</v>
+        <v>-159.5934673037827</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>0.3983777113562141</v>
       </c>
       <c r="B116" t="n">
-        <v>-149.3212633245919</v>
+        <v>-157.409676065598</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>0.4018722526839001</v>
       </c>
       <c r="B117" t="n">
-        <v>-149.1803751517454</v>
+        <v>-155.8012910144587</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>0.4053667940115862</v>
       </c>
       <c r="B118" t="n">
-        <v>-149.2688162354032</v>
+        <v>-154.6186939048344</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>0.4088613353392723</v>
       </c>
       <c r="B119" t="n">
-        <v>-149.5970016472774</v>
+        <v>-153.7759300828168</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>0.4123558766669584</v>
       </c>
       <c r="B120" t="n">
-        <v>-150.1884890151749</v>
+        <v>-153.2239108085412</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>0.4158504179946445</v>
       </c>
       <c r="B121" t="n">
-        <v>-151.0849190195588</v>
+        <v>-152.9367365236954</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.4193449593223306</v>
       </c>
       <c r="B122" t="n">
-        <v>-152.3559243638845</v>
+        <v>-152.9052643210271</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>0.4228395006500167</v>
       </c>
       <c r="B123" t="n">
-        <v>-154.1180654759237</v>
+        <v>-153.1348927490236</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>0.4263340419777027</v>
       </c>
       <c r="B124" t="n">
-        <v>-156.5654747714412</v>
+        <v>-153.6465967322587</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>0.4298285833053889</v>
       </c>
       <c r="B125" t="n">
-        <v>-159.940381324986</v>
+        <v>-154.4816964992424</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>0.4333231246330749</v>
       </c>
       <c r="B126" t="n">
-        <v>-163.4016688256382</v>
+        <v>-155.7126620976251</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>0.436817665960761</v>
       </c>
       <c r="B127" t="n">
-        <v>-162.0902622362385</v>
+        <v>-157.465426745785</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>0.4403122072884471</v>
       </c>
       <c r="B128" t="n">
-        <v>-158.2594810675426</v>
+        <v>-159.9615602741556</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>0.4438067486161332</v>
       </c>
       <c r="B129" t="n">
-        <v>-155.2483099942533</v>
+        <v>-163.5261437957793</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>0.4473012899438193</v>
       </c>
       <c r="B130" t="n">
-        <v>-153.0803639791987</v>
+        <v>-167.3254999913738</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>0.4507958312715054</v>
       </c>
       <c r="B131" t="n">
-        <v>-151.5176747043707</v>
+        <v>-165.4930803151208</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>0.4542903725991915</v>
       </c>
       <c r="B132" t="n">
-        <v>-150.4089000083506</v>
+        <v>-161.3130438864758</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>0.4577849139268775</v>
       </c>
       <c r="B133" t="n">
-        <v>-149.6673941318285</v>
+        <v>-158.2123774093897</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>0.4612794552545637</v>
       </c>
       <c r="B134" t="n">
-        <v>-149.2457426163117</v>
+        <v>-156.0202915831655</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>0.4647739965822497</v>
       </c>
       <c r="B135" t="n">
-        <v>-149.1223853068594</v>
+        <v>-154.4571247957746</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>0.4682685379099358</v>
       </c>
       <c r="B136" t="n">
-        <v>-149.2960614801196</v>
+        <v>-153.3623091352973</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>0.4717630792376219</v>
       </c>
       <c r="B137" t="n">
-        <v>-149.7855543640825</v>
+        <v>-152.6477068551391</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>0.475257620565308</v>
       </c>
       <c r="B138" t="n">
-        <v>-150.6350079116127</v>
+        <v>-152.2671377255428</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>0.4787521618929941</v>
       </c>
       <c r="B139" t="n">
-        <v>-151.9282185168657</v>
+        <v>-152.2020129864507</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>0.4822467032206802</v>
       </c>
       <c r="B140" t="n">
-        <v>-153.8229902798542</v>
+        <v>-152.4559762681063</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>0.4857412445483663</v>
       </c>
       <c r="B141" t="n">
-        <v>-156.6387685291508</v>
+        <v>-153.0556858472775</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>0.4892357858760524</v>
       </c>
       <c r="B142" t="n">
-        <v>-161.0746823756248</v>
+        <v>-154.0581887148716</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>0.4927303272037384</v>
       </c>
       <c r="B143" t="n">
-        <v>-166.8443939772828</v>
+        <v>-155.5689673905024</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>0.4962248685314245</v>
       </c>
       <c r="B144" t="n">
-        <v>-162.5717627562962</v>
+        <v>-157.780186783534</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>0.4997194098591106</v>
       </c>
       <c r="B145" t="n">
-        <v>-157.4742928258722</v>
+        <v>-161.022357126441</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>0.5032139511867967</v>
       </c>
       <c r="B146" t="n">
-        <v>-154.2666806945416</v>
+        <v>-165.2659876935291</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>0.5067084925144828</v>
       </c>
       <c r="B147" t="n">
-        <v>-152.1253851444642</v>
+        <v>-165.4084075043728</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>0.5102030338421689</v>
       </c>
       <c r="B148" t="n">
-        <v>-150.6648598739279</v>
+        <v>-161.0463854200577</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>0.5136975751698549</v>
       </c>
       <c r="B149" t="n">
-        <v>-149.7035022477856</v>
+        <v>-157.6121092189364</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>0.517192116497541</v>
       </c>
       <c r="B150" t="n">
-        <v>-149.1510798107104</v>
+        <v>-155.2396280094852</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>0.5206866578252272</v>
       </c>
       <c r="B151" t="n">
-        <v>-148.9664587470092</v>
+        <v>-153.5963239846014</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>0.5241811991529133</v>
       </c>
       <c r="B152" t="n">
-        <v>-149.1418254851071</v>
+        <v>-152.4892688182861</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>0.5276757404805993</v>
       </c>
       <c r="B153" t="n">
-        <v>-149.6999003290845</v>
+        <v>-151.8166234934712</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>0.5311702818082854</v>
       </c>
       <c r="B154" t="n">
-        <v>-150.7021240497989</v>
+        <v>-151.5289135940269</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>0.5346648231359715</v>
       </c>
       <c r="B155" t="n">
-        <v>-152.2752207716251</v>
+        <v>-151.6117698992613</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>0.5381593644636575</v>
       </c>
       <c r="B156" t="n">
-        <v>-154.6862411171039</v>
+        <v>-152.0811056096228</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>0.5416539057913436</v>
       </c>
       <c r="B157" t="n">
-        <v>-158.5972653225468</v>
+        <v>-152.9879412648624</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>0.5451484471190298</v>
       </c>
       <c r="B158" t="n">
-        <v>-166.2487699327475</v>
+        <v>-154.4358313706943</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>0.5486429884467159</v>
       </c>
       <c r="B159" t="n">
-        <v>-167.1393193517525</v>
+        <v>-156.6209233874955</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>0.5521375297744019</v>
       </c>
       <c r="B160" t="n">
-        <v>-158.9072875711378</v>
+        <v>-159.8913844311817</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>0.555632071102088</v>
       </c>
       <c r="B161" t="n">
-        <v>-154.7516630536198</v>
+        <v>-164.2325428348565</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>0.5591266124297741</v>
       </c>
       <c r="B162" t="n">
-        <v>-152.1965663007127</v>
+        <v>-164.1907143035741</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>0.5626211537574602</v>
       </c>
       <c r="B163" t="n">
-        <v>-150.5272026748931</v>
+        <v>-159.7198067720876</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>0.5661156950851463</v>
       </c>
       <c r="B164" t="n">
-        <v>-149.4652208174919</v>
+        <v>-156.317055788603</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>0.5696102364128324</v>
       </c>
       <c r="B165" t="n">
-        <v>-148.8850799841332</v>
+        <v>-154.0125271055269</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>0.5731047777405185</v>
       </c>
       <c r="B166" t="n">
-        <v>-148.7336063431287</v>
+        <v>-152.4622532281715</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>0.5765993190682046</v>
       </c>
       <c r="B167" t="n">
-        <v>-149.0040651662647</v>
+        <v>-151.4756634506076</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>0.5800938603958906</v>
       </c>
       <c r="B168" t="n">
-        <v>-149.732976667142</v>
+        <v>-150.9571434411902</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>0.5835884017235767</v>
       </c>
       <c r="B169" t="n">
-        <v>-151.0165724125544</v>
+        <v>-150.8671994997734</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>0.5870829430512629</v>
       </c>
       <c r="B170" t="n">
-        <v>-153.0660164416475</v>
+        <v>-151.2075271860695</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>0.5905774843789489</v>
       </c>
       <c r="B171" t="n">
-        <v>-156.3943175625304</v>
+        <v>-152.0213235936202</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>0.594072025706635</v>
       </c>
       <c r="B172" t="n">
-        <v>-162.7706328747346</v>
+        <v>-153.4092086028395</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>0.5975665670343211</v>
       </c>
       <c r="B173" t="n">
-        <v>-176.3476309028378</v>
+        <v>-155.5704282128798</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>0.6010611083620072</v>
       </c>
       <c r="B174" t="n">
-        <v>-160.3724881556433</v>
+        <v>-158.8684381377478</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>0.6045556496896932</v>
       </c>
       <c r="B175" t="n">
-        <v>-155.1300961127924</v>
+        <v>-163.2859256445019</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>0.6080501910173793</v>
       </c>
       <c r="B176" t="n">
-        <v>-152.1691364759787</v>
+        <v>-163.0213134017031</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>0.6115447323450655</v>
       </c>
       <c r="B177" t="n">
-        <v>-150.3066659080529</v>
+        <v>-158.4726092663946</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>0.6150392736727516</v>
       </c>
       <c r="B178" t="n">
-        <v>-149.1551291174333</v>
+        <v>-155.1139272300396</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>0.6185338150004376</v>
       </c>
       <c r="B179" t="n">
-        <v>-148.5531143973647</v>
+        <v>-152.8816561610263</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>0.6220283563281237</v>
       </c>
       <c r="B180" t="n">
-        <v>-148.4363731088503</v>
+        <v>-151.4260155199426</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>0.6255228976558098</v>
       </c>
       <c r="B181" t="n">
-        <v>-148.8007219099554</v>
+        <v>-150.561020486897</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>0.6290174389834958</v>
       </c>
       <c r="B182" t="n">
-        <v>-149.6994626119016</v>
+        <v>-150.199118670455</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>0.6325119803111819</v>
       </c>
       <c r="B183" t="n">
-        <v>-151.2720154291255</v>
+        <v>-150.3135139968404</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>0.6360065216388681</v>
       </c>
       <c r="B184" t="n">
-        <v>-153.8455204172566</v>
+        <v>-150.9271655105393</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>0.6395010629665542</v>
       </c>
       <c r="B185" t="n">
-        <v>-158.350448865885</v>
+        <v>-152.1216198182933</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>0.6429956042942402</v>
       </c>
       <c r="B186" t="n">
-        <v>-170.0906784464973</v>
+        <v>-154.0717398208753</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>0.6464901456219263</v>
       </c>
       <c r="B187" t="n">
-        <v>-164.1386688760193</v>
+        <v>-157.116000963496</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>0.6499846869496124</v>
       </c>
       <c r="B188" t="n">
-        <v>-156.3604765643361</v>
+        <v>-161.5216167386727</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>0.6534792282772985</v>
       </c>
       <c r="B189" t="n">
-        <v>-152.6078050797592</v>
+        <v>-162.7017632830255</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>0.6569737696049845</v>
       </c>
       <c r="B190" t="n">
-        <v>-150.3558449982602</v>
+        <v>-158.1413003558652</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>0.6604683109326707</v>
       </c>
       <c r="B191" t="n">
-        <v>-148.9793410996031</v>
+        <v>-154.5417878193581</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>0.6639628522603568</v>
       </c>
       <c r="B192" t="n">
-        <v>-148.242349333671</v>
+        <v>-152.1839347209997</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>0.6674573935880429</v>
       </c>
       <c r="B193" t="n">
-        <v>-148.0517346382232</v>
+        <v>-150.6790870544237</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>0.6709519349157289</v>
       </c>
       <c r="B194" t="n">
-        <v>-148.3931933317443</v>
+        <v>-149.8185065109788</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>0.674446476243415</v>
       </c>
       <c r="B195" t="n">
-        <v>-149.3223628943249</v>
+        <v>-149.5076180854522</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>0.6779410175711011</v>
       </c>
       <c r="B196" t="n">
-        <v>-150.9977914965792</v>
+        <v>-149.7228905151898</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>0.6814355588987872</v>
       </c>
       <c r="B197" t="n">
-        <v>-153.8088465579203</v>
+        <v>-150.501319397897</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>0.6849301002264733</v>
       </c>
       <c r="B198" t="n">
-        <v>-158.9396378664295</v>
+        <v>-151.9563111818445</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>0.6884246415541594</v>
       </c>
       <c r="B199" t="n">
-        <v>-172.7310989966293</v>
+        <v>-154.3297089733524</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>0.6919191828818455</v>
       </c>
       <c r="B200" t="n">
-        <v>-160.6669168420252</v>
+        <v>-158.050308632338</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>0.6954137242095315</v>
       </c>
       <c r="B201" t="n">
-        <v>-154.48795368466</v>
+        <v>-162.2467373785966</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>0.6989082655372176</v>
       </c>
       <c r="B202" t="n">
-        <v>-151.2280108270318</v>
+        <v>-159.601077239088</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>0.7024028068649038</v>
       </c>
       <c r="B203" t="n">
-        <v>-149.2703211700114</v>
+        <v>-155.211943736621</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>0.7058973481925899</v>
       </c>
       <c r="B204" t="n">
-        <v>-148.1369043474336</v>
+        <v>-152.2843682625454</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>0.7093918895202759</v>
       </c>
       <c r="B205" t="n">
-        <v>-147.6438790902663</v>
+        <v>-150.4209191279714</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>0.712886430847962</v>
       </c>
       <c r="B206" t="n">
-        <v>-147.731379420754</v>
+        <v>-149.3202875551997</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>0.7163809721756481</v>
       </c>
       <c r="B207" t="n">
-        <v>-148.4227275481981</v>
+        <v>-148.8408421703711</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>0.7198755135033341</v>
       </c>
       <c r="B208" t="n">
-        <v>-149.8380899536438</v>
+        <v>-148.9354008777254</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>0.7233700548310202</v>
       </c>
       <c r="B209" t="n">
-        <v>-152.283995263456</v>
+        <v>-149.6287926632377</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>0.7268645961587064</v>
       </c>
       <c r="B210" t="n">
-        <v>-156.6139633267039</v>
+        <v>-151.0290892842278</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>0.7303591374863925</v>
       </c>
       <c r="B211" t="n">
-        <v>-166.1071263019233</v>
+        <v>-153.3795062824462</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>0.7338536788140785</v>
       </c>
       <c r="B212" t="n">
-        <v>-161.5128944397407</v>
+        <v>-157.1222679897977</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>0.7373482201417646</v>
       </c>
       <c r="B213" t="n">
-        <v>-154.5213993422246</v>
+        <v>-161.3441281869302</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>0.7408427614694507</v>
       </c>
       <c r="B214" t="n">
-        <v>-150.9504868508917</v>
+        <v>-158.5337855071801</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>0.7443373027971368</v>
       </c>
       <c r="B215" t="n">
-        <v>-148.8466968245921</v>
+        <v>-154.1399314870007</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>0.7478318441248228</v>
       </c>
       <c r="B216" t="n">
-        <v>-147.6459694765327</v>
+        <v>-151.2560705236244</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>0.751326385452509</v>
       </c>
       <c r="B217" t="n">
-        <v>-147.137751064039</v>
+        <v>-149.4580102612003</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>0.7548209267801951</v>
       </c>
       <c r="B218" t="n">
-        <v>-147.2558654467327</v>
+        <v>-148.4465495634632</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>0.7583154681078812</v>
       </c>
       <c r="B219" t="n">
-        <v>-148.0302958546734</v>
+        <v>-148.087706693371</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>0.7618100094355672</v>
       </c>
       <c r="B220" t="n">
-        <v>-149.6061416553328</v>
+        <v>-148.3477818817178</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>0.7653045507632533</v>
       </c>
       <c r="B221" t="n">
-        <v>-152.361081511347</v>
+        <v>-149.2763872439054</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>0.7687990920909394</v>
       </c>
       <c r="B222" t="n">
-        <v>-157.3835733439053</v>
+        <v>-151.0308941717576</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>0.7722936334186254</v>
       </c>
       <c r="B223" t="n">
-        <v>-166.1212739444632</v>
+        <v>-153.9516141425365</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>0.7757881747463116</v>
       </c>
       <c r="B224" t="n">
-        <v>-157.8660543573758</v>
+        <v>-158.4201935757065</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>0.7792827160739977</v>
       </c>
       <c r="B225" t="n">
-        <v>-152.4295368671215</v>
+        <v>-159.9804825548303</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>0.7827772574016838</v>
       </c>
       <c r="B226" t="n">
-        <v>-149.4331685991356</v>
+        <v>-155.2522162423269</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>0.7862717987293698</v>
       </c>
       <c r="B227" t="n">
-        <v>-147.6803468462571</v>
+        <v>-151.6067282602279</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>0.7897663400570559</v>
       </c>
       <c r="B228" t="n">
-        <v>-146.7687226585184</v>
+        <v>-149.3242244372364</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>0.793260881384742</v>
       </c>
       <c r="B229" t="n">
-        <v>-146.5506538534853</v>
+        <v>-147.9847551282598</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>0.7967554227124282</v>
       </c>
       <c r="B230" t="n">
-        <v>-147.0050609172602</v>
+        <v>-147.3819090735149</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>0.8002499640401142</v>
       </c>
       <c r="B231" t="n">
-        <v>-148.2213186189206</v>
+        <v>-147.4435833646426</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>0.8037445053678003</v>
       </c>
       <c r="B232" t="n">
-        <v>-150.4649164481718</v>
+        <v>-148.1941518028844</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>0.8072390466954864</v>
       </c>
       <c r="B233" t="n">
-        <v>-154.444992969012</v>
+        <v>-149.766900071384</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>0.8107335880231724</v>
       </c>
       <c r="B234" t="n">
-        <v>-161.9195131782872</v>
+        <v>-152.4723666693059</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>0.8142281293508585</v>
       </c>
       <c r="B235" t="n">
-        <v>-159.2345845530521</v>
+        <v>-156.7763158225852</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>0.8177226706785446</v>
       </c>
       <c r="B236" t="n">
-        <v>-152.8058056081385</v>
+        <v>-159.4210283906202</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>0.8212172120062308</v>
       </c>
       <c r="B237" t="n">
-        <v>-149.3270514802721</v>
+        <v>-154.8602853231559</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>0.8247117533339168</v>
       </c>
       <c r="B238" t="n">
-        <v>-147.309404081703</v>
+        <v>-150.98841864018</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>0.8282062946616029</v>
       </c>
       <c r="B239" t="n">
-        <v>-146.2322142164867</v>
+        <v>-148.5819471738255</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>0.831700835989289</v>
       </c>
       <c r="B240" t="n">
-        <v>-145.9042700784402</v>
+        <v>-147.1860018627807</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>0.8351953773169751</v>
       </c>
       <c r="B241" t="n">
-        <v>-146.2857803419386</v>
+        <v>-146.5727880160848</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>0.8386899186446611</v>
       </c>
       <c r="B242" t="n">
-        <v>-147.457597744748</v>
+        <v>-146.6650048604519</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>0.8421844599723473</v>
       </c>
       <c r="B243" t="n">
-        <v>-149.6809257015829</v>
+        <v>-147.4937542043621</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>0.8456790013000334</v>
       </c>
       <c r="B244" t="n">
-        <v>-153.6465606019382</v>
+        <v>-149.215316588481</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>0.8491735426277195</v>
       </c>
       <c r="B245" t="n">
-        <v>-160.6382973528678</v>
+        <v>-152.191449853884</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>0.8526680839554055</v>
       </c>
       <c r="B246" t="n">
-        <v>-157.6099013034651</v>
+        <v>-156.8021154165107</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>0.8561626252830916</v>
       </c>
       <c r="B247" t="n">
-        <v>-151.6265347372187</v>
+        <v>-157.7926329579793</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>0.8596571666107777</v>
       </c>
       <c r="B248" t="n">
-        <v>-148.298543051082</v>
+        <v>-152.8825264927983</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>0.8631517079384637</v>
       </c>
       <c r="B249" t="n">
-        <v>-146.3835854261542</v>
+        <v>-149.3556954530598</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>0.8666462492661499</v>
       </c>
       <c r="B250" t="n">
-        <v>-145.4099702365345</v>
+        <v>-147.2168706649011</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>0.870140790593836</v>
       </c>
       <c r="B251" t="n">
-        <v>-145.2079196784808</v>
+        <v>-146.0496252694685</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>0.8736353319215221</v>
       </c>
       <c r="B252" t="n">
-        <v>-145.7593427040026</v>
+        <v>-145.668137428247</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>0.8771298732492081</v>
       </c>
       <c r="B253" t="n">
-        <v>-147.1828903732499</v>
+        <v>-146.030600517992</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>0.8806244145768942</v>
       </c>
       <c r="B254" t="n">
-        <v>-149.8267048583326</v>
+        <v>-147.2153623466829</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>0.8841189559045803</v>
       </c>
       <c r="B255" t="n">
-        <v>-154.5862992617929</v>
+        <v>-149.4654133715191</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>0.8876134972322665</v>
       </c>
       <c r="B256" t="n">
-        <v>-160.1983134347621</v>
+        <v>-153.2748995552847</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>0.8911080385599525</v>
       </c>
       <c r="B257" t="n">
-        <v>-153.9582582292299</v>
+        <v>-157.6233510222164</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>0.8946025798876386</v>
       </c>
       <c r="B258" t="n">
-        <v>-149.233871051284</v>
+        <v>-154.2497466064364</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>0.8980971212153247</v>
       </c>
       <c r="B259" t="n">
-        <v>-146.5394793711584</v>
+        <v>-149.8219553281201</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>0.9015916625430107</v>
       </c>
       <c r="B260" t="n">
-        <v>-145.0403385310695</v>
+        <v>-147.074282888889</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>0.9050862038706968</v>
       </c>
       <c r="B261" t="n">
-        <v>-144.4190954451035</v>
+        <v>-145.4966043618562</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>0.9085807451983829</v>
       </c>
       <c r="B262" t="n">
-        <v>-144.580006119871</v>
+        <v>-144.8004767506175</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>0.9120752865260691</v>
       </c>
       <c r="B263" t="n">
-        <v>-145.5713141061455</v>
+        <v>-144.8878798205509</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>0.9155698278537551</v>
       </c>
       <c r="B264" t="n">
-        <v>-147.6202521815739</v>
+        <v>-145.7946706301693</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>0.9190643691814412</v>
       </c>
       <c r="B265" t="n">
-        <v>-151.3244311005033</v>
+        <v>-147.7118347972813</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>0.9225589105091273</v>
       </c>
       <c r="B266" t="n">
-        <v>-157.4924863345144</v>
+        <v>-151.0826395192687</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>0.9260534518368134</v>
       </c>
       <c r="B267" t="n">
-        <v>-155.2934251509306</v>
+        <v>-155.9231549046188</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>0.9295479931644994</v>
       </c>
       <c r="B268" t="n">
-        <v>-149.6105566855703</v>
+        <v>-154.4359488148095</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>0.9330425344921855</v>
       </c>
       <c r="B269" t="n">
-        <v>-146.3382332241665</v>
+        <v>-149.5711028276806</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>0.9365370758198717</v>
       </c>
       <c r="B270" t="n">
-        <v>-144.483702666112</v>
+        <v>-146.4719112103095</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>0.9400316171475577</v>
       </c>
       <c r="B271" t="n">
-        <v>-143.6064906469036</v>
+        <v>-144.6789294640905</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>0.9435261584752438</v>
       </c>
       <c r="B272" t="n">
-        <v>-143.5555315630441</v>
+        <v>-143.8392635586851</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>0.9470206998029299</v>
       </c>
       <c r="B273" t="n">
-        <v>-144.3432300903768</v>
+        <v>-143.824325120367</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>0.950515241130616</v>
       </c>
       <c r="B274" t="n">
-        <v>-146.1534410066377</v>
+        <v>-144.6554160343586</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>0.954009782458302</v>
       </c>
       <c r="B275" t="n">
-        <v>-149.4889185349549</v>
+        <v>-146.5170130349062</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>0.9575043237859882</v>
       </c>
       <c r="B276" t="n">
-        <v>-155.2163887575139</v>
+        <v>-149.8573839514943</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>0.9609988651136743</v>
       </c>
       <c r="B277" t="n">
-        <v>-154.9397653786721</v>
+        <v>-154.7727652140702</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>0.9644934064413604</v>
       </c>
       <c r="B278" t="n">
-        <v>-149.0439664684227</v>
+        <v>-153.339615678826</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>0.9679879477690464</v>
       </c>
       <c r="B279" t="n">
-        <v>-145.5432314232019</v>
+        <v>-148.3923127937496</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>0.9714824890967325</v>
       </c>
       <c r="B280" t="n">
-        <v>-143.5580258798214</v>
+        <v>-145.2728449449257</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>0.9749770304244186</v>
       </c>
       <c r="B281" t="n">
-        <v>-142.6030597722763</v>
+        <v>-143.491757570632</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>0.9784715717521048</v>
       </c>
       <c r="B282" t="n">
-        <v>-142.508935025528</v>
+        <v>-142.6897885658694</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>0.9819661130797908</v>
       </c>
       <c r="B283" t="n">
-        <v>-143.2830690391474</v>
+        <v>-142.7433602551695</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>0.9854606544074769</v>
       </c>
       <c r="B284" t="n">
-        <v>-145.11411186757</v>
+        <v>-143.689744812181</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>0.988955195735163</v>
       </c>
       <c r="B285" t="n">
-        <v>-148.5202970681917</v>
+        <v>-145.7514373919907</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>0.992449737062849</v>
       </c>
       <c r="B286" t="n">
-        <v>-154.2150197132999</v>
+        <v>-149.4502636332284</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>0.9959442783905351</v>
       </c>
       <c r="B287" t="n">
-        <v>-153.0885071449756</v>
+        <v>-154.2323191890729</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>0.9994388197182212</v>
       </c>
       <c r="B288" t="n">
-        <v>-147.4317612851682</v>
+        <v>-151.0035766524798</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1.002933361045907</v>
       </c>
       <c r="B289" t="n">
-        <v>-144.0839372206825</v>
+        <v>-146.323917186246</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1.006427902373593</v>
       </c>
       <c r="B290" t="n">
-        <v>-142.2043770666518</v>
+        <v>-143.5005115206739</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1.009922443701279</v>
       </c>
       <c r="B291" t="n">
-        <v>-141.3511254312474</v>
+        <v>-141.9469951431223</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1.013416985028966</v>
       </c>
       <c r="B292" t="n">
-        <v>-141.3792408049126</v>
+        <v>-141.3580014512887</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1.016911526356652</v>
       </c>
       <c r="B293" t="n">
-        <v>-142.3242683805117</v>
+        <v>-141.6522405589991</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1.020406067684338</v>
       </c>
       <c r="B294" t="n">
-        <v>-144.4288376851675</v>
+        <v>-142.9194933216605</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1.023900609012024</v>
       </c>
       <c r="B295" t="n">
-        <v>-148.3253171878623</v>
+        <v>-145.4816709322629</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1.02739515033971</v>
       </c>
       <c r="B296" t="n">
-        <v>-153.8691351775261</v>
+        <v>-149.9693091372999</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1.030889691667396</v>
       </c>
       <c r="B297" t="n">
-        <v>-149.9450507584185</v>
+        <v>-152.8295100242582</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1.034384232995082</v>
       </c>
       <c r="B298" t="n">
-        <v>-144.9338309133953</v>
+        <v>-147.5581718849571</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1.037878774322768</v>
       </c>
       <c r="B299" t="n">
-        <v>-142.034630956234</v>
+        <v>-143.5875073786692</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1.041373315650454</v>
       </c>
       <c r="B300" t="n">
-        <v>-140.4594561072639</v>
+        <v>-141.2889220557279</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1.04486785697814</v>
       </c>
       <c r="B301" t="n">
-        <v>-139.8710099648022</v>
+        <v>-140.135241630658</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1.048362398305827</v>
       </c>
       <c r="B302" t="n">
-        <v>-140.1853374447964</v>
+        <v>-139.9203923437443</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1.051856939633512</v>
       </c>
       <c r="B303" t="n">
-        <v>-141.5047227641129</v>
+        <v>-140.6401322763629</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1.055351480961199</v>
       </c>
       <c r="B304" t="n">
-        <v>-144.198686597328</v>
+        <v>-142.490126493283</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1.058846022288885</v>
       </c>
       <c r="B305" t="n">
-        <v>-149.0861878818226</v>
+        <v>-145.9958278027019</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1.062340563616571</v>
       </c>
       <c r="B306" t="n">
-        <v>-151.8384021137323</v>
+        <v>-151.2030380526655</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1.065835104944257</v>
       </c>
       <c r="B307" t="n">
-        <v>-145.8351350668036</v>
+        <v>-148.5435605109798</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1.069329646271943</v>
       </c>
       <c r="B308" t="n">
-        <v>-141.8134569121238</v>
+        <v>-143.4713928157901</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1.072824187599629</v>
       </c>
       <c r="B309" t="n">
-        <v>-139.5293493824914</v>
+        <v>-140.4487488259988</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1.076318728927315</v>
       </c>
       <c r="B310" t="n">
-        <v>-138.400611559092</v>
+        <v>-138.7971484850855</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1.079813270255001</v>
       </c>
       <c r="B311" t="n">
-        <v>-138.2213503751598</v>
+        <v>-138.1733516717865</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1.083307811582687</v>
       </c>
       <c r="B312" t="n">
-        <v>-138.9998160660176</v>
+        <v>-138.4946629004345</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1.086802352910373</v>
       </c>
       <c r="B313" t="n">
-        <v>-140.9654026425566</v>
+        <v>-139.8791768516026</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1.09029689423806</v>
       </c>
       <c r="B314" t="n">
-        <v>-144.7524919057924</v>
+        <v>-142.7377497662297</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1.093791435565746</v>
       </c>
       <c r="B315" t="n">
-        <v>-150.3596403250936</v>
+        <v>-147.81061265139</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1.097285976893432</v>
       </c>
       <c r="B316" t="n">
-        <v>-146.3850249521764</v>
+        <v>-148.6674034647504</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1.100780518221118</v>
       </c>
       <c r="B317" t="n">
-        <v>-141.2345662648964</v>
+        <v>-142.8296545772952</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1.104275059548804</v>
       </c>
       <c r="B318" t="n">
-        <v>-138.2647215815829</v>
+        <v>-139.1474119692777</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1.10776960087649</v>
       </c>
       <c r="B319" t="n">
-        <v>-136.656987750765</v>
+        <v>-137.0732096151358</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1.111264142204176</v>
       </c>
       <c r="B320" t="n">
-        <v>-136.074682627102</v>
+        <v>-136.1244663684134</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1.114758683531862</v>
       </c>
       <c r="B321" t="n">
-        <v>-136.4514720242322</v>
+        <v>-136.1519448041034</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1.118253224859548</v>
       </c>
       <c r="B322" t="n">
-        <v>-137.9365423227159</v>
+        <v>-137.2256559759006</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1.121747766187234</v>
       </c>
       <c r="B323" t="n">
-        <v>-141.0267976446245</v>
+        <v>-139.6960966603977</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1.12524230751492</v>
       </c>
       <c r="B324" t="n">
-        <v>-146.6342397693163</v>
+        <v>-144.4102292431957</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1.128736848842606</v>
       </c>
       <c r="B325" t="n">
-        <v>-146.0056539042602</v>
+        <v>-147.5032576946479</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1.132231390170293</v>
       </c>
       <c r="B326" t="n">
-        <v>-139.889757472523</v>
+        <v>-141.2502900330834</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1.135725931497979</v>
       </c>
       <c r="B327" t="n">
-        <v>-136.283908869989</v>
+        <v>-137.0191186719352</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1.139220472825665</v>
       </c>
       <c r="B328" t="n">
-        <v>-134.2525248239772</v>
+        <v>-134.6050862407242</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1.142715014153351</v>
       </c>
       <c r="B329" t="n">
-        <v>-133.3273908856303</v>
+        <v>-133.3988657672085</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1.146209555481037</v>
       </c>
       <c r="B330" t="n">
-        <v>-133.3821323041497</v>
+        <v>-133.2019660516158</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1.149704096808723</v>
       </c>
       <c r="B331" t="n">
-        <v>-134.5205463548506</v>
+        <v>-134.0611131839521</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1.153198638136409</v>
       </c>
       <c r="B332" t="n">
-        <v>-137.1782392075444</v>
+        <v>-136.3161487234428</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1.156693179464095</v>
       </c>
       <c r="B333" t="n">
-        <v>-142.4465415460653</v>
+        <v>-140.9026357372975</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1.160187720791781</v>
       </c>
       <c r="B334" t="n">
-        <v>-143.9782698709184</v>
+        <v>-144.8795991940741</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1.163682262119467</v>
       </c>
       <c r="B335" t="n">
-        <v>-137.0405330395459</v>
+        <v>-138.010505229835</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1.167176803447153</v>
       </c>
       <c r="B336" t="n">
-        <v>-132.8565707869944</v>
+        <v>-133.3564795315592</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1.17067134477484</v>
       </c>
       <c r="B337" t="n">
-        <v>-130.4148711601869</v>
+        <v>-130.648442795215</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1.174165886102526</v>
       </c>
       <c r="B338" t="n">
-        <v>-129.1315267076989</v>
+        <v>-129.18207262284</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1.177660427430212</v>
       </c>
       <c r="B339" t="n">
-        <v>-128.8380602038579</v>
+        <v>-128.735693133934</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1.181154968757898</v>
       </c>
       <c r="B340" t="n">
-        <v>-129.6194125665764</v>
+        <v>-129.3584250014842</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1.184649510085584</v>
       </c>
       <c r="B341" t="n">
-        <v>-131.9099502192359</v>
+        <v>-131.4303773998182</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1.18814405141327</v>
       </c>
       <c r="B342" t="n">
-        <v>-136.9066112792535</v>
+        <v>-136.0546241009925</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1.191638592740956</v>
       </c>
       <c r="B343" t="n">
-        <v>-138.1641908675508</v>
+        <v>-138.7306137869176</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1.195133134068642</v>
       </c>
       <c r="B344" t="n">
-        <v>-130.3337061811964</v>
+        <v>-130.7769945862295</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1.198627675396328</v>
       </c>
       <c r="B345" t="n">
-        <v>-125.4020893382417</v>
+        <v>-125.6124518827562</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1.202122216724014</v>
       </c>
       <c r="B346" t="n">
-        <v>-122.0986147550527</v>
+        <v>-122.1891992453323</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1.205616758051701</v>
       </c>
       <c r="B347" t="n">
-        <v>-119.739681098489</v>
+        <v>-119.7590913589783</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1.209111299379386</v>
       </c>
       <c r="B348" t="n">
-        <v>-118.0304032620092</v>
+        <v>-118.004045712581</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1.212605840707073</v>
       </c>
       <c r="B349" t="n">
-        <v>-116.8235635829128</v>
+        <v>-116.7673113190493</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1.216100382034759</v>
       </c>
       <c r="B350" t="n">
-        <v>-116.039465472199</v>
+        <v>-115.9647424049605</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1.219594923362445</v>
       </c>
       <c r="B351" t="n">
-        <v>-115.6350741258304</v>
+        <v>-115.5511315005064</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1.223089464690131</v>
       </c>
       <c r="B352" t="n">
-        <v>-115.590973836161</v>
+        <v>-115.5061290214809</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1.226584006017817</v>
       </c>
       <c r="B353" t="n">
-        <v>-115.9062743749894</v>
+        <v>-115.8287767417952</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1.230078547345503</v>
       </c>
       <c r="B354" t="n">
-        <v>-116.5983184694526</v>
+        <v>-116.5371900822723</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1.233573088673189</v>
       </c>
       <c r="B355" t="n">
-        <v>-117.7070199076552</v>
+        <v>-117.6731998935539</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1.237067630000875</v>
       </c>
       <c r="B356" t="n">
-        <v>-119.3064602944884</v>
+        <v>-119.3148369005954</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1.240562171328561</v>
       </c>
       <c r="B357" t="n">
-        <v>-121.5322287215864</v>
+        <v>-121.6060564566445</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1.244056712656247</v>
       </c>
       <c r="B358" t="n">
-        <v>-124.6512663295586</v>
+        <v>-124.8337610326346</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1.247551253983934</v>
       </c>
       <c r="B359" t="n">
-        <v>-129.2698167573995</v>
+        <v>-129.6599001184413</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1.25104579531162</v>
       </c>
       <c r="B360" t="n">
-        <v>-136.7685872140278</v>
+        <v>-137.4411613890066</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1.254540336639306</v>
       </c>
       <c r="B361" t="n">
-        <v>-137.7500396979543</v>
+        <v>-136.8676521869319</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1.258034877966992</v>
       </c>
       <c r="B362" t="n">
-        <v>-132.2222003038667</v>
+        <v>-131.7101729205746</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1.261529419294678</v>
       </c>
       <c r="B363" t="n">
-        <v>-129.6578318188834</v>
+        <v>-129.3808869963376</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1.265023960622364</v>
       </c>
       <c r="B364" t="n">
-        <v>-128.7461459687303</v>
+        <v>-128.6335691769634</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1.26851850195005</v>
       </c>
       <c r="B365" t="n">
-        <v>-128.9811242842433</v>
+        <v>-129.0243098076928</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1.272013043277736</v>
       </c>
       <c r="B366" t="n">
-        <v>-130.2614859717798</v>
+        <v>-130.4906873670609</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1.275507584605422</v>
       </c>
       <c r="B367" t="n">
-        <v>-132.7694986677489</v>
+        <v>-133.2720802471966</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1.279002125933108</v>
       </c>
       <c r="B368" t="n">
-        <v>-137.1572080806195</v>
+        <v>-138.1517202391254</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1.282496667260794</v>
       </c>
       <c r="B369" t="n">
-        <v>-144.3618048825846</v>
+        <v>-144.9726731601403</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1.28599120858848</v>
       </c>
       <c r="B370" t="n">
-        <v>-141.477831472168</v>
+        <v>-140.024939682832</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1.289485749916166</v>
       </c>
       <c r="B371" t="n">
-        <v>-136.4490169647077</v>
+        <v>-135.6688712423957</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1.292980291243853</v>
       </c>
       <c r="B372" t="n">
-        <v>-134.0119516875104</v>
+        <v>-133.6147095251937</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1.296474832571539</v>
       </c>
       <c r="B373" t="n">
-        <v>-133.0858330624661</v>
+        <v>-132.9661031567225</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1.299969373899225</v>
       </c>
       <c r="B374" t="n">
-        <v>-133.289570366551</v>
+        <v>-133.4337944262635</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1.303463915226911</v>
       </c>
       <c r="B375" t="n">
-        <v>-134.5814187065109</v>
+        <v>-135.0406417790866</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1.306958456554597</v>
       </c>
       <c r="B376" t="n">
-        <v>-137.2113026094425</v>
+        <v>-138.1377347912778</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1.310452997882283</v>
       </c>
       <c r="B377" t="n">
-        <v>-141.9580822761384</v>
+        <v>-143.6538812932439</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1.313947539209969</v>
       </c>
       <c r="B378" t="n">
-        <v>-148.1612242883684</v>
+        <v>-147.1668032342293</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1.317442080537655</v>
       </c>
       <c r="B379" t="n">
-        <v>-143.0008091834855</v>
+        <v>-141.2625146128485</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1.320936621865341</v>
       </c>
       <c r="B380" t="n">
-        <v>-138.6720447037823</v>
+        <v>-137.7573088904726</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1.324431163193027</v>
       </c>
       <c r="B381" t="n">
-        <v>-136.5497243672687</v>
+        <v>-136.1240653301967</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1.327925704520714</v>
       </c>
       <c r="B382" t="n">
-        <v>-135.8064284180775</v>
+        <v>-135.7588629049878</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1.3314202458484</v>
       </c>
       <c r="B383" t="n">
-        <v>-136.1697628672486</v>
+        <v>-136.4976731967533</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1.334914787176086</v>
       </c>
       <c r="B384" t="n">
-        <v>-137.6655501070213</v>
+        <v>-138.4592533200125</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1.338409328503772</v>
       </c>
       <c r="B385" t="n">
-        <v>-140.6404973177382</v>
+        <v>-142.1487835657444</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1.341903869831458</v>
       </c>
       <c r="B386" t="n">
-        <v>-146.0233069388674</v>
+        <v>-148.2760940177094</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1.345398411159144</v>
       </c>
       <c r="B387" t="n">
-        <v>-149.7242390443795</v>
+        <v>-147.0780154524881</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1.34889295248683</v>
       </c>
       <c r="B388" t="n">
-        <v>-143.7064091433152</v>
+        <v>-141.8798424846415</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1.352387493814516</v>
       </c>
       <c r="B389" t="n">
-        <v>-140.0576599825422</v>
+        <v>-139.1274843625523</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1.355882035142202</v>
       </c>
       <c r="B390" t="n">
-        <v>-138.3048808139271</v>
+        <v>-137.9455301742374</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1.359376576469888</v>
       </c>
       <c r="B391" t="n">
-        <v>-137.8250639253283</v>
+        <v>-137.9401537997515</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1.362871117797574</v>
       </c>
       <c r="B392" t="n">
-        <v>-138.4431207393822</v>
+        <v>-139.058224024144</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1.36636565912526</v>
       </c>
       <c r="B393" t="n">
-        <v>-140.2648544488763</v>
+        <v>-141.5372286272427</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1.369860200452947</v>
       </c>
       <c r="B394" t="n">
-        <v>-143.7777864314331</v>
+        <v>-146.0779011537017</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1.373354741780633</v>
       </c>
       <c r="B395" t="n">
-        <v>-149.9299124359021</v>
+        <v>-151.2757423219003</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1.376849283108319</v>
       </c>
       <c r="B396" t="n">
-        <v>-149.6329239966319</v>
+        <v>-146.384459838119</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1.380343824436005</v>
       </c>
       <c r="B397" t="n">
-        <v>-144.0136372289689</v>
+        <v>-142.2553652034143</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1.383838365763691</v>
       </c>
       <c r="B398" t="n">
-        <v>-141.0140522288348</v>
+        <v>-140.1784294539451</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1.387332907091377</v>
       </c>
       <c r="B399" t="n">
-        <v>-139.6562660924486</v>
+        <v>-139.4611146657472</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1.390827448419063</v>
       </c>
       <c r="B400" t="n">
-        <v>-139.49151944376</v>
+        <v>-139.8721918641045</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1.394321989746749</v>
       </c>
       <c r="B401" t="n">
-        <v>-140.4383991764045</v>
+        <v>-141.4705528575203</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>1.397816531074435</v>
       </c>
       <c r="B402" t="n">
-        <v>-142.7045712800796</v>
+        <v>-144.6535589731006</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>1.401311072402121</v>
       </c>
       <c r="B403" t="n">
-        <v>-146.9846020420504</v>
+        <v>-150.1904621320849</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>1.404805613729808</v>
       </c>
       <c r="B404" t="n">
-        <v>-153.2768628531918</v>
+        <v>-151.1918959248274</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>1.408300155057494</v>
       </c>
       <c r="B405" t="n">
-        <v>-148.8564108209294</v>
+        <v>-145.7205922324892</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>1.41179469638518</v>
       </c>
       <c r="B406" t="n">
-        <v>-144.1452383578121</v>
+        <v>-142.5753166238564</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>1.415289237712866</v>
       </c>
       <c r="B407" t="n">
-        <v>-141.750870268774</v>
+        <v>-141.1116368015066</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>1.418783779040552</v>
       </c>
       <c r="B408" t="n">
-        <v>-140.7990962103682</v>
+        <v>-140.8699888200441</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>1.422278320368238</v>
       </c>
       <c r="B409" t="n">
-        <v>-140.989512367842</v>
+        <v>-141.7545788263681</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>1.425772861695924</v>
       </c>
       <c r="B410" t="n">
-        <v>-142.3371897702619</v>
+        <v>-143.9532749969413</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>1.42926740302361</v>
       </c>
       <c r="B411" t="n">
-        <v>-145.1892219280655</v>
+        <v>-148.0762472333985</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>1.432761944351296</v>
       </c>
       <c r="B412" t="n">
-        <v>-150.5210129505448</v>
+        <v>-153.6364297214009</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>1.436256485678982</v>
       </c>
       <c r="B413" t="n">
-        <v>-154.319523488424</v>
+        <v>-149.7097652772154</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>1.439751027006668</v>
       </c>
       <c r="B414" t="n">
-        <v>-148.008570965492</v>
+        <v>-145.2554789950551</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>1.443245568334354</v>
       </c>
       <c r="B415" t="n">
-        <v>-144.2299407653309</v>
+        <v>-142.9422617833766</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>1.44674010966204</v>
       </c>
       <c r="B416" t="n">
-        <v>-142.3917119190443</v>
+        <v>-142.0454500442753</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>1.450234650989727</v>
       </c>
       <c r="B417" t="n">
-        <v>-141.8504230285393</v>
+        <v>-142.2959840481741</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>1.453729192317413</v>
       </c>
       <c r="B418" t="n">
-        <v>-142.4331181631162</v>
+        <v>-143.7241454526408</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>1.457223733645099</v>
       </c>
       <c r="B419" t="n">
-        <v>-144.2633601181166</v>
+        <v>-146.6842928324352</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>1.460718274972785</v>
       </c>
       <c r="B420" t="n">
-        <v>-147.8931583933189</v>
+        <v>-151.9417296218692</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>1.464212816300471</v>
       </c>
       <c r="B421" t="n">
-        <v>-154.4446560987274</v>
+        <v>-153.9078707336647</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>1.467707357628157</v>
       </c>
       <c r="B422" t="n">
-        <v>-153.0467729217294</v>
+        <v>-148.3735625771651</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>1.471201898955843</v>
       </c>
       <c r="B423" t="n">
-        <v>-147.3050192762605</v>
+        <v>-145.0226898416471</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>1.474696440283529</v>
       </c>
       <c r="B424" t="n">
-        <v>-144.3412306718657</v>
+        <v>-143.4148154778348</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>1.478190981611215</v>
       </c>
       <c r="B425" t="n">
-        <v>-143.0128294039971</v>
+        <v>-143.0550041946967</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>1.481685522938901</v>
       </c>
       <c r="B426" t="n">
-        <v>-142.8852729045137</v>
+        <v>-143.8257549474112</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>1.485180064266588</v>
       </c>
       <c r="B427" t="n">
-        <v>-143.9005911575737</v>
+        <v>-145.8932279761538</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>1.488674605594274</v>
       </c>
       <c r="B428" t="n">
-        <v>-146.3178491021048</v>
+        <v>-149.8332033869726</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>1.49216914692196</v>
       </c>
       <c r="B429" t="n">
-        <v>-151.0063614580281</v>
+        <v>-155.5000443699595</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>1.495663688249646</v>
       </c>
       <c r="B430" t="n">
-        <v>-157.5036799007732</v>
+        <v>-152.0935658147824</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>1.499158229577332</v>
       </c>
       <c r="B431" t="n">
-        <v>-151.3855198077577</v>
+        <v>-147.4609820244154</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>1.502652770905018</v>
       </c>
       <c r="B432" t="n">
-        <v>-146.7952261213758</v>
+        <v>-145.019673525957</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>1.506147312232704</v>
       </c>
       <c r="B433" t="n">
-        <v>-144.5187758232955</v>
+        <v>-144.0262446645265</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>1.50964185356039</v>
       </c>
       <c r="B434" t="n">
-        <v>-143.6606365378869</v>
+        <v>-144.1900554309545</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>1.513136394888076</v>
       </c>
       <c r="B435" t="n">
-        <v>-143.9522398515571</v>
+        <v>-145.5263396926166</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>1.516630936215762</v>
       </c>
       <c r="B436" t="n">
-        <v>-145.4493035242822</v>
+        <v>-148.3692554416724</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>1.520125477543448</v>
       </c>
       <c r="B437" t="n">
-        <v>-148.598948022666</v>
+        <v>-153.4915045693456</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>1.523620018871134</v>
       </c>
       <c r="B438" t="n">
-        <v>-154.7440234865689</v>
+        <v>-156.0142779974085</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>1.527114560198821</v>
       </c>
       <c r="B439" t="n">
-        <v>-156.9984710562283</v>
+        <v>-150.4267081162681</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>1.530609101526507</v>
       </c>
       <c r="B440" t="n">
-        <v>-150.0574345377215</v>
+        <v>-146.936930208162</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>1.534103642854193</v>
       </c>
       <c r="B441" t="n">
-        <v>-146.4757096340828</v>
+        <v>-145.2335432560337</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>1.537598184181879</v>
       </c>
       <c r="B442" t="n">
-        <v>-144.7805853286431</v>
+        <v>-144.7936412585562</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>1.541092725509565</v>
       </c>
       <c r="B443" t="n">
-        <v>-144.3606615431557</v>
+        <v>-145.4838616917104</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>1.544587266837251</v>
       </c>
       <c r="B444" t="n">
-        <v>-145.0808999446348</v>
+        <v>-147.4545975509938</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>1.548081808164937</v>
       </c>
       <c r="B445" t="n">
-        <v>-147.1233262811812</v>
+        <v>-151.2595862615951</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>1.551576349492623</v>
       </c>
       <c r="B446" t="n">
-        <v>-151.221344573399</v>
+        <v>-157.0390267517036</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>1.555070890820309</v>
       </c>
       <c r="B447" t="n">
-        <v>-159.0142465207183</v>
+        <v>-154.1179246872472</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>1.558565432147995</v>
       </c>
       <c r="B448" t="n">
-        <v>-154.8001664077545</v>
+        <v>-149.2998830752506</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>1.562059973475681</v>
       </c>
       <c r="B449" t="n">
-        <v>-149.1116301128519</v>
+        <v>-146.7342759832773</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>1.565554514803368</v>
       </c>
       <c r="B450" t="n">
-        <v>-146.3268723329675</v>
+        <v>-145.6468658470671</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>1.569049056131053</v>
       </c>
       <c r="B451" t="n">
-        <v>-145.1297232766114</v>
+        <v>-145.7220963852278</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>1.57254359745874</v>
       </c>
       <c r="B452" t="n">
-        <v>-145.1222325967261</v>
+        <v>-146.9573317787887</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>1.576038138786426</v>
       </c>
       <c r="B453" t="n">
-        <v>-146.2850973196444</v>
+        <v>-149.6614576560224</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>1.579532680114112</v>
       </c>
       <c r="B454" t="n">
-        <v>-148.9574300678351</v>
+        <v>-154.6147391951977</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>1.583027221441798</v>
       </c>
       <c r="B455" t="n">
-        <v>-154.3418883662187</v>
+        <v>-157.9622279880871</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>1.586521762769484</v>
       </c>
       <c r="B456" t="n">
-        <v>-161.283702933821</v>
+        <v>-152.3325652035818</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>1.59001630409717</v>
       </c>
       <c r="B457" t="n">
-        <v>-152.9482164573994</v>
+        <v>-148.6349648789608</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>1.593510845424856</v>
       </c>
       <c r="B458" t="n">
-        <v>-148.4805414077393</v>
+        <v>-146.7940616075366</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>1.597005386752542</v>
       </c>
       <c r="B459" t="n">
-        <v>-146.3233625422576</v>
+        <v>-146.2379680050543</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>1.600499928080228</v>
       </c>
       <c r="B460" t="n">
-        <v>-145.5576907790577</v>
+        <v>-146.805920219628</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>1.603994469407914</v>
       </c>
       <c r="B461" t="n">
-        <v>-145.9405239831878</v>
+        <v>-148.6197488102422</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>1.607489010735601</v>
       </c>
       <c r="B462" t="n">
-        <v>-147.5633050859897</v>
+        <v>-152.1874144125003</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>1.610983552063287</v>
       </c>
       <c r="B463" t="n">
-        <v>-150.9783026920339</v>
+        <v>-158.0534627704101</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>1.614478093390973</v>
       </c>
       <c r="B464" t="n">
-        <v>-158.1906140411048</v>
+        <v>-156.2916802733286</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>1.617972634718659</v>
       </c>
       <c r="B465" t="n">
-        <v>-159.3592566208008</v>
+        <v>-151.1267884339256</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>1.621467176046345</v>
       </c>
       <c r="B466" t="n">
-        <v>-151.6492041462264</v>
+        <v>-148.3250051705346</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>1.624961717374031</v>
       </c>
       <c r="B467" t="n">
-        <v>-148.0942199904886</v>
+        <v>-147.065439024525</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>1.628456258701717</v>
       </c>
       <c r="B468" t="n">
-        <v>-146.4365284102359</v>
+        <v>-146.9795662909956</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>1.631950800029403</v>
       </c>
       <c r="B469" t="n">
-        <v>-146.0459640164447</v>
+        <v>-148.0277697718615</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>1.635445341357089</v>
       </c>
       <c r="B470" t="n">
-        <v>-146.7968229786649</v>
+        <v>-150.4658381397365</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>1.638939882684775</v>
       </c>
       <c r="B471" t="n">
-        <v>-148.8962137795056</v>
+        <v>-155.0310755458615</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>1.642434424012462</v>
       </c>
       <c r="B472" t="n">
-        <v>-153.2016625157292</v>
+        <v>-159.8623469136501</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>1.645928965340148</v>
       </c>
       <c r="B473" t="n">
-        <v>-162.9552901560785</v>
+        <v>-154.5449320093877</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>1.649423506667834</v>
       </c>
       <c r="B474" t="n">
-        <v>-156.973361225499</v>
+        <v>-150.4054760745303</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>1.65291804799552</v>
       </c>
       <c r="B475" t="n">
-        <v>-150.7832953959461</v>
+        <v>-148.2837305455653</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>1.656412589323206</v>
       </c>
       <c r="B476" t="n">
-        <v>-147.8942399277046</v>
+        <v>-147.5010295488407</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>1.659907130650892</v>
       </c>
       <c r="B477" t="n">
-        <v>-146.6349768929445</v>
+        <v>-147.8368357343355</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>1.663401671978578</v>
       </c>
       <c r="B478" t="n">
-        <v>-146.5668888814491</v>
+        <v>-149.3559984669157</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>1.666896213306264</v>
       </c>
       <c r="B479" t="n">
-        <v>-147.657995497258</v>
+        <v>-152.4677319732183</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>1.67039075463395</v>
       </c>
       <c r="B480" t="n">
-        <v>-150.2417476656466</v>
+        <v>-158.0343605602333</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>1.673885295961636</v>
       </c>
       <c r="B481" t="n">
-        <v>-155.6215071703145</v>
+        <v>-159.1027024135155</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>1.677379837289322</v>
       </c>
       <c r="B482" t="n">
-        <v>-166.9533618354892</v>
+        <v>-153.3480200661148</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>1.680874378617008</v>
       </c>
       <c r="B483" t="n">
-        <v>-155.3122893081697</v>
+        <v>-150.0441901434541</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>1.684368919944695</v>
       </c>
       <c r="B484" t="n">
-        <v>-150.2369462282901</v>
+        <v>-148.4417965310723</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>1.687863461272381</v>
       </c>
       <c r="B485" t="n">
-        <v>-147.8319760348294</v>
+        <v>-148.0532653369543</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>1.691358002600067</v>
       </c>
       <c r="B486" t="n">
-        <v>-146.8848743026982</v>
+        <v>-148.7655361435458</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>1.694852543927753</v>
       </c>
       <c r="B487" t="n">
-        <v>-147.084483048816</v>
+        <v>-150.7407273896231</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>1.698347085255439</v>
       </c>
       <c r="B488" t="n">
-        <v>-148.4757248840101</v>
+        <v>-154.5605660070312</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>1.701841626583125</v>
       </c>
       <c r="B489" t="n">
-        <v>-151.5274058939379</v>
+        <v>-160.6334223874335</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>1.705336167910811</v>
       </c>
       <c r="B490" t="n">
-        <v>-158.1787714100264</v>
+        <v>-157.6908052791603</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>1.708830709238497</v>
       </c>
       <c r="B491" t="n">
-        <v>-165.8837587920905</v>
+        <v>-152.6392583964422</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>1.712325250566183</v>
       </c>
       <c r="B492" t="n">
-        <v>-154.271573552293</v>
+        <v>-149.9466301726667</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>1.715819791893869</v>
       </c>
       <c r="B493" t="n">
-        <v>-149.9297594106752</v>
+        <v>-148.7402438323195</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>1.719314333221555</v>
       </c>
       <c r="B494" t="n">
-        <v>-147.8668719675734</v>
+        <v>-148.6724561418313</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>1.722808874549242</v>
       </c>
       <c r="B495" t="n">
-        <v>-147.151447247575</v>
+        <v>-149.7108398878996</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>1.726303415876927</v>
       </c>
       <c r="B496" t="n">
-        <v>-147.5566436131722</v>
+        <v>-152.1098366131704</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>1.729797957204614</v>
       </c>
       <c r="B497" t="n">
-        <v>-149.1879136016742</v>
+        <v>-156.624872065968</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>1.7332924985323</v>
       </c>
       <c r="B498" t="n">
-        <v>-152.6438845003077</v>
+        <v>-161.9983809188557</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>1.736787039859986</v>
       </c>
       <c r="B499" t="n">
-        <v>-160.6810733324909</v>
+        <v>-156.6607482849901</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>1.740281581187672</v>
       </c>
       <c r="B500" t="n">
-        <v>-163.6892954036988</v>
+        <v>-152.3025140815382</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>1.743776122515358</v>
       </c>
       <c r="B501" t="n">
-        <v>-153.6981625046239</v>
+        <v>-150.0411338649548</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>1.747270663843044</v>
       </c>
       <c r="B502" t="n">
-        <v>-149.8084836953583</v>
+        <v>-149.1273113471034</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>1.75076520517073</v>
       </c>
       <c r="B503" t="n">
-        <v>-147.9664210315623</v>
+        <v>-149.3071196672658</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>1.754259746498416</v>
       </c>
       <c r="B504" t="n">
-        <v>-147.4017513559063</v>
+        <v>-150.608378425281</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>1.757754287826102</v>
       </c>
       <c r="B505" t="n">
-        <v>-147.9393377561815</v>
+        <v>-153.3680128457468</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>1.761248829153788</v>
       </c>
       <c r="B506" t="n">
-        <v>-149.7243867394098</v>
+        <v>-158.4831361953931</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>1.764743370481475</v>
       </c>
       <c r="B507" t="n">
-        <v>-153.4491129382199</v>
+        <v>-162.2268624787316</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>1.768237911809161</v>
       </c>
       <c r="B508" t="n">
-        <v>-162.6372018350905</v>
+        <v>-156.127333769263</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>1.771732453136847</v>
       </c>
       <c r="B509" t="n">
-        <v>-162.5876956831839</v>
+        <v>-152.2522124672595</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>1.775226994464533</v>
       </c>
       <c r="B510" t="n">
-        <v>-153.5059517388801</v>
+        <v>-150.2751487139772</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>1.778721535792219</v>
       </c>
       <c r="B511" t="n">
-        <v>-149.8434984188032</v>
+        <v>-149.5585133705481</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>1.782216077119905</v>
       </c>
       <c r="B512" t="n">
-        <v>-148.1088659549491</v>
+        <v>-149.9069834462061</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>1.785710618447591</v>
       </c>
       <c r="B513" t="n">
-        <v>-147.6096599692144</v>
+        <v>-151.3891427893668</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>1.789205159775277</v>
       </c>
       <c r="B514" t="n">
-        <v>-148.1941388615446</v>
+        <v>-154.4036772132461</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>1.792699701102963</v>
       </c>
       <c r="B515" t="n">
-        <v>-150.0201923330326</v>
+        <v>-159.9364918657175</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>1.796194242430649</v>
       </c>
       <c r="B516" t="n">
-        <v>-153.7997646896146</v>
+        <v>-162.2327974669849</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>1.799688783758336</v>
       </c>
       <c r="B517" t="n">
-        <v>-163.2173147770888</v>
+        <v>-156.0434805488026</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>1.803183325086021</v>
       </c>
       <c r="B518" t="n">
-        <v>-162.612019581053</v>
+        <v>-152.4371766716875</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>1.806677866413708</v>
       </c>
       <c r="B519" t="n">
-        <v>-153.6718398149214</v>
+        <v>-150.6139841926209</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>1.810172407741394</v>
       </c>
       <c r="B520" t="n">
-        <v>-150.0298332401841</v>
+        <v>-149.9997785473727</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>1.81366694906908</v>
       </c>
       <c r="B521" t="n">
-        <v>-148.2877630479903</v>
+        <v>-150.4290629314545</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>1.817161490396766</v>
       </c>
       <c r="B522" t="n">
-        <v>-147.7623747821713</v>
+        <v>-151.9895968712243</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>1.820656031724452</v>
       </c>
       <c r="B523" t="n">
-        <v>-148.2980903857835</v>
+        <v>-155.1076273023192</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>1.824150573052138</v>
       </c>
       <c r="B524" t="n">
-        <v>-150.0347266299572</v>
+        <v>-160.8201286724787</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>1.827645114379824</v>
       </c>
       <c r="B525" t="n">
-        <v>-153.6119532513719</v>
+        <v>-162.6153277299297</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>1.83113965570751</v>
       </c>
       <c r="B526" t="n">
-        <v>-162.0134460522147</v>
+        <v>-156.3848589094381</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>1.834634197035196</v>
       </c>
       <c r="B527" t="n">
-        <v>-163.8207056999376</v>
+        <v>-152.8401954200587</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>1.838128738362882</v>
       </c>
       <c r="B528" t="n">
-        <v>-154.2385513046812</v>
+        <v>-151.0436794438784</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>1.841623279690568</v>
       </c>
       <c r="B529" t="n">
-        <v>-150.393775200466</v>
+        <v>-150.4332165672724</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>1.845117821018255</v>
       </c>
       <c r="B530" t="n">
-        <v>-148.5189972721378</v>
+        <v>-150.8465532424512</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>1.848612362345941</v>
       </c>
       <c r="B531" t="n">
-        <v>-147.8683146761389</v>
+        <v>-152.3666555506958</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>1.852106903673627</v>
       </c>
       <c r="B532" t="n">
-        <v>-148.2542809478364</v>
+        <v>-155.402797807728</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>1.855601445001313</v>
       </c>
       <c r="B533" t="n">
-        <v>-149.7701937165608</v>
+        <v>-161.0069631895404</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>1.859095986328999</v>
       </c>
       <c r="B534" t="n">
-        <v>-152.9128767274441</v>
+        <v>-163.6049963712658</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>1.862590527656685</v>
       </c>
       <c r="B535" t="n">
-        <v>-159.6459182137643</v>
+        <v>-157.1912543921664</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>1.866085068984371</v>
       </c>
       <c r="B536" t="n">
-        <v>-166.2273372757596</v>
+        <v>-153.483655512818</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>1.869579610312057</v>
       </c>
       <c r="B537" t="n">
-        <v>-155.337879776325</v>
+        <v>-151.5775665702427</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>1.873074151639743</v>
       </c>
       <c r="B538" t="n">
-        <v>-151.0063626354579</v>
+        <v>-150.8649527059156</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>1.876568692967429</v>
       </c>
       <c r="B539" t="n">
-        <v>-148.8505183751044</v>
+        <v>-151.1591045496355</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>1.880063234295115</v>
       </c>
       <c r="B540" t="n">
-        <v>-147.9655966937555</v>
+        <v>-152.5138502106222</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>1.883557775622801</v>
       </c>
       <c r="B541" t="n">
-        <v>-148.1002597455339</v>
+        <v>-155.2763684646623</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>1.887052316950488</v>
       </c>
       <c r="B542" t="n">
-        <v>-149.2798622897213</v>
+        <v>-160.4164769215104</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>1.890546858278174</v>
       </c>
       <c r="B543" t="n">
-        <v>-151.8338416872534</v>
+        <v>-165.1096174795979</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>1.89404139960586</v>
       </c>
       <c r="B544" t="n">
-        <v>-156.8961118306171</v>
+        <v>-158.6034566244527</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>1.897535940933546</v>
       </c>
       <c r="B545" t="n">
-        <v>-166.3957168954204</v>
+        <v>-154.4455014809222</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>1.901030482261232</v>
       </c>
       <c r="B546" t="n">
-        <v>-157.2340067301306</v>
+        <v>-152.2672199394573</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>1.904525023588918</v>
       </c>
       <c r="B547" t="n">
-        <v>-152.0081040195913</v>
+        <v>-151.3344639255128</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>1.908019564916604</v>
       </c>
       <c r="B548" t="n">
-        <v>-149.3762310184974</v>
+        <v>-151.4022966552515</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>1.91151410624429</v>
       </c>
       <c r="B549" t="n">
-        <v>-148.1307358817334</v>
+        <v>-152.4726351675047</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>1.915008647571976</v>
       </c>
       <c r="B550" t="n">
-        <v>-147.9124066020034</v>
+        <v>-154.7974655409433</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>1.918503188899662</v>
       </c>
       <c r="B551" t="n">
-        <v>-148.6626615506069</v>
+        <v>-159.137320436555</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>1.921997730227349</v>
       </c>
       <c r="B552" t="n">
-        <v>-150.5559768080129</v>
+        <v>-165.8487142504289</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>1.925492271555035</v>
       </c>
       <c r="B553" t="n">
-        <v>-154.1901069560828</v>
+        <v>-160.9384863587103</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>1.928986812882721</v>
       </c>
       <c r="B554" t="n">
-        <v>-161.1474009126702</v>
+        <v>-155.8959623191051</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>1.932481354210407</v>
       </c>
       <c r="B555" t="n">
-        <v>-160.1726368167949</v>
+        <v>-153.2213167190648</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>1.935975895538093</v>
       </c>
       <c r="B556" t="n">
-        <v>-153.6534655880323</v>
+        <v>-151.9262638491152</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>1.939470436865779</v>
       </c>
       <c r="B557" t="n">
-        <v>-150.2603841410294</v>
+        <v>-151.6551389295198</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>1.942964978193465</v>
       </c>
       <c r="B558" t="n">
-        <v>-148.4914877588877</v>
+        <v>-152.3348579368124</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>1.946459519521151</v>
       </c>
       <c r="B559" t="n">
-        <v>-147.8098930780035</v>
+        <v>-154.1073775443388</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>1.949954060848837</v>
       </c>
       <c r="B560" t="n">
-        <v>-148.0534864954031</v>
+        <v>-157.4706989777312</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>1.953448602176523</v>
       </c>
       <c r="B561" t="n">
-        <v>-149.2656351401068</v>
+        <v>-163.6790509141041</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>1.95694314350421</v>
       </c>
       <c r="B562" t="n">
-        <v>-151.7267384506033</v>
+        <v>-164.7033991829922</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>1.960437684831895</v>
       </c>
       <c r="B563" t="n">
-        <v>-156.1669698612339</v>
+        <v>-158.1927801034956</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>1.963932226159582</v>
       </c>
       <c r="B564" t="n">
-        <v>-161.4234507694328</v>
+        <v>-154.6463006392399</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>1.967426767487268</v>
       </c>
       <c r="B565" t="n">
-        <v>-156.3054425844351</v>
+        <v>-152.7901198055263</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>1.970921308814954</v>
       </c>
       <c r="B566" t="n">
-        <v>-151.7802473524777</v>
+        <v>-152.0492023142539</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>1.97441585014264</v>
       </c>
       <c r="B567" t="n">
-        <v>-149.2507507526418</v>
+        <v>-152.2403157069297</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>1.977910391470326</v>
       </c>
       <c r="B568" t="n">
-        <v>-147.9647543762254</v>
+        <v>-153.3915762177882</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>1.981404932798012</v>
       </c>
       <c r="B569" t="n">
-        <v>-147.6207079932311</v>
+        <v>-155.7696899383398</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>1.984899474125698</v>
       </c>
       <c r="B570" t="n">
-        <v>-148.1440863725903</v>
+        <v>-160.1637774309877</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>1.988394015453384</v>
       </c>
       <c r="B571" t="n">
-        <v>-149.6252303355142</v>
+        <v>-167.2237018824934</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>1.99188855678107</v>
       </c>
       <c r="B572" t="n">
-        <v>-152.3651939776472</v>
+        <v>-162.1505910595514</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>1.995383098108756</v>
       </c>
       <c r="B573" t="n">
-        <v>-156.8020372509636</v>
+        <v>-156.9545200228059</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>1.998877639436442</v>
       </c>
       <c r="B574" t="n">
-        <v>-158.9723265462755</v>
+        <v>-154.1876828206165</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>2.002372180764128</v>
       </c>
       <c r="B575" t="n">
-        <v>-154.3239308149733</v>
+        <v>-152.7892931766278</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>2.005866722091814</v>
       </c>
       <c r="B576" t="n">
-        <v>-150.729977405382</v>
+        <v>-152.3798092627628</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>2.009361263419501</v>
       </c>
       <c r="B577" t="n">
-        <v>-148.6289409344838</v>
+        <v>-152.8595652254715</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>2.012855804747187</v>
       </c>
       <c r="B578" t="n">
-        <v>-147.5808836169892</v>
+        <v>-154.3174374308526</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>2.016350346074873</v>
       </c>
       <c r="B579" t="n">
-        <v>-147.3854533062147</v>
+        <v>-157.114804137496</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>2.019844887402559</v>
       </c>
       <c r="B580" t="n">
-        <v>-148.0016054335395</v>
+        <v>-162.2873306955767</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>2.023339428730245</v>
       </c>
       <c r="B581" t="n">
-        <v>-149.5177924840067</v>
+        <v>-168.1623504306484</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>2.026833970057931</v>
       </c>
       <c r="B582" t="n">
-        <v>-152.159247073696</v>
+        <v>-161.1323742440192</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>2.030328511385617</v>
       </c>
       <c r="B583" t="n">
-        <v>-155.9200682720655</v>
+        <v>-156.6316536781573</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>2.033823052713303</v>
       </c>
       <c r="B584" t="n">
-        <v>-157.0011976030539</v>
+        <v>-154.2147433185299</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>2.03731759404099</v>
       </c>
       <c r="B585" t="n">
-        <v>-153.3174381135967</v>
+        <v>-153.0227590860493</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>2.040812135368676</v>
       </c>
       <c r="B586" t="n">
-        <v>-150.177964915694</v>
+        <v>-152.7545564856875</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>2.044306676696362</v>
       </c>
       <c r="B587" t="n">
-        <v>-148.2367998973198</v>
+        <v>-153.3434907325305</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>2.047801218024048</v>
       </c>
       <c r="B588" t="n">
-        <v>-147.2336988115069</v>
+        <v>-154.8992610378714</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>2.051295759351734</v>
       </c>
       <c r="B589" t="n">
-        <v>-147.0149116342019</v>
+        <v>-157.8108714582038</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>2.05479030067942</v>
       </c>
       <c r="B590" t="n">
-        <v>-147.5410112259755</v>
+        <v>-163.1937174520171</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>2.058284842007106</v>
       </c>
       <c r="B591" t="n">
-        <v>-148.866322592283</v>
+        <v>-168.7732475900312</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>2.061779383334792</v>
       </c>
       <c r="B592" t="n">
-        <v>-151.1121641229834</v>
+        <v>-161.4337430890275</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>2.065273924662478</v>
       </c>
       <c r="B593" t="n">
-        <v>-154.1219754727618</v>
+        <v>-157.0085484441229</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>2.068768465990164</v>
       </c>
       <c r="B594" t="n">
-        <v>-155.4433704123929</v>
+        <v>-154.6147997881035</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>2.07226300731785</v>
       </c>
       <c r="B595" t="n">
-        <v>-152.8896785152984</v>
+        <v>-153.4112720129893</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>2.075757548645536</v>
       </c>
       <c r="B596" t="n">
-        <v>-150.0087169593455</v>
+        <v>-153.1013573875048</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>2.079252089973223</v>
       </c>
       <c r="B597" t="n">
-        <v>-148.0393453951552</v>
+        <v>-153.6122581859906</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>2.082746631300909</v>
       </c>
       <c r="B598" t="n">
-        <v>-146.9177070963847</v>
+        <v>-155.0329067200265</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>2.086241172628595</v>
       </c>
       <c r="B599" t="n">
-        <v>-146.52229504987</v>
+        <v>-157.6940075789416</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>2.089735713956281</v>
       </c>
       <c r="B600" t="n">
-        <v>-146.8014573985761</v>
+        <v>-162.5479317758117</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>2.093230255283967</v>
       </c>
       <c r="B601" t="n">
-        <v>-147.767964830196</v>
+        <v>-169.8703616699768</v>
       </c>
     </row>
     <row r="602">
@@ -5243,7 +5243,7 @@
         <v>2.096724796611653</v>
       </c>
       <c r="B602" t="n">
-        <v>-149.4695766454807</v>
+        <v>-163.1756933008366</v>
       </c>
     </row>
     <row r="603">
@@ -5251,7 +5251,7 @@
         <v>2.100219337939339</v>
       </c>
       <c r="B603" t="n">
-        <v>-151.8043610181135</v>
+        <v>-158.1492193120886</v>
       </c>
     </row>
     <row r="604">
@@ -5259,7 +5259,7 @@
         <v>2.103713879267025</v>
       </c>
       <c r="B604" t="n">
-        <v>-153.6137630222347</v>
+        <v>-155.4370508346713</v>
       </c>
     </row>
     <row r="605">
@@ -5267,7 +5267,7 @@
         <v>2.107208420594711</v>
       </c>
       <c r="B605" t="n">
-        <v>-152.6464448726531</v>
+        <v>-153.996340780429</v>
       </c>
     </row>
     <row r="606">
@@ -5275,7 +5275,7 @@
         <v>2.110702961922397</v>
       </c>
       <c r="B606" t="n">
-        <v>-150.1798533028543</v>
+        <v>-153.4594045832697</v>
       </c>
     </row>
     <row r="607">
@@ -5283,7 +5283,7 @@
         <v>2.114197503250083</v>
       </c>
       <c r="B607" t="n">
-        <v>-148.0949017664995</v>
+        <v>-153.7101047524669</v>
       </c>
     </row>
     <row r="608">
@@ -5291,7 +5291,7 @@
         <v>2.117692044577769</v>
       </c>
       <c r="B608" t="n">
-        <v>-146.725427811733</v>
+        <v>-154.7831093520304</v>
       </c>
     </row>
     <row r="609">
@@ -5299,7 +5299,7 @@
         <v>2.121186585905456</v>
       </c>
       <c r="B609" t="n">
-        <v>-146.0249900906323</v>
+        <v>-156.8934217784074</v>
       </c>
     </row>
     <row r="610">
@@ -5307,7 +5307,7 @@
         <v>2.124681127233142</v>
       </c>
       <c r="B610" t="n">
-        <v>-145.9369568863501</v>
+        <v>-160.6553503091628</v>
       </c>
     </row>
     <row r="611">
@@ -5315,7 +5315,7 @@
         <v>2.128175668560828</v>
       </c>
       <c r="B611" t="n">
-        <v>-146.4415687062714</v>
+        <v>-167.7562391020433</v>
       </c>
     </row>
     <row r="612">
@@ -5323,7 +5323,7 @@
         <v>2.131670209888514</v>
       </c>
       <c r="B612" t="n">
-        <v>-147.5444600567791</v>
+        <v>-167.2717148983793</v>
       </c>
     </row>
     <row r="613">
@@ -5331,7 +5331,7 @@
         <v>2.1351647512162</v>
       </c>
       <c r="B613" t="n">
-        <v>-149.2057690712398</v>
+        <v>-160.5005309333695</v>
       </c>
     </row>
     <row r="614">
@@ -5339,7 +5339,7 @@
         <v>2.138659292543886</v>
       </c>
       <c r="B614" t="n">
-        <v>-151.0395099764795</v>
+        <v>-156.9457713375954</v>
       </c>
     </row>
     <row r="615">
@@ -5347,7 +5347,7 @@
         <v>2.142153833871572</v>
       </c>
       <c r="B615" t="n">
-        <v>-151.7445348296284</v>
+        <v>-154.975112972582</v>
       </c>
     </row>
     <row r="616">
@@ -5355,7 +5355,7 @@
         <v>2.145648375199258</v>
       </c>
       <c r="B616" t="n">
-        <v>-150.4554090156745</v>
+        <v>-154.0041819596728</v>
       </c>
     </row>
     <row r="617">
@@ -5363,7 +5363,7 @@
         <v>2.149142916526944</v>
       </c>
       <c r="B617" t="n">
-        <v>-148.4734828256133</v>
+        <v>-153.8216025755983</v>
       </c>
     </row>
     <row r="618">
@@ -5371,7 +5371,7 @@
         <v>2.15263745785463</v>
       </c>
       <c r="B618" t="n">
-        <v>-146.823887182016</v>
+        <v>-154.3836230948614</v>
       </c>
     </row>
     <row r="619">
@@ -5379,7 +5379,7 @@
         <v>2.156131999182316</v>
       </c>
       <c r="B619" t="n">
-        <v>-145.7305361663405</v>
+        <v>-155.780817071331</v>
       </c>
     </row>
     <row r="620">
@@ -5387,7 +5387,7 @@
         <v>2.159626540510002</v>
       </c>
       <c r="B620" t="n">
-        <v>-145.1893393041354</v>
+        <v>-158.3140800500453</v>
       </c>
     </row>
     <row r="621">
@@ -5395,7 +5395,7 @@
         <v>2.163121081837688</v>
       </c>
       <c r="B621" t="n">
-        <v>-145.1713994213802</v>
+        <v>-162.8350818436495</v>
       </c>
     </row>
     <row r="622">
@@ -5403,7 +5403,7 @@
         <v>2.166615623165375</v>
       </c>
       <c r="B622" t="n">
-        <v>-145.6592512512671</v>
+        <v>-170.9704002488492</v>
       </c>
     </row>
     <row r="623">
@@ -5411,7 +5411,7 @@
         <v>2.170110164493061</v>
       </c>
       <c r="B623" t="n">
-        <v>-146.6323151569741</v>
+        <v>-165.5569067438583</v>
       </c>
     </row>
     <row r="624">
@@ -5419,7 +5419,7 @@
         <v>2.173604705820747</v>
       </c>
       <c r="B624" t="n">
-        <v>-147.9916061175534</v>
+        <v>-159.8609705084069</v>
       </c>
     </row>
     <row r="625">
@@ -5427,7 +5427,7 @@
         <v>2.177099247148433</v>
       </c>
       <c r="B625" t="n">
-        <v>-149.3410519494116</v>
+        <v>-156.8083477027693</v>
       </c>
     </row>
     <row r="626">
@@ -5435,7 +5435,7 @@
         <v>2.180593788476119</v>
       </c>
       <c r="B626" t="n">
-        <v>-149.7916532617506</v>
+        <v>-155.0988921361144</v>
       </c>
     </row>
     <row r="627">
@@ -5443,7 +5443,7 @@
         <v>2.184088329803805</v>
       </c>
       <c r="B627" t="n">
-        <v>-148.8609791851397</v>
+        <v>-154.2841397033202</v>
       </c>
     </row>
     <row r="628">
@@ -5451,7 +5451,7 @@
         <v>2.187582871131491</v>
       </c>
       <c r="B628" t="n">
-        <v>-147.3024990068785</v>
+        <v>-154.1995792137407</v>
       </c>
     </row>
     <row r="629">
@@ -5459,7 +5459,7 @@
         <v>2.191077412459177</v>
       </c>
       <c r="B629" t="n">
-        <v>-145.8782908578422</v>
+        <v>-154.819997651486</v>
       </c>
     </row>
     <row r="630">
@@ -5467,7 +5467,7 @@
         <v>2.194571953786864</v>
       </c>
       <c r="B630" t="n">
-        <v>-144.8567415259907</v>
+        <v>-156.241857350011</v>
       </c>
     </row>
     <row r="631">
@@ -5475,7 +5475,7 @@
         <v>2.19806649511455</v>
       </c>
       <c r="B631" t="n">
-        <v>-144.2846798498036</v>
+        <v>-158.7613698997207</v>
       </c>
     </row>
     <row r="632">
@@ -5483,7 +5483,7 @@
         <v>2.201561036442236</v>
       </c>
       <c r="B632" t="n">
-        <v>-144.1535085043471</v>
+        <v>-163.2070772106937</v>
       </c>
     </row>
     <row r="633">
@@ -5491,7 +5491,7 @@
         <v>2.205055577769921</v>
       </c>
       <c r="B633" t="n">
-        <v>-144.4452841342264</v>
+        <v>-171.5220546380084</v>
       </c>
     </row>
     <row r="634">
@@ -5499,7 +5499,7 @@
         <v>2.208550119097608</v>
       </c>
       <c r="B634" t="n">
-        <v>-145.129555965688</v>
+        <v>-166.6344495419733</v>
       </c>
     </row>
     <row r="635">
@@ -5507,7 +5507,7 @@
         <v>2.212044660425294</v>
       </c>
       <c r="B635" t="n">
-        <v>-146.1203796157849</v>
+        <v>-160.6710074982033</v>
       </c>
     </row>
     <row r="636">
@@ -5515,7 +5515,7 @@
         <v>2.21553920175298</v>
       </c>
       <c r="B636" t="n">
-        <v>-147.1707513799423</v>
+        <v>-157.4888188474821</v>
       </c>
     </row>
     <row r="637">
@@ -5523,7 +5523,7 @@
         <v>2.219033743080666</v>
       </c>
       <c r="B637" t="n">
-        <v>-147.7697096801312</v>
+        <v>-155.6722900333508</v>
       </c>
     </row>
     <row r="638">
@@ -5531,7 +5531,7 @@
         <v>2.222528284408352</v>
       </c>
       <c r="B638" t="n">
-        <v>-147.4459963851902</v>
+        <v>-154.7412904489452</v>
       </c>
     </row>
     <row r="639">
@@ -5539,7 +5539,7 @@
         <v>2.226022825736038</v>
       </c>
       <c r="B639" t="n">
-        <v>-146.3845081005286</v>
+        <v>-154.5130978380413</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5547,7 @@
         <v>2.229517367063724</v>
       </c>
       <c r="B640" t="n">
-        <v>-145.1490468866489</v>
+        <v>-154.9407922727767</v>
       </c>
     </row>
     <row r="641">
@@ -5555,7 +5555,7 @@
         <v>2.23301190839141</v>
       </c>
       <c r="B641" t="n">
-        <v>-144.1045539481</v>
+        <v>-156.0812117154331</v>
       </c>
     </row>
     <row r="642">
@@ -5563,7 +5563,7 @@
         <v>2.236506449719097</v>
       </c>
       <c r="B642" t="n">
-        <v>-143.3851951748562</v>
+        <v>-158.1363876640751</v>
       </c>
     </row>
     <row r="643">
@@ -5571,7 +5571,7 @@
         <v>2.240000991046783</v>
       </c>
       <c r="B643" t="n">
-        <v>-143.0217239700756</v>
+        <v>-161.6442653569981</v>
       </c>
     </row>
     <row r="644">
@@ -5579,7 +5579,7 @@
         <v>2.243495532374469</v>
       </c>
       <c r="B644" t="n">
-        <v>-143.0094688116785</v>
+        <v>-168.2528275884154</v>
       </c>
     </row>
     <row r="645">
@@ -5587,7 +5587,7 @@
         <v>2.246990073702155</v>
       </c>
       <c r="B645" t="n">
-        <v>-143.326836126734</v>
+        <v>-171.4894458836889</v>
       </c>
     </row>
     <row r="646">
@@ -5595,7 +5595,7 @@
         <v>2.250484615029841</v>
       </c>
       <c r="B646" t="n">
-        <v>-143.9250739353013</v>
+        <v>-163.39896316472</v>
       </c>
     </row>
     <row r="647">
@@ -5603,7 +5603,7 @@
         <v>2.253979156357527</v>
       </c>
       <c r="B647" t="n">
-        <v>-144.6909092142198</v>
+        <v>-159.2597797226553</v>
       </c>
     </row>
     <row r="648">
@@ -5611,7 +5611,7 @@
         <v>2.257473697685213</v>
       </c>
       <c r="B648" t="n">
-        <v>-145.3895584678243</v>
+        <v>-156.8978521328696</v>
       </c>
     </row>
     <row r="649">
@@ -5619,7 +5619,7 @@
         <v>2.260968239012899</v>
       </c>
       <c r="B649" t="n">
-        <v>-145.6764330086153</v>
+        <v>-155.5522573176462</v>
       </c>
     </row>
     <row r="650">
@@ -5627,7 +5627,7 @@
         <v>2.264462780340585</v>
       </c>
       <c r="B650" t="n">
-        <v>-145.3333897349344</v>
+        <v>-154.9388111845282</v>
       </c>
     </row>
     <row r="651">
@@ -5635,7 +5635,7 @@
         <v>2.267957321668271</v>
       </c>
       <c r="B651" t="n">
-        <v>-144.5090775204242</v>
+        <v>-154.9498399302515</v>
       </c>
     </row>
     <row r="652">
@@ -5643,7 +5643,7 @@
         <v>2.271451862995957</v>
       </c>
       <c r="B652" t="n">
-        <v>-143.541194321698</v>
+        <v>-155.5763527399793</v>
       </c>
     </row>
     <row r="653">
@@ -5651,7 +5651,7 @@
         <v>2.274946404323643</v>
       </c>
       <c r="B653" t="n">
-        <v>-142.6818929347177</v>
+        <v>-156.903134258484</v>
       </c>
     </row>
     <row r="654">
@@ -5659,7 +5659,7 @@
         <v>2.278440945651329</v>
       </c>
       <c r="B654" t="n">
-        <v>-142.0511436313416</v>
+        <v>-159.1691179813418</v>
       </c>
     </row>
     <row r="655">
@@ -5667,7 +5667,7 @@
         <v>2.281935486979016</v>
       </c>
       <c r="B655" t="n">
-        <v>-141.6903100430414</v>
+        <v>-163.0052077735938</v>
       </c>
     </row>
     <row r="656">
@@ -5675,7 +5675,7 @@
         <v>2.285430028306702</v>
       </c>
       <c r="B656" t="n">
-        <v>-141.6037205063285</v>
+        <v>-170.4091663177286</v>
       </c>
     </row>
     <row r="657">
@@ -5683,7 +5683,7 @@
         <v>2.288924569634388</v>
       </c>
       <c r="B657" t="n">
-        <v>-141.7744940482277</v>
+        <v>-171.0076879977549</v>
       </c>
     </row>
     <row r="658">
@@ -5691,7 +5691,7 @@
         <v>2.292419110962074</v>
       </c>
       <c r="B658" t="n">
-        <v>-142.1619202389735</v>
+        <v>-163.4098541822872</v>
       </c>
     </row>
     <row r="659">
@@ -5699,7 +5699,7 @@
         <v>2.29591365228976</v>
       </c>
       <c r="B659" t="n">
-        <v>-142.6846088264369</v>
+        <v>-159.5400675235945</v>
       </c>
     </row>
     <row r="660">
@@ -5707,7 +5707,7 @@
         <v>2.299408193617446</v>
       </c>
       <c r="B660" t="n">
-        <v>-143.1974849772297</v>
+        <v>-157.2852143431608</v>
       </c>
     </row>
     <row r="661">
@@ -5715,7 +5715,7 @@
         <v>2.302902734945132</v>
       </c>
       <c r="B661" t="n">
-        <v>-143.4968723509269</v>
+        <v>-155.9720805333393</v>
       </c>
     </row>
     <row r="662">
@@ -5723,7 +5723,7 @@
         <v>2.306397276272818</v>
       </c>
       <c r="B662" t="n">
-        <v>-143.4106241767747</v>
+        <v>-155.3413359256346</v>
       </c>
     </row>
     <row r="663">
@@ -5731,7 +5731,7 @@
         <v>2.309891817600504</v>
       </c>
       <c r="B663" t="n">
-        <v>-142.9325893161781</v>
+        <v>-155.2896501009615</v>
       </c>
     </row>
     <row r="664">
@@ -5739,7 +5739,7 @@
         <v>2.31338635892819</v>
       </c>
       <c r="B664" t="n">
-        <v>-142.2247096046584</v>
+        <v>-155.79990987147</v>
       </c>
     </row>
     <row r="665">
@@ -5747,7 +5747,7 @@
         <v>2.316880900255876</v>
       </c>
       <c r="B665" t="n">
-        <v>-141.4831058962422</v>
+        <v>-156.9319115987129</v>
       </c>
     </row>
     <row r="666">
@@ -5755,7 +5755,7 @@
         <v>2.320375441583562</v>
       </c>
       <c r="B666" t="n">
-        <v>-140.8449676905194</v>
+        <v>-158.8603066223318</v>
       </c>
     </row>
     <row r="667">
@@ -5763,7 +5763,7 @@
         <v>2.323869982911249</v>
       </c>
       <c r="B667" t="n">
-        <v>-140.381391154007</v>
+        <v>-162.0209540050598</v>
       </c>
     </row>
     <row r="668">
@@ -5771,7 +5771,7 @@
         <v>2.327364524238935</v>
       </c>
       <c r="B668" t="n">
-        <v>-140.1198367540966</v>
+        <v>-167.7153472574423</v>
       </c>
     </row>
     <row r="669">
@@ -5779,7 +5779,7 @@
         <v>2.330859065566621</v>
       </c>
       <c r="B669" t="n">
-        <v>-140.0618234878353</v>
+        <v>-175.7693338259449</v>
       </c>
     </row>
     <row r="670">
@@ -5787,7 +5787,7 @@
         <v>2.334353606894307</v>
       </c>
       <c r="B670" t="n">
-        <v>-140.189827940147</v>
+        <v>-166.5077150910871</v>
       </c>
     </row>
     <row r="671">
@@ -5795,7 +5795,7 @@
         <v>2.337848148221993</v>
       </c>
       <c r="B671" t="n">
-        <v>-140.4652702666754</v>
+        <v>-161.5325906167569</v>
       </c>
     </row>
     <row r="672">
@@ -5803,7 +5803,7 @@
         <v>2.341342689549679</v>
       </c>
       <c r="B672" t="n">
-        <v>-140.8207918890192</v>
+        <v>-158.7226142452052</v>
       </c>
     </row>
     <row r="673">
@@ -5811,7 +5811,7 @@
         <v>2.344837230877365</v>
       </c>
       <c r="B673" t="n">
-        <v>-141.1542741753173</v>
+        <v>-157.0204380210959</v>
       </c>
     </row>
     <row r="674">
@@ -5819,7 +5819,7 @@
         <v>2.348331772205051</v>
       </c>
       <c r="B674" t="n">
-        <v>-141.341393770254</v>
+        <v>-156.0503123928601</v>
       </c>
     </row>
     <row r="675">
@@ -5827,7 +5827,7 @@
         <v>2.351826313532738</v>
       </c>
       <c r="B675" t="n">
-        <v>-141.2826929685083</v>
+        <v>-155.6537348863461</v>
       </c>
     </row>
     <row r="676">
@@ -5835,7 +5835,7 @@
         <v>2.355320854860424</v>
       </c>
       <c r="B676" t="n">
-        <v>-140.9622909784404</v>
+        <v>-155.7703692484181</v>
       </c>
     </row>
     <row r="677">
@@ -5843,7 +5843,7 @@
         <v>2.35881539618811</v>
       </c>
       <c r="B677" t="n">
-        <v>-140.4566949347682</v>
+        <v>-156.4043702540739</v>
       </c>
     </row>
     <row r="678">
@@ -5851,7 +5851,7 @@
         <v>2.362309937515795</v>
       </c>
       <c r="B678" t="n">
-        <v>-139.8826082576033</v>
+        <v>-157.6271109745744</v>
       </c>
     </row>
     <row r="679">
@@ -5859,7 +5859,7 @@
         <v>2.365804478843482</v>
       </c>
       <c r="B679" t="n">
-        <v>-139.342186380494</v>
+        <v>-159.6200729647366</v>
       </c>
     </row>
     <row r="680">
@@ -5867,7 +5867,7 @@
         <v>2.369299020171168</v>
       </c>
       <c r="B680" t="n">
-        <v>-138.9023792521233</v>
+        <v>-162.8244650203531</v>
       </c>
     </row>
     <row r="681">
@@ -5875,7 +5875,7 @@
         <v>2.372793561498854</v>
       </c>
       <c r="B681" t="n">
-        <v>-138.5982259682147</v>
+        <v>-168.5654784450897</v>
       </c>
     </row>
     <row r="682">
@@ -5883,7 +5883,7 @@
         <v>2.37628810282654</v>
       </c>
       <c r="B682" t="n">
-        <v>-138.4418279230521</v>
+        <v>-177.1152483105271</v>
       </c>
     </row>
     <row r="683">
@@ -5891,7 +5891,7 @@
         <v>2.379782644154226</v>
       </c>
       <c r="B683" t="n">
-        <v>-138.4285961364865</v>
+        <v>-167.4564540971766</v>
       </c>
     </row>
     <row r="684">
@@ -5899,7 +5899,7 @@
         <v>2.383277185481912</v>
       </c>
       <c r="B684" t="n">
-        <v>-138.5392415571871</v>
+        <v>-162.3943939874198</v>
       </c>
     </row>
     <row r="685">
@@ -5907,7 +5907,7 @@
         <v>2.386771726809598</v>
       </c>
       <c r="B685" t="n">
-        <v>-138.738498805747</v>
+        <v>-159.5196051911903</v>
       </c>
     </row>
     <row r="686">
@@ -5915,7 +5915,7 @@
         <v>2.390266268137284</v>
       </c>
       <c r="B686" t="n">
-        <v>-138.9730320534108</v>
+        <v>-157.7400481205789</v>
       </c>
     </row>
     <row r="687">
@@ -5923,7 +5923,7 @@
         <v>2.39376080946497</v>
       </c>
       <c r="B687" t="n">
-        <v>-139.1733363323597</v>
+        <v>-156.6698083394165</v>
       </c>
     </row>
     <row r="688">
@@ -5931,7 +5931,7 @@
         <v>2.397255350792657</v>
       </c>
       <c r="B688" t="n">
-        <v>-139.266146698554</v>
+        <v>-156.1418369893509</v>
       </c>
     </row>
     <row r="689">
@@ -5939,7 +5939,7 @@
         <v>2.400749892120343</v>
       </c>
       <c r="B689" t="n">
-        <v>-139.1989025038267</v>
+        <v>-156.0839176654584</v>
       </c>
     </row>
     <row r="690">
@@ -5947,7 +5947,7 @@
         <v>2.404244433448029</v>
       </c>
       <c r="B690" t="n">
-        <v>-138.9634426122538</v>
+        <v>-156.4803655284516</v>
       </c>
     </row>
     <row r="691">
@@ -5955,7 +5955,7 @@
         <v>2.407738974775715</v>
       </c>
       <c r="B691" t="n">
-        <v>-138.5987879029443</v>
+        <v>-157.3651639152174</v>
       </c>
     </row>
     <row r="692">
@@ -5963,7 +5963,7 @@
         <v>2.411233516103401</v>
       </c>
       <c r="B692" t="n">
-        <v>-138.170243903013</v>
+        <v>-158.838969301373</v>
       </c>
     </row>
     <row r="693">
@@ -5971,7 +5971,7 @@
         <v>2.414728057431087</v>
       </c>
       <c r="B693" t="n">
-        <v>-137.7433715385358</v>
+        <v>-161.1304944593106</v>
       </c>
     </row>
     <row r="694">
@@ -5979,7 +5979,7 @@
         <v>2.418222598758773</v>
       </c>
       <c r="B694" t="n">
-        <v>-137.3687309622228</v>
+        <v>-164.8056053772594</v>
       </c>
     </row>
     <row r="695">
@@ -5987,7 +5987,7 @@
         <v>2.421717140086459</v>
       </c>
       <c r="B695" t="n">
-        <v>-137.0784517590122</v>
+        <v>-171.7256496450595</v>
       </c>
     </row>
     <row r="696">
@@ -5995,7 +5995,7 @@
         <v>2.425211681414145</v>
       </c>
       <c r="B696" t="n">
-        <v>-136.8885918320045</v>
+        <v>-176.1174146064949</v>
       </c>
     </row>
     <row r="697">
@@ -6003,7 +6003,7 @@
         <v>2.428706222741831</v>
       </c>
       <c r="B697" t="n">
-        <v>-136.8024035858352</v>
+        <v>-166.929326691378</v>
       </c>
     </row>
     <row r="698">
@@ -6011,7 +6011,7 @@
         <v>2.432200764069517</v>
       </c>
       <c r="B698" t="n">
-        <v>-136.812449063433</v>
+        <v>-162.5118700651859</v>
       </c>
     </row>
     <row r="699">
@@ -6019,7 +6019,7 @@
         <v>2.435695305397203</v>
       </c>
       <c r="B699" t="n">
-        <v>-136.9012782253061</v>
+        <v>-159.8933193660687</v>
       </c>
     </row>
     <row r="700">
@@ -6027,7 +6027,7 @@
         <v>2.43918984672489</v>
       </c>
       <c r="B700" t="n">
-        <v>-137.0413308104391</v>
+        <v>-158.226330743123</v>
       </c>
     </row>
     <row r="701">
@@ -6035,7 +6035,7 @@
         <v>2.442684388052576</v>
       </c>
       <c r="B701" t="n">
-        <v>-137.1954752900634</v>
+        <v>-157.1910594467361</v>
       </c>
     </row>
     <row r="702">
@@ -6043,7 +6043,7 @@
         <v>2.446178929380262</v>
       </c>
       <c r="B702" t="n">
-        <v>-137.3202404517861</v>
+        <v>-156.6420176434587</v>
       </c>
     </row>
     <row r="703">
@@ -6051,7 +6051,7 @@
         <v>2.449673470707948</v>
       </c>
       <c r="B703" t="n">
-        <v>-137.373498377055</v>
+        <v>-156.5117792493093</v>
       </c>
     </row>
     <row r="704">
@@ -6059,7 +6059,7 @@
         <v>2.453168012035634</v>
       </c>
       <c r="B704" t="n">
-        <v>-137.3257330544635</v>
+        <v>-156.7789484821108</v>
       </c>
     </row>
     <row r="705">
@@ -6067,7 +6067,7 @@
         <v>2.45666255336332</v>
       </c>
       <c r="B705" t="n">
-        <v>-137.1698124307535</v>
+        <v>-157.459791870724</v>
       </c>
     </row>
     <row r="706">
@@ -6075,7 +6075,7 @@
         <v>2.460157094691006</v>
       </c>
       <c r="B706" t="n">
-        <v>-136.9228883080547</v>
+        <v>-158.6152809103656</v>
       </c>
     </row>
     <row r="707">
@@ -6083,7 +6083,7 @@
         <v>2.463651636018692</v>
       </c>
       <c r="B707" t="n">
-        <v>-136.6190085740471</v>
+        <v>-160.380568768467</v>
       </c>
     </row>
     <row r="708">
@@ -6091,7 +6091,7 @@
         <v>2.467146177346378</v>
       </c>
       <c r="B708" t="n">
-        <v>-136.2976030735657</v>
+        <v>-163.0535060405153</v>
       </c>
     </row>
     <row r="709">
@@ -6099,7 +6099,7 @@
         <v>2.470640718674064</v>
       </c>
       <c r="B709" t="n">
-        <v>-135.9941124918053</v>
+        <v>-167.4149046173099</v>
       </c>
     </row>
     <row r="710">
@@ -6107,7 +6107,7 @@
         <v>2.47413526000175</v>
       </c>
       <c r="B710" t="n">
-        <v>-135.7353163018879</v>
+        <v>-176.350404452184</v>
       </c>
     </row>
     <row r="711">
@@ -6115,7 +6115,7 @@
         <v>2.477629801329436</v>
       </c>
       <c r="B711" t="n">
-        <v>-135.5384026578585</v>
+        <v>-173.8858854297374</v>
       </c>
     </row>
     <row r="712">
@@ -6123,7 +6123,7 @@
         <v>2.481124342657123</v>
       </c>
       <c r="B712" t="n">
-        <v>-135.4118291192776</v>
+        <v>-166.4792677249204</v>
       </c>
     </row>
     <row r="713">
@@ -6131,7 +6131,7 @@
         <v>2.484618883984809</v>
       </c>
       <c r="B713" t="n">
-        <v>-135.3565285775501</v>
+        <v>-162.6835142275548</v>
       </c>
     </row>
     <row r="714">
@@ -6139,7 +6139,7 @@
         <v>2.488113425312495</v>
       </c>
       <c r="B714" t="n">
-        <v>-135.3668140049148</v>
+        <v>-160.3274999812449</v>
       </c>
     </row>
     <row r="715">
@@ -6147,7 +6147,7 @@
         <v>2.491607966640181</v>
       </c>
       <c r="B715" t="n">
-        <v>-135.4308787018967</v>
+        <v>-158.7801680625682</v>
       </c>
     </row>
     <row r="716">
@@ -6155,7 +6155,7 @@
         <v>2.495102507967867</v>
       </c>
       <c r="B716" t="n">
-        <v>-135.5311677413519</v>
+        <v>-157.7842275516881</v>
       </c>
     </row>
     <row r="717">
@@ -6163,7 +6163,7 @@
         <v>2.498597049295553</v>
       </c>
       <c r="B717" t="n">
-        <v>-135.6451534648862</v>
+        <v>-157.2159541458896</v>
       </c>
     </row>
     <row r="718">
@@ -6171,7 +6171,7 @@
         <v>2.502091590623239</v>
       </c>
       <c r="B718" t="n">
-        <v>-135.7471899446214</v>
+        <v>-157.0137649408783</v>
       </c>
     </row>
     <row r="719">
@@ -6179,7 +6179,7 @@
         <v>2.505586131950925</v>
       </c>
       <c r="B719" t="n">
-        <v>-135.8119376922056</v>
+        <v>-157.1525034188405</v>
       </c>
     </row>
     <row r="720">
@@ -6187,7 +6187,7 @@
         <v>2.509080673278612</v>
       </c>
       <c r="B720" t="n">
-        <v>-135.8191025151573</v>
+        <v>-157.6348406651436</v>
       </c>
     </row>
     <row r="721">
@@ -6195,7 +6195,7 @@
         <v>2.512575214606298</v>
       </c>
       <c r="B721" t="n">
-        <v>-135.7580946972184</v>
+        <v>-158.4925127426719</v>
       </c>
     </row>
     <row r="722">
@@ -6203,7 +6203,7 @@
         <v>2.516069755933983</v>
       </c>
       <c r="B722" t="n">
-        <v>-135.6305340993703</v>
+        <v>-159.7983724282838</v>
       </c>
     </row>
     <row r="723">
@@ -6211,7 +6211,7 @@
         <v>2.519564297261669</v>
       </c>
       <c r="B723" t="n">
-        <v>-135.4492840530465</v>
+        <v>-161.7001674109291</v>
       </c>
     </row>
     <row r="724">
@@ -6219,7 +6219,7 @@
         <v>2.523058838589356</v>
       </c>
       <c r="B724" t="n">
-        <v>-135.2345430317354</v>
+        <v>-164.5179423315963</v>
       </c>
     </row>
     <row r="725">
@@ -6227,7 +6227,7 @@
         <v>2.526553379917042</v>
       </c>
       <c r="B725" t="n">
-        <v>-135.0089319229866</v>
+        <v>-169.1043203780516</v>
       </c>
     </row>
     <row r="726">
@@ -6235,7 +6235,7 @@
         <v>2.530047921244728</v>
       </c>
       <c r="B726" t="n">
-        <v>-134.7934436414008</v>
+        <v>-178.7799339112871</v>
       </c>
     </row>
     <row r="727">
@@ -6243,7 +6243,7 @@
         <v>2.533542462572414</v>
       </c>
       <c r="B727" t="n">
-        <v>-134.605056059136</v>
+        <v>-174.5976624471128</v>
       </c>
     </row>
     <row r="728">
@@ -6251,7 +6251,7 @@
         <v>2.5370370039001</v>
       </c>
       <c r="B728" t="n">
-        <v>-134.455835645485</v>
+        <v>-167.4733034880387</v>
       </c>
     </row>
     <row r="729">
@@ -6259,7 +6259,7 @@
         <v>2.540531545227786</v>
       </c>
       <c r="B729" t="n">
-        <v>-134.3529648158079</v>
+        <v>-163.7558059817022</v>
       </c>
     </row>
     <row r="730">
@@ -6267,7 +6267,7 @@
         <v>2.544026086555472</v>
       </c>
       <c r="B730" t="n">
-        <v>-134.2991449516942</v>
+        <v>-161.4006673029281</v>
       </c>
     </row>
     <row r="731">
@@ -6275,7 +6275,7 @@
         <v>2.547520627883158</v>
       </c>
       <c r="B731" t="n">
-        <v>-134.2930568358552</v>
+        <v>-159.8088922209802</v>
       </c>
     </row>
     <row r="732">
@@ -6283,7 +6283,7 @@
         <v>2.551015169210844</v>
       </c>
       <c r="B732" t="n">
-        <v>-134.3297355403672</v>
+        <v>-158.7313842929796</v>
       </c>
     </row>
     <row r="733">
@@ -6291,7 +6291,7 @@
         <v>2.554509710538531</v>
       </c>
       <c r="B733" t="n">
-        <v>-134.4008825845281</v>
+        <v>-158.0446167599205</v>
       </c>
     </row>
     <row r="734">
@@ -6299,7 +6299,7 @@
         <v>2.558004251866217</v>
       </c>
       <c r="B734" t="n">
-        <v>-134.4952293679727</v>
+        <v>-157.6826574143655</v>
       </c>
     </row>
     <row r="735">
@@ -6307,7 +6307,7 @@
         <v>2.561498793193903</v>
       </c>
       <c r="B735" t="n">
-        <v>-134.5991344080542</v>
+        <v>-157.6115076411617</v>
       </c>
     </row>
     <row r="736">
@@ -6315,7 +6315,7 @@
         <v>2.564993334521589</v>
       </c>
       <c r="B736" t="n">
-        <v>-134.6976155467842</v>
+        <v>-157.8186834026282</v>
       </c>
     </row>
     <row r="737">
@@ -6323,7 +6323,7 @@
         <v>2.568487875849275</v>
       </c>
       <c r="B737" t="n">
-        <v>-134.7759076570167</v>
+        <v>-158.3099867823203</v>
       </c>
     </row>
     <row r="738">
@@ -6331,7 +6331,7 @@
         <v>2.571982417176961</v>
       </c>
       <c r="B738" t="n">
-        <v>-134.8214477041014</v>
+        <v>-159.1113257690178</v>
       </c>
     </row>
     <row r="739">
@@ -6339,7 +6339,7 @@
         <v>2.575476958504647</v>
       </c>
       <c r="B739" t="n">
-        <v>-134.8258734451722</v>
+        <v>-160.2768511842382</v>
       </c>
     </row>
     <row r="740">
@@ -6347,7 +6347,7 @@
         <v>2.578971499832333</v>
       </c>
       <c r="B740" t="n">
-        <v>-134.7864417143521</v>
+        <v>-161.9092327192711</v>
       </c>
     </row>
     <row r="741">
@@ -6355,7 +6355,7 @@
         <v>2.582466041160019</v>
       </c>
       <c r="B741" t="n">
-        <v>-134.7063420359542</v>
+        <v>-164.2118991439282</v>
       </c>
     </row>
     <row r="742">
@@ -6363,7 +6363,7 @@
         <v>2.585960582487705</v>
       </c>
       <c r="B742" t="n">
-        <v>-134.5937949103505</v>
+        <v>-167.6501187123034</v>
       </c>
     </row>
     <row r="743">
@@ -6371,7 +6371,7 @@
         <v>2.589455123815391</v>
       </c>
       <c r="B743" t="n">
-        <v>-134.4602853156903</v>
+        <v>-173.6599693329841</v>
       </c>
     </row>
     <row r="744">
@@ -6379,7 +6379,7 @@
         <v>2.592949665143077</v>
       </c>
       <c r="B744" t="n">
-        <v>-134.3185435556941</v>
+        <v>-184.1893862810803</v>
       </c>
     </row>
     <row r="745">
@@ -6387,7 +6387,7 @@
         <v>2.596444206470764</v>
       </c>
       <c r="B745" t="n">
-        <v>-134.1808133057291</v>
+        <v>-172.6513796472684</v>
       </c>
     </row>
     <row r="746">
@@ -6395,7 +6395,7 @@
         <v>2.59993874779845</v>
       </c>
       <c r="B746" t="n">
-        <v>-134.0576722885883</v>
+        <v>-167.3328593179334</v>
       </c>
     </row>
     <row r="747">
@@ -6403,7 +6403,7 @@
         <v>2.603433289126136</v>
       </c>
       <c r="B747" t="n">
-        <v>-133.9574194808834</v>
+        <v>-164.2333298808417</v>
       </c>
     </row>
     <row r="748">
@@ -6411,7 +6411,7 @@
         <v>2.606927830453822</v>
       </c>
       <c r="B748" t="n">
-        <v>-133.8858796084703</v>
+        <v>-162.1614614727949</v>
       </c>
     </row>
     <row r="749">
@@ -6419,7 +6419,7 @@
         <v>2.610422371781508</v>
       </c>
       <c r="B749" t="n">
-        <v>-133.8464618434025</v>
+        <v>-160.7054057614636</v>
       </c>
     </row>
     <row r="750">
@@ -6427,7 +6427,7 @@
         <v>2.613916913109194</v>
       </c>
       <c r="B750" t="n">
-        <v>-133.8403272683529</v>
+        <v>-159.6769153655521</v>
       </c>
     </row>
     <row r="751">
@@ -6435,7 +6435,7 @@
         <v>2.61741145443688</v>
       </c>
       <c r="B751" t="n">
-        <v>-133.8665825849933</v>
+        <v>-158.9762833825259</v>
       </c>
     </row>
     <row r="752">
@@ -6443,7 +6443,7 @@
         <v>2.620905995764566</v>
       </c>
       <c r="B752" t="n">
-        <v>-133.922462967151</v>
+        <v>-158.5465691396134</v>
       </c>
     </row>
     <row r="753">
@@ -6451,7 +6451,7 @@
         <v>2.624400537092252</v>
       </c>
       <c r="B753" t="n">
-        <v>-134.003505715206</v>
+        <v>-158.3548646442578</v>
       </c>
     </row>
     <row r="754">
@@ -6459,7 +6459,7 @@
         <v>2.627895078419938</v>
       </c>
       <c r="B754" t="n">
-        <v>-134.1037431797185</v>
+        <v>-158.383828119956</v>
       </c>
     </row>
     <row r="755">
@@ -6467,7 +6467,7 @@
         <v>2.631389619747624</v>
       </c>
       <c r="B755" t="n">
-        <v>-134.215961227642</v>
+        <v>-158.6279328880829</v>
       </c>
     </row>
     <row r="756">
@@ -6475,7 +6475,7 @@
         <v>2.63488416107531</v>
       </c>
       <c r="B756" t="n">
-        <v>-134.3320736715114</v>
+        <v>-159.0924997646642</v>
       </c>
     </row>
     <row r="757">
@@ -6483,7 +6483,7 @@
         <v>2.638378702402997</v>
       </c>
       <c r="B757" t="n">
-        <v>-134.4436541221282</v>
+        <v>-159.7949535029717</v>
       </c>
     </row>
     <row r="758">
@@ -6491,7 +6491,7 @@
         <v>2.641873243730683</v>
       </c>
       <c r="B758" t="n">
-        <v>-134.5426149212489</v>
+        <v>-160.7690187574542</v>
       </c>
     </row>
     <row r="759">
@@ -6499,7 +6499,7 @@
         <v>2.645367785058369</v>
       </c>
       <c r="B759" t="n">
-        <v>-134.6219907890528</v>
+        <v>-162.0741114208516</v>
       </c>
     </row>
     <row r="760">
@@ -6507,7 +6507,7 @@
         <v>2.648862326386055</v>
       </c>
       <c r="B760" t="n">
-        <v>-134.6766951053518</v>
+        <v>-163.8162191248515</v>
       </c>
     </row>
     <row r="761">
@@ -6515,7 +6515,7 @@
         <v>2.652356867713741</v>
       </c>
       <c r="B761" t="n">
-        <v>-134.7040986431383</v>
+        <v>-166.200122367946</v>
       </c>
     </row>
     <row r="762">
@@ -6523,7 +6523,7 @@
         <v>2.655851409041427</v>
       </c>
       <c r="B762" t="n">
-        <v>-134.7042844435475</v>
+        <v>-169.6891666738844</v>
       </c>
     </row>
     <row r="763">
@@ -6531,7 +6531,7 @@
         <v>2.659345950369113</v>
       </c>
       <c r="B763" t="n">
-        <v>-134.6799158577722</v>
+        <v>-175.7089077290162</v>
       </c>
     </row>
     <row r="764">
@@ -6539,7 +6539,7 @@
         <v>2.662840491696799</v>
       </c>
       <c r="B764" t="n">
-        <v>-134.635754068344</v>
+        <v>-186.7377070468767</v>
       </c>
     </row>
     <row r="765">
@@ -6547,7 +6547,7 @@
         <v>2.666335033024485</v>
       </c>
       <c r="B765" t="n">
-        <v>-134.5779568997613</v>
+        <v>-174.9283695602048</v>
       </c>
     </row>
     <row r="766">
@@ -6555,7 +6555,7 @@
         <v>2.669829574352172</v>
       </c>
       <c r="B766" t="n">
-        <v>-134.5133188230815</v>
+        <v>-169.5318298472269</v>
       </c>
     </row>
     <row r="767">
@@ -6563,7 +6563,7 @@
         <v>2.673324115679857</v>
       </c>
       <c r="B767" t="n">
-        <v>-134.4485933901576</v>
+        <v>-166.3725275767221</v>
       </c>
     </row>
     <row r="768">
@@ -6571,7 +6571,7 @@
         <v>2.676818657007543</v>
       </c>
       <c r="B768" t="n">
-        <v>-134.3899801307946</v>
+        <v>-164.2288865100782</v>
       </c>
     </row>
     <row r="769">
@@ -6579,7 +6579,7 @@
         <v>2.68031319833523</v>
       </c>
       <c r="B769" t="n">
-        <v>-134.3427915238195</v>
+        <v>-162.6815653664355</v>
       </c>
     </row>
     <row r="770">
@@ -6587,7 +6587,7 @@
         <v>2.683807739662916</v>
       </c>
       <c r="B770" t="n">
-        <v>-134.3112826045149</v>
+        <v>-161.5383343356885</v>
       </c>
     </row>
     <row r="771">
@@ -6595,7 +6595,7 @@
         <v>2.687302280990602</v>
       </c>
       <c r="B771" t="n">
-        <v>-134.298600194209</v>
+        <v>-160.6959140755693</v>
       </c>
     </row>
     <row r="772">
@@ -6603,7 +6603,7 @@
         <v>2.690796822318288</v>
       </c>
       <c r="B772" t="n">
-        <v>-134.3068086557805</v>
+        <v>-160.0932593882007</v>
       </c>
     </row>
     <row r="773">
@@ -6611,7 +6611,7 @@
         <v>2.694291363645974</v>
       </c>
       <c r="B773" t="n">
-        <v>-134.3369537308893</v>
+        <v>-159.6922253602149</v>
       </c>
     </row>
     <row r="774">
@@ -6619,7 +6619,7 @@
         <v>2.69778590497366</v>
       </c>
       <c r="B774" t="n">
-        <v>-134.3891457115753</v>
+        <v>-159.468469514564</v>
       </c>
     </row>
     <row r="775">
@@ -6627,7 +6627,7 @@
         <v>2.701280446301346</v>
       </c>
       <c r="B775" t="n">
-        <v>-134.4626414355716</v>
+        <v>-159.4068059261831</v>
       </c>
     </row>
     <row r="776">
@@ -6635,7 +6635,7 @@
         <v>2.704774987629032</v>
       </c>
       <c r="B776" t="n">
-        <v>-134.5559256245098</v>
+        <v>-159.4987765733893</v>
       </c>
     </row>
     <row r="777">
@@ -6643,7 +6643,7 @@
         <v>2.708269528956718</v>
       </c>
       <c r="B777" t="n">
-        <v>-134.6667883524937</v>
+        <v>-159.7414509558105</v>
       </c>
     </row>
     <row r="778">
@@ -6651,7 +6651,7 @@
         <v>2.711764070284405</v>
       </c>
       <c r="B778" t="n">
-        <v>-134.7924095630699</v>
+        <v>-160.1371080736598</v>
       </c>
     </row>
     <row r="779">
@@ -6659,7 +6659,7 @@
         <v>2.715258611612091</v>
       </c>
       <c r="B779" t="n">
-        <v>-134.929456485269</v>
+        <v>-160.6936425444103</v>
       </c>
     </row>
     <row r="780">
@@ -6667,7 +6667,7 @@
         <v>2.718753152939777</v>
       </c>
       <c r="B780" t="n">
-        <v>-135.074201933975</v>
+        <v>-161.425849975518</v>
       </c>
     </row>
     <row r="781">
@@ -6675,7 +6675,7 @@
         <v>2.722247694267463</v>
       </c>
       <c r="B781" t="n">
-        <v>-135.2226776116763</v>
+        <v>-162.3580405440722</v>
       </c>
     </row>
     <row r="782">
@@ -6683,7 +6683,7 @@
         <v>2.725742235595149</v>
       </c>
       <c r="B782" t="n">
-        <v>-135.3708620872995</v>
+        <v>-163.5290075278514</v>
       </c>
     </row>
     <row r="783">
@@ -6691,7 +6691,7 @@
         <v>2.729236776922835</v>
       </c>
       <c r="B783" t="n">
-        <v>-135.5149016438554</v>
+        <v>-165.0018843761721</v>
       </c>
     </row>
     <row r="784">
@@ -6699,7 +6699,7 @@
         <v>2.732731318250521</v>
       </c>
       <c r="B784" t="n">
-        <v>-135.6513523381362</v>
+        <v>-166.8852387860142</v>
       </c>
     </row>
     <row r="785">
@@ -6707,7 +6707,7 @@
         <v>2.736225859578207</v>
       </c>
       <c r="B785" t="n">
-        <v>-135.7774253260065</v>
+        <v>-169.3850357010645</v>
       </c>
     </row>
     <row r="786">
@@ -6715,7 +6715,7 @@
         <v>2.739720400905893</v>
       </c>
       <c r="B786" t="n">
-        <v>-135.8912030215542</v>
+        <v>-172.962409295436</v>
       </c>
     </row>
     <row r="787">
@@ -6723,7 +6723,7 @@
         <v>2.743214942233579</v>
       </c>
       <c r="B787" t="n">
-        <v>-135.9918049163523</v>
+        <v>-179.0194536039657</v>
       </c>
     </row>
     <row r="788">
@@ -6731,7 +6731,7 @@
         <v>2.746709483561265</v>
       </c>
       <c r="B788" t="n">
-        <v>-136.0794740082162</v>
+        <v>-189.8564693312178</v>
       </c>
     </row>
     <row r="789">
@@ -6739,7 +6739,7 @@
         <v>2.750204024888951</v>
       </c>
       <c r="B789" t="n">
-        <v>-136.1555852398371</v>
+        <v>-178.4331389787288</v>
       </c>
     </row>
     <row r="790">
@@ -6747,7 +6747,7 @@
         <v>2.753698566216638</v>
       </c>
       <c r="B790" t="n">
-        <v>-136.2225785803463</v>
+        <v>-173.0638451377367</v>
       </c>
     </row>
     <row r="791">
@@ -6755,7 +6755,7 @@
         <v>2.757193107544324</v>
       </c>
       <c r="B791" t="n">
-        <v>-136.2838490482442</v>
+        <v>-169.9139179161383</v>
       </c>
     </row>
     <row r="792">
@@ -6763,7 +6763,7 @@
         <v>2.76068764887201</v>
       </c>
       <c r="B792" t="n">
-        <v>-136.3436350656244</v>
+        <v>-167.7660454839439</v>
       </c>
     </row>
     <row r="793">
@@ -6771,7 +6771,7 @@
         <v>2.764182190199696</v>
       </c>
       <c r="B793" t="n">
-        <v>-136.4069572872168</v>
+        <v>-166.2017335439814</v>
       </c>
     </row>
     <row r="794">
@@ -6779,7 +6779,7 @@
         <v>2.767676731527382</v>
       </c>
       <c r="B794" t="n">
-        <v>-136.4796863978186</v>
+        <v>-165.0300787619853</v>
       </c>
     </row>
     <row r="795">
@@ -6787,7 +6787,7 @@
         <v>2.771171272855068</v>
       </c>
       <c r="B795" t="n">
-        <v>-136.5688526126644</v>
+        <v>-164.1501091542121</v>
       </c>
     </row>
     <row r="796">
@@ -6795,7 +6795,7 @@
         <v>2.774665814182754</v>
       </c>
       <c r="B796" t="n">
-        <v>-136.6834304164218</v>
+        <v>-163.5048383930613</v>
       </c>
     </row>
     <row r="797">
@@ -6803,7 +6803,7 @@
         <v>2.77816035551044</v>
       </c>
       <c r="B797" t="n">
-        <v>-136.8361718247206</v>
+        <v>-163.0637467955186</v>
       </c>
     </row>
     <row r="798">
@@ -6811,7 +6811,7 @@
         <v>2.781654896838126</v>
       </c>
       <c r="B798" t="n">
-        <v>-137.0482034802712</v>
+        <v>-162.818157152349</v>
       </c>
     </row>
     <row r="799">
@@ -6819,7 +6819,7 @@
         <v>2.785149438165812</v>
       </c>
       <c r="B799" t="n">
-        <v>-137.3629362559658</v>
+        <v>-162.7902884492675</v>
       </c>
     </row>
     <row r="800">
@@ -6827,7 +6827,7 @@
         <v>2.788643979493498</v>
       </c>
       <c r="B800" t="n">
-        <v>-137.907640679908</v>
+        <v>-163.0920789812854</v>
       </c>
     </row>
     <row r="801">
@@ -6835,7 +6835,7 @@
         <v>2.792138520821184</v>
       </c>
       <c r="B801" t="n">
-        <v>-139.9057844943937</v>
+        <v>-164.9360005001873</v>
       </c>
     </row>
     <row r="802">
